--- a/Management/Effort and Velocity.xlsx
+++ b/Management/Effort and Velocity.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="295"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="295" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
     <sheet name="Sp1" sheetId="3" r:id="rId2"/>
     <sheet name="Sp2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sp3" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -143,6 +147,15 @@
   <si>
     <t>Week 4</t>
   </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -765,11 +778,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -927,9 +970,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,9 +983,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1036,7 +1073,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,30 +1130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,25 +1142,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,15 +1187,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1526,13 +1613,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75844992"/>
-        <c:axId val="85931136"/>
+        <c:axId val="273211128"/>
+        <c:axId val="273206424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75844992"/>
+        <c:axId val="273211128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,14 +1628,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85931136"/>
+        <c:crossAx val="273206424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85931136"/>
+        <c:axId val="273206424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75844992"/>
+        <c:crossAx val="273211128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,13 +1917,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85999616"/>
-        <c:axId val="86001152"/>
+        <c:axId val="335893024"/>
+        <c:axId val="335892632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85999616"/>
+        <c:axId val="335893024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,14 +1932,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86001152"/>
+        <c:crossAx val="335892632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86001152"/>
+        <c:axId val="335892632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85999616"/>
+        <c:crossAx val="335893024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2136,13 +2221,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86010112"/>
-        <c:axId val="86020096"/>
+        <c:axId val="335893808"/>
+        <c:axId val="335894200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86010112"/>
+        <c:axId val="335893808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,14 +2236,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86020096"/>
+        <c:crossAx val="335894200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86020096"/>
+        <c:axId val="335894200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86010112"/>
+        <c:crossAx val="335893808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2444,13 +2528,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86053632"/>
-        <c:axId val="86055168"/>
+        <c:axId val="336474840"/>
+        <c:axId val="336473664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86053632"/>
+        <c:axId val="336474840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,14 +2543,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86055168"/>
+        <c:crossAx val="336473664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86055168"/>
+        <c:axId val="336473664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +2561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86053632"/>
+        <c:crossAx val="336474840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2713,13 +2796,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86101376"/>
-        <c:axId val="86107264"/>
+        <c:axId val="336475624"/>
+        <c:axId val="336477192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86101376"/>
+        <c:axId val="336475624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,14 +2811,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86107264"/>
+        <c:crossAx val="336477192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86107264"/>
+        <c:axId val="336477192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86101376"/>
+        <c:crossAx val="336475624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2982,13 +3064,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86345600"/>
-        <c:axId val="86347136"/>
+        <c:axId val="336477584"/>
+        <c:axId val="336473272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86345600"/>
+        <c:axId val="336477584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,14 +3079,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86347136"/>
+        <c:crossAx val="336473272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86347136"/>
+        <c:axId val="336473272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,7 +3097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86345600"/>
+        <c:crossAx val="336477584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3251,13 +3332,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88621440"/>
-        <c:axId val="88622976"/>
+        <c:axId val="336476016"/>
+        <c:axId val="336478368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88621440"/>
+        <c:axId val="336476016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,14 +3347,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88622976"/>
+        <c:crossAx val="336478368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88622976"/>
+        <c:axId val="336478368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,7 +3365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88621440"/>
+        <c:crossAx val="336476016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3520,13 +3600,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88660608"/>
-        <c:axId val="88662400"/>
+        <c:axId val="336474056"/>
+        <c:axId val="336477976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88660608"/>
+        <c:axId val="336474056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,14 +3615,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88662400"/>
+        <c:crossAx val="336477976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88662400"/>
+        <c:axId val="336477976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,7 +3633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88660608"/>
+        <c:crossAx val="336474056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3938,13 +4017,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69957888"/>
-        <c:axId val="69959680"/>
+        <c:axId val="273209560"/>
+        <c:axId val="273204856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69957888"/>
+        <c:axId val="273209560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,14 +4032,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69959680"/>
+        <c:crossAx val="273204856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69959680"/>
+        <c:axId val="273204856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,7 +4050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69957888"/>
+        <c:crossAx val="273209560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4356,13 +4434,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85721856"/>
-        <c:axId val="85723392"/>
+        <c:axId val="273206032"/>
+        <c:axId val="273204072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85721856"/>
+        <c:axId val="273206032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4372,14 +4449,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85723392"/>
+        <c:crossAx val="273204072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85723392"/>
+        <c:axId val="273204072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,7 +4467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85721856"/>
+        <c:crossAx val="273206032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4774,13 +4851,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85736448"/>
-        <c:axId val="85742336"/>
+        <c:axId val="273208384"/>
+        <c:axId val="139700592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85736448"/>
+        <c:axId val="273208384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,14 +4866,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85742336"/>
+        <c:crossAx val="139700592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85742336"/>
+        <c:axId val="139700592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4808,7 +4884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85736448"/>
+        <c:crossAx val="273208384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4988,13 +5064,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85753856"/>
-        <c:axId val="85755392"/>
+        <c:axId val="335891848"/>
+        <c:axId val="335886752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85753856"/>
+        <c:axId val="335891848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5004,7 +5079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85755392"/>
+        <c:crossAx val="335886752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5012,7 +5087,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85755392"/>
+        <c:axId val="335886752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,7 +5098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85753856"/>
+        <c:crossAx val="335891848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5203,13 +5278,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85772928"/>
-        <c:axId val="85778816"/>
+        <c:axId val="335888712"/>
+        <c:axId val="335890672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85772928"/>
+        <c:axId val="335888712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5219,7 +5293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85778816"/>
+        <c:crossAx val="335890672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5227,7 +5301,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85778816"/>
+        <c:axId val="335890672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5238,7 +5312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85772928"/>
+        <c:crossAx val="335888712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5418,13 +5492,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85857408"/>
-        <c:axId val="85858944"/>
+        <c:axId val="335889496"/>
+        <c:axId val="335889888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85857408"/>
+        <c:axId val="335889496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5434,7 +5507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85858944"/>
+        <c:crossAx val="335889888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5442,7 +5515,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85858944"/>
+        <c:axId val="335889888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5453,7 +5526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85857408"/>
+        <c:crossAx val="335889496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5633,13 +5706,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85876096"/>
-        <c:axId val="85894272"/>
+        <c:axId val="335887536"/>
+        <c:axId val="335887928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85876096"/>
+        <c:axId val="335887536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5649,7 +5721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85894272"/>
+        <c:crossAx val="335887928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5657,7 +5729,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85894272"/>
+        <c:axId val="335887928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5668,7 +5740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85876096"/>
+        <c:crossAx val="335887536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5939,13 +6011,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85960576"/>
-        <c:axId val="85962112"/>
+        <c:axId val="335891064"/>
+        <c:axId val="335891456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85960576"/>
+        <c:axId val="335891064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5955,14 +6026,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85962112"/>
+        <c:crossAx val="335891456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85962112"/>
+        <c:axId val="335891456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5973,7 +6044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85960576"/>
+        <c:crossAx val="335891064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6561,7 +6632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6596,7 +6667,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6805,10 +6876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X36"/>
+  <dimension ref="B2:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6816,65 +6887,91 @@
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D2" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="106" t="s">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D2" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="108"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="104"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D3" s="112" t="s">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="D3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="106" t="s">
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="106" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="106" t="s">
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="108"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="104"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <v>41939</v>
       </c>
@@ -6938,8 +7035,38 @@
       <c r="X4" s="1">
         <v>41983</v>
       </c>
+      <c r="Y4" s="1">
+        <v>42023</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>42024</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>42025</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>42026</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>42027</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>42030</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>42031</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>42032</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>42033</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>42034</v>
+      </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D5" s="4">
         <v>1</v>
       </c>
@@ -7003,9 +7130,39 @@
       <c r="X5" s="4">
         <v>21</v>
       </c>
+      <c r="Y5" s="3">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>26</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="114" t="s">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="110" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -7083,9 +7240,19 @@
         <f>'Sp2'!L26</f>
         <v>0</v>
       </c>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="80"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="115"/>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="111"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -7161,9 +7328,19 @@
         <f>'Sp2'!L27</f>
         <v>0</v>
       </c>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="66"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="115"/>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="111"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
@@ -7239,9 +7416,39 @@
         <f>'Sp2'!L28</f>
         <v>0</v>
       </c>
+      <c r="Y8" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="63">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="63">
+        <v>4.75</v>
+      </c>
+      <c r="AF8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="63">
+        <v>2.75</v>
+      </c>
+      <c r="AH8" s="66">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="116"/>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="112"/>
       <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
@@ -7281,44 +7488,84 @@
       <c r="O9" s="74">
         <v>0</v>
       </c>
-      <c r="P9" s="81">
+      <c r="P9" s="72">
         <f>'Sp2'!D25</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="82">
+      <c r="Q9" s="73">
         <f>'Sp2'!E25</f>
         <v>4</v>
       </c>
-      <c r="R9" s="82">
+      <c r="R9" s="73">
         <f>'Sp2'!F25</f>
         <v>0</v>
       </c>
-      <c r="S9" s="82">
+      <c r="S9" s="73">
         <f>'Sp2'!G25</f>
         <v>0</v>
       </c>
-      <c r="T9" s="82">
+      <c r="T9" s="73">
         <f>'Sp2'!H25</f>
         <v>10</v>
       </c>
-      <c r="U9" s="82">
+      <c r="U9" s="73">
         <f>'Sp2'!I25</f>
         <v>18</v>
       </c>
-      <c r="V9" s="82">
+      <c r="V9" s="73">
         <f>'Sp2'!J25</f>
         <v>0</v>
       </c>
-      <c r="W9" s="82">
+      <c r="W9" s="73">
         <f>'Sp2'!K25</f>
         <v>0</v>
       </c>
-      <c r="X9" s="83">
+      <c r="X9" s="74">
         <f>'Sp2'!L25</f>
         <v>0</v>
       </c>
+      <c r="Y9" s="72">
+        <f>SUM(Y6:Y8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="72">
+        <f t="shared" ref="Z9:AH9" si="0">SUM(Z6:Z8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="72">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB9" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="72">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="AF9" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="72">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="AH9" s="72">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="D10" s="67"/>
       <c r="E10" s="57"/>
@@ -7342,8 +7589,8 @@
       <c r="W10" s="57"/>
       <c r="X10" s="68"/>
     </row>
-    <row r="11" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+    <row r="11" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="110" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -7428,13 +7675,23 @@
         <f>AVERAGE($D$6:W6)</f>
         <v>0.78749999999999998</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="33">
         <f>AVERAGE($D$6:X6)</f>
         <v>0.75</v>
       </c>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="82"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="115"/>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="111"/>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
@@ -7517,13 +7774,23 @@
         <f>AVERAGE($D$7:W7)</f>
         <v>1.5</v>
       </c>
-      <c r="X12" s="39">
+      <c r="X12" s="38">
         <f>AVERAGE($D$7:X7)</f>
         <v>1.4285714285714286</v>
       </c>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="68"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="111"/>
       <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
@@ -7606,101 +7873,181 @@
         <f>AVERAGE($D$8:W8)</f>
         <v>0.1</v>
       </c>
-      <c r="X13" s="39">
+      <c r="X13" s="38">
         <f>AVERAGE($D$8:X8)</f>
         <v>9.5238095238095233E-2</v>
       </c>
+      <c r="Y13" s="169">
+        <f>AVERAGE(D8:Y8)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Z13" s="38">
+        <f t="shared" ref="Z13:AH13" si="1">AVERAGE(E8:Z8)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AA13" s="38">
+        <f t="shared" si="1"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="AB13" s="38">
+        <f t="shared" si="1"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="AC13" s="38">
+        <f t="shared" si="1"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="AD13" s="38">
+        <f t="shared" si="1"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="AE13" s="38">
+        <f t="shared" si="1"/>
+        <v>0.35227272727272729</v>
+      </c>
+      <c r="AF13" s="38">
+        <f t="shared" si="1"/>
+        <v>0.28409090909090912</v>
+      </c>
+      <c r="AG13" s="38">
+        <f t="shared" si="1"/>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="AH13" s="39">
+        <f t="shared" si="1"/>
+        <v>0.40909090909090912</v>
+      </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="116"/>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="112"/>
       <c r="C14" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="83">
         <v>0.75</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="86">
         <f>AVERAGE($D$9:E9)</f>
         <v>0.375</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="86">
         <f>AVERAGE($D$9:F9)</f>
         <v>0.25</v>
       </c>
-      <c r="G14" s="89">
+      <c r="G14" s="86">
         <f>AVERAGE($D$9:G9)</f>
         <v>0.1875</v>
       </c>
-      <c r="H14" s="89">
+      <c r="H14" s="86">
         <f>AVERAGE($D$9:H9)</f>
         <v>0.15</v>
       </c>
-      <c r="I14" s="89">
+      <c r="I14" s="86">
         <f>AVERAGE($D$9:I9)</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J14" s="86">
         <f>AVERAGE($D$9:J9)</f>
         <v>1.4642857142857142</v>
       </c>
-      <c r="K14" s="89">
+      <c r="K14" s="86">
         <f>AVERAGE($D$9:K9)</f>
         <v>1.96875</v>
       </c>
-      <c r="L14" s="89">
+      <c r="L14" s="86">
         <f>AVERAGE($D$9:L9)</f>
         <v>1.75</v>
       </c>
-      <c r="M14" s="89">
+      <c r="M14" s="86">
         <f>AVERAGE($D$9:M9)</f>
         <v>1.575</v>
       </c>
-      <c r="N14" s="89">
+      <c r="N14" s="86">
         <f>AVERAGE($D$9:N9)</f>
         <v>1.4318181818181819</v>
       </c>
-      <c r="O14" s="90">
+      <c r="O14" s="87">
         <f>AVERAGE($D$9:O9)</f>
         <v>1.3125</v>
       </c>
-      <c r="P14" s="89">
+      <c r="P14" s="86">
         <f>AVERAGE($D$9:P9)</f>
         <v>1.2115384615384615</v>
       </c>
-      <c r="Q14" s="89">
+      <c r="Q14" s="86">
         <f>AVERAGE($D$9:Q9)</f>
         <v>1.4107142857142858</v>
       </c>
-      <c r="R14" s="89">
+      <c r="R14" s="86">
         <f>AVERAGE($D$9:R9)</f>
         <v>1.3166666666666667</v>
       </c>
-      <c r="S14" s="89">
+      <c r="S14" s="86">
         <f>AVERAGE($D$9:S9)</f>
         <v>1.234375</v>
       </c>
-      <c r="T14" s="89">
+      <c r="T14" s="86">
         <f>AVERAGE($D$9:T9)</f>
         <v>1.75</v>
       </c>
-      <c r="U14" s="89">
+      <c r="U14" s="86">
         <f>AVERAGE($D$9:U9)</f>
         <v>2.6527777777777777</v>
       </c>
-      <c r="V14" s="89">
+      <c r="V14" s="86">
         <f>AVERAGE($D$9:V9)</f>
         <v>2.513157894736842</v>
       </c>
-      <c r="W14" s="89">
+      <c r="W14" s="86">
         <f>AVERAGE($D$9:W9)</f>
         <v>2.3875000000000002</v>
       </c>
-      <c r="X14" s="90">
+      <c r="X14" s="86">
         <f>AVERAGE($D$9:X9)</f>
         <v>2.2738095238095237</v>
       </c>
+      <c r="Y14" s="170">
+        <f>AVERAGE(D9:Y9)</f>
+        <v>2.1704545454545454</v>
+      </c>
+      <c r="Z14" s="86">
+        <f t="shared" ref="Z14:AH14" si="2">AVERAGE(E9:Z9)</f>
+        <v>2.1363636363636362</v>
+      </c>
+      <c r="AA14" s="86">
+        <f t="shared" si="2"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AB14" s="86">
+        <f t="shared" si="2"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AC14" s="86">
+        <f t="shared" si="2"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AD14" s="86">
+        <f t="shared" si="2"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AE14" s="86">
+        <f t="shared" si="2"/>
+        <v>2.3068181818181817</v>
+      </c>
+      <c r="AF14" s="86">
+        <f t="shared" si="2"/>
+        <v>1.9659090909090908</v>
+      </c>
+      <c r="AG14" s="86">
+        <f t="shared" si="2"/>
+        <v>1.8409090909090908</v>
+      </c>
+      <c r="AH14" s="87">
+        <f t="shared" si="2"/>
+        <v>1.8636363636363635</v>
+      </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="D15" s="67"/>
       <c r="E15" s="57"/>
@@ -7724,680 +8071,854 @@
       <c r="W15" s="57"/>
       <c r="X15" s="68"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="109" t="s">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="84" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="58">
         <f>D6</f>
         <v>0.75</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="81">
         <f>D16+E6</f>
         <v>0.75</v>
       </c>
-      <c r="F16" s="84">
-        <f t="shared" ref="F16:P16" si="0">E16+F6</f>
+      <c r="F16" s="81">
+        <f t="shared" ref="F16:P16" si="3">E16+F6</f>
         <v>0.75</v>
       </c>
-      <c r="G16" s="84">
-        <f t="shared" si="0"/>
+      <c r="G16" s="81">
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="H16" s="84">
-        <f t="shared" si="0"/>
+      <c r="H16" s="81">
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="I16" s="84">
-        <f t="shared" si="0"/>
+      <c r="I16" s="81">
+        <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
-      <c r="J16" s="84">
-        <f t="shared" si="0"/>
+      <c r="J16" s="81">
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
-      <c r="K16" s="84">
-        <f t="shared" si="0"/>
+      <c r="K16" s="81">
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
-      <c r="L16" s="84">
-        <f t="shared" si="0"/>
+      <c r="L16" s="81">
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
-      <c r="M16" s="84">
-        <f t="shared" si="0"/>
+      <c r="M16" s="81">
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
-      <c r="N16" s="84">
-        <f t="shared" si="0"/>
+      <c r="N16" s="81">
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
-      <c r="O16" s="85">
-        <f t="shared" si="0"/>
+      <c r="O16" s="81">
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
-      <c r="P16" s="85">
-        <f t="shared" si="0"/>
+      <c r="P16" s="58">
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
-      <c r="Q16" s="85">
-        <f t="shared" ref="Q16:Q19" si="1">P16+Q6</f>
+      <c r="Q16" s="81">
+        <f t="shared" ref="Q16:Q19" si="4">P16+Q6</f>
         <v>6.75</v>
       </c>
-      <c r="R16" s="85">
-        <f t="shared" ref="R16:R19" si="2">Q16+R6</f>
+      <c r="R16" s="81">
+        <f t="shared" ref="R16:R19" si="5">Q16+R6</f>
         <v>6.75</v>
       </c>
-      <c r="S16" s="85">
-        <f t="shared" ref="S16:S19" si="3">R16+S6</f>
+      <c r="S16" s="81">
+        <f t="shared" ref="S16:S19" si="6">R16+S6</f>
         <v>6.75</v>
       </c>
-      <c r="T16" s="85">
-        <f t="shared" ref="T16:T19" si="4">S16+T6</f>
+      <c r="T16" s="81">
+        <f t="shared" ref="T16:T19" si="7">S16+T6</f>
         <v>12.75</v>
       </c>
-      <c r="U16" s="85">
-        <f t="shared" ref="U16:U19" si="5">T16+U6</f>
+      <c r="U16" s="81">
+        <f t="shared" ref="U16:U19" si="8">T16+U6</f>
         <v>15.75</v>
       </c>
-      <c r="V16" s="85">
-        <f t="shared" ref="V16:V19" si="6">U16+V6</f>
+      <c r="V16" s="81">
+        <f t="shared" ref="V16:V19" si="9">U16+V6</f>
         <v>15.75</v>
       </c>
-      <c r="W16" s="85">
-        <f t="shared" ref="W16:W19" si="7">V16+W6</f>
+      <c r="W16" s="81">
+        <f t="shared" ref="W16:W19" si="10">V16+W6</f>
         <v>15.75</v>
       </c>
-      <c r="X16" s="85">
-        <f t="shared" ref="X16:X19" si="8">W16+X6</f>
+      <c r="X16" s="81">
+        <f t="shared" ref="X16:X19" si="11">W16+X6</f>
         <v>15.75</v>
       </c>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="82"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="110"/>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="106"/>
       <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="67">
-        <f t="shared" ref="D17:D19" si="9">D7</f>
+        <f t="shared" ref="D17:D19" si="12">D7</f>
         <v>0</v>
       </c>
       <c r="E17" s="57">
-        <f t="shared" ref="E17:P19" si="10">D17+E7</f>
+        <f t="shared" ref="E17:P19" si="13">D17+E7</f>
         <v>0</v>
       </c>
       <c r="F17" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="57">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L17" s="57">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="M17" s="57">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="N17" s="57">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="O17" s="57">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="P17" s="67">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="Q17" s="57">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="R17" s="57">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="S17" s="57">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="T17" s="57">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="U17" s="57">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="V17" s="57">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="W17" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="57">
+        <v>30</v>
+      </c>
+      <c r="X17" s="57">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="68"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="106"/>
+      <c r="C18" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="57">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="O18" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="P18" s="67">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="57">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R18" s="57">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S18" s="57">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="T18" s="57">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U18" s="57">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="V18" s="57">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W18" s="57">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="K17" s="57">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="L17" s="57">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="M17" s="57">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="N17" s="57">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="O17" s="68">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="P17" s="68">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="Q17" s="68">
-        <f t="shared" si="1"/>
+      <c r="X18" s="57">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y18" s="67">
+        <f>SUM(Y8,X18)</f>
+        <v>2</v>
+      </c>
+      <c r="Z18" s="57">
+        <f t="shared" ref="Z18:AH18" si="14">SUM(Z8,Y18)</f>
+        <v>2</v>
+      </c>
+      <c r="AA18" s="57">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AB18" s="57">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AC18" s="57">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AD18" s="57">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AE18" s="57">
+        <f t="shared" si="14"/>
+        <v>7.75</v>
+      </c>
+      <c r="AF18" s="57">
+        <f t="shared" si="14"/>
+        <v>7.75</v>
+      </c>
+      <c r="AG18" s="57">
+        <f t="shared" si="14"/>
+        <v>10.5</v>
+      </c>
+      <c r="AH18" s="68">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="R17" s="68">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="S17" s="68">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="T17" s="68">
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="107"/>
+      <c r="C19" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="72">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="73">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="73">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="73">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="73">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="73">
+        <f t="shared" si="13"/>
+        <v>2.75</v>
+      </c>
+      <c r="J19" s="73">
+        <f t="shared" si="13"/>
+        <v>10.25</v>
+      </c>
+      <c r="K19" s="73">
+        <f t="shared" si="13"/>
+        <v>15.75</v>
+      </c>
+      <c r="L19" s="73">
+        <f t="shared" si="13"/>
+        <v>15.75</v>
+      </c>
+      <c r="M19" s="73">
+        <f t="shared" si="13"/>
+        <v>15.75</v>
+      </c>
+      <c r="N19" s="73">
+        <f t="shared" si="13"/>
+        <v>15.75</v>
+      </c>
+      <c r="O19" s="73">
+        <f t="shared" si="13"/>
+        <v>15.75</v>
+      </c>
+      <c r="P19" s="72">
+        <f t="shared" si="13"/>
+        <v>15.75</v>
+      </c>
+      <c r="Q19" s="73">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="U17" s="68">
+        <v>19.75</v>
+      </c>
+      <c r="R19" s="73">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="V17" s="68">
+        <v>19.75</v>
+      </c>
+      <c r="S19" s="73">
         <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="W17" s="68">
+        <v>19.75</v>
+      </c>
+      <c r="T19" s="73">
         <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="X17" s="68">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="110"/>
-      <c r="C18" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="67">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="57">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-      <c r="K18" s="57">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="L18" s="57">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="M18" s="57">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="57">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="O18" s="68">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="P18" s="68">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Q18" s="68">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R18" s="68">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="S18" s="68">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T18" s="68">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="U18" s="68">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="V18" s="68">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="W18" s="68">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="X18" s="68">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="111"/>
-      <c r="C19" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="72">
-        <f t="shared" si="9"/>
-        <v>0.75</v>
-      </c>
-      <c r="E19" s="73">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="F19" s="73">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="G19" s="73">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="H19" s="73">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="I19" s="73">
-        <f t="shared" si="10"/>
-        <v>2.75</v>
-      </c>
-      <c r="J19" s="73">
-        <f t="shared" si="10"/>
-        <v>10.25</v>
-      </c>
-      <c r="K19" s="73">
-        <f t="shared" si="10"/>
-        <v>15.75</v>
-      </c>
-      <c r="L19" s="73">
-        <f t="shared" si="10"/>
-        <v>15.75</v>
-      </c>
-      <c r="M19" s="73">
-        <f t="shared" si="10"/>
-        <v>15.75</v>
-      </c>
-      <c r="N19" s="73">
-        <f t="shared" si="10"/>
-        <v>15.75</v>
-      </c>
-      <c r="O19" s="74">
-        <f t="shared" si="10"/>
-        <v>15.75</v>
-      </c>
-      <c r="P19" s="74">
-        <f t="shared" si="10"/>
-        <v>15.75</v>
-      </c>
-      <c r="Q19" s="74">
-        <f t="shared" si="1"/>
-        <v>19.75</v>
-      </c>
-      <c r="R19" s="74">
-        <f t="shared" si="2"/>
-        <v>19.75</v>
-      </c>
-      <c r="S19" s="74">
-        <f t="shared" si="3"/>
-        <v>19.75</v>
-      </c>
-      <c r="T19" s="74">
-        <f t="shared" si="4"/>
         <v>29.75</v>
       </c>
-      <c r="U19" s="74">
-        <f t="shared" si="5"/>
-        <v>47.75</v>
-      </c>
-      <c r="V19" s="74">
-        <f t="shared" si="6"/>
-        <v>47.75</v>
-      </c>
-      <c r="W19" s="74">
-        <f t="shared" si="7"/>
-        <v>47.75</v>
-      </c>
-      <c r="X19" s="74">
+      <c r="U19" s="73">
         <f t="shared" si="8"/>
         <v>47.75</v>
       </c>
+      <c r="V19" s="73">
+        <f t="shared" si="9"/>
+        <v>47.75</v>
+      </c>
+      <c r="W19" s="73">
+        <f t="shared" si="10"/>
+        <v>47.75</v>
+      </c>
+      <c r="X19" s="73">
+        <f t="shared" si="11"/>
+        <v>47.75</v>
+      </c>
+      <c r="Y19" s="72">
+        <f>SUM(Y16:Y18)</f>
+        <v>2</v>
+      </c>
+      <c r="Z19" s="73">
+        <f t="shared" ref="Z19:AH19" si="15">SUM(Z16:Z18)</f>
+        <v>2</v>
+      </c>
+      <c r="AA19" s="73">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AB19" s="73">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AC19" s="73">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AD19" s="73">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AE19" s="73">
+        <f t="shared" si="15"/>
+        <v>7.75</v>
+      </c>
+      <c r="AF19" s="73">
+        <f t="shared" si="15"/>
+        <v>7.75</v>
+      </c>
+      <c r="AG19" s="73">
+        <f t="shared" si="15"/>
+        <v>10.5</v>
+      </c>
+      <c r="AH19" s="74">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="119" t="s">
+    <row r="21" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121">
+      <c r="C21" s="116"/>
+      <c r="D21" s="117">
         <v>1</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="117">
+      <c r="E21" s="118"/>
+      <c r="F21" s="113">
         <v>2</v>
       </c>
-      <c r="G21" s="118"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="163">
+        <v>3</v>
+      </c>
+      <c r="I21" s="164"/>
     </row>
-    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="123" t="s">
+    <row r="22" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="101">
+      <c r="C22" s="120"/>
+      <c r="D22" s="97">
         <v>1</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="98">
         <v>2</v>
       </c>
-      <c r="F22" s="100">
+      <c r="F22" s="96">
         <v>3</v>
       </c>
-      <c r="G22" s="91">
+      <c r="G22" s="162">
         <v>4</v>
       </c>
+      <c r="H22" s="165">
+        <v>5</v>
+      </c>
+      <c r="I22" s="166">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="109" t="s">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="103">
+      <c r="D23" s="99">
         <f xml:space="preserve"> SUM(D6:I6)</f>
         <v>2.75</v>
       </c>
-      <c r="E23" s="95">
+      <c r="E23" s="91">
         <f xml:space="preserve"> SUM(J6:O6)</f>
         <v>4</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F23" s="99">
         <f xml:space="preserve"> SUM(P6:T6)</f>
         <v>6</v>
       </c>
-      <c r="G23" s="95">
+      <c r="G23" s="91">
         <f xml:space="preserve"> SUM(U6:X6)</f>
         <v>3</v>
       </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="82"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="110"/>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B24" s="106"/>
       <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="104">
-        <f t="shared" ref="D24:D26" si="11" xml:space="preserve"> SUM(D7:I7)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="97">
-        <f t="shared" ref="E24:E26" si="12" xml:space="preserve"> SUM(J7:O7)</f>
+      <c r="D24" s="100">
+        <f t="shared" ref="D24:D26" si="16" xml:space="preserve"> SUM(D7:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="93">
+        <f t="shared" ref="E24:E26" si="17" xml:space="preserve"> SUM(J7:O7)</f>
         <v>7</v>
       </c>
-      <c r="F24" s="104">
-        <f t="shared" ref="F24:F26" si="13" xml:space="preserve"> SUM(P7:T7)</f>
+      <c r="F24" s="100">
+        <f t="shared" ref="F24:F26" si="18" xml:space="preserve"> SUM(P7:T7)</f>
         <v>8</v>
       </c>
-      <c r="G24" s="97">
-        <f t="shared" ref="G24:G26" si="14" xml:space="preserve"> SUM(U7:X7)</f>
+      <c r="G24" s="93">
+        <f t="shared" ref="G24:G26" si="19" xml:space="preserve"> SUM(U7:X7)</f>
         <v>15</v>
       </c>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="110"/>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B25" s="106"/>
       <c r="C25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="104">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="97">
-        <f t="shared" si="12"/>
+      <c r="D25" s="100">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="93">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="F25" s="104">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="97">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="F25" s="100">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="100">
+        <f>SUM(Y8:AC8)</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="93">
+        <f>SUM(AD8:AH8)</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="111"/>
-      <c r="C26" s="88" t="s">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B26" s="107"/>
+      <c r="C26" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="105">
-        <f t="shared" si="11"/>
+      <c r="D26" s="101">
+        <f t="shared" si="16"/>
         <v>2.75</v>
       </c>
-      <c r="E26" s="99">
-        <f t="shared" si="12"/>
+      <c r="E26" s="95">
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="F26" s="105">
-        <f t="shared" si="13"/>
+      <c r="F26" s="101">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="G26" s="99">
-        <f t="shared" si="14"/>
+      <c r="G26" s="95">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
+      <c r="H26" s="167">
+        <f>SUM(H23:H25)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="168">
+        <f>SUM(I23:I25)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="125" t="s">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B28" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="103">
+      <c r="D28" s="99">
         <f xml:space="preserve"> D23</f>
         <v>2.75</v>
       </c>
-      <c r="E28" s="95">
+      <c r="E28" s="91">
         <f xml:space="preserve"> AVERAGE($D$23:E23)</f>
         <v>3.375</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="90">
         <f xml:space="preserve"> AVERAGE($D$23:F23)</f>
         <v>4.25</v>
       </c>
-      <c r="G28" s="95">
+      <c r="G28" s="90">
         <f xml:space="preserve"> AVERAGE($D$23:G23)</f>
         <v>3.9375</v>
       </c>
+      <c r="H28" s="58"/>
+      <c r="I28" s="82"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="126"/>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B29" s="122"/>
       <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="104">
-        <f t="shared" ref="D29:D31" si="15" xml:space="preserve"> D24</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="97">
+      <c r="D29" s="100">
+        <f t="shared" ref="D29:D31" si="20" xml:space="preserve"> D24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="93">
         <f xml:space="preserve"> AVERAGE($D$24:E24)</f>
         <v>3.5</v>
       </c>
-      <c r="F29" s="96">
+      <c r="F29" s="92">
         <f xml:space="preserve"> AVERAGE($D$24:F24)</f>
         <v>5</v>
       </c>
-      <c r="G29" s="97">
+      <c r="G29" s="92">
         <f xml:space="preserve"> AVERAGE($D$24:G24)</f>
         <v>7.5</v>
       </c>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="126"/>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="122"/>
       <c r="C30" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="104">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="97">
+      <c r="D30" s="100">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="93">
         <f xml:space="preserve"> AVERAGE($D$25:E25)</f>
         <v>1</v>
       </c>
-      <c r="F30" s="96">
+      <c r="F30" s="92">
         <f xml:space="preserve"> AVERAGE($D$25:F25)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G30" s="97">
+      <c r="G30" s="92">
         <f xml:space="preserve"> AVERAGE($D$25:G25)</f>
         <v>0.5</v>
       </c>
+      <c r="H30" s="100">
+        <f>AVERAGE(D25:H25)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I30" s="93">
+        <f>AVERAGE(E25:I25)</f>
+        <v>2.2000000000000002</v>
+      </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="127"/>
-      <c r="C31" s="88" t="s">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B31" s="123"/>
+      <c r="C31" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="105">
-        <f t="shared" si="15"/>
+      <c r="D31" s="101">
+        <f t="shared" si="20"/>
         <v>2.75</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E31" s="95">
         <f xml:space="preserve"> AVERAGE($D$26:E26)</f>
         <v>7.875</v>
       </c>
-      <c r="F31" s="98">
+      <c r="F31" s="94">
         <f xml:space="preserve"> AVERAGE($D$26:F26)</f>
         <v>9.9166666666666661</v>
       </c>
-      <c r="G31" s="99">
+      <c r="G31" s="94">
         <f xml:space="preserve"> AVERAGE($D$26:G26)</f>
         <v>11.9375</v>
       </c>
+      <c r="H31" s="101">
+        <f>AVERAGE(D26:H26)</f>
+        <v>9.75</v>
+      </c>
+      <c r="I31" s="95">
+        <f>AVERAGE(E26:I26)</f>
+        <v>10.8</v>
+      </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="109" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="103">
+      <c r="D33" s="99">
         <f xml:space="preserve"> D23</f>
         <v>2.75</v>
       </c>
-      <c r="E33" s="95">
+      <c r="E33" s="91">
         <f xml:space="preserve"> D33 + E23</f>
         <v>6.75</v>
       </c>
-      <c r="F33" s="94">
-        <f t="shared" ref="F33:G36" si="16" xml:space="preserve"> E33 + F23</f>
+      <c r="F33" s="90">
+        <f t="shared" ref="F33:G36" si="21" xml:space="preserve"> E33 + F23</f>
         <v>12.75</v>
       </c>
-      <c r="G33" s="95">
-        <f t="shared" si="16"/>
+      <c r="G33" s="90">
+        <f t="shared" si="21"/>
         <v>15.75</v>
       </c>
+      <c r="H33" s="58"/>
+      <c r="I33" s="82"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="110"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="106"/>
       <c r="C34" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="104">
-        <f t="shared" ref="D34:D36" si="17" xml:space="preserve"> D24</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="97">
-        <f t="shared" ref="E34:E36" si="18" xml:space="preserve"> D34 + E24</f>
+      <c r="D34" s="100">
+        <f t="shared" ref="D34:D36" si="22" xml:space="preserve"> D24</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="93">
+        <f t="shared" ref="E34:E36" si="23" xml:space="preserve"> D34 + E24</f>
         <v>7</v>
       </c>
-      <c r="F34" s="96">
-        <f t="shared" si="16"/>
+      <c r="F34" s="92">
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="G34" s="97">
-        <f t="shared" si="16"/>
+      <c r="G34" s="92">
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="110"/>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="106"/>
       <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="104">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="97">
-        <f t="shared" si="18"/>
+      <c r="D35" s="100">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="93">
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="F35" s="96">
-        <f t="shared" si="16"/>
+      <c r="F35" s="92">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="G35" s="97">
-        <f t="shared" si="16"/>
+      <c r="G35" s="92">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
+      <c r="H35" s="100">
+        <f>G35 + H25</f>
+        <v>3</v>
+      </c>
+      <c r="I35" s="93">
+        <f>H35 + I25</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="111"/>
-      <c r="C36" s="88" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="107"/>
+      <c r="C36" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="105">
-        <f t="shared" si="17"/>
+      <c r="D36" s="101">
+        <f t="shared" si="22"/>
         <v>2.75</v>
       </c>
-      <c r="E36" s="99">
-        <f t="shared" si="18"/>
+      <c r="E36" s="95">
+        <f t="shared" si="23"/>
         <v>15.75</v>
       </c>
-      <c r="F36" s="98">
-        <f t="shared" si="16"/>
+      <c r="F36" s="94">
+        <f t="shared" si="21"/>
         <v>29.75</v>
       </c>
-      <c r="G36" s="99">
-        <f t="shared" si="16"/>
+      <c r="G36" s="94">
+        <f t="shared" si="21"/>
         <v>47.75</v>
+      </c>
+      <c r="H36" s="101">
+        <f t="shared" ref="H36" si="24" xml:space="preserve"> G36 + H26</f>
+        <v>48.75</v>
+      </c>
+      <c r="I36" s="95">
+        <f t="shared" ref="I36" si="25" xml:space="preserve"> H36 + I26</f>
+        <v>56.75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="AD3:AH3"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="P2:X2"/>
@@ -8428,7 +8949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -8439,22 +8960,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="113" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="147"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="124"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -8562,10 +9083,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="125">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -8625,8 +9146,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
-      <c r="B6" s="149"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -8650,8 +9171,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
-      <c r="B7" s="149"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -8675,8 +9196,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
-      <c r="B8" s="149"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -8700,8 +9221,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -8759,8 +9280,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
-      <c r="B10" s="149"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -8782,8 +9303,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="149"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -8805,8 +9326,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="149"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -8828,8 +9349,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="149"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -8887,8 +9408,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="149"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -8910,8 +9431,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -8933,8 +9454,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -8960,8 +9481,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
-      <c r="B17" s="148">
+      <c r="A17" s="132"/>
+      <c r="B17" s="125">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -9021,8 +9542,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
-      <c r="B18" s="149"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -9048,8 +9569,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
-      <c r="B19" s="149"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -9071,8 +9592,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
-      <c r="B20" s="150"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -9094,8 +9615,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="138"/>
-      <c r="B21" s="151"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -9153,8 +9674,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="138"/>
-      <c r="B22" s="152"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -9176,8 +9697,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="138"/>
-      <c r="B23" s="152"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -9201,8 +9722,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="139"/>
-      <c r="B24" s="153"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -9452,7 +9973,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="105" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -9509,7 +10030,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
@@ -9564,7 +10085,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="110"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
@@ -9619,7 +10140,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="145" t="s">
         <v>25</v>
       </c>
@@ -9688,13 +10209,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="140" t="s">
+      <c r="A36" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="130"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
@@ -9709,11 +10230,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="141"/>
-      <c r="B37" s="131" t="s">
+      <c r="A37" s="135"/>
+      <c r="B37" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="132"/>
+      <c r="C37" s="140"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -9728,11 +10249,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="141"/>
-      <c r="B38" s="133" t="s">
+      <c r="A38" s="135"/>
+      <c r="B38" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="142"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -9747,7 +10268,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="142"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="143" t="s">
         <v>25</v>
       </c>
@@ -9766,13 +10287,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="130"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
@@ -9783,11 +10304,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="128"/>
-      <c r="B42" s="131" t="s">
+      <c r="A42" s="147"/>
+      <c r="B42" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="132"/>
+      <c r="C42" s="140"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -9798,11 +10319,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
-      <c r="B43" s="133" t="s">
+      <c r="A43" s="147"/>
+      <c r="B43" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="134"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -9813,11 +10334,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="128"/>
-      <c r="B44" s="135" t="s">
+      <c r="A44" s="147"/>
+      <c r="B44" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="136"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -9829,11 +10350,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
@@ -9842,11 +10363,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9858,8 +10379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9870,19 +10391,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="106" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="108"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="104"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
@@ -9984,10 +10505,10 @@
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="154">
+      <c r="B5" s="150">
         <v>1</v>
       </c>
       <c r="C5" s="59" t="s">
@@ -10035,8 +10556,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
-      <c r="B6" s="155"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -10055,8 +10576,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
-      <c r="B7" s="155"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -10081,8 +10602,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
-      <c r="B8" s="156"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="61" t="s">
         <v>9</v>
       </c>
@@ -10101,8 +10622,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
-      <c r="B9" s="159" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="155" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -10150,8 +10671,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
-      <c r="B10" s="160"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -10174,8 +10695,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="160"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -10194,8 +10715,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="160"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
@@ -10214,8 +10735,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="160"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
@@ -10261,8 +10782,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="160"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -10283,8 +10804,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
-      <c r="B15" s="160"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -10305,8 +10826,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="160"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="60" t="s">
         <v>9</v>
       </c>
@@ -10325,10 +10846,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="148"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
@@ -10374,8 +10895,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
-      <c r="B18" s="149"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -10396,8 +10917,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
-      <c r="B19" s="149"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -10418,8 +10939,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
-      <c r="B20" s="149"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
@@ -10438,8 +10959,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="138"/>
-      <c r="B21" s="157"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="64" t="s">
         <v>37</v>
       </c>
@@ -10485,8 +11006,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="138"/>
-      <c r="B22" s="157"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -10505,8 +11026,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="138"/>
-      <c r="B23" s="157"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -10527,8 +11048,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="139"/>
-      <c r="B24" s="158"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="61" t="s">
         <v>9</v>
       </c>
@@ -10547,10 +11068,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="161" t="s">
+      <c r="B25" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="161"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="47">
         <f t="shared" ref="D25:M28" si="6">SUM(D5,D9,D13,D17,D21)</f>
         <v>0</v>
@@ -10728,13 +11249,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="163"/>
+      <c r="C30" s="159"/>
       <c r="D30" s="32">
         <f xml:space="preserve"> D26</f>
         <v>0</v>
@@ -10773,11 +11294,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="164" t="s">
+      <c r="A31" s="106"/>
+      <c r="B31" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="132"/>
+      <c r="C31" s="140"/>
       <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
@@ -10816,11 +11337,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="110"/>
-      <c r="B32" s="165" t="s">
+      <c r="A32" s="106"/>
+      <c r="B32" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="134"/>
+      <c r="C32" s="142"/>
       <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
@@ -10859,7 +11380,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="145" t="s">
         <v>25</v>
       </c>
@@ -10916,13 +11437,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="140" t="s">
+      <c r="A36" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="130"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:H26)</f>
         <v>6</v>
@@ -10937,11 +11458,11 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="141"/>
-      <c r="B37" s="131" t="s">
+      <c r="A37" s="135"/>
+      <c r="B37" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="132"/>
+      <c r="C37" s="140"/>
       <c r="D37" s="26">
         <f t="shared" ref="D37:D38" si="7" xml:space="preserve"> SUM(D27:H27)</f>
         <v>8</v>
@@ -10956,11 +11477,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="141"/>
-      <c r="B38" s="133" t="s">
+      <c r="A38" s="135"/>
+      <c r="B38" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="142"/>
       <c r="D38" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -10975,7 +11496,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="142"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="143" t="s">
         <v>25</v>
       </c>
@@ -10994,13 +11515,13 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="130"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>6</v>
@@ -11011,11 +11532,11 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="128"/>
-      <c r="B42" s="131" t="s">
+      <c r="A42" s="147"/>
+      <c r="B42" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="132"/>
+      <c r="C42" s="140"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>8</v>
@@ -11026,11 +11547,11 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
-      <c r="B43" s="133" t="s">
+      <c r="A43" s="147"/>
+      <c r="B43" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="134"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -11041,11 +11562,11 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="128"/>
-      <c r="B44" s="135" t="s">
+      <c r="A44" s="147"/>
+      <c r="B44" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="136"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>14</v>
@@ -11057,16 +11578,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A5:A16"/>
@@ -11081,8 +11592,32 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Management/Effort and Velocity.xlsx
+++ b/Management/Effort and Velocity.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="14440" tabRatio="295"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14445" tabRatio="295"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -300,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -998,11 +998,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1271,6 +1315,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1475,24 +1523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1518,6 +1548,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,7 +1648,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1625,109 +1672,109 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,10 +1801,10 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.464285714285714</c:v>
+                  <c:v>1.4642857142857142</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.96875</c:v>
@@ -1769,19 +1816,19 @@
                   <c:v>1.575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.431818181818182</c:v>
+                  <c:v>1.4318181818181819</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.3125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.211538461538461</c:v>
+                  <c:v>1.2115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.410714285714286</c:v>
+                  <c:v>1.4107142857142858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.316666666666667</c:v>
+                  <c:v>1.3166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.234375</c:v>
@@ -1790,58 +1837,58 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.652777777777777</c:v>
+                  <c:v>2.6527777777777777</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2.513157894736842</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3875</c:v>
+                  <c:v>2.3875000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.273809523809524</c:v>
+                  <c:v>2.2738095238095237</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.170454545454545</c:v>
+                  <c:v>2.1704545454545454</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.293478260869565</c:v>
+                  <c:v>2.2934782608695654</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.447916666666666</c:v>
+                  <c:v>2.4479166666666665</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.47</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.375</c:v>
+                  <c:v>2.4134615384615383</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.324074074074074</c:v>
+                  <c:v>2.3611111111111112</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.455357142857143</c:v>
+                  <c:v>2.4910714285714284</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.508620689655173</c:v>
+                  <c:v>2.5431034482758621</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.458333333333333</c:v>
+                  <c:v>2.4916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.379032258064516</c:v>
+                  <c:v>2.411290322580645</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3046875</c:v>
+                  <c:v>2.484375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.234848484848485</c:v>
+                  <c:v>2.4924242424242422</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.169117647058823</c:v>
+                  <c:v>2.4338235294117645</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.25</c:v>
+                  <c:v>2.5071428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,109 +1911,109 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,19 +2028,19 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.5</c:v>
@@ -2002,85 +2049,85 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,13 +2142,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129126568"/>
-        <c:axId val="2129129640"/>
+        <c:axId val="114692592"/>
+        <c:axId val="114693768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2129126568"/>
+        <c:axId val="114692592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,14 +2157,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129129640"/>
+        <c:crossAx val="114693768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2129129640"/>
+        <c:axId val="114693768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,14 +2175,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129126568"/>
+        <c:crossAx val="114692592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2205,40 +2250,40 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,7 +2301,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.125</c:v>
@@ -2265,25 +2310,25 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.394736842105263</c:v>
+                  <c:v>0.39473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.425925925925926</c:v>
+                  <c:v>1.4259259259259258</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.283333333333333</c:v>
+                  <c:v>1.2833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.166666666666667</c:v>
+                  <c:v>1.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.069444444444444</c:v>
+                  <c:v>1.0694444444444444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.987179487179487</c:v>
+                  <c:v>0.98717948717948723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,40 +2351,40 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2354,37 +2399,37 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,13 +2444,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122383416"/>
-        <c:axId val="2122380264"/>
+        <c:axId val="116229208"/>
+        <c:axId val="115769584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2122383416"/>
+        <c:axId val="116229208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,14 +2459,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122380264"/>
+        <c:crossAx val="115769584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2122380264"/>
+        <c:axId val="115769584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122383416"/>
+        <c:crossAx val="116229208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2508,40 +2552,40 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,40 +2597,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.285714285714286</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.777777777777778</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.636363636363636</c:v>
+                  <c:v>0.63636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,40 +2653,40 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2654,40 +2698,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,13 +2746,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122339576"/>
-        <c:axId val="2122336488"/>
+        <c:axId val="115771152"/>
+        <c:axId val="115774288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2122339576"/>
+        <c:axId val="115771152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,14 +2761,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122336488"/>
+        <c:crossAx val="115774288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2122336488"/>
+        <c:axId val="115774288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122339576"/>
+        <c:crossAx val="115771152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2811,40 +2854,40 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,40 +2899,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.222222222222222</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.181818181818182</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,40 +2955,40 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,22 +3000,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.5</c:v>
@@ -2981,19 +3024,19 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3008,13 +3051,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127574216"/>
-        <c:axId val="2127571128"/>
+        <c:axId val="115772328"/>
+        <c:axId val="115770760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2127574216"/>
+        <c:axId val="115772328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,14 +3066,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127571128"/>
+        <c:crossAx val="115770760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2127571128"/>
+        <c:axId val="115770760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127574216"/>
+        <c:crossAx val="115772328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,31 +3159,31 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,31 +3195,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.333333333333333</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.333333333333332</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.571428571428571</c:v>
+                  <c:v>4.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.555555555555555</c:v>
+                  <c:v>3.5555555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3200,31 +3242,31 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,31 +3278,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3275,13 +3317,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123408952"/>
-        <c:axId val="2123405864"/>
+        <c:axId val="115770368"/>
+        <c:axId val="115767624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2123408952"/>
+        <c:axId val="115770368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3291,14 +3332,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123405864"/>
+        <c:crossAx val="115767624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2123405864"/>
+        <c:axId val="115767624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,7 +3350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123408952"/>
+        <c:crossAx val="115770368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3384,31 +3425,31 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,16 +3461,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.2</c:v>
@@ -3438,13 +3479,13 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.285714285714286</c:v>
+                  <c:v>1.2857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,31 +3508,31 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3503,31 +3544,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,13 +3583,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123376264"/>
-        <c:axId val="2123373160"/>
+        <c:axId val="115768800"/>
+        <c:axId val="115771936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2123376264"/>
+        <c:axId val="115768800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,14 +3598,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123373160"/>
+        <c:crossAx val="115771936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2123373160"/>
+        <c:axId val="115771936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3576,7 +3616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123376264"/>
+        <c:crossAx val="115768800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3651,31 +3691,31 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,31 +3727,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.333333333333333</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.833333333333333</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.285714285714286</c:v>
+                  <c:v>3.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.555555555555555</c:v>
+                  <c:v>2.5555555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3734,31 +3774,31 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3770,31 +3810,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3809,13 +3849,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131156200"/>
-        <c:axId val="2131159272"/>
+        <c:axId val="115773504"/>
+        <c:axId val="115774680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2131156200"/>
+        <c:axId val="115773504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,14 +3864,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131159272"/>
+        <c:crossAx val="115774680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2131159272"/>
+        <c:axId val="115774680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131156200"/>
+        <c:crossAx val="115773504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3918,31 +3957,31 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3954,31 +3993,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,31 +4040,31 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4037,31 +4076,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4076,13 +4115,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129208088"/>
-        <c:axId val="2129211160"/>
+        <c:axId val="115775072"/>
+        <c:axId val="115768016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2129208088"/>
+        <c:axId val="115775072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,14 +4130,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129211160"/>
+        <c:crossAx val="115768016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2129211160"/>
+        <c:axId val="115768016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129208088"/>
+        <c:crossAx val="115775072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4161,7 +4199,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4186,46 +4223,46 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4237,46 +4274,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.428571428571429</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.727272727272727</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.615384615384615</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.571428571428571</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4299,46 +4336,46 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4350,46 +4387,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4404,13 +4441,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132230120"/>
-        <c:axId val="2132233208"/>
+        <c:axId val="339479432"/>
+        <c:axId val="339475120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2132230120"/>
+        <c:axId val="339479432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4420,14 +4456,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132233208"/>
+        <c:crossAx val="339475120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2132233208"/>
+        <c:axId val="339475120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4438,14 +4474,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132230120"/>
+        <c:crossAx val="339479432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4490,7 +4525,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4515,46 +4549,46 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4566,46 +4600,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.52272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0.70833333333333337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0.69230769230769229</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0.6428571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4628,46 +4662,46 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4679,49 +4713,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4736,13 +4770,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132267272"/>
-        <c:axId val="2132270360"/>
+        <c:axId val="339476296"/>
+        <c:axId val="339480608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2132267272"/>
+        <c:axId val="339476296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4752,14 +4785,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132270360"/>
+        <c:crossAx val="339480608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2132270360"/>
+        <c:axId val="339480608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4770,14 +4803,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132267272"/>
+        <c:crossAx val="339476296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4830,7 +4862,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4855,46 +4886,46 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4906,13 +4937,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.666666666666666</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.5</c:v>
@@ -4921,31 +4952,31 @@
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.333333333333333</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.571428571428572</c:v>
+                  <c:v>2.5714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.636363636363636</c:v>
+                  <c:v>1.6363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.384615384615385</c:v>
+                  <c:v>1.3846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.642857142857143</c:v>
+                  <c:v>1.6428571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4968,46 +4999,46 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5019,46 +5050,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5073,13 +5104,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132300376"/>
-        <c:axId val="2132303464"/>
+        <c:axId val="339476688"/>
+        <c:axId val="339478256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2132300376"/>
+        <c:axId val="339476688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,14 +5119,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132303464"/>
+        <c:crossAx val="339478256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2132303464"/>
+        <c:axId val="339478256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5107,14 +5137,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132300376"/>
+        <c:crossAx val="339476688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5164,7 +5193,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5189,109 +5217,109 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5318,10 +5346,10 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.964285714285714</c:v>
+                  <c:v>0.9642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.84375</c:v>
@@ -5330,19 +5358,19 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.675</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.613636363636364</c:v>
+                  <c:v>0.61363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.519230769230769</c:v>
+                  <c:v>0.51923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.482142857142857</c:v>
+                  <c:v>0.48214285714285715</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.45</c:v>
@@ -5357,19 +5385,19 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.828947368421053</c:v>
+                  <c:v>0.82894736842105265</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7875</c:v>
+                  <c:v>0.78749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.715909090909091</c:v>
+                  <c:v>0.71590909090909094</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.684782608695652</c:v>
+                  <c:v>0.68478260869565222</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.65625</c:v>
@@ -5378,34 +5406,34 @@
                   <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.605769230769231</c:v>
+                  <c:v>0.60576923076923073</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.62037037037037</c:v>
+                  <c:v>0.62037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.669642857142857</c:v>
+                  <c:v>0.6696428571428571</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.78448275862069</c:v>
+                  <c:v>0.78448275862068961</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.791666666666667</c:v>
+                  <c:v>0.79166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.766129032258064</c:v>
+                  <c:v>0.7661290322580645</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.7421875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.71969696969697</c:v>
+                  <c:v>0.71969696969696972</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.698529411764706</c:v>
+                  <c:v>0.69852941176470584</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.678571428571429</c:v>
+                  <c:v>0.6785714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5428,109 +5456,109 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5545,106 +5573,106 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5659,13 +5687,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127731064"/>
-        <c:axId val="2127728008"/>
+        <c:axId val="114686320"/>
+        <c:axId val="114689064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2127731064"/>
+        <c:axId val="114686320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5675,14 +5702,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127728008"/>
+        <c:crossAx val="114689064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2127728008"/>
+        <c:axId val="114689064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,14 +5720,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127731064"/>
+        <c:crossAx val="114686320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5745,7 +5771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5770,46 +5795,46 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5821,46 +5846,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.666666666666666</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>3.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.125</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.888888888888889</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.363636363636364</c:v>
+                  <c:v>2.8863636363636362</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.166666666666666</c:v>
+                  <c:v>2.875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2.6923076923076925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.214285714285714</c:v>
+                  <c:v>2.8571428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5883,46 +5908,46 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5934,46 +5959,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5988,13 +6013,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131193144"/>
-        <c:axId val="2131196216"/>
+        <c:axId val="339473552"/>
+        <c:axId val="339470808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2131193144"/>
+        <c:axId val="339473552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6004,14 +6028,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131196216"/>
+        <c:crossAx val="339470808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2131196216"/>
+        <c:axId val="339470808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6022,14 +6046,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131193144"/>
+        <c:crossAx val="339473552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6079,7 +6102,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6104,109 +6126,109 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6218,109 +6240,109 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.285714285714286</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.777777777777778</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.636363636363636</c:v>
+                  <c:v>0.63636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.538461538461538</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.785714285714286</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.6875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.882352941176471</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.666666666666667</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.578947368421053</c:v>
+                  <c:v>1.5789473684210527</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.428571428571429</c:v>
+                  <c:v>1.4285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.363636363636363</c:v>
+                  <c:v>1.3636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.521739130434783</c:v>
+                  <c:v>1.5217391304347827</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.708333333333333</c:v>
+                  <c:v>1.7083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.692307692307692</c:v>
+                  <c:v>1.6923076923076923</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.629629629629629</c:v>
+                  <c:v>1.6296296296296295</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.714285714285714</c:v>
+                  <c:v>1.7142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.655172413793103</c:v>
+                  <c:v>1.6551724137931034</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.548387096774193</c:v>
+                  <c:v>1.5483870967741935</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.454545454545455</c:v>
+                  <c:v>1.4545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.514285714285714</c:v>
+                  <c:v>1.5142857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6343,109 +6365,109 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6457,109 +6479,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6574,13 +6596,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127697368"/>
-        <c:axId val="2127694312"/>
+        <c:axId val="114687104"/>
+        <c:axId val="114687496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2127697368"/>
+        <c:axId val="114687104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,14 +6611,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127694312"/>
+        <c:crossAx val="114687496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2127694312"/>
+        <c:axId val="114687496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6608,14 +6629,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127697368"/>
+        <c:crossAx val="114687104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6665,7 +6685,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6690,109 +6709,109 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6804,109 +6823,109 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.222222222222222</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.181818181818182</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.153846153846154</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.142857142857143</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.117647058823529</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.111111111111111</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.105263157894737</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0952380952380952</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0909090909090909</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0869565217391304</c:v>
+                  <c:v>8.6956521739130432E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0833333333333333</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.08</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0769230769230769</c:v>
+                  <c:v>0.11538461538461539</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0769230769230769</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0769230769230769</c:v>
+                  <c:v>0.10714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0740740740740741</c:v>
+                  <c:v>0.10344827586206896</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0689655172413793</c:v>
+                  <c:v>9.6774193548387094E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>0.2421875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>0.3235294117647059</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>0.31428571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6929,109 +6948,109 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41975.0</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41976.0</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41977.0</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41978.0</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41979.0</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41981.0</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41982.0</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41983.0</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42022.0</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42023.0</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42024.0</c:v>
+                  <c:v>42024</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42025.0</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42026.0</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42027.0</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42028.0</c:v>
+                  <c:v>42028</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42029.0</c:v>
+                  <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42030.0</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42031.0</c:v>
+                  <c:v>42031</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42032.0</c:v>
+                  <c:v>42032</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42033.0</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42034.0</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="[$-409]d\-mmm;@">
-                  <c:v>42035.0</c:v>
+                  <c:v>42035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,22 +7062,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.5</c:v>
@@ -7067,70 +7086,85 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7145,13 +7179,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127678408"/>
-        <c:axId val="2127675352"/>
+        <c:axId val="116233520"/>
+        <c:axId val="116233912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2127678408"/>
+        <c:axId val="116233520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7161,14 +7194,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127675352"/>
+        <c:crossAx val="116233912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2127675352"/>
+        <c:axId val="116233912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,14 +7212,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127678408"/>
+        <c:crossAx val="116233520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7261,22 +7293,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7294,16 +7326,16 @@
                   <c:v>7.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.916666666666666</c:v>
+                  <c:v>9.9166666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.9375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.75</c:v>
+                  <c:v>13.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.125</c:v>
+                  <c:v>14.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7326,22 +7358,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7356,19 +7388,19 @@
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7383,13 +7415,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122439928"/>
-        <c:axId val="2122438328"/>
+        <c:axId val="116234696"/>
+        <c:axId val="116236656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122439928"/>
+        <c:axId val="116234696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7399,7 +7430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122438328"/>
+        <c:crossAx val="116236656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7407,7 +7438,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122438328"/>
+        <c:axId val="116236656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7418,7 +7449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122439928"/>
+        <c:crossAx val="116234696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7475,7 +7506,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7500,22 +7530,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7542,7 +7572,7 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.958333333333333</c:v>
+                  <c:v>3.9583333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7565,22 +7595,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,19 +7625,19 @@
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7622,13 +7652,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127624520"/>
-        <c:axId val="2127621448"/>
+        <c:axId val="116229992"/>
+        <c:axId val="116231560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127624520"/>
+        <c:axId val="116229992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7638,7 +7667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127621448"/>
+        <c:crossAx val="116231560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7646,7 +7675,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127621448"/>
+        <c:axId val="116231560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7657,14 +7686,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127624520"/>
+        <c:crossAx val="116229992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7714,7 +7742,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7739,22 +7766,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7766,13 +7793,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.5</c:v>
@@ -7781,7 +7808,7 @@
                   <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.833333333333333</c:v>
+                  <c:v>8.8333333333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7804,22 +7831,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7831,22 +7858,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7861,13 +7888,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2124357336"/>
-        <c:axId val="2129148904"/>
+        <c:axId val="116230384"/>
+        <c:axId val="116232344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2124357336"/>
+        <c:axId val="116230384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7877,7 +7903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129148904"/>
+        <c:crossAx val="116232344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7885,7 +7911,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129148904"/>
+        <c:axId val="116232344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7896,14 +7922,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124357336"/>
+        <c:crossAx val="116230384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7953,7 +7978,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7978,22 +8002,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8005,22 +8029,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>1.8333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8043,22 +8067,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8070,22 +8094,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8100,13 +8124,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129189144"/>
-        <c:axId val="2129192200"/>
+        <c:axId val="116232736"/>
+        <c:axId val="116235088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129189144"/>
+        <c:axId val="116232736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8116,7 +8139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129192200"/>
+        <c:crossAx val="116235088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8124,7 +8147,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129192200"/>
+        <c:axId val="116235088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8135,14 +8158,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129189144"/>
+        <c:crossAx val="116232736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8211,40 +8233,40 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8271,10 +8293,10 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.464285714285714</c:v>
+                  <c:v>1.4642857142857142</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.96875</c:v>
@@ -8286,7 +8308,7 @@
                   <c:v>1.575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.431818181818182</c:v>
+                  <c:v>1.4318181818181819</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.3125</c:v>
@@ -8312,40 +8334,40 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939.0</c:v>
+                  <c:v>41939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940.0</c:v>
+                  <c:v>41940</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941.0</c:v>
+                  <c:v>41941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942.0</c:v>
+                  <c:v>41942</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943.0</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945.0</c:v>
+                  <c:v>41945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947.0</c:v>
+                  <c:v>41947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41948.0</c:v>
+                  <c:v>41948</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949.0</c:v>
+                  <c:v>41949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41950.0</c:v>
+                  <c:v>41950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8360,19 +8382,19 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.5</c:v>
@@ -8381,16 +8403,16 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8405,13 +8427,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122397336"/>
-        <c:axId val="2122394248"/>
+        <c:axId val="116229600"/>
+        <c:axId val="116231168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2122397336"/>
+        <c:axId val="116229600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8421,14 +8442,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122394248"/>
+        <c:crossAx val="116231168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2122394248"/>
+        <c:axId val="116231168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8439,7 +8460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122397336"/>
+        <c:crossAx val="116229600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9159,7 +9180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9194,7 +9215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9405,108 +9426,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:38">
-      <c r="D2" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149" t="s">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="D2" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="172" t="s">
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="173"/>
-    </row>
-    <row r="3" spans="2:38">
-      <c r="D3" s="147" t="s">
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="172"/>
+      <c r="AL2" s="177"/>
+    </row>
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="D3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="149" t="s">
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="149" t="s">
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="149" t="s">
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="169" t="s">
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="169" t="s">
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="170"/>
-      <c r="AK3" s="170"/>
-      <c r="AL3" s="171"/>
-    </row>
-    <row r="4" spans="2:38">
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="175"/>
+    </row>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <v>41939</v>
       </c>
@@ -9613,7 +9634,7 @@
         <v>42035</v>
       </c>
     </row>
-    <row r="5" spans="2:38">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D5" s="4">
         <v>1</v>
       </c>
@@ -9677,51 +9698,51 @@
       <c r="X5" s="124">
         <v>21</v>
       </c>
-      <c r="Y5" s="105">
+      <c r="Y5" s="147">
         <v>22</v>
       </c>
-      <c r="Z5" s="106">
+      <c r="Z5" s="147">
         <v>23</v>
       </c>
-      <c r="AA5" s="105">
+      <c r="AA5" s="147">
         <v>24</v>
       </c>
-      <c r="AB5" s="106">
+      <c r="AB5" s="147">
         <v>25</v>
       </c>
-      <c r="AC5" s="105">
+      <c r="AC5" s="147">
         <v>26</v>
       </c>
-      <c r="AD5" s="106">
+      <c r="AD5" s="147">
         <v>27</v>
       </c>
-      <c r="AE5" s="105">
+      <c r="AE5" s="147">
         <v>28</v>
       </c>
-      <c r="AF5" s="106">
+      <c r="AF5" s="147">
         <v>29</v>
       </c>
-      <c r="AG5" s="105">
+      <c r="AG5" s="147">
         <v>30</v>
       </c>
-      <c r="AH5" s="106">
+      <c r="AH5" s="147">
         <v>31</v>
       </c>
-      <c r="AI5" s="105">
+      <c r="AI5" s="147">
         <v>32</v>
       </c>
-      <c r="AJ5" s="106">
+      <c r="AJ5" s="147">
         <v>33</v>
       </c>
-      <c r="AK5" s="105">
+      <c r="AK5" s="147">
         <v>34</v>
       </c>
-      <c r="AL5" s="105">
+      <c r="AL5" s="147">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:38">
-      <c r="B6" s="152" t="s">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B6" s="156" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -9799,65 +9820,65 @@
         <f>'Sp2'!L26</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="65">
+      <c r="Y6" s="144">
         <f>'Sp3'!D42</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="63">
+      <c r="Z6" s="145">
         <f>'Sp3'!E42</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="63">
+      <c r="AA6" s="145">
         <f>'Sp3'!F42</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="63">
+      <c r="AB6" s="145">
         <f>'Sp3'!G42</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="63">
+      <c r="AC6" s="145">
         <f>'Sp3'!H42</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="63">
+      <c r="AD6" s="145">
         <f>'Sp3'!I42</f>
         <v>1</v>
       </c>
-      <c r="AE6" s="63">
+      <c r="AE6" s="145">
         <f>'Sp3'!J42</f>
         <v>2</v>
       </c>
-      <c r="AF6" s="63">
+      <c r="AF6" s="145">
         <f>'Sp3'!K42</f>
         <v>4</v>
       </c>
-      <c r="AG6" s="63">
+      <c r="AG6" s="145">
         <f>'Sp3'!L42</f>
         <v>1</v>
       </c>
-      <c r="AH6" s="63">
+      <c r="AH6" s="145">
         <f>'Sp3'!M42</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="63">
+      <c r="AI6" s="145">
         <f>'Sp3'!N42</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="63">
+      <c r="AJ6" s="145">
         <f>'Sp3'!O42</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="63">
+      <c r="AK6" s="145">
         <f>'Sp3'!P42</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="66">
+      <c r="AL6" s="146">
         <f>'Sp3'!Q42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:38">
-      <c r="B7" s="153"/>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B7" s="157"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -9990,8 +10011,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:38">
-      <c r="B8" s="153"/>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B8" s="157"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
@@ -10072,45 +10093,60 @@
         <v>0</v>
       </c>
       <c r="Z8" s="63">
-        <f>'Sp2'!N28</f>
+        <f>'Sp3'!E44</f>
         <v>0</v>
       </c>
       <c r="AA8" s="63">
-        <f>'Sp2'!O28</f>
+        <f>'Sp3'!F44</f>
         <v>0</v>
       </c>
       <c r="AB8" s="63">
-        <f>'Sp2'!P28</f>
-        <v>0</v>
+        <f>'Sp3'!G44</f>
+        <v>1</v>
       </c>
       <c r="AC8" s="63">
-        <f>'Sp2'!Q28</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
+        <f>'Sp3'!H44</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="63">
+        <f>'Sp3'!I44</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="63">
+        <f>'Sp3'!J44</f>
+        <v>0</v>
+      </c>
       <c r="AF8" s="63">
-        <f>'Sp2'!R28</f>
+        <f>'Sp3'!K44</f>
         <v>0</v>
       </c>
       <c r="AG8" s="63">
-        <f>'Sp2'!S28</f>
+        <f>'Sp3'!L44</f>
         <v>0</v>
       </c>
       <c r="AH8" s="63">
-        <f>'Sp2'!T28</f>
+        <f>'Sp3'!M44</f>
         <v>0</v>
       </c>
       <c r="AI8" s="63">
-        <f>'Sp2'!U28</f>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="68"/>
-    </row>
-    <row r="9" spans="2:38">
-      <c r="B9" s="154"/>
+        <f>'Sp3'!N44</f>
+        <v>4.75</v>
+      </c>
+      <c r="AJ8" s="63">
+        <f>'Sp3'!O44</f>
+        <v>2.75</v>
+      </c>
+      <c r="AK8" s="63">
+        <f>'Sp3'!P44</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL8" s="66">
+        <f>'Sp3'!Q44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B9" s="158"/>
       <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
@@ -10200,7 +10236,7 @@
       </c>
       <c r="AB9" s="125">
         <f>'Sp3'!G41</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC9" s="125">
         <f>'Sp3'!H41</f>
@@ -10228,22 +10264,22 @@
       </c>
       <c r="AI9" s="125">
         <f>'Sp3'!N41</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ9" s="125">
         <f>'Sp3'!O41</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AK9" s="125">
         <f>'Sp3'!P41</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL9" s="130">
         <f>'Sp3'!Q41</f>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:38">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="D10" s="67"/>
       <c r="E10" s="57"/>
@@ -10276,8 +10312,8 @@
       <c r="AH10" s="57"/>
       <c r="AI10" s="57"/>
     </row>
-    <row r="11" spans="2:38" ht="15" customHeight="1">
-      <c r="B11" s="152" t="s">
+    <row r="11" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -10423,8 +10459,8 @@
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="12" spans="2:38">
-      <c r="B12" s="153"/>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B12" s="157"/>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
@@ -10568,8 +10604,8 @@
         <v>1.5142857142857142</v>
       </c>
     </row>
-    <row r="13" spans="2:38">
-      <c r="B13" s="153"/>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B13" s="157"/>
       <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
@@ -10670,51 +10706,51 @@
       </c>
       <c r="AB13" s="38">
         <f>AVERAGE($D$8:AB8)</f>
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AC13" s="38">
         <f>AVERAGE($D$8:AC8)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="AD13" s="38">
         <f>AVERAGE($D$8:AD8)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AE13" s="38">
         <f>AVERAGE($D$8:AE8)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="AF13" s="38">
         <f>AVERAGE($D$8:AF8)</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AG13" s="38">
         <f>AVERAGE($D$8:AG8)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AH13" s="38">
         <f>AVERAGE($D$8:AH8)</f>
-        <v>6.8965517241379309E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="AI13" s="38">
         <f>AVERAGE($D$8:AI8)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.2421875</v>
       </c>
       <c r="AJ13" s="38">
         <f>AVERAGE($D$8:AJ8)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="AK13" s="38">
         <f>AVERAGE($D$8:AK8)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="AL13" s="39">
         <f>AVERAGE($D$8:AL8)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:38">
-      <c r="B14" s="154"/>
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B14" s="158"/>
       <c r="C14" s="69" t="s">
         <v>4</v>
       </c>
@@ -10815,50 +10851,50 @@
       </c>
       <c r="AB14" s="127">
         <f>AVERAGE($D$9:AB9)</f>
-        <v>2.4700000000000002</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="AC14" s="127">
         <f>AVERAGE($D$9:AC9)</f>
-        <v>2.375</v>
+        <v>2.4134615384615383</v>
       </c>
       <c r="AD14" s="127">
         <f>AVERAGE($D$9:AD9)</f>
-        <v>2.324074074074074</v>
+        <v>2.3611111111111112</v>
       </c>
       <c r="AE14" s="127">
         <f>AVERAGE($D$9:AE9)</f>
-        <v>2.4553571428571428</v>
+        <v>2.4910714285714284</v>
       </c>
       <c r="AF14" s="127">
         <f>AVERAGE($D$9:AF9)</f>
-        <v>2.5086206896551726</v>
+        <v>2.5431034482758621</v>
       </c>
       <c r="AG14" s="127">
         <f>AVERAGE($D$9:AG9)</f>
-        <v>2.4583333333333335</v>
+        <v>2.4916666666666667</v>
       </c>
       <c r="AH14" s="127">
         <f>AVERAGE($D$9:AH9)</f>
-        <v>2.379032258064516</v>
+        <v>2.411290322580645</v>
       </c>
       <c r="AI14" s="127">
         <f>AVERAGE($D$9:AI9)</f>
-        <v>2.3046875</v>
+        <v>2.484375</v>
       </c>
       <c r="AJ14" s="127">
         <f>AVERAGE($D$9:AJ9)</f>
-        <v>2.2348484848484849</v>
+        <v>2.4924242424242422</v>
       </c>
       <c r="AK14" s="127">
         <f>AVERAGE($D$9:AK9)</f>
-        <v>2.1691176470588234</v>
+        <v>2.4338235294117645</v>
       </c>
       <c r="AL14" s="134">
         <f>AVERAGE($D$9:AL9)</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:38">
+        <v>2.5071428571428571</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="D15" s="67"/>
       <c r="E15" s="57"/>
@@ -10891,8 +10927,8 @@
       <c r="AH15" s="57"/>
       <c r="AI15" s="57"/>
     </row>
-    <row r="16" spans="2:38">
-      <c r="B16" s="144" t="s">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B16" s="148" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="82" t="s">
@@ -11039,8 +11075,8 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="17" spans="2:38">
-      <c r="B17" s="145"/>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17" s="149"/>
       <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
@@ -11185,8 +11221,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:38">
-      <c r="B18" s="145"/>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B18" s="149"/>
       <c r="C18" s="70" t="s">
         <v>9</v>
       </c>
@@ -11288,51 +11324,51 @@
       </c>
       <c r="AB18" s="57">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="57">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD18" s="57">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="57">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="57">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG18" s="57">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="57">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI18" s="57">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>7.75</v>
       </c>
       <c r="AJ18" s="57">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="AK18" s="57">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AL18" s="68">
         <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:38">
-      <c r="B19" s="146"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B19" s="150"/>
       <c r="C19" s="83" t="s">
         <v>4</v>
       </c>
@@ -11434,72 +11470,72 @@
       </c>
       <c r="AB19" s="125">
         <f t="shared" si="12"/>
-        <v>61.75</v>
+        <v>62.75</v>
       </c>
       <c r="AC19" s="125">
         <f t="shared" si="13"/>
-        <v>61.75</v>
+        <v>62.75</v>
       </c>
       <c r="AD19" s="125">
         <f t="shared" si="14"/>
-        <v>62.75</v>
+        <v>63.75</v>
       </c>
       <c r="AE19" s="125">
         <f t="shared" si="15"/>
-        <v>68.75</v>
+        <v>69.75</v>
       </c>
       <c r="AF19" s="125">
         <f t="shared" si="16"/>
-        <v>72.75</v>
+        <v>73.75</v>
       </c>
       <c r="AG19" s="125">
         <f t="shared" si="17"/>
-        <v>73.75</v>
+        <v>74.75</v>
       </c>
       <c r="AH19" s="125">
         <f t="shared" si="18"/>
-        <v>73.75</v>
+        <v>74.75</v>
       </c>
       <c r="AI19" s="125">
         <f t="shared" si="19"/>
-        <v>73.75</v>
+        <v>79.5</v>
       </c>
       <c r="AJ19" s="125">
         <f t="shared" si="20"/>
-        <v>73.75</v>
+        <v>82.25</v>
       </c>
       <c r="AK19" s="125">
         <f t="shared" si="21"/>
-        <v>73.75</v>
+        <v>82.75</v>
       </c>
       <c r="AL19" s="130">
         <f t="shared" si="22"/>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" ht="15">
-      <c r="B21" s="157" t="s">
+        <v>87.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="159">
+      <c r="C21" s="162"/>
+      <c r="D21" s="163">
         <v>1</v>
       </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="155">
+      <c r="E21" s="164"/>
+      <c r="F21" s="159">
         <v>2</v>
       </c>
-      <c r="G21" s="156"/>
-      <c r="H21" s="166">
+      <c r="G21" s="160"/>
+      <c r="H21" s="170">
         <v>3</v>
       </c>
-      <c r="I21" s="167"/>
-    </row>
-    <row r="22" spans="2:38" ht="15">
-      <c r="B22" s="161" t="s">
+      <c r="I21" s="171"/>
+    </row>
+    <row r="22" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="162"/>
+      <c r="C22" s="166"/>
       <c r="D22" s="95">
         <v>1</v>
       </c>
@@ -11519,8 +11555,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:38">
-      <c r="B23" s="144" t="s">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23" s="148" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="82" t="s">
@@ -11551,8 +11587,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:38">
-      <c r="B24" s="145"/>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B24" s="149"/>
       <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
@@ -11581,8 +11617,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:38">
-      <c r="B25" s="145"/>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B25" s="149"/>
       <c r="C25" s="70" t="s">
         <v>9</v>
       </c>
@@ -11604,15 +11640,15 @@
       </c>
       <c r="H25" s="98">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="91">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:38">
-      <c r="B26" s="146"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B26" s="150"/>
       <c r="C26" s="83" t="s">
         <v>4</v>
       </c>
@@ -11634,21 +11670,21 @@
       </c>
       <c r="H26" s="142">
         <f t="shared" si="28"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I26" s="143">
         <f t="shared" si="29"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="86"/>
       <c r="C27" s="87"/>
       <c r="H27" s="57"/>
       <c r="I27" s="57"/>
     </row>
-    <row r="28" spans="2:38">
-      <c r="B28" s="163" t="s">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B28" s="167" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -11679,8 +11715,8 @@
         <v>3.9583333333333335</v>
       </c>
     </row>
-    <row r="29" spans="2:38">
-      <c r="B29" s="164"/>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B29" s="168"/>
       <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
@@ -11709,8 +11745,8 @@
         <v>8.8333333333333339</v>
       </c>
     </row>
-    <row r="30" spans="2:38">
-      <c r="B30" s="164"/>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B30" s="168"/>
       <c r="C30" s="70" t="s">
         <v>9</v>
       </c>
@@ -11732,15 +11768,15 @@
       </c>
       <c r="H30" s="98">
         <f xml:space="preserve"> AVERAGE($D$25:H25)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I30" s="91">
         <f xml:space="preserve"> AVERAGE($D$25:I25)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="31" spans="2:38">
-      <c r="B31" s="165"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B31" s="169"/>
       <c r="C31" s="83" t="s">
         <v>4</v>
       </c>
@@ -11762,21 +11798,21 @@
       </c>
       <c r="H31" s="142">
         <f xml:space="preserve"> AVERAGE($D$26:H26)</f>
-        <v>13.75</v>
+        <v>13.95</v>
       </c>
       <c r="I31" s="143">
         <f xml:space="preserve"> AVERAGE($D$26:I26)</f>
-        <v>13.125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:38">
+        <v>14.625</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="H32" s="57"/>
       <c r="I32" s="57"/>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="144" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="148" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="82" t="s">
@@ -11807,8 +11843,8 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="145"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="149"/>
       <c r="C34" s="70" t="s">
         <v>8</v>
       </c>
@@ -11837,8 +11873,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="145"/>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="149"/>
       <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
@@ -11860,15 +11896,15 @@
       </c>
       <c r="H35" s="98">
         <f t="shared" ref="H35:H36" si="36" xml:space="preserve"> G35 + H25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35" s="91">
         <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="146"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="150"/>
       <c r="C36" s="83" t="s">
         <v>4</v>
       </c>
@@ -11890,11 +11926,11 @@
       </c>
       <c r="H36" s="142">
         <f t="shared" si="36"/>
-        <v>68.75</v>
+        <v>69.75</v>
       </c>
       <c r="I36" s="143">
         <f t="shared" si="33"/>
-        <v>78.75</v>
+        <v>87.75</v>
       </c>
     </row>
   </sheetData>
@@ -11942,31 +11978,31 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="D1" s="149" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="148" t="s">
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="174"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="178"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
@@ -12007,7 +12043,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
@@ -12048,7 +12084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
@@ -12071,11 +12107,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="181" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="175">
+      <c r="B5" s="179">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -12134,9 +12170,9 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="182"/>
-      <c r="B6" s="176"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="186"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -12159,9 +12195,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="182"/>
-      <c r="B7" s="176"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="186"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -12184,9 +12220,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="182"/>
-      <c r="B8" s="176"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="186"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -12209,9 +12245,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="182"/>
-      <c r="B9" s="176"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="186"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -12268,9 +12304,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="182"/>
-      <c r="B10" s="176"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="186"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -12291,9 +12327,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="182"/>
-      <c r="B11" s="176"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="186"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -12314,9 +12350,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="182"/>
-      <c r="B12" s="176"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="186"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -12337,9 +12373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="182"/>
-      <c r="B13" s="176"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="186"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -12396,9 +12432,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="182"/>
-      <c r="B14" s="176"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="186"/>
+      <c r="B14" s="180"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -12419,9 +12455,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="182"/>
-      <c r="B15" s="176"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="186"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -12442,9 +12478,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="182"/>
-      <c r="B16" s="177"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="186"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -12469,9 +12505,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="182"/>
-      <c r="B17" s="175">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="186"/>
+      <c r="B17" s="179">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -12530,9 +12566,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="182"/>
-      <c r="B18" s="176"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="186"/>
+      <c r="B18" s="180"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -12557,9 +12593,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="182"/>
-      <c r="B19" s="176"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="186"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -12580,9 +12616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="182"/>
-      <c r="B20" s="177"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="186"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -12603,9 +12639,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="182"/>
-      <c r="B21" s="178"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="186"/>
+      <c r="B21" s="182"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -12662,9 +12698,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="182"/>
-      <c r="B22" s="179"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="186"/>
+      <c r="B22" s="183"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -12685,9 +12721,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="182"/>
-      <c r="B23" s="179"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="186"/>
+      <c r="B23" s="183"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -12710,9 +12746,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="183"/>
-      <c r="B24" s="180"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="187"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -12733,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="46" t="s">
         <v>21</v>
       </c>
@@ -12790,7 +12826,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
@@ -12847,7 +12883,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
@@ -12904,7 +12940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>9</v>
       </c>
@@ -12961,8 +12997,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1">
-      <c r="A30" s="144" t="s">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="148" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -13018,8 +13054,8 @@
         <v>0.98717948717948723</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1">
-      <c r="A31" s="145"/>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="149"/>
       <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
@@ -13073,8 +13109,8 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1">
-      <c r="A32" s="145"/>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="149"/>
       <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
@@ -13128,12 +13164,12 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickTop="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="195" t="s">
+    <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="150"/>
+      <c r="B33" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="200"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
@@ -13183,7 +13219,7 @@
         <v>1.3125</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="28">
+    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="23" t="s">
         <v>22</v>
       </c>
@@ -13197,14 +13233,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="184" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
@@ -13218,12 +13254,12 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="185"/>
-      <c r="B37" s="189" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="189"/>
+      <c r="B37" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="190"/>
+      <c r="C37" s="194"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -13237,12 +13273,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="185"/>
-      <c r="B38" s="191" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="189"/>
+      <c r="B38" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="192"/>
+      <c r="C38" s="196"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -13256,12 +13292,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="186"/>
-      <c r="B39" s="193" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="190"/>
+      <c r="B39" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="194"/>
+      <c r="C39" s="198"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
@@ -13275,14 +13311,14 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="197" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="187" t="s">
+      <c r="B41" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="188"/>
+      <c r="C41" s="192"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
@@ -13292,12 +13328,12 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="197"/>
-      <c r="B42" s="189" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="201"/>
+      <c r="B42" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="190"/>
+      <c r="C42" s="194"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -13307,12 +13343,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="197"/>
-      <c r="B43" s="191" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="201"/>
+      <c r="B43" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="192"/>
+      <c r="C43" s="196"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -13322,12 +13358,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="197"/>
-      <c r="B44" s="198" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="201"/>
+      <c r="B44" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="199"/>
+      <c r="C44" s="203"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -13377,33 +13413,33 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="D1" s="149" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="149" t="s">
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="151"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="155"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
       <c r="P1" s="57"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
@@ -13439,7 +13475,7 @@
       <c r="O2" s="55"/>
       <c r="P2" s="57"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
@@ -13475,7 +13511,7 @@
       <c r="O3" s="55"/>
       <c r="P3" s="57"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
@@ -13498,11 +13534,11 @@
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="A5" s="181" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="200">
+      <c r="B5" s="204">
         <v>1</v>
       </c>
       <c r="C5" s="59" t="s">
@@ -13549,9 +13585,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="182"/>
-      <c r="B6" s="201"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="186"/>
+      <c r="B6" s="205"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -13569,9 +13605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="182"/>
-      <c r="B7" s="201"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="186"/>
+      <c r="B7" s="205"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -13595,9 +13631,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="182"/>
-      <c r="B8" s="202"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="186"/>
+      <c r="B8" s="206"/>
       <c r="C8" s="61" t="s">
         <v>9</v>
       </c>
@@ -13615,9 +13651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="182"/>
-      <c r="B9" s="205" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="186"/>
+      <c r="B9" s="209" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -13664,9 +13700,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="182"/>
-      <c r="B10" s="206"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="186"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -13688,9 +13724,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="182"/>
-      <c r="B11" s="206"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="186"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -13708,9 +13744,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="182"/>
-      <c r="B12" s="206"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="186"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
@@ -13728,9 +13764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="182"/>
-      <c r="B13" s="206"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="186"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
@@ -13775,9 +13811,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="182"/>
-      <c r="B14" s="206"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="186"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -13797,9 +13833,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="182"/>
-      <c r="B15" s="206"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="186"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -13819,9 +13855,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="182"/>
-      <c r="B16" s="206"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="186"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="60" t="s">
         <v>9</v>
       </c>
@@ -13839,11 +13875,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
-      <c r="A17" s="181" t="s">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="175"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
@@ -13888,9 +13924,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="182"/>
-      <c r="B18" s="176"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="186"/>
+      <c r="B18" s="180"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -13910,9 +13946,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="182"/>
-      <c r="B19" s="176"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="186"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -13932,9 +13968,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="182"/>
-      <c r="B20" s="176"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="186"/>
+      <c r="B20" s="180"/>
       <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
@@ -13952,9 +13988,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="182"/>
-      <c r="B21" s="203"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="186"/>
+      <c r="B21" s="207"/>
       <c r="C21" s="64" t="s">
         <v>37</v>
       </c>
@@ -13999,9 +14035,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="182"/>
-      <c r="B22" s="203"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="186"/>
+      <c r="B22" s="207"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -14019,9 +14055,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="182"/>
-      <c r="B23" s="203"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="186"/>
+      <c r="B23" s="207"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -14041,9 +14077,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="183"/>
-      <c r="B24" s="204"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="187"/>
+      <c r="B24" s="208"/>
       <c r="C24" s="61" t="s">
         <v>9</v>
       </c>
@@ -14061,11 +14097,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="207" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="207"/>
+      <c r="C25" s="211"/>
       <c r="D25" s="47">
         <f t="shared" ref="D25:M28" si="6">SUM(D5,D9,D13,D17,D21)</f>
         <v>0</v>
@@ -14107,7 +14143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="29" t="s">
         <v>7</v>
       </c>
@@ -14152,7 +14188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="29" t="s">
         <v>8</v>
       </c>
@@ -14197,7 +14233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="30" t="s">
         <v>9</v>
       </c>
@@ -14242,14 +14278,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="144" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="208" t="s">
+      <c r="B30" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="209"/>
+      <c r="C30" s="213"/>
       <c r="D30" s="32">
         <f xml:space="preserve"> D26</f>
         <v>0</v>
@@ -14287,12 +14323,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="145"/>
-      <c r="B31" s="210" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="149"/>
+      <c r="B31" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="190"/>
+      <c r="C31" s="194"/>
       <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
@@ -14330,12 +14366,12 @@
         <v>2.5555555555555554</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1">
-      <c r="A32" s="145"/>
-      <c r="B32" s="211" t="s">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="149"/>
+      <c r="B32" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="192"/>
+      <c r="C32" s="196"/>
       <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
@@ -14373,12 +14409,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" thickTop="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="195" t="s">
+    <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="150"/>
+      <c r="B33" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="200"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0</v>
@@ -14416,7 +14452,7 @@
         <v>3.5555555555555554</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28">
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="23" t="s">
         <v>22</v>
       </c>
@@ -14430,14 +14466,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="184" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:H26)</f>
         <v>6</v>
@@ -14451,12 +14487,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="185"/>
-      <c r="B37" s="189" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="189"/>
+      <c r="B37" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="190"/>
+      <c r="C37" s="194"/>
       <c r="D37" s="26">
         <f t="shared" ref="D37:D38" si="7" xml:space="preserve"> SUM(D27:H27)</f>
         <v>8</v>
@@ -14470,12 +14506,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="185"/>
-      <c r="B38" s="191" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="189"/>
+      <c r="B38" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="192"/>
+      <c r="C38" s="196"/>
       <c r="D38" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -14489,12 +14525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="186"/>
-      <c r="B39" s="193" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="190"/>
+      <c r="B39" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="194"/>
+      <c r="C39" s="198"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:H25)</f>
         <v>14</v>
@@ -14508,14 +14544,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="197" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="187" t="s">
+      <c r="B41" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="188"/>
+      <c r="C41" s="192"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>6</v>
@@ -14525,12 +14561,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="197"/>
-      <c r="B42" s="189" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="201"/>
+      <c r="B42" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="190"/>
+      <c r="C42" s="194"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>8</v>
@@ -14540,12 +14576,12 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="197"/>
-      <c r="B43" s="191" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="201"/>
+      <c r="B43" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="192"/>
+      <c r="C43" s="196"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -14555,12 +14591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="197"/>
-      <c r="B44" s="198" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="201"/>
+      <c r="B44" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="199"/>
+      <c r="C44" s="203"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>14</v>
@@ -14611,37 +14647,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="D1" s="172" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D1" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="172" t="s">
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="173"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="177"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
@@ -14688,7 +14724,7 @@
         <v>42035</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
@@ -14735,7 +14771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="106" t="s">
         <v>12</v>
       </c>
@@ -14760,11 +14796,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="218" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="225">
+      <c r="B5" s="223">
         <v>12</v>
       </c>
       <c r="C5" s="110" t="s">
@@ -14784,7 +14820,7 @@
       </c>
       <c r="G5" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="111">
         <f t="shared" si="0"/>
@@ -14828,12 +14864,12 @@
       </c>
       <c r="R5" s="112">
         <f>SUM(D5:Q5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="219"/>
-      <c r="B6" s="201"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="217"/>
+      <c r="B6" s="205"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -14856,9 +14892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="219"/>
-      <c r="B7" s="201"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="217"/>
+      <c r="B7" s="205"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -14881,16 +14917,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="219"/>
-      <c r="B8" s="226"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="217"/>
+      <c r="B8" s="224"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="115"/>
       <c r="E8" s="115"/>
       <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
+      <c r="G8" s="116">
+        <v>1</v>
+      </c>
       <c r="H8" s="116"/>
       <c r="I8" s="116"/>
       <c r="J8" s="116"/>
@@ -14903,12 +14941,12 @@
       <c r="Q8" s="116"/>
       <c r="R8" s="117">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="219"/>
-      <c r="B9" s="212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="217"/>
+      <c r="B9" s="225">
         <v>15</v>
       </c>
       <c r="C9" s="118" t="s">
@@ -14956,15 +14994,15 @@
       </c>
       <c r="N9" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="O9" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="P9" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q9" s="111">
         <f t="shared" si="2"/>
@@ -14972,12 +15010,12 @@
       </c>
       <c r="R9" s="112">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="219"/>
-      <c r="B10" s="213"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="217"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -15000,9 +15038,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="219"/>
-      <c r="B11" s="213"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="217"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -15025,9 +15063,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="219"/>
-      <c r="B12" s="214"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="217"/>
+      <c r="B12" s="227"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -15041,18 +15079,24 @@
       <c r="K12" s="116"/>
       <c r="L12" s="116"/>
       <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
+      <c r="N12" s="116">
+        <v>4.75</v>
+      </c>
+      <c r="O12" s="116">
+        <v>2.75</v>
+      </c>
+      <c r="P12" s="116">
+        <v>0.5</v>
+      </c>
       <c r="Q12" s="116"/>
       <c r="R12" s="117">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="219"/>
-      <c r="B13" s="212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="217"/>
+      <c r="B13" s="225">
         <v>21</v>
       </c>
       <c r="C13" s="119" t="s">
@@ -15119,9 +15163,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="219"/>
-      <c r="B14" s="213"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="217"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -15150,9 +15194,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="219"/>
-      <c r="B15" s="213"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="217"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -15175,9 +15219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="219"/>
-      <c r="B16" s="214"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="217"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -15200,9 +15244,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="219"/>
-      <c r="B17" s="212">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="217"/>
+      <c r="B17" s="225">
         <v>18</v>
       </c>
       <c r="C17" s="119" t="s">
@@ -15269,9 +15313,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="219"/>
-      <c r="B18" s="213"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="217"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -15300,9 +15344,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="219"/>
-      <c r="B19" s="213"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="217"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -15325,9 +15369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="219"/>
-      <c r="B20" s="214"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="217"/>
+      <c r="B20" s="227"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -15350,9 +15394,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="219"/>
-      <c r="B21" s="215" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="217"/>
+      <c r="B21" s="228" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="119" t="s">
@@ -15419,9 +15463,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="219"/>
-      <c r="B22" s="216"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="217"/>
+      <c r="B22" s="229"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -15444,9 +15488,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="219"/>
-      <c r="B23" s="216"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="217"/>
+      <c r="B23" s="229"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -15473,9 +15517,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="219"/>
-      <c r="B24" s="217"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="217"/>
+      <c r="B24" s="230"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -15498,9 +15542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="219"/>
-      <c r="B25" s="215" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="217"/>
+      <c r="B25" s="228" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="119" t="s">
@@ -15567,9 +15611,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="219"/>
-      <c r="B26" s="216"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="217"/>
+      <c r="B26" s="229"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
       </c>
@@ -15592,9 +15636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="219"/>
-      <c r="B27" s="216"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="217"/>
+      <c r="B27" s="229"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
       </c>
@@ -15619,9 +15663,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="219"/>
-      <c r="B28" s="217"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="217"/>
+      <c r="B28" s="230"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
       </c>
@@ -15644,9 +15688,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="219"/>
-      <c r="B29" s="215">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="217"/>
+      <c r="B29" s="228">
         <v>31</v>
       </c>
       <c r="C29" s="119" t="s">
@@ -15713,9 +15757,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="219"/>
-      <c r="B30" s="216"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="217"/>
+      <c r="B30" s="229"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -15738,9 +15782,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="219"/>
-      <c r="B31" s="216"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="217"/>
+      <c r="B31" s="229"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -15767,9 +15811,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="220"/>
-      <c r="B32" s="217"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="218"/>
+      <c r="B32" s="230"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -15792,11 +15836,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="218" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="221"/>
+      <c r="B33" s="219"/>
       <c r="C33" s="110" t="s">
         <v>51</v>
       </c>
@@ -15861,9 +15905,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="219"/>
-      <c r="B34" s="176"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="217"/>
+      <c r="B34" s="180"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -15886,9 +15930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="219"/>
-      <c r="B35" s="176"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="217"/>
+      <c r="B35" s="180"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -15913,9 +15957,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="219"/>
-      <c r="B36" s="176"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="217"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -15938,9 +15982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="219"/>
-      <c r="B37" s="222"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="217"/>
+      <c r="B37" s="220"/>
       <c r="C37" s="110" t="s">
         <v>52</v>
       </c>
@@ -16005,9 +16049,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="219"/>
-      <c r="B38" s="223"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="217"/>
+      <c r="B38" s="221"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -16030,9 +16074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="219"/>
-      <c r="B39" s="223"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="217"/>
+      <c r="B39" s="221"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -16059,9 +16103,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="220"/>
-      <c r="B40" s="224"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="218"/>
+      <c r="B40" s="222"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -16084,11 +16128,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
-      <c r="B41" s="207" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="207"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="47">
         <f t="shared" ref="D41:Q41" si="12">SUM(D21,D25,D29,D33,D37,D17,D13,D9,D5)</f>
         <v>0</v>
@@ -16103,7 +16147,7 @@
       </c>
       <c r="G41" s="47">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="47">
         <f t="shared" si="12"/>
@@ -16131,15 +16175,15 @@
       </c>
       <c r="N41" s="47">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="O41" s="47">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="P41" s="47">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q41" s="47">
         <f t="shared" si="12"/>
@@ -16147,10 +16191,10 @@
       </c>
       <c r="R41" s="121">
         <f>SUM(D41:Q41)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C42" s="100" t="s">
         <v>7</v>
       </c>
@@ -16215,7 +16259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C43" s="100" t="s">
         <v>8</v>
       </c>
@@ -16280,7 +16324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C44" s="101" t="s">
         <v>9</v>
       </c>
@@ -16298,7 +16342,7 @@
       </c>
       <c r="G44" s="42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="42">
         <f t="shared" si="13"/>
@@ -16326,15 +16370,15 @@
       </c>
       <c r="N44" s="42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="O44" s="42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="P44" s="42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q44" s="42">
         <f t="shared" si="13"/>
@@ -16342,17 +16386,17 @@
       </c>
       <c r="R44" s="42">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="208" t="s">
+      <c r="B46" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="209"/>
+      <c r="C46" s="213"/>
       <c r="D46" s="32">
         <f>D42</f>
         <v>0</v>
@@ -16411,12 +16455,12 @@
       </c>
       <c r="R46" s="38"/>
     </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="145"/>
-      <c r="B47" s="210" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="149"/>
+      <c r="B47" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="190"/>
+      <c r="C47" s="194"/>
       <c r="D47" s="38">
         <f>D43</f>
         <v>0</v>
@@ -16475,12 +16519,12 @@
       </c>
       <c r="R47" s="38"/>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1">
-      <c r="A48" s="145"/>
-      <c r="B48" s="211" t="s">
+    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="149"/>
+      <c r="B48" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="192"/>
+      <c r="C48" s="196"/>
       <c r="D48" s="34">
         <f>D44</f>
         <v>0</v>
@@ -16495,56 +16539,56 @@
       </c>
       <c r="G48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:G44)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:H44)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:I44)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:J44)</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:K44)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:L44)</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:M44)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:N44)</f>
-        <v>0</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="O48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:O44)</f>
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="P48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:P44)</f>
-        <v>0</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="Q48" s="33">
         <f xml:space="preserve"> AVERAGE($D$44:Q44)</f>
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="R48" s="38"/>
     </row>
-    <row r="49" spans="1:18" ht="15" thickTop="1">
-      <c r="A49" s="146"/>
-      <c r="B49" s="195" t="s">
+    <row r="49" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="150"/>
+      <c r="B49" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="196"/>
+      <c r="C49" s="200"/>
       <c r="D49" s="35">
         <f>D41</f>
         <v>0</v>
@@ -16559,51 +16603,51 @@
       </c>
       <c r="G49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:G41)</f>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:H41)</f>
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:I41)</f>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:J41)</f>
-        <v>3</v>
+        <v>3.1428571428571428</v>
       </c>
       <c r="K49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:K41)</f>
-        <v>3.125</v>
+        <v>3.25</v>
       </c>
       <c r="L49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:L41)</f>
-        <v>2.8888888888888888</v>
+        <v>3</v>
       </c>
       <c r="M49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:M41)</f>
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:N41)</f>
-        <v>2.3636363636363638</v>
+        <v>2.8863636363636362</v>
       </c>
       <c r="O49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:O41)</f>
-        <v>2.1666666666666665</v>
+        <v>2.875</v>
       </c>
       <c r="P49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:P41)</f>
-        <v>2</v>
+        <v>2.6923076923076925</v>
       </c>
       <c r="Q49" s="33">
         <f xml:space="preserve"> AVERAGE($D$41:Q41)</f>
-        <v>2.2142857142857144</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="R49" s="57"/>
     </row>
-    <row r="51" spans="1:18" ht="28">
+    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="23" t="s">
         <v>22</v>
       </c>
@@ -16617,14 +16661,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="184" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="187" t="s">
+      <c r="B52" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="188"/>
+      <c r="C52" s="192"/>
       <c r="D52" s="26">
         <f xml:space="preserve"> SUM(D42:J42)</f>
         <v>3</v>
@@ -16638,12 +16682,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="185"/>
-      <c r="B53" s="189" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="189"/>
+      <c r="B53" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="190"/>
+      <c r="C53" s="194"/>
       <c r="D53" s="26">
         <f t="shared" ref="D53:D54" si="14" xml:space="preserve"> SUM(D43:J43)</f>
         <v>18</v>
@@ -16657,52 +16701,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="185"/>
-      <c r="B54" s="191" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="189"/>
+      <c r="B54" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="192"/>
+      <c r="C54" s="196"/>
       <c r="D54" s="26">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="26">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F54" s="27">
         <f xml:space="preserve"> SUM(D54:E54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="186"/>
-      <c r="B55" s="193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="190"/>
+      <c r="B55" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="194"/>
+      <c r="C55" s="198"/>
       <c r="D55" s="26">
         <f xml:space="preserve"> SUM(D41:J41)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E55" s="26">
         <f xml:space="preserve"> SUM(K41:Q41)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F55" s="27">
         <f xml:space="preserve"> SUM(D55:E55)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="197" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="187" t="s">
+      <c r="B57" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="188"/>
+      <c r="C57" s="192"/>
       <c r="D57" s="31">
         <f xml:space="preserve"> D52</f>
         <v>3</v>
@@ -16712,12 +16756,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="197"/>
-      <c r="B58" s="189" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="201"/>
+      <c r="B58" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="190"/>
+      <c r="C58" s="194"/>
       <c r="D58" s="31">
         <f xml:space="preserve"> D53</f>
         <v>18</v>
@@ -16727,37 +16771,37 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="197"/>
-      <c r="B59" s="191" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="201"/>
+      <c r="B59" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="192"/>
+      <c r="C59" s="196"/>
       <c r="D59" s="31">
         <f xml:space="preserve"> D54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="31">
         <f xml:space="preserve"> AVERAGE(D54:E54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="197"/>
-      <c r="B60" s="198" t="s">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="201"/>
+      <c r="B60" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="199"/>
+      <c r="C60" s="203"/>
       <c r="D60" s="31">
         <f xml:space="preserve"> D55</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E60" s="31">
         <f xml:space="preserve"> AVERAGE(D55:E55)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B62" s="122"/>
     </row>
   </sheetData>

--- a/Management/Effort and Velocity.xlsx
+++ b/Management/Effort and Velocity.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14445" tabRatio="295"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="56">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>23, 25, 27, 29</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -1319,6 +1325,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1332,12 +1362,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1391,22 +1415,61 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1428,63 +1491,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,18 +1538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1567,6 +1561,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,6 +1654,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2142,12 +2149,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114692592"/>
-        <c:axId val="114693768"/>
+        <c:axId val="153244416"/>
+        <c:axId val="153245952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114692592"/>
+        <c:axId val="153244416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,14 +2165,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114693768"/>
+        <c:crossAx val="153245952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114693768"/>
+        <c:axId val="153245952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,13 +2183,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114692592"/>
+        <c:crossAx val="153244416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2444,12 +2453,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116229208"/>
-        <c:axId val="115769584"/>
+        <c:axId val="156916352"/>
+        <c:axId val="156930432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="116229208"/>
+        <c:axId val="156916352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,14 +2469,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115769584"/>
+        <c:crossAx val="156930432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115769584"/>
+        <c:axId val="156930432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116229208"/>
+        <c:crossAx val="156916352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2746,12 +2756,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115771152"/>
-        <c:axId val="115774288"/>
+        <c:axId val="156951680"/>
+        <c:axId val="156953216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115771152"/>
+        <c:axId val="156951680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,14 +2772,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115774288"/>
+        <c:crossAx val="156953216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115774288"/>
+        <c:axId val="156953216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115771152"/>
+        <c:crossAx val="156951680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3051,12 +3062,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115772328"/>
-        <c:axId val="115770760"/>
+        <c:axId val="153705856"/>
+        <c:axId val="153711744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115772328"/>
+        <c:axId val="153705856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3066,14 +3078,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115770760"/>
+        <c:crossAx val="153711744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115770760"/>
+        <c:axId val="153711744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3084,7 +3096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115772328"/>
+        <c:crossAx val="153705856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3317,12 +3329,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115770368"/>
-        <c:axId val="115767624"/>
+        <c:axId val="153737472"/>
+        <c:axId val="153751552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115770368"/>
+        <c:axId val="153737472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3332,14 +3345,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115767624"/>
+        <c:crossAx val="153751552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115767624"/>
+        <c:axId val="153751552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3350,7 +3363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115770368"/>
+        <c:crossAx val="153737472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3583,12 +3596,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115768800"/>
-        <c:axId val="115771936"/>
+        <c:axId val="153776896"/>
+        <c:axId val="153778432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115768800"/>
+        <c:axId val="153776896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,14 +3612,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115771936"/>
+        <c:crossAx val="153778432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115771936"/>
+        <c:axId val="153778432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115768800"/>
+        <c:crossAx val="153776896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3849,12 +3863,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115773504"/>
-        <c:axId val="115774680"/>
+        <c:axId val="156961792"/>
+        <c:axId val="156971776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115773504"/>
+        <c:axId val="156961792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3864,14 +3879,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115774680"/>
+        <c:crossAx val="156971776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115774680"/>
+        <c:axId val="156971776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +3897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115773504"/>
+        <c:crossAx val="156961792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4115,12 +4130,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115775072"/>
-        <c:axId val="115768016"/>
+        <c:axId val="156993024"/>
+        <c:axId val="156994560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115775072"/>
+        <c:axId val="156993024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,14 +4146,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115768016"/>
+        <c:crossAx val="156994560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115768016"/>
+        <c:axId val="156994560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4148,7 +4164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115775072"/>
+        <c:crossAx val="156993024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4441,12 +4457,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="339479432"/>
-        <c:axId val="339475120"/>
+        <c:axId val="158187904"/>
+        <c:axId val="158189440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="339479432"/>
+        <c:axId val="158187904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4456,14 +4473,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339475120"/>
+        <c:crossAx val="158189440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="339475120"/>
+        <c:axId val="158189440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4474,7 +4491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339479432"/>
+        <c:crossAx val="158187904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4770,12 +4787,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="339476296"/>
-        <c:axId val="339480608"/>
+        <c:axId val="158796416"/>
+        <c:axId val="158806400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="339476296"/>
+        <c:axId val="158796416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4785,14 +4803,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339480608"/>
+        <c:crossAx val="158806400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="339480608"/>
+        <c:axId val="158806400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,7 +4821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339476296"/>
+        <c:crossAx val="158796416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5104,12 +5122,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="339476688"/>
-        <c:axId val="339478256"/>
+        <c:axId val="158848128"/>
+        <c:axId val="158849664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="339476688"/>
+        <c:axId val="158848128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5119,14 +5138,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339478256"/>
+        <c:crossAx val="158849664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="339478256"/>
+        <c:axId val="158849664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5137,7 +5156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339476688"/>
+        <c:crossAx val="158848128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5193,6 +5212,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5687,12 +5707,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114686320"/>
-        <c:axId val="114689064"/>
+        <c:axId val="153259008"/>
+        <c:axId val="153281280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114686320"/>
+        <c:axId val="153259008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5702,14 +5723,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114689064"/>
+        <c:crossAx val="153281280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114689064"/>
+        <c:axId val="153281280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,13 +5741,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114686320"/>
+        <c:crossAx val="153259008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6013,12 +6035,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="339473552"/>
-        <c:axId val="339470808"/>
+        <c:axId val="158944640"/>
+        <c:axId val="158946432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="339473552"/>
+        <c:axId val="158944640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6028,14 +6051,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339470808"/>
+        <c:crossAx val="158946432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="339470808"/>
+        <c:axId val="158946432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6046,7 +6069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339473552"/>
+        <c:crossAx val="158944640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6102,6 +6125,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6596,12 +6620,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114687104"/>
-        <c:axId val="114687496"/>
+        <c:axId val="153179648"/>
+        <c:axId val="153181184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114687104"/>
+        <c:axId val="153179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6611,14 +6636,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114687496"/>
+        <c:crossAx val="153181184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114687496"/>
+        <c:axId val="153181184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6629,13 +6654,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114687104"/>
+        <c:crossAx val="153179648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6685,6 +6711,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7179,12 +7206,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116233520"/>
-        <c:axId val="116233912"/>
+        <c:axId val="153206784"/>
+        <c:axId val="153208320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="116233520"/>
+        <c:axId val="153206784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7194,14 +7222,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116233912"/>
+        <c:crossAx val="153208320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="116233912"/>
+        <c:axId val="153208320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7212,13 +7240,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116233520"/>
+        <c:crossAx val="153206784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7415,12 +7444,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116234696"/>
-        <c:axId val="116236656"/>
+        <c:axId val="155986176"/>
+        <c:axId val="155987968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116234696"/>
+        <c:axId val="155986176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7430,7 +7460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116236656"/>
+        <c:crossAx val="155987968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7438,7 +7468,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116236656"/>
+        <c:axId val="155987968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7449,7 +7479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116234696"/>
+        <c:crossAx val="155986176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7506,6 +7536,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7652,12 +7683,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116229992"/>
-        <c:axId val="116231560"/>
+        <c:axId val="156025600"/>
+        <c:axId val="156027136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116229992"/>
+        <c:axId val="156025600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7667,7 +7699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116231560"/>
+        <c:crossAx val="156027136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7675,7 +7707,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116231560"/>
+        <c:axId val="156027136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7686,13 +7718,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116229992"/>
+        <c:crossAx val="156025600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7742,6 +7775,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7888,12 +7922,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116230384"/>
-        <c:axId val="116232344"/>
+        <c:axId val="156036096"/>
+        <c:axId val="156775168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116230384"/>
+        <c:axId val="156036096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7903,7 +7938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116232344"/>
+        <c:crossAx val="156775168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7911,7 +7946,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116232344"/>
+        <c:axId val="156775168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7922,13 +7957,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116230384"/>
+        <c:crossAx val="156036096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7978,6 +8014,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8124,12 +8161,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116232736"/>
-        <c:axId val="116235088"/>
+        <c:axId val="156804608"/>
+        <c:axId val="156806144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116232736"/>
+        <c:axId val="156804608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8139,7 +8177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116235088"/>
+        <c:crossAx val="156806144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8147,7 +8185,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116235088"/>
+        <c:axId val="156806144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8158,13 +8196,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116232736"/>
+        <c:crossAx val="156804608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8427,12 +8466,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116229600"/>
-        <c:axId val="116231168"/>
+        <c:axId val="156901760"/>
+        <c:axId val="156903296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="116229600"/>
+        <c:axId val="156901760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8442,14 +8482,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116231168"/>
+        <c:crossAx val="156903296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="116231168"/>
+        <c:axId val="156903296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8460,7 +8500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116229600"/>
+        <c:crossAx val="156901760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9180,7 +9220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9215,7 +9255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9426,8 +9466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9436,96 +9476,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D2" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="153" t="s">
+      <c r="D2" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="176" t="s">
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="172"/>
-      <c r="AH2" s="172"/>
-      <c r="AI2" s="172"/>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="172"/>
-      <c r="AL2" s="177"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="155"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153" t="s">
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="153" t="s">
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="154"/>
-      <c r="U3" s="153" t="s">
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="173" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="174"/>
-      <c r="AK3" s="174"/>
-      <c r="AL3" s="175"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="151" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="153"/>
+      <c r="AF3" s="151" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="152"/>
+      <c r="AJ3" s="152"/>
+      <c r="AK3" s="152"/>
+      <c r="AL3" s="153"/>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
@@ -9742,7 +9782,7 @@
       </c>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="162" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -9878,7 +9918,7 @@
       </c>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="157"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -10012,7 +10052,7 @@
       </c>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="157"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
@@ -10146,7 +10186,7 @@
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="158"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
@@ -10313,7 +10353,7 @@
       <c r="AI10" s="57"/>
     </row>
     <row r="11" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="162" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -10460,7 +10500,7 @@
       </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B12" s="157"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
@@ -10605,7 +10645,7 @@
       </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B13" s="157"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
@@ -10750,7 +10790,7 @@
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B14" s="158"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="69" t="s">
         <v>4</v>
       </c>
@@ -10928,7 +10968,7 @@
       <c r="AI15" s="57"/>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="82" t="s">
@@ -11076,7 +11116,7 @@
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="149"/>
+      <c r="B17" s="157"/>
       <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
@@ -11222,7 +11262,7 @@
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="149"/>
+      <c r="B18" s="157"/>
       <c r="C18" s="70" t="s">
         <v>9</v>
       </c>
@@ -11368,7 +11408,7 @@
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B19" s="150"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="83" t="s">
         <v>4</v>
       </c>
@@ -11514,28 +11554,28 @@
       </c>
     </row>
     <row r="21" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163">
+      <c r="C21" s="168"/>
+      <c r="D21" s="169">
         <v>1</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="159">
+      <c r="E21" s="170"/>
+      <c r="F21" s="165">
         <v>2</v>
       </c>
-      <c r="G21" s="160"/>
-      <c r="H21" s="170">
+      <c r="G21" s="166"/>
+      <c r="H21" s="176">
         <v>3</v>
       </c>
-      <c r="I21" s="171"/>
+      <c r="I21" s="177"/>
     </row>
     <row r="22" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="166"/>
+      <c r="C22" s="172"/>
       <c r="D22" s="95">
         <v>1</v>
       </c>
@@ -11556,7 +11596,7 @@
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="156" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="82" t="s">
@@ -11588,7 +11628,7 @@
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B24" s="149"/>
+      <c r="B24" s="157"/>
       <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
@@ -11609,16 +11649,16 @@
         <v>15</v>
       </c>
       <c r="H24" s="98">
-        <f t="shared" ref="H24:H26" si="28" xml:space="preserve"> SUM(Y7:AE7)</f>
+        <f xml:space="preserve"> SUM(Y7:AE7)</f>
         <v>18</v>
       </c>
       <c r="I24" s="91">
-        <f t="shared" ref="I24:I26" si="29" xml:space="preserve"> SUM(AF7:AL7)</f>
+        <f t="shared" ref="I24:I26" si="28" xml:space="preserve"> SUM(AF7:AL7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" s="149"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="70" t="s">
         <v>9</v>
       </c>
@@ -11635,20 +11675,20 @@
         <v>0</v>
       </c>
       <c r="G25" s="90">
-        <f t="shared" ref="G25:G26" si="30" xml:space="preserve"> SUM(U8:X8)</f>
+        <f t="shared" ref="G25:G26" si="29" xml:space="preserve"> SUM(U8:X8)</f>
         <v>0</v>
       </c>
       <c r="H25" s="98">
+        <f t="shared" ref="H24:H26" si="30" xml:space="preserve"> SUM(Y8:AE8)</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="91">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="91">
-        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B26" s="150"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="83" t="s">
         <v>4</v>
       </c>
@@ -11665,15 +11705,15 @@
         <v>14</v>
       </c>
       <c r="G26" s="137">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="H26" s="142">
         <f t="shared" si="30"/>
-        <v>18</v>
-      </c>
-      <c r="H26" s="142">
+        <v>22</v>
+      </c>
+      <c r="I26" s="143">
         <f t="shared" si="28"/>
-        <v>22</v>
-      </c>
-      <c r="I26" s="143">
-        <f t="shared" si="29"/>
         <v>18</v>
       </c>
     </row>
@@ -11684,7 +11724,7 @@
       <c r="I27" s="57"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B28" s="167" t="s">
+      <c r="B28" s="173" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -11716,7 +11756,7 @@
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B29" s="168"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
@@ -11746,7 +11786,7 @@
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B30" s="168"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="70" t="s">
         <v>9</v>
       </c>
@@ -11776,7 +11816,7 @@
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" s="169"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="83" t="s">
         <v>4</v>
       </c>
@@ -11812,7 +11852,7 @@
       <c r="I32" s="57"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="148" t="s">
+      <c r="B33" s="156" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="82" t="s">
@@ -11844,7 +11884,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="149"/>
+      <c r="B34" s="157"/>
       <c r="C34" s="70" t="s">
         <v>8</v>
       </c>
@@ -11874,7 +11914,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="149"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
@@ -11904,7 +11944,7 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="150"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="83" t="s">
         <v>4</v>
       </c>
@@ -11935,12 +11975,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="P2:X2"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="Y2:AL2"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="J3:O3"/>
@@ -11955,6 +11989,12 @@
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="H21:I21"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="P2:X2"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="Y2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -11985,22 +12025,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="152" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="178"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="197"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -12108,10 +12148,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="179">
+      <c r="B5" s="198">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -12171,8 +12211,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
-      <c r="B6" s="180"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="199"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -12196,8 +12236,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
-      <c r="B7" s="180"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="199"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -12221,8 +12261,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="180"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -12246,8 +12286,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
-      <c r="B9" s="180"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="199"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -12305,8 +12345,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
-      <c r="B10" s="180"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="199"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -12328,8 +12368,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="186"/>
-      <c r="B11" s="180"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="199"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -12351,8 +12391,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
-      <c r="B12" s="180"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -12374,8 +12414,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
-      <c r="B13" s="180"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -12433,8 +12473,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
-      <c r="B14" s="180"/>
+      <c r="A14" s="188"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -12456,8 +12496,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
-      <c r="B15" s="180"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -12479,8 +12519,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
-      <c r="B16" s="181"/>
+      <c r="A16" s="188"/>
+      <c r="B16" s="200"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -12506,8 +12546,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
-      <c r="B17" s="179">
+      <c r="A17" s="188"/>
+      <c r="B17" s="198">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -12567,8 +12607,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
-      <c r="B18" s="180"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -12594,8 +12634,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="186"/>
-      <c r="B19" s="180"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -12617,8 +12657,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="186"/>
-      <c r="B20" s="181"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="200"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -12640,8 +12680,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="186"/>
-      <c r="B21" s="182"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="201"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -12699,8 +12739,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="186"/>
-      <c r="B22" s="183"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -12722,8 +12762,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="186"/>
-      <c r="B23" s="183"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="202"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -12747,8 +12787,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="187"/>
-      <c r="B24" s="184"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -12998,7 +13038,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="156" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -13055,7 +13095,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="149"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
@@ -13110,7 +13150,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="149"/>
+      <c r="A32" s="157"/>
       <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
@@ -13165,11 +13205,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="199" t="s">
+      <c r="A33" s="158"/>
+      <c r="B33" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="200"/>
+      <c r="C33" s="196"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
@@ -13234,13 +13274,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="188" t="s">
+      <c r="A36" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="191" t="s">
+      <c r="B36" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="192"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
@@ -13255,11 +13295,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="189"/>
-      <c r="B37" s="193" t="s">
+      <c r="A37" s="191"/>
+      <c r="B37" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="194"/>
+      <c r="C37" s="182"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -13274,11 +13314,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="189"/>
-      <c r="B38" s="195" t="s">
+      <c r="A38" s="191"/>
+      <c r="B38" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="196"/>
+      <c r="C38" s="184"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -13293,11 +13333,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="190"/>
-      <c r="B39" s="197" t="s">
+      <c r="A39" s="192"/>
+      <c r="B39" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="198"/>
+      <c r="C39" s="194"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
@@ -13312,13 +13352,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="201" t="s">
+      <c r="A41" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="191" t="s">
+      <c r="B41" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="192"/>
+      <c r="C41" s="180"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
@@ -13329,11 +13369,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="201"/>
-      <c r="B42" s="193" t="s">
+      <c r="A42" s="178"/>
+      <c r="B42" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="194"/>
+      <c r="C42" s="182"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -13344,11 +13384,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="201"/>
-      <c r="B43" s="195" t="s">
+      <c r="A43" s="178"/>
+      <c r="B43" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="196"/>
+      <c r="C43" s="184"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -13359,11 +13399,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="201"/>
-      <c r="B44" s="202" t="s">
+      <c r="A44" s="178"/>
+      <c r="B44" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="203"/>
+      <c r="C44" s="186"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -13375,11 +13415,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
@@ -13388,11 +13428,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13421,19 +13461,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="153" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="155"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="161"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
@@ -13535,7 +13575,7 @@
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="187" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="204">
@@ -13586,7 +13626,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
+      <c r="A6" s="188"/>
       <c r="B6" s="205"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
@@ -13606,7 +13646,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
+      <c r="A7" s="188"/>
       <c r="B7" s="205"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
@@ -13632,7 +13672,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
+      <c r="A8" s="188"/>
       <c r="B8" s="206"/>
       <c r="C8" s="61" t="s">
         <v>9</v>
@@ -13652,7 +13692,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
+      <c r="A9" s="188"/>
       <c r="B9" s="209" t="s">
         <v>32</v>
       </c>
@@ -13701,7 +13741,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="210"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
@@ -13725,7 +13765,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="186"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="210"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
@@ -13745,7 +13785,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
+      <c r="A12" s="188"/>
       <c r="B12" s="210"/>
       <c r="C12" s="61" t="s">
         <v>9</v>
@@ -13765,7 +13805,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="210"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
@@ -13812,7 +13852,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
+      <c r="A14" s="188"/>
       <c r="B14" s="210"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
@@ -13834,7 +13874,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
+      <c r="A15" s="188"/>
       <c r="B15" s="210"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
@@ -13856,7 +13896,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
+      <c r="A16" s="188"/>
       <c r="B16" s="210"/>
       <c r="C16" s="60" t="s">
         <v>9</v>
@@ -13876,10 +13916,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="179"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
@@ -13925,8 +13965,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
-      <c r="B18" s="180"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -13947,8 +13987,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="186"/>
-      <c r="B19" s="180"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -13969,8 +14009,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="186"/>
-      <c r="B20" s="180"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
@@ -13989,7 +14029,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="186"/>
+      <c r="A21" s="188"/>
       <c r="B21" s="207"/>
       <c r="C21" s="64" t="s">
         <v>37</v>
@@ -14036,7 +14076,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="186"/>
+      <c r="A22" s="188"/>
       <c r="B22" s="207"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
@@ -14056,7 +14096,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="186"/>
+      <c r="A23" s="188"/>
       <c r="B23" s="207"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
@@ -14078,7 +14118,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="187"/>
+      <c r="A24" s="189"/>
       <c r="B24" s="208"/>
       <c r="C24" s="61" t="s">
         <v>9</v>
@@ -14279,7 +14319,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="156" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="212" t="s">
@@ -14324,11 +14364,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="149"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="194"/>
+      <c r="C31" s="182"/>
       <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
@@ -14367,11 +14407,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="149"/>
+      <c r="A32" s="157"/>
       <c r="B32" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="196"/>
+      <c r="C32" s="184"/>
       <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
@@ -14410,11 +14450,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="199" t="s">
+      <c r="A33" s="158"/>
+      <c r="B33" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="200"/>
+      <c r="C33" s="196"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0</v>
@@ -14467,13 +14507,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="188" t="s">
+      <c r="A36" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="191" t="s">
+      <c r="B36" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="192"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:H26)</f>
         <v>6</v>
@@ -14488,11 +14528,11 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="189"/>
-      <c r="B37" s="193" t="s">
+      <c r="A37" s="191"/>
+      <c r="B37" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="194"/>
+      <c r="C37" s="182"/>
       <c r="D37" s="26">
         <f t="shared" ref="D37:D38" si="7" xml:space="preserve"> SUM(D27:H27)</f>
         <v>8</v>
@@ -14507,11 +14547,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="189"/>
-      <c r="B38" s="195" t="s">
+      <c r="A38" s="191"/>
+      <c r="B38" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="196"/>
+      <c r="C38" s="184"/>
       <c r="D38" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -14526,11 +14566,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="190"/>
-      <c r="B39" s="197" t="s">
+      <c r="A39" s="192"/>
+      <c r="B39" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="198"/>
+      <c r="C39" s="194"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:H25)</f>
         <v>14</v>
@@ -14545,13 +14585,13 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="201" t="s">
+      <c r="A41" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="191" t="s">
+      <c r="B41" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="192"/>
+      <c r="C41" s="180"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>6</v>
@@ -14562,11 +14602,11 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="201"/>
-      <c r="B42" s="193" t="s">
+      <c r="A42" s="178"/>
+      <c r="B42" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="194"/>
+      <c r="C42" s="182"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>8</v>
@@ -14577,11 +14617,11 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="201"/>
-      <c r="B43" s="195" t="s">
+      <c r="A43" s="178"/>
+      <c r="B43" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="196"/>
+      <c r="C43" s="184"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -14592,11 +14632,11 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="201"/>
-      <c r="B44" s="202" t="s">
+      <c r="A44" s="178"/>
+      <c r="B44" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="203"/>
+      <c r="C44" s="186"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>14</v>
@@ -14608,6 +14648,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A5:A16"/>
@@ -14622,16 +14672,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14658,24 +14698,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="176" t="s">
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="177"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="155"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -14800,7 +14840,7 @@
       <c r="A5" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="223">
+      <c r="B5" s="219">
         <v>12</v>
       </c>
       <c r="C5" s="110" t="s">
@@ -14919,7 +14959,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="217"/>
-      <c r="B8" s="224"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
@@ -14946,7 +14986,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="217"/>
-      <c r="B9" s="225">
+      <c r="B9" s="221">
         <v>15</v>
       </c>
       <c r="C9" s="118" t="s">
@@ -15015,7 +15055,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="217"/>
-      <c r="B10" s="226"/>
+      <c r="B10" s="222"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -15040,7 +15080,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="217"/>
-      <c r="B11" s="226"/>
+      <c r="B11" s="222"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -15065,7 +15105,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="217"/>
-      <c r="B12" s="227"/>
+      <c r="B12" s="223"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -15096,7 +15136,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="217"/>
-      <c r="B13" s="225">
+      <c r="B13" s="221">
         <v>21</v>
       </c>
       <c r="C13" s="119" t="s">
@@ -15165,7 +15205,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="217"/>
-      <c r="B14" s="226"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -15196,7 +15236,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="217"/>
-      <c r="B15" s="226"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -15221,7 +15261,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="217"/>
-      <c r="B16" s="227"/>
+      <c r="B16" s="223"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -15246,7 +15286,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="217"/>
-      <c r="B17" s="225">
+      <c r="B17" s="221">
         <v>18</v>
       </c>
       <c r="C17" s="119" t="s">
@@ -15315,7 +15355,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="217"/>
-      <c r="B18" s="226"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -15346,7 +15386,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="217"/>
-      <c r="B19" s="226"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -15371,7 +15411,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="217"/>
-      <c r="B20" s="227"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -15396,7 +15436,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="217"/>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="224" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="119" t="s">
@@ -15465,7 +15505,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="217"/>
-      <c r="B22" s="229"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -15490,7 +15530,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="217"/>
-      <c r="B23" s="229"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -15519,7 +15559,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="217"/>
-      <c r="B24" s="230"/>
+      <c r="B24" s="226"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -15544,7 +15584,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="217"/>
-      <c r="B25" s="228" t="s">
+      <c r="B25" s="224" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="119" t="s">
@@ -15613,7 +15653,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="217"/>
-      <c r="B26" s="229"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
       </c>
@@ -15638,7 +15678,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="217"/>
-      <c r="B27" s="229"/>
+      <c r="B27" s="225"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
       </c>
@@ -15665,7 +15705,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="217"/>
-      <c r="B28" s="230"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
       </c>
@@ -15690,7 +15730,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="217"/>
-      <c r="B29" s="228">
+      <c r="B29" s="224">
         <v>31</v>
       </c>
       <c r="C29" s="119" t="s">
@@ -15759,7 +15799,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="217"/>
-      <c r="B30" s="229"/>
+      <c r="B30" s="225"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -15784,7 +15824,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="217"/>
-      <c r="B31" s="229"/>
+      <c r="B31" s="225"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -15813,7 +15853,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="218"/>
-      <c r="B32" s="230"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -15840,7 +15880,7 @@
       <c r="A33" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="219"/>
+      <c r="B33" s="227"/>
       <c r="C33" s="110" t="s">
         <v>51</v>
       </c>
@@ -15907,7 +15947,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="217"/>
-      <c r="B34" s="180"/>
+      <c r="B34" s="199"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -15932,7 +15972,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="217"/>
-      <c r="B35" s="180"/>
+      <c r="B35" s="199"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -15959,7 +15999,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="217"/>
-      <c r="B36" s="180"/>
+      <c r="B36" s="199"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -15984,7 +16024,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="217"/>
-      <c r="B37" s="220"/>
+      <c r="B37" s="228"/>
       <c r="C37" s="110" t="s">
         <v>52</v>
       </c>
@@ -16051,7 +16091,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="217"/>
-      <c r="B38" s="221"/>
+      <c r="B38" s="229"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -16076,7 +16116,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="217"/>
-      <c r="B39" s="221"/>
+      <c r="B39" s="229"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -16105,7 +16145,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="218"/>
-      <c r="B40" s="222"/>
+      <c r="B40" s="230"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -16390,7 +16430,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="156" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="212" t="s">
@@ -16456,11 +16496,11 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="149"/>
+      <c r="A47" s="157"/>
       <c r="B47" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="194"/>
+      <c r="C47" s="182"/>
       <c r="D47" s="38">
         <f>D43</f>
         <v>0</v>
@@ -16520,11 +16560,11 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="149"/>
+      <c r="A48" s="157"/>
       <c r="B48" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="196"/>
+      <c r="C48" s="184"/>
       <c r="D48" s="34">
         <f>D44</f>
         <v>0</v>
@@ -16584,11 +16624,11 @@
       <c r="R48" s="38"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="150"/>
-      <c r="B49" s="199" t="s">
+      <c r="A49" s="158"/>
+      <c r="B49" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="200"/>
+      <c r="C49" s="196"/>
       <c r="D49" s="35">
         <f>D41</f>
         <v>0</v>
@@ -16662,13 +16702,13 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="188" t="s">
+      <c r="A52" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="191" t="s">
+      <c r="B52" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="192"/>
+      <c r="C52" s="180"/>
       <c r="D52" s="26">
         <f xml:space="preserve"> SUM(D42:J42)</f>
         <v>3</v>
@@ -16683,11 +16723,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="189"/>
-      <c r="B53" s="193" t="s">
+      <c r="A53" s="191"/>
+      <c r="B53" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="194"/>
+      <c r="C53" s="182"/>
       <c r="D53" s="26">
         <f t="shared" ref="D53:D54" si="14" xml:space="preserve"> SUM(D43:J43)</f>
         <v>18</v>
@@ -16702,11 +16742,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="189"/>
-      <c r="B54" s="195" t="s">
+      <c r="A54" s="191"/>
+      <c r="B54" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="196"/>
+      <c r="C54" s="184"/>
       <c r="D54" s="26">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -16721,11 +16761,11 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="190"/>
-      <c r="B55" s="197" t="s">
+      <c r="A55" s="192"/>
+      <c r="B55" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="198"/>
+      <c r="C55" s="194"/>
       <c r="D55" s="26">
         <f xml:space="preserve"> SUM(D41:J41)</f>
         <v>22</v>
@@ -16740,13 +16780,13 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="201" t="s">
+      <c r="A57" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="191" t="s">
+      <c r="B57" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="192"/>
+      <c r="C57" s="180"/>
       <c r="D57" s="31">
         <f xml:space="preserve"> D52</f>
         <v>3</v>
@@ -16757,11 +16797,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="201"/>
-      <c r="B58" s="193" t="s">
+      <c r="A58" s="178"/>
+      <c r="B58" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="194"/>
+      <c r="C58" s="182"/>
       <c r="D58" s="31">
         <f xml:space="preserve"> D53</f>
         <v>18</v>
@@ -16772,11 +16812,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="201"/>
-      <c r="B59" s="195" t="s">
+      <c r="A59" s="178"/>
+      <c r="B59" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="196"/>
+      <c r="C59" s="184"/>
       <c r="D59" s="31">
         <f xml:space="preserve"> D54</f>
         <v>1</v>
@@ -16787,11 +16827,11 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="201"/>
-      <c r="B60" s="202" t="s">
+      <c r="A60" s="178"/>
+      <c r="B60" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="203"/>
+      <c r="C60" s="186"/>
       <c r="D60" s="31">
         <f xml:space="preserve"> D55</f>
         <v>22</v>
@@ -16806,6 +16846,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="A5:A32"/>
@@ -16816,25 +16875,6 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Management/Effort and Velocity.xlsx
+++ b/Management/Effort and Velocity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="25605" windowHeight="14445" tabRatio="295"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="25605" windowHeight="14385" tabRatio="295"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -1325,30 +1325,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1362,6 +1338,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1415,61 +1397,22 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1491,6 +1434,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,6 +1538,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,18 +1573,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2151,11 +2151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153244416"/>
-        <c:axId val="153245952"/>
+        <c:axId val="52714112"/>
+        <c:axId val="52715904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="153244416"/>
+        <c:axId val="52714112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,14 +2165,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153245952"/>
+        <c:crossAx val="52715904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153245952"/>
+        <c:axId val="52715904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153244416"/>
+        <c:crossAx val="52714112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2230,11 +2230,331 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Bryan Effort</a:t>
+              <a:t>Team Weekly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Velocity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Team</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$D$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bryan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$D$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9583333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Daniel</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$D$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8333333333333339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Zach</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$D$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="212388096"/>
+        <c:axId val="211644800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="212388096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="211644800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="211644800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="212388096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Team Effort</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2299,7 +2619,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp1'!$D$30:$O$30</c:f>
+              <c:f>'Sp1'!$D$33:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2307,37 +2627,37 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39473684210526316</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.4642857142857142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4259259259259258</c:v>
+                  <c:v>1.96875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2833333333333334</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1666666666666667</c:v>
+                  <c:v>1.575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0694444444444444</c:v>
+                  <c:v>1.4318181818181819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98717948717948723</c:v>
+                  <c:v>1.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,7 +2720,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp1'!$D$26:$O$26</c:f>
+              <c:f>'Sp1'!$D$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2423,10 +2743,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2455,11 +2775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156916352"/>
-        <c:axId val="156930432"/>
+        <c:axId val="179804416"/>
+        <c:axId val="179814400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156916352"/>
+        <c:axId val="179804416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,14 +2789,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156930432"/>
+        <c:crossAx val="179814400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156930432"/>
+        <c:axId val="179814400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,13 +2807,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156916352"/>
+        <c:crossAx val="179804416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2508,7 +2829,312 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bryan Effort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp1'!$D$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41940</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41942</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41946</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41948</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp1'!$D$30:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4259259259259258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98717948717948723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp1'!$D$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41940</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41942</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41946</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41948</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp1'!$D$26:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="179880704"/>
+        <c:axId val="179882240"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="179880704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179882240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="179882240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179880704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2758,11 +3384,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156951680"/>
-        <c:axId val="156953216"/>
+        <c:axId val="179907584"/>
+        <c:axId val="180359936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156951680"/>
+        <c:axId val="179907584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,14 +3398,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156953216"/>
+        <c:crossAx val="180359936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156953216"/>
+        <c:axId val="180359936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,7 +3416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156951680"/>
+        <c:crossAx val="179907584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2811,7 +3437,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3064,11 +3690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153705856"/>
-        <c:axId val="153711744"/>
+        <c:axId val="53954048"/>
+        <c:axId val="53955584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="153705856"/>
+        <c:axId val="53954048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,14 +3704,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153711744"/>
+        <c:crossAx val="53955584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153711744"/>
+        <c:axId val="53955584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3096,7 +3722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153705856"/>
+        <c:crossAx val="53954048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,7 +3743,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3147,6 +3773,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3331,11 +3958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153737472"/>
-        <c:axId val="153751552"/>
+        <c:axId val="55202176"/>
+        <c:axId val="55203712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="153737472"/>
+        <c:axId val="55202176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,14 +3972,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153751552"/>
+        <c:crossAx val="55203712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153751552"/>
+        <c:axId val="55203712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,13 +3990,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153737472"/>
+        <c:crossAx val="55202176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3384,7 +4012,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3414,6 +4042,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3598,11 +4227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153776896"/>
-        <c:axId val="153778432"/>
+        <c:axId val="55224960"/>
+        <c:axId val="55243136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="153776896"/>
+        <c:axId val="55224960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3612,14 +4241,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153778432"/>
+        <c:crossAx val="55243136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153778432"/>
+        <c:axId val="55243136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,13 +4259,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153776896"/>
+        <c:crossAx val="55224960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3651,7 +4281,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3865,11 +4495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156961792"/>
-        <c:axId val="156971776"/>
+        <c:axId val="55276672"/>
+        <c:axId val="55278208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156961792"/>
+        <c:axId val="55276672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,14 +4509,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156971776"/>
+        <c:crossAx val="55278208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156971776"/>
+        <c:axId val="55278208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,601 +4527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156961792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Zach Effort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Velocity</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sp2'!$D$2:$L$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>41975</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41976</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41977</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41978</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41979</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41980</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41981</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41982</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41983</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sp2'!$D$32:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Effort</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sp2'!$D$2:$L$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>41975</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41976</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41977</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41978</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41979</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41980</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41981</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41982</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41983</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sp2'!$D$28:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="156993024"/>
-        <c:axId val="156994560"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="156993024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156994560"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="156994560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156993024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Bryan Effort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Velocity</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sp3'!$D$2:$Q$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42026</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42028</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42030</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42031</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42032</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42033</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42035</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sp3'!$D$46:$Q$46</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.42857142857142855</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72727272727272729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.61538461538461542</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Effort</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sp3'!$D$2:$Q$2</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42026</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42028</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42030</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42031</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42032</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42033</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42035</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sp3'!$D$42:$Q$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="158187904"/>
-        <c:axId val="158189440"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="158187904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158189440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="158189440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158187904"/>
+        <c:crossAx val="55276672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4561,61 +4597,46 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sp3'!$D$2:$Q$2</c:f>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42022</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42031</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42032</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42033</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42035</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp3'!$D$48:$Q$48</c:f>
+              <c:f>'Sp2'!$D$32:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4626,37 +4647,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.70833333333333337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.69230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6428571428571429</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4674,61 +4680,46 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sp3'!$D$2:$Q$2</c:f>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42022</c:v>
+                  <c:v>41975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42023</c:v>
+                  <c:v>41976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42024</c:v>
+                  <c:v>41977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42025</c:v>
+                  <c:v>41978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42026</c:v>
+                  <c:v>41979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42027</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42028</c:v>
+                  <c:v>41981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42029</c:v>
+                  <c:v>41982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42030</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42031</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42032</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42033</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42035</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp3'!$D$44:$R$44</c:f>
+              <c:f>'Sp2'!$D$28:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4739,7 +4730,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4755,24 +4746,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4789,11 +4762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158796416"/>
-        <c:axId val="158806400"/>
+        <c:axId val="55307648"/>
+        <c:axId val="55309440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158796416"/>
+        <c:axId val="55307648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,14 +4776,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158806400"/>
+        <c:crossAx val="55309440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158806400"/>
+        <c:axId val="55309440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4821,7 +4794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158796416"/>
+        <c:crossAx val="55307648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4867,19 +4840,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Daniel</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Effort</a:t>
+              <a:t>Bryan Effort</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4950,7 +4916,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp3'!$D$47:$Q$47</c:f>
+              <c:f>'Sp3'!$D$46:$Q$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4958,43 +4924,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5714285714285716</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.25</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6363636363636365</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3846153846153846</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6428571428571428</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5063,7 +5029,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp3'!$D$43:$Q$43</c:f>
+              <c:f>'Sp3'!$D$42:$Q$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -5071,28 +5037,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5107,7 +5073,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5124,11 +5090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158848128"/>
-        <c:axId val="158849664"/>
+        <c:axId val="55326976"/>
+        <c:axId val="55345152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158848128"/>
+        <c:axId val="55326976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5138,14 +5104,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158849664"/>
+        <c:crossAx val="55345152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158849664"/>
+        <c:axId val="55345152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5156,13 +5122,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158848128"/>
+        <c:crossAx val="55326976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5709,11 +5676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153259008"/>
-        <c:axId val="153281280"/>
+        <c:axId val="52753536"/>
+        <c:axId val="52755072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="153259008"/>
+        <c:axId val="52753536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5723,14 +5690,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153281280"/>
+        <c:crossAx val="52755072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153281280"/>
+        <c:axId val="52755072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +5708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153259008"/>
+        <c:crossAx val="52753536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5788,11 +5755,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Team Effort</a:t>
+              <a:t>Zach Effort</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5863,7 +5831,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp3'!$D$49:$Q$49</c:f>
+              <c:f>'Sp3'!$D$48:$Q$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -5871,43 +5839,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.75</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1428571428571428</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.25</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8863636363636362</c:v>
+                  <c:v>0.52272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.875</c:v>
+                  <c:v>0.70833333333333337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6923076923076925</c:v>
+                  <c:v>0.69230769230769229</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8571428571428572</c:v>
+                  <c:v>0.6428571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5976,36 +5944,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp3'!$D$41:$Q$41</c:f>
+              <c:f>'Sp3'!$D$44:$R$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -6020,7 +5988,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6037,11 +6008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158944640"/>
-        <c:axId val="158946432"/>
+        <c:axId val="57545472"/>
+        <c:axId val="57547008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158944640"/>
+        <c:axId val="57545472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6051,14 +6022,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158946432"/>
+        <c:crossAx val="57547008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158946432"/>
+        <c:axId val="57547008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6069,13 +6040,1632 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158944640"/>
+        <c:crossAx val="57545472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daniel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp3'!$D$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42033</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp3'!$D$47:$Q$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6428571428571428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp3'!$D$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42033</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp3'!$D$43:$Q$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57576448"/>
+        <c:axId val="57578240"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="57576448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57578240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="57578240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57576448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Team Effort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp3'!$D$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42033</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp3'!$D$49:$Q$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8863636363636362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8571428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp3'!$D$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42033</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp3'!$D$41:$Q$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="57280000"/>
+        <c:axId val="57281536"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="57280000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57281536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="57281536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57280000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Team Weekly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Product!$H$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$H$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Product!$H$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$H$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="156428544"/>
+        <c:axId val="156527616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156428544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156527616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156527616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156428544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bryan Weekly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Product!$H$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$H$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9583333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Product!$H$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$H$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="49474944"/>
+        <c:axId val="57699328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49474944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57699328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57699328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49474944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daniel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weekly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Product!$H$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$H$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8333333333333339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Product!$H$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$H$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="167550336"/>
+        <c:axId val="167590912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="167550336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167590912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="167590912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167550336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Zach Weekly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Product!$H$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$H$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Product!$H$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$H$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="204547968"/>
+        <c:axId val="204775424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="204547968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204775424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204775424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204547968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6622,11 +8212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153179648"/>
-        <c:axId val="153181184"/>
+        <c:axId val="52772224"/>
+        <c:axId val="52782208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="153179648"/>
+        <c:axId val="52772224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6636,14 +8226,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153181184"/>
+        <c:crossAx val="52782208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153181184"/>
+        <c:axId val="52782208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6654,7 +8244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153179648"/>
+        <c:crossAx val="52772224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7208,11 +8798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153206784"/>
-        <c:axId val="153208320"/>
+        <c:axId val="52819840"/>
+        <c:axId val="52821376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="153206784"/>
+        <c:axId val="52819840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7222,14 +8812,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153208320"/>
+        <c:crossAx val="52821376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153208320"/>
+        <c:axId val="52821376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7240,7 +8830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153206784"/>
+        <c:crossAx val="52819840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7312,8 +8902,14 @@
           <c:tx>
             <c:v>Velocity</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7378,7 +8974,8 @@
             <c:v>Effort</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7446,21 +9043,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155986176"/>
-        <c:axId val="155987968"/>
+        <c:axId val="179491200"/>
+        <c:axId val="179492736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155986176"/>
+        <c:axId val="179491200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155987968"/>
+        <c:crossAx val="179492736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7468,18 +9084,37 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155987968"/>
+        <c:axId val="179492736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155986176"/>
+        <c:crossAx val="179491200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7530,7 +9165,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Effort</a:t>
+              <a:t> Effort/Velocity</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7551,8 +9186,14 @@
           <c:tx>
             <c:v>Velocity</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7617,7 +9258,8 @@
             <c:v>Effort</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7685,21 +9327,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156025600"/>
-        <c:axId val="156027136"/>
+        <c:axId val="179645056"/>
+        <c:axId val="179646848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156025600"/>
+        <c:axId val="179645056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156027136"/>
+        <c:crossAx val="179646848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7707,18 +9368,37 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156027136"/>
+        <c:axId val="179646848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156025600"/>
+        <c:crossAx val="179645056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7760,8 +9440,29 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -7769,9 +9470,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Effort</a:t>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Effort/Velocity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7790,8 +9499,14 @@
           <c:tx>
             <c:v>Velocity</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7856,7 +9571,8 @@
             <c:v>Effort</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7924,21 +9640,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156036096"/>
-        <c:axId val="156775168"/>
+        <c:axId val="179696768"/>
+        <c:axId val="179698304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156036096"/>
+        <c:axId val="179696768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156775168"/>
+        <c:crossAx val="179698304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7946,18 +9681,37 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156775168"/>
+        <c:axId val="179698304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156036096"/>
+        <c:crossAx val="179696768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8008,9 +9762,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Effort</a:t>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Effort/Velocity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8029,8 +9791,14 @@
           <c:tx>
             <c:v>Velocity</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8095,7 +9863,8 @@
             <c:v>Effort</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8163,21 +9932,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156804608"/>
-        <c:axId val="156806144"/>
+        <c:axId val="179740032"/>
+        <c:axId val="179774592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156804608"/>
+        <c:axId val="179740032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156806144"/>
+        <c:crossAx val="179774592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8185,18 +9973,37 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156806144"/>
+        <c:axId val="179774592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156804608"/>
+        <c:crossAx val="179740032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8243,11 +10050,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Team Effort</a:t>
+              <a:t>Team Weekly</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8257,100 +10070,65 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Velocity</c:v>
+            <c:v>Team</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sp1'!$D$2:$O$2</c:f>
+              <c:f>Product!$D$22:$I$22</c:f>
               <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41946</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41948</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41950</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sp1'!$D$33:$O$33</c:f>
+              <c:f>Product!$D$26:$I$26</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.375</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1875</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4642857142857142</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.96875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.575</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4318181818181819</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3125</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8358,100 +10136,104 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Effort</c:v>
+            <c:v>Bryan</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Sp1'!$D$2:$O$2</c:f>
+              <c:f>Product!$D$23:$I$23</c:f>
               <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41939</c:v>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41940</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41941</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41942</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41943</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41944</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41945</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41946</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41947</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41948</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="[$-409]d\-mmm;@">
-                  <c:v>41949</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41950</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Daniel</c:v>
+          </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Sp1'!$D$25:$O$25</c:f>
+              <c:f>Product!$D$24:$I$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Zach</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Product!$D$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8468,45 +10250,85 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156901760"/>
-        <c:axId val="156903296"/>
+        <c:axId val="204161792"/>
+        <c:axId val="204163712"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="156901760"/>
+      <c:catAx>
+        <c:axId val="204161792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156903296"/>
+        <c:crossAx val="204163712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="156903296"/>
+        <c:axId val="204163712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156901760"/>
+        <c:crossAx val="204161792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8772,6 +10594,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9174,6 +11060,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9466,8 +11480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="T92" sqref="T92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9476,96 +11490,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D2" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="148" t="s">
+      <c r="D2" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="154" t="s">
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="155"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="172"/>
+      <c r="AL2" s="177"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="148" t="s">
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="148" t="s">
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="148" t="s">
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="151" t="s">
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="151" t="s">
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="152"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="152"/>
-      <c r="AJ3" s="152"/>
-      <c r="AK3" s="152"/>
-      <c r="AL3" s="153"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="175"/>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
@@ -9782,7 +11796,7 @@
       </c>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="156" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -9918,7 +11932,7 @@
       </c>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="163"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -10052,7 +12066,7 @@
       </c>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="163"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
@@ -10186,7 +12200,7 @@
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="164"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
@@ -10353,7 +12367,7 @@
       <c r="AI10" s="57"/>
     </row>
     <row r="11" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="156" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -10500,7 +12514,7 @@
       </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B12" s="163"/>
+      <c r="B12" s="157"/>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
@@ -10645,7 +12659,7 @@
       </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B13" s="163"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
@@ -10790,7 +12804,7 @@
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B14" s="164"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="69" t="s">
         <v>4</v>
       </c>
@@ -10968,7 +12982,7 @@
       <c r="AI15" s="57"/>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="148" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="82" t="s">
@@ -11116,7 +13130,7 @@
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="157"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
@@ -11262,7 +13276,7 @@
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="157"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="70" t="s">
         <v>9</v>
       </c>
@@ -11408,7 +13422,7 @@
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B19" s="158"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="83" t="s">
         <v>4</v>
       </c>
@@ -11554,28 +13568,28 @@
       </c>
     </row>
     <row r="21" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="167" t="s">
+      <c r="B21" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169">
+      <c r="C21" s="162"/>
+      <c r="D21" s="163">
         <v>1</v>
       </c>
-      <c r="E21" s="170"/>
-      <c r="F21" s="165">
+      <c r="E21" s="164"/>
+      <c r="F21" s="159">
         <v>2</v>
       </c>
-      <c r="G21" s="166"/>
-      <c r="H21" s="176">
+      <c r="G21" s="160"/>
+      <c r="H21" s="170">
         <v>3</v>
       </c>
-      <c r="I21" s="177"/>
+      <c r="I21" s="171"/>
     </row>
     <row r="22" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="172"/>
+      <c r="C22" s="166"/>
       <c r="D22" s="95">
         <v>1</v>
       </c>
@@ -11596,7 +13610,7 @@
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="148" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="82" t="s">
@@ -11628,7 +13642,7 @@
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B24" s="157"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
@@ -11658,7 +13672,7 @@
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" s="157"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="70" t="s">
         <v>9</v>
       </c>
@@ -11679,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="98">
-        <f t="shared" ref="H24:H26" si="30" xml:space="preserve"> SUM(Y8:AE8)</f>
+        <f t="shared" ref="H25:H26" si="30" xml:space="preserve"> SUM(Y8:AE8)</f>
         <v>1</v>
       </c>
       <c r="I25" s="91">
@@ -11688,7 +13702,7 @@
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B26" s="158"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="83" t="s">
         <v>4</v>
       </c>
@@ -11724,7 +13738,7 @@
       <c r="I27" s="57"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B28" s="173" t="s">
+      <c r="B28" s="167" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -11756,7 +13770,7 @@
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B29" s="174"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
@@ -11786,7 +13800,7 @@
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B30" s="174"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="70" t="s">
         <v>9</v>
       </c>
@@ -11816,7 +13830,7 @@
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" s="175"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="83" t="s">
         <v>4</v>
       </c>
@@ -11852,7 +13866,7 @@
       <c r="I32" s="57"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="148" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="82" t="s">
@@ -11884,7 +13898,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="157"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="70" t="s">
         <v>8</v>
       </c>
@@ -11914,7 +13928,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="157"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
@@ -11944,7 +13958,7 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="158"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="83" t="s">
         <v>4</v>
       </c>
@@ -11975,6 +13989,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="P2:X2"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="Y2:AL2"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="J3:O3"/>
@@ -11989,12 +14009,6 @@
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="P2:X2"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="Y2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -12014,8 +14028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12025,22 +14039,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="160" t="s">
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="197"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="178"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -12148,10 +14162,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="198">
+      <c r="B5" s="179">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -12211,8 +14225,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="188"/>
-      <c r="B6" s="199"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -12236,8 +14250,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="188"/>
-      <c r="B7" s="199"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -12261,8 +14275,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
-      <c r="B8" s="199"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -12286,8 +14300,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
-      <c r="B9" s="199"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -12345,8 +14359,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="188"/>
-      <c r="B10" s="199"/>
+      <c r="A10" s="186"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -12368,8 +14382,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="188"/>
-      <c r="B11" s="199"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -12391,8 +14405,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
-      <c r="B12" s="199"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -12414,8 +14428,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
-      <c r="B13" s="199"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -12473,8 +14487,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="188"/>
-      <c r="B14" s="199"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="180"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -12496,8 +14510,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="188"/>
-      <c r="B15" s="199"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -12519,8 +14533,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="188"/>
-      <c r="B16" s="200"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -12546,8 +14560,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="188"/>
-      <c r="B17" s="198">
+      <c r="A17" s="186"/>
+      <c r="B17" s="179">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -12607,8 +14621,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="188"/>
-      <c r="B18" s="199"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="180"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -12634,8 +14648,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="188"/>
-      <c r="B19" s="199"/>
+      <c r="A19" s="186"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -12657,8 +14671,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="188"/>
-      <c r="B20" s="200"/>
+      <c r="A20" s="186"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -12680,8 +14694,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="188"/>
-      <c r="B21" s="201"/>
+      <c r="A21" s="186"/>
+      <c r="B21" s="182"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -12739,8 +14753,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="188"/>
-      <c r="B22" s="202"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="183"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -12762,8 +14776,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="188"/>
-      <c r="B23" s="202"/>
+      <c r="A23" s="186"/>
+      <c r="B23" s="183"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -12787,8 +14801,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
-      <c r="B24" s="203"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -13038,7 +15052,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156" t="s">
+      <c r="A30" s="148" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -13095,7 +15109,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="157"/>
+      <c r="A31" s="149"/>
       <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
@@ -13150,7 +15164,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="157"/>
+      <c r="A32" s="149"/>
       <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
@@ -13205,11 +15219,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="158"/>
-      <c r="B33" s="195" t="s">
+      <c r="A33" s="150"/>
+      <c r="B33" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="200"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
@@ -13274,13 +15288,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="179" t="s">
+      <c r="B36" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="180"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
@@ -13295,11 +15309,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="191"/>
-      <c r="B37" s="181" t="s">
+      <c r="A37" s="189"/>
+      <c r="B37" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="182"/>
+      <c r="C37" s="194"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -13314,11 +15328,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="191"/>
-      <c r="B38" s="183" t="s">
+      <c r="A38" s="189"/>
+      <c r="B38" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="184"/>
+      <c r="C38" s="196"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -13333,11 +15347,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="192"/>
-      <c r="B39" s="193" t="s">
+      <c r="A39" s="190"/>
+      <c r="B39" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="194"/>
+      <c r="C39" s="198"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
@@ -13352,13 +15366,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="179" t="s">
+      <c r="B41" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="180"/>
+      <c r="C41" s="192"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
@@ -13369,11 +15383,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="178"/>
-      <c r="B42" s="181" t="s">
+      <c r="A42" s="201"/>
+      <c r="B42" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="182"/>
+      <c r="C42" s="194"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -13384,11 +15398,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="178"/>
-      <c r="B43" s="183" t="s">
+      <c r="A43" s="201"/>
+      <c r="B43" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="184"/>
+      <c r="C43" s="196"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -13399,11 +15413,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="178"/>
-      <c r="B44" s="185" t="s">
+      <c r="A44" s="201"/>
+      <c r="B44" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="186"/>
+      <c r="C44" s="203"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -13415,11 +15429,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
@@ -13428,11 +15442,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -13449,8 +15463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13461,19 +15475,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="148" t="s">
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="161"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="155"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
@@ -13575,7 +15589,7 @@
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="204">
@@ -13626,7 +15640,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="188"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="205"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
@@ -13646,7 +15660,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="188"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="205"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
@@ -13672,7 +15686,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="206"/>
       <c r="C8" s="61" t="s">
         <v>9</v>
@@ -13692,7 +15706,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="209" t="s">
         <v>32</v>
       </c>
@@ -13741,7 +15755,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="188"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="210"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
@@ -13765,7 +15779,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="188"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="210"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
@@ -13785,7 +15799,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="210"/>
       <c r="C12" s="61" t="s">
         <v>9</v>
@@ -13805,7 +15819,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="210"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
@@ -13852,7 +15866,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="188"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="210"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
@@ -13874,7 +15888,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="188"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="210"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
@@ -13896,7 +15910,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="188"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="210"/>
       <c r="C16" s="60" t="s">
         <v>9</v>
@@ -13916,10 +15930,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="198"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
@@ -13965,8 +15979,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="188"/>
-      <c r="B18" s="199"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="180"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -13987,8 +16001,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="188"/>
-      <c r="B19" s="199"/>
+      <c r="A19" s="186"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -14009,8 +16023,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="188"/>
-      <c r="B20" s="199"/>
+      <c r="A20" s="186"/>
+      <c r="B20" s="180"/>
       <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
@@ -14029,7 +16043,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="188"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="207"/>
       <c r="C21" s="64" t="s">
         <v>37</v>
@@ -14076,7 +16090,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="188"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="207"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
@@ -14096,7 +16110,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="188"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="207"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
@@ -14118,7 +16132,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
+      <c r="A24" s="187"/>
       <c r="B24" s="208"/>
       <c r="C24" s="61" t="s">
         <v>9</v>
@@ -14319,7 +16333,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="156" t="s">
+      <c r="A30" s="148" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="212" t="s">
@@ -14364,11 +16378,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="157"/>
+      <c r="A31" s="149"/>
       <c r="B31" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="182"/>
+      <c r="C31" s="194"/>
       <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
@@ -14407,11 +16421,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="157"/>
+      <c r="A32" s="149"/>
       <c r="B32" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="184"/>
+      <c r="C32" s="196"/>
       <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
@@ -14450,11 +16464,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="158"/>
-      <c r="B33" s="195" t="s">
+      <c r="A33" s="150"/>
+      <c r="B33" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="200"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0</v>
@@ -14507,13 +16521,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="179" t="s">
+      <c r="B36" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="180"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:H26)</f>
         <v>6</v>
@@ -14528,11 +16542,11 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="191"/>
-      <c r="B37" s="181" t="s">
+      <c r="A37" s="189"/>
+      <c r="B37" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="182"/>
+      <c r="C37" s="194"/>
       <c r="D37" s="26">
         <f t="shared" ref="D37:D38" si="7" xml:space="preserve"> SUM(D27:H27)</f>
         <v>8</v>
@@ -14547,11 +16561,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="191"/>
-      <c r="B38" s="183" t="s">
+      <c r="A38" s="189"/>
+      <c r="B38" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="184"/>
+      <c r="C38" s="196"/>
       <c r="D38" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -14566,11 +16580,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="192"/>
-      <c r="B39" s="193" t="s">
+      <c r="A39" s="190"/>
+      <c r="B39" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="194"/>
+      <c r="C39" s="198"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:H25)</f>
         <v>14</v>
@@ -14585,13 +16599,13 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="179" t="s">
+      <c r="B41" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="180"/>
+      <c r="C41" s="192"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>6</v>
@@ -14602,11 +16616,11 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="178"/>
-      <c r="B42" s="181" t="s">
+      <c r="A42" s="201"/>
+      <c r="B42" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="182"/>
+      <c r="C42" s="194"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>8</v>
@@ -14617,11 +16631,11 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="178"/>
-      <c r="B43" s="183" t="s">
+      <c r="A43" s="201"/>
+      <c r="B43" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="184"/>
+      <c r="C43" s="196"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -14632,11 +16646,11 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="178"/>
-      <c r="B44" s="185" t="s">
+      <c r="A44" s="201"/>
+      <c r="B44" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="186"/>
+      <c r="C44" s="203"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>14</v>
@@ -14648,16 +16662,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A5:A16"/>
@@ -14672,6 +16676,16 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14687,8 +16701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="T107" sqref="T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14698,24 +16712,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="154" t="s">
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="155"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="177"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -14840,7 +16854,7 @@
       <c r="A5" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="219">
+      <c r="B5" s="223">
         <v>12</v>
       </c>
       <c r="C5" s="110" t="s">
@@ -14959,7 +16973,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="217"/>
-      <c r="B8" s="220"/>
+      <c r="B8" s="224"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
@@ -14986,7 +17000,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="217"/>
-      <c r="B9" s="221">
+      <c r="B9" s="225">
         <v>15</v>
       </c>
       <c r="C9" s="118" t="s">
@@ -15055,7 +17069,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="217"/>
-      <c r="B10" s="222"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -15080,7 +17094,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="217"/>
-      <c r="B11" s="222"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -15105,7 +17119,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="217"/>
-      <c r="B12" s="223"/>
+      <c r="B12" s="227"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -15136,7 +17150,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="217"/>
-      <c r="B13" s="221">
+      <c r="B13" s="225">
         <v>21</v>
       </c>
       <c r="C13" s="119" t="s">
@@ -15205,7 +17219,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="217"/>
-      <c r="B14" s="222"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -15236,7 +17250,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="217"/>
-      <c r="B15" s="222"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -15261,7 +17275,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="217"/>
-      <c r="B16" s="223"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -15286,7 +17300,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="217"/>
-      <c r="B17" s="221">
+      <c r="B17" s="225">
         <v>18</v>
       </c>
       <c r="C17" s="119" t="s">
@@ -15355,7 +17369,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="217"/>
-      <c r="B18" s="222"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -15386,7 +17400,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="217"/>
-      <c r="B19" s="222"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -15411,7 +17425,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="217"/>
-      <c r="B20" s="223"/>
+      <c r="B20" s="227"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -15436,7 +17450,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="217"/>
-      <c r="B21" s="224" t="s">
+      <c r="B21" s="228" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="119" t="s">
@@ -15505,7 +17519,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="217"/>
-      <c r="B22" s="225"/>
+      <c r="B22" s="229"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -15530,7 +17544,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="217"/>
-      <c r="B23" s="225"/>
+      <c r="B23" s="229"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -15559,7 +17573,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="217"/>
-      <c r="B24" s="226"/>
+      <c r="B24" s="230"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -15584,7 +17598,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="217"/>
-      <c r="B25" s="224" t="s">
+      <c r="B25" s="228" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="119" t="s">
@@ -15653,7 +17667,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="217"/>
-      <c r="B26" s="225"/>
+      <c r="B26" s="229"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
       </c>
@@ -15678,7 +17692,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="217"/>
-      <c r="B27" s="225"/>
+      <c r="B27" s="229"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
       </c>
@@ -15705,7 +17719,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="217"/>
-      <c r="B28" s="226"/>
+      <c r="B28" s="230"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
       </c>
@@ -15730,7 +17744,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="217"/>
-      <c r="B29" s="224">
+      <c r="B29" s="228">
         <v>31</v>
       </c>
       <c r="C29" s="119" t="s">
@@ -15799,7 +17813,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="217"/>
-      <c r="B30" s="225"/>
+      <c r="B30" s="229"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -15824,7 +17838,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="217"/>
-      <c r="B31" s="225"/>
+      <c r="B31" s="229"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -15853,7 +17867,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="218"/>
-      <c r="B32" s="226"/>
+      <c r="B32" s="230"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -15880,7 +17894,7 @@
       <c r="A33" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="227"/>
+      <c r="B33" s="219"/>
       <c r="C33" s="110" t="s">
         <v>51</v>
       </c>
@@ -15947,7 +17961,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="217"/>
-      <c r="B34" s="199"/>
+      <c r="B34" s="180"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -15972,7 +17986,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="217"/>
-      <c r="B35" s="199"/>
+      <c r="B35" s="180"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -15999,7 +18013,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="217"/>
-      <c r="B36" s="199"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -16024,7 +18038,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="217"/>
-      <c r="B37" s="228"/>
+      <c r="B37" s="220"/>
       <c r="C37" s="110" t="s">
         <v>52</v>
       </c>
@@ -16091,7 +18105,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="217"/>
-      <c r="B38" s="229"/>
+      <c r="B38" s="221"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -16116,7 +18130,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="217"/>
-      <c r="B39" s="229"/>
+      <c r="B39" s="221"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -16145,7 +18159,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="218"/>
-      <c r="B40" s="230"/>
+      <c r="B40" s="222"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -16430,7 +18444,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="156" t="s">
+      <c r="A46" s="148" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="212" t="s">
@@ -16496,11 +18510,11 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="157"/>
+      <c r="A47" s="149"/>
       <c r="B47" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="182"/>
+      <c r="C47" s="194"/>
       <c r="D47" s="38">
         <f>D43</f>
         <v>0</v>
@@ -16560,11 +18574,11 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="157"/>
+      <c r="A48" s="149"/>
       <c r="B48" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="184"/>
+      <c r="C48" s="196"/>
       <c r="D48" s="34">
         <f>D44</f>
         <v>0</v>
@@ -16624,11 +18638,11 @@
       <c r="R48" s="38"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="158"/>
-      <c r="B49" s="195" t="s">
+      <c r="A49" s="150"/>
+      <c r="B49" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="196"/>
+      <c r="C49" s="200"/>
       <c r="D49" s="35">
         <f>D41</f>
         <v>0</v>
@@ -16702,13 +18716,13 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="190" t="s">
+      <c r="A52" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="179" t="s">
+      <c r="B52" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="180"/>
+      <c r="C52" s="192"/>
       <c r="D52" s="26">
         <f xml:space="preserve"> SUM(D42:J42)</f>
         <v>3</v>
@@ -16723,11 +18737,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="191"/>
-      <c r="B53" s="181" t="s">
+      <c r="A53" s="189"/>
+      <c r="B53" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="182"/>
+      <c r="C53" s="194"/>
       <c r="D53" s="26">
         <f t="shared" ref="D53:D54" si="14" xml:space="preserve"> SUM(D43:J43)</f>
         <v>18</v>
@@ -16742,11 +18756,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="191"/>
-      <c r="B54" s="183" t="s">
+      <c r="A54" s="189"/>
+      <c r="B54" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="184"/>
+      <c r="C54" s="196"/>
       <c r="D54" s="26">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -16761,11 +18775,11 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="192"/>
-      <c r="B55" s="193" t="s">
+      <c r="A55" s="190"/>
+      <c r="B55" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="194"/>
+      <c r="C55" s="198"/>
       <c r="D55" s="26">
         <f xml:space="preserve"> SUM(D41:J41)</f>
         <v>22</v>
@@ -16780,13 +18794,13 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="178" t="s">
+      <c r="A57" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="179" t="s">
+      <c r="B57" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="180"/>
+      <c r="C57" s="192"/>
       <c r="D57" s="31">
         <f xml:space="preserve"> D52</f>
         <v>3</v>
@@ -16797,11 +18811,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="178"/>
-      <c r="B58" s="181" t="s">
+      <c r="A58" s="201"/>
+      <c r="B58" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="182"/>
+      <c r="C58" s="194"/>
       <c r="D58" s="31">
         <f xml:space="preserve"> D53</f>
         <v>18</v>
@@ -16812,11 +18826,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="178"/>
-      <c r="B59" s="183" t="s">
+      <c r="A59" s="201"/>
+      <c r="B59" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="184"/>
+      <c r="C59" s="196"/>
       <c r="D59" s="31">
         <f xml:space="preserve"> D54</f>
         <v>1</v>
@@ -16827,11 +18841,11 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="178"/>
-      <c r="B60" s="185" t="s">
+      <c r="A60" s="201"/>
+      <c r="B60" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="186"/>
+      <c r="C60" s="203"/>
       <c r="D60" s="31">
         <f xml:space="preserve"> D55</f>
         <v>22</v>
@@ -16846,25 +18860,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="A5:A32"/>
@@ -16875,6 +18870,25 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Management/Effort and Velocity.xlsx
+++ b/Management/Effort and Velocity.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="73">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -244,6 +244,9 @@
   <si>
     <t>Sprint 4</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -356,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1172,11 +1175,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1461,303 +1479,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1834,12 +1561,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1850,6 +1571,308 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2595,11 +2618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35529088"/>
-        <c:axId val="35530624"/>
+        <c:axId val="65299584"/>
+        <c:axId val="65301120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35529088"/>
+        <c:axId val="65299584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,14 +2632,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35530624"/>
+        <c:crossAx val="65301120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35530624"/>
+        <c:axId val="65301120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,7 +2650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35529088"/>
+        <c:crossAx val="65299584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2899,11 +2922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56701696"/>
-        <c:axId val="56703616"/>
+        <c:axId val="106989056"/>
+        <c:axId val="106990976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56701696"/>
+        <c:axId val="106989056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2932,7 +2955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56703616"/>
+        <c:crossAx val="106990976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2940,7 +2963,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56703616"/>
+        <c:axId val="106990976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,7 +2993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56701696"/>
+        <c:crossAx val="106989056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3242,11 +3265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56004992"/>
-        <c:axId val="56006528"/>
+        <c:axId val="97584256"/>
+        <c:axId val="97585792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56004992"/>
+        <c:axId val="97584256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,14 +3279,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56006528"/>
+        <c:crossAx val="97585792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56006528"/>
+        <c:axId val="97585792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3274,7 +3297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56004992"/>
+        <c:crossAx val="97584256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3545,11 +3568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56027776"/>
-        <c:axId val="56058240"/>
+        <c:axId val="97594752"/>
+        <c:axId val="97617024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56027776"/>
+        <c:axId val="97594752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,14 +3582,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56058240"/>
+        <c:crossAx val="97617024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56058240"/>
+        <c:axId val="97617024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,7 +3600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56027776"/>
+        <c:crossAx val="97594752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3848,11 +3871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56075392"/>
-        <c:axId val="56076928"/>
+        <c:axId val="97642368"/>
+        <c:axId val="97643904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56075392"/>
+        <c:axId val="97642368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3862,14 +3885,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56076928"/>
+        <c:crossAx val="97643904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56076928"/>
+        <c:axId val="97643904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,7 +3903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56075392"/>
+        <c:crossAx val="97642368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4154,11 +4177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56184192"/>
-        <c:axId val="56185984"/>
+        <c:axId val="97681792"/>
+        <c:axId val="97683328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56184192"/>
+        <c:axId val="97681792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4168,14 +4191,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56185984"/>
+        <c:crossAx val="97683328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56185984"/>
+        <c:axId val="97683328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4186,7 +4209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56184192"/>
+        <c:crossAx val="97681792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4421,11 +4444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56207616"/>
-        <c:axId val="56225792"/>
+        <c:axId val="97709056"/>
+        <c:axId val="107037440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56207616"/>
+        <c:axId val="97709056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,14 +4458,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56225792"/>
+        <c:crossAx val="107037440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56225792"/>
+        <c:axId val="107037440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4453,7 +4476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56207616"/>
+        <c:crossAx val="97709056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4688,11 +4711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56783616"/>
-        <c:axId val="56785152"/>
+        <c:axId val="107066880"/>
+        <c:axId val="107068416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56783616"/>
+        <c:axId val="107066880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4702,14 +4725,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56785152"/>
+        <c:crossAx val="107068416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56785152"/>
+        <c:axId val="107068416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,7 +4743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56783616"/>
+        <c:crossAx val="107066880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4955,11 +4978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56826880"/>
-        <c:axId val="56828672"/>
+        <c:axId val="107106304"/>
+        <c:axId val="107107840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56826880"/>
+        <c:axId val="107106304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,14 +4992,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56828672"/>
+        <c:crossAx val="107107840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56828672"/>
+        <c:axId val="107107840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,7 +5010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56826880"/>
+        <c:crossAx val="107106304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5222,11 +5245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56866304"/>
-        <c:axId val="56867840"/>
+        <c:axId val="107129088"/>
+        <c:axId val="107143168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56866304"/>
+        <c:axId val="107129088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5236,14 +5259,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56867840"/>
+        <c:crossAx val="107143168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56867840"/>
+        <c:axId val="107143168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5254,7 +5277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56866304"/>
+        <c:crossAx val="107129088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5305,7 +5328,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5550,11 +5572,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57323904"/>
-        <c:axId val="57325440"/>
+        <c:axId val="108336256"/>
+        <c:axId val="108337792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57323904"/>
+        <c:axId val="108336256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5564,14 +5586,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57325440"/>
+        <c:crossAx val="108337792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57325440"/>
+        <c:axId val="108337792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5582,14 +5604,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57323904"/>
+        <c:crossAx val="108336256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6136,11 +6157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35560064"/>
-        <c:axId val="35565952"/>
+        <c:axId val="65326464"/>
+        <c:axId val="65328256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35560064"/>
+        <c:axId val="65326464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6150,14 +6171,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35565952"/>
+        <c:crossAx val="65328256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35565952"/>
+        <c:axId val="65328256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6168,7 +6189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35560064"/>
+        <c:crossAx val="65326464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6220,7 +6241,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6468,11 +6488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57412224"/>
-        <c:axId val="57422208"/>
+        <c:axId val="108363136"/>
+        <c:axId val="108373120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57412224"/>
+        <c:axId val="108363136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6482,14 +6502,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57422208"/>
+        <c:crossAx val="108373120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57422208"/>
+        <c:axId val="108373120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6500,14 +6520,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57412224"/>
+        <c:crossAx val="108363136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6560,7 +6579,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6805,11 +6823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57455744"/>
-        <c:axId val="57457280"/>
+        <c:axId val="108390272"/>
+        <c:axId val="108391808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57455744"/>
+        <c:axId val="108390272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6819,14 +6837,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57457280"/>
+        <c:crossAx val="108391808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57457280"/>
+        <c:axId val="108391808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6837,14 +6855,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57455744"/>
+        <c:crossAx val="108390272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6889,7 +6906,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7134,11 +7150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57482624"/>
-        <c:axId val="57488512"/>
+        <c:axId val="108441984"/>
+        <c:axId val="108443520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57482624"/>
+        <c:axId val="108441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7148,14 +7164,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57488512"/>
+        <c:crossAx val="108443520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57488512"/>
+        <c:axId val="108443520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7166,14 +7182,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57482624"/>
+        <c:crossAx val="108441984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7223,7 +7238,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7331,11 +7345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57530240"/>
-        <c:axId val="57532416"/>
+        <c:axId val="108599936"/>
+        <c:axId val="108602112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57530240"/>
+        <c:axId val="108599936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7357,14 +7371,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57532416"/>
+        <c:crossAx val="108602112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7372,7 +7385,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57532416"/>
+        <c:axId val="108602112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7395,21 +7408,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57530240"/>
+        <c:crossAx val="108599936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7459,7 +7470,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7567,11 +7577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70493312"/>
-        <c:axId val="70495232"/>
+        <c:axId val="108644224"/>
+        <c:axId val="108654592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70493312"/>
+        <c:axId val="108644224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7593,14 +7603,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70495232"/>
+        <c:crossAx val="108654592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7608,7 +7617,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70495232"/>
+        <c:axId val="108654592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7631,21 +7640,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70493312"/>
+        <c:crossAx val="108644224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7703,7 +7710,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7811,11 +7817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73474432"/>
-        <c:axId val="73476352"/>
+        <c:axId val="108684416"/>
+        <c:axId val="108686336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73474432"/>
+        <c:axId val="108684416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7837,14 +7843,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73476352"/>
+        <c:crossAx val="108686336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7852,7 +7857,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73476352"/>
+        <c:axId val="108686336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7875,21 +7880,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73474432"/>
+        <c:crossAx val="108684416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7939,7 +7942,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8047,11 +8049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73518464"/>
-        <c:axId val="73520640"/>
+        <c:axId val="108716416"/>
+        <c:axId val="108718336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73518464"/>
+        <c:axId val="108716416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8073,14 +8075,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73520640"/>
+        <c:crossAx val="108718336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8088,7 +8089,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73520640"/>
+        <c:axId val="108718336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8111,21 +8112,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73518464"/>
+        <c:crossAx val="108716416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8415,11 +8414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96122752"/>
-        <c:axId val="96124288"/>
+        <c:axId val="110096384"/>
+        <c:axId val="110097920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="96122752"/>
+        <c:axId val="110096384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8429,14 +8428,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96124288"/>
+        <c:crossAx val="110097920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="96124288"/>
+        <c:axId val="110097920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8447,7 +8446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96122752"/>
+        <c:crossAx val="110096384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8744,11 +8743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97649024"/>
-        <c:axId val="97650560"/>
+        <c:axId val="110188800"/>
+        <c:axId val="110198784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97649024"/>
+        <c:axId val="110188800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8758,14 +8757,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97650560"/>
+        <c:crossAx val="110198784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97650560"/>
+        <c:axId val="110198784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8776,7 +8775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97649024"/>
+        <c:crossAx val="110188800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9081,11 +9080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97741440"/>
-        <c:axId val="105955712"/>
+        <c:axId val="110228224"/>
+        <c:axId val="110229760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97741440"/>
+        <c:axId val="110228224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9095,14 +9094,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105955712"/>
+        <c:crossAx val="110229760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105955712"/>
+        <c:axId val="110229760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9113,7 +9112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97741440"/>
+        <c:crossAx val="110228224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9835,11 +9834,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35652736"/>
-        <c:axId val="35654272"/>
+        <c:axId val="65410944"/>
+        <c:axId val="65412480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35652736"/>
+        <c:axId val="65410944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9849,14 +9848,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35654272"/>
+        <c:crossAx val="65412480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35654272"/>
+        <c:axId val="65412480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9867,7 +9866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35652736"/>
+        <c:crossAx val="65410944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10164,11 +10163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106414848"/>
-        <c:axId val="106416384"/>
+        <c:axId val="110263296"/>
+        <c:axId val="110273280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106414848"/>
+        <c:axId val="110263296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10178,14 +10177,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106416384"/>
+        <c:crossAx val="110273280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106416384"/>
+        <c:axId val="110273280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10196,7 +10195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106414848"/>
+        <c:crossAx val="110263296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10253,7 +10252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10361,11 +10359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106490880"/>
-        <c:axId val="106501248"/>
+        <c:axId val="110298624"/>
+        <c:axId val="110300544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106490880"/>
+        <c:axId val="110298624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10387,14 +10385,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106501248"/>
+        <c:crossAx val="110300544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10402,7 +10399,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106501248"/>
+        <c:axId val="110300544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10425,21 +10422,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106490880"/>
+        <c:crossAx val="110298624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10489,7 +10484,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10597,11 +10591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106518784"/>
-        <c:axId val="106602880"/>
+        <c:axId val="110334720"/>
+        <c:axId val="110336640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106518784"/>
+        <c:axId val="110334720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10623,14 +10617,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106602880"/>
+        <c:crossAx val="110336640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10638,7 +10631,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106602880"/>
+        <c:axId val="110336640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10661,21 +10654,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106518784"/>
+        <c:crossAx val="110334720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10733,7 +10724,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10841,11 +10831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106735488"/>
-        <c:axId val="106770432"/>
+        <c:axId val="110428160"/>
+        <c:axId val="110430080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106735488"/>
+        <c:axId val="110428160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10867,14 +10857,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106770432"/>
+        <c:crossAx val="110430080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10882,7 +10871,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106770432"/>
+        <c:axId val="110430080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10905,21 +10894,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106735488"/>
+        <c:crossAx val="110428160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10969,7 +10956,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11077,11 +11063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106791680"/>
-        <c:axId val="106793600"/>
+        <c:axId val="110452096"/>
+        <c:axId val="110466560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106791680"/>
+        <c:axId val="110452096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11103,14 +11089,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106793600"/>
+        <c:crossAx val="110466560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11118,7 +11103,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106793600"/>
+        <c:axId val="110466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11141,21 +11126,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106791680"/>
+        <c:crossAx val="110452096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11870,11 +11853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35708288"/>
-        <c:axId val="35710080"/>
+        <c:axId val="97923456"/>
+        <c:axId val="97924992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35708288"/>
+        <c:axId val="97923456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11884,14 +11867,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35710080"/>
+        <c:crossAx val="97924992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35710080"/>
+        <c:axId val="97924992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11902,7 +11885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35708288"/>
+        <c:crossAx val="97923456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12139,11 +12122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49614208"/>
-        <c:axId val="49640960"/>
+        <c:axId val="97948416"/>
+        <c:axId val="97950336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49614208"/>
+        <c:axId val="97948416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12172,7 +12155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49640960"/>
+        <c:crossAx val="97950336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12180,7 +12163,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49640960"/>
+        <c:axId val="97950336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12210,7 +12193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49614208"/>
+        <c:crossAx val="97948416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12447,11 +12430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49666688"/>
-        <c:axId val="56890112"/>
+        <c:axId val="98250752"/>
+        <c:axId val="98252672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49666688"/>
+        <c:axId val="98250752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12480,7 +12463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56890112"/>
+        <c:crossAx val="98252672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12488,7 +12471,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56890112"/>
+        <c:axId val="98252672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12518,7 +12501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49666688"/>
+        <c:crossAx val="98250752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12784,11 +12767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56915840"/>
-        <c:axId val="56918016"/>
+        <c:axId val="98286592"/>
+        <c:axId val="98288768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56915840"/>
+        <c:axId val="98286592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12817,7 +12800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56918016"/>
+        <c:crossAx val="98288768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12825,7 +12808,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56918016"/>
+        <c:axId val="98288768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12855,7 +12838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56915840"/>
+        <c:crossAx val="98286592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13100,11 +13083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57222272"/>
-        <c:axId val="57224192"/>
+        <c:axId val="106846464"/>
+        <c:axId val="106852736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57222272"/>
+        <c:axId val="106846464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13133,7 +13116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57224192"/>
+        <c:crossAx val="106852736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13141,7 +13124,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57224192"/>
+        <c:axId val="106852736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13171,7 +13154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57222272"/>
+        <c:crossAx val="106846464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13547,11 +13530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57249792"/>
-        <c:axId val="57251712"/>
+        <c:axId val="106881792"/>
+        <c:axId val="106883712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57249792"/>
+        <c:axId val="106881792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13580,7 +13563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57251712"/>
+        <c:crossAx val="106883712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13588,7 +13571,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57251712"/>
+        <c:axId val="106883712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13618,7 +13601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57249792"/>
+        <c:crossAx val="106881792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15038,8 +15021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AZ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15048,130 +15031,130 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="D2" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="152" t="s">
+      <c r="D2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="158" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="154"/>
-      <c r="AK2" s="154"/>
-      <c r="AL2" s="159"/>
-      <c r="AM2" s="158" t="s">
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="154"/>
-      <c r="AO2" s="154"/>
-      <c r="AP2" s="154"/>
-      <c r="AQ2" s="154"/>
-      <c r="AR2" s="154"/>
-      <c r="AS2" s="154"/>
-      <c r="AT2" s="154"/>
-      <c r="AU2" s="154"/>
-      <c r="AV2" s="154"/>
-      <c r="AW2" s="154"/>
-      <c r="AX2" s="154"/>
-      <c r="AY2" s="154"/>
-      <c r="AZ2" s="159"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="197"/>
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="197"/>
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="197"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="198"/>
     </row>
     <row r="3" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="152" t="s">
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="152" t="s">
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="152" t="s">
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="155" t="s">
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="155" t="s">
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="224"/>
+      <c r="AB3" s="224"/>
+      <c r="AC3" s="224"/>
+      <c r="AD3" s="224"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="156"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="157"/>
-      <c r="AM3" s="158" t="s">
+      <c r="AG3" s="224"/>
+      <c r="AH3" s="224"/>
+      <c r="AI3" s="224"/>
+      <c r="AJ3" s="224"/>
+      <c r="AK3" s="224"/>
+      <c r="AL3" s="225"/>
+      <c r="AM3" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="AN3" s="154"/>
-      <c r="AO3" s="154"/>
-      <c r="AP3" s="154"/>
-      <c r="AQ3" s="154"/>
-      <c r="AR3" s="154"/>
-      <c r="AS3" s="154"/>
-      <c r="AT3" s="158" t="s">
+      <c r="AN3" s="197"/>
+      <c r="AO3" s="197"/>
+      <c r="AP3" s="197"/>
+      <c r="AQ3" s="197"/>
+      <c r="AR3" s="197"/>
+      <c r="AS3" s="197"/>
+      <c r="AT3" s="196" t="s">
         <v>70</v>
       </c>
-      <c r="AU3" s="154"/>
-      <c r="AV3" s="154"/>
-      <c r="AW3" s="154"/>
-      <c r="AX3" s="154"/>
-      <c r="AY3" s="154"/>
-      <c r="AZ3" s="159"/>
+      <c r="AU3" s="197"/>
+      <c r="AV3" s="197"/>
+      <c r="AW3" s="197"/>
+      <c r="AX3" s="197"/>
+      <c r="AY3" s="197"/>
+      <c r="AZ3" s="198"/>
     </row>
     <row r="4" spans="2:52" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
@@ -15472,7 +15455,7 @@
       </c>
     </row>
     <row r="6" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="207" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -15606,7 +15589,7 @@
         <f>'Sp3'!Q42</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="291">
+      <c r="AM6" s="192">
         <f>'Sp4'!D50</f>
         <v>0</v>
       </c>
@@ -15664,7 +15647,7 @@
       </c>
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B7" s="167"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -15854,7 +15837,7 @@
       </c>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B8" s="167"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
@@ -16044,7 +16027,7 @@
       </c>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B9" s="168"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
@@ -16276,7 +16259,7 @@
       <c r="AW10" s="57"/>
     </row>
     <row r="11" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="207" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -16479,7 +16462,7 @@
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="167"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
@@ -16680,7 +16663,7 @@
       </c>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B13" s="167"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
@@ -16881,7 +16864,7 @@
       </c>
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B14" s="168"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="69" t="s">
         <v>4</v>
       </c>
@@ -17124,7 +17107,7 @@
       <c r="AW15" s="57"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="199" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="82" t="s">
@@ -17328,7 +17311,7 @@
       </c>
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B17" s="161"/>
+      <c r="B17" s="200"/>
       <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
@@ -17481,7 +17464,7 @@
         <v>53</v>
       </c>
       <c r="AO17" s="57">
-        <f t="shared" ref="AO16:AO19" si="38">AN17+AO7</f>
+        <f t="shared" ref="AO17:AO19" si="38">AN17+AO7</f>
         <v>53</v>
       </c>
       <c r="AP17" s="57">
@@ -17530,7 +17513,7 @@
       </c>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B18" s="161"/>
+      <c r="B18" s="200"/>
       <c r="C18" s="70" t="s">
         <v>9</v>
       </c>
@@ -17732,7 +17715,7 @@
       </c>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B19" s="162"/>
+      <c r="B19" s="201"/>
       <c r="C19" s="83" t="s">
         <v>4</v>
       </c>
@@ -17934,32 +17917,32 @@
       </c>
     </row>
     <row r="21" spans="2:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173">
+      <c r="C21" s="213"/>
+      <c r="D21" s="214">
         <v>1</v>
       </c>
-      <c r="E21" s="174"/>
-      <c r="F21" s="169">
+      <c r="E21" s="215"/>
+      <c r="F21" s="210">
         <v>2</v>
       </c>
-      <c r="G21" s="170"/>
-      <c r="H21" s="180">
+      <c r="G21" s="211"/>
+      <c r="H21" s="221">
         <v>3</v>
       </c>
-      <c r="I21" s="181"/>
-      <c r="J21" s="180">
+      <c r="I21" s="222"/>
+      <c r="J21" s="221">
         <v>4</v>
       </c>
-      <c r="K21" s="181"/>
+      <c r="K21" s="222"/>
     </row>
     <row r="22" spans="2:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="176"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="95">
         <v>1</v>
       </c>
@@ -17984,9 +17967,12 @@
       <c r="K22" s="139">
         <v>8</v>
       </c>
+      <c r="M22" s="297" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="199" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="82" t="s">
@@ -18012,21 +17998,25 @@
         <f xml:space="preserve"> SUM(Y6:AE6)</f>
         <v>3</v>
       </c>
-      <c r="I23" s="292">
+      <c r="I23" s="193">
         <f xml:space="preserve"> SUM(AF6:AL6)</f>
         <v>5</v>
       </c>
-      <c r="J23" s="293">
+      <c r="J23" s="194">
         <f xml:space="preserve"> SUM(AM6:AS6)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="294">
+      <c r="K23" s="195">
         <f xml:space="preserve"> SUM(AT6:AZ6)</f>
         <v>21.5</v>
       </c>
+      <c r="M23" s="295">
+        <f>SUM(D23:K23)</f>
+        <v>45.25</v>
+      </c>
     </row>
     <row r="24" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B24" s="161"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
@@ -18062,9 +18052,13 @@
         <f t="shared" ref="K24:K26" si="44" xml:space="preserve"> SUM(AT7:AZ7)</f>
         <v>20</v>
       </c>
+      <c r="M24" s="295">
+        <f t="shared" ref="M24:M26" si="45">SUM(D24:K24)</f>
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B25" s="161"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="70" t="s">
         <v>9</v>
       </c>
@@ -18081,11 +18075,11 @@
         <v>0</v>
       </c>
       <c r="G25" s="90">
-        <f t="shared" ref="G25:G26" si="45" xml:space="preserve"> SUM(U8:X8)</f>
+        <f t="shared" ref="G25:G26" si="46" xml:space="preserve"> SUM(U8:X8)</f>
         <v>0</v>
       </c>
       <c r="H25" s="98">
-        <f t="shared" ref="H25:H26" si="46" xml:space="preserve"> SUM(Y8:AE8)</f>
+        <f t="shared" ref="H25:H26" si="47" xml:space="preserve"> SUM(Y8:AE8)</f>
         <v>1</v>
       </c>
       <c r="I25" s="90">
@@ -18100,9 +18094,13 @@
         <f t="shared" si="44"/>
         <v>8</v>
       </c>
+      <c r="M25" s="295">
+        <f t="shared" si="45"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B26" s="162"/>
+      <c r="B26" s="201"/>
       <c r="C26" s="83" t="s">
         <v>4</v>
       </c>
@@ -18119,11 +18117,11 @@
         <v>14</v>
       </c>
       <c r="G26" s="137">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>18</v>
       </c>
       <c r="H26" s="142">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>22</v>
       </c>
       <c r="I26" s="137">
@@ -18137,6 +18135,10 @@
       <c r="K26" s="143">
         <f t="shared" si="44"/>
         <v>49.5</v>
+      </c>
+      <c r="M26" s="296">
+        <f t="shared" si="45"/>
+        <v>141.25</v>
       </c>
     </row>
     <row r="27" spans="2:52" x14ac:dyDescent="0.25">
@@ -18148,7 +18150,7 @@
       <c r="K27" s="57"/>
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="218" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -18188,12 +18190,12 @@
       </c>
     </row>
     <row r="29" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B29" s="178"/>
+      <c r="B29" s="219"/>
       <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="98">
-        <f t="shared" ref="D29:D31" si="47" xml:space="preserve"> D24</f>
+        <f t="shared" ref="D29:D31" si="48" xml:space="preserve"> D24</f>
         <v>0</v>
       </c>
       <c r="E29" s="91">
@@ -18226,12 +18228,12 @@
       </c>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B30" s="178"/>
+      <c r="B30" s="219"/>
       <c r="C30" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="98">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E30" s="91">
@@ -18264,12 +18266,12 @@
       </c>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B31" s="179"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="99">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2.75</v>
       </c>
       <c r="E31" s="93">
@@ -18310,7 +18312,7 @@
       <c r="K32" s="57"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="160" t="s">
+      <c r="B33" s="199" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="82" t="s">
@@ -18325,11 +18327,11 @@
         <v>6.75</v>
       </c>
       <c r="F33" s="88">
-        <f t="shared" ref="F33:G36" si="48" xml:space="preserve"> E33 + F23</f>
+        <f t="shared" ref="F33:G36" si="49" xml:space="preserve"> E33 + F23</f>
         <v>12.75</v>
       </c>
       <c r="G33" s="136">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>15.75</v>
       </c>
       <c r="H33" s="140">
@@ -18337,7 +18339,7 @@
         <v>18.75</v>
       </c>
       <c r="I33" s="141">
-        <f t="shared" ref="I33:I36" si="49" xml:space="preserve"> H33 + I23</f>
+        <f t="shared" ref="I33:I36" si="50" xml:space="preserve"> H33 + I23</f>
         <v>23.75</v>
       </c>
       <c r="J33" s="140">
@@ -18345,29 +18347,29 @@
         <v>23.75</v>
       </c>
       <c r="K33" s="141">
-        <f t="shared" ref="K33:K36" si="50" xml:space="preserve"> J33 + K23</f>
+        <f t="shared" ref="K33:K36" si="51" xml:space="preserve"> J33 + K23</f>
         <v>45.25</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="161"/>
+      <c r="B34" s="200"/>
       <c r="C34" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="98">
-        <f t="shared" ref="D34:D36" si="51" xml:space="preserve"> D24</f>
+        <f t="shared" ref="D34:D36" si="52" xml:space="preserve"> D24</f>
         <v>0</v>
       </c>
       <c r="E34" s="91">
-        <f t="shared" ref="E34:E36" si="52" xml:space="preserve"> D34 + E24</f>
+        <f t="shared" ref="E34:E36" si="53" xml:space="preserve"> D34 + E24</f>
         <v>7</v>
       </c>
       <c r="F34" s="90">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
       <c r="G34" s="90">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>30</v>
       </c>
       <c r="H34" s="98">
@@ -18375,7 +18377,7 @@
         <v>48</v>
       </c>
       <c r="I34" s="91">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>53</v>
       </c>
       <c r="J34" s="98">
@@ -18383,88 +18385,96 @@
         <v>57</v>
       </c>
       <c r="K34" s="91">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="161"/>
+      <c r="B35" s="200"/>
       <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="98">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="91">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="90">
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="90">
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="98">
+        <f t="shared" ref="H35:H36" si="54" xml:space="preserve"> G35 + H25</f>
+        <v>3</v>
+      </c>
+      <c r="I35" s="91">
+        <f t="shared" si="50"/>
+        <v>11</v>
+      </c>
+      <c r="J35" s="98">
+        <f t="shared" ref="J35:J36" si="55" xml:space="preserve"> I35 + J25</f>
+        <v>11</v>
+      </c>
+      <c r="K35" s="91">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="91">
-        <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="F35" s="90">
-        <f t="shared" si="48"/>
-        <v>2</v>
-      </c>
-      <c r="G35" s="90">
-        <f t="shared" si="48"/>
-        <v>2</v>
-      </c>
-      <c r="H35" s="98">
-        <f t="shared" ref="H35:H36" si="53" xml:space="preserve"> G35 + H25</f>
-        <v>3</v>
-      </c>
-      <c r="I35" s="91">
-        <f t="shared" si="49"/>
-        <v>11</v>
-      </c>
-      <c r="J35" s="98">
-        <f t="shared" ref="J35:J36" si="54" xml:space="preserve"> I35 + J25</f>
-        <v>11</v>
-      </c>
-      <c r="K35" s="91">
-        <f t="shared" si="50"/>
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="162"/>
+      <c r="B36" s="201"/>
       <c r="C36" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="99">
+        <f t="shared" si="52"/>
+        <v>2.75</v>
+      </c>
+      <c r="E36" s="93">
+        <f t="shared" si="53"/>
+        <v>15.75</v>
+      </c>
+      <c r="F36" s="92">
+        <f t="shared" si="49"/>
+        <v>29.75</v>
+      </c>
+      <c r="G36" s="137">
+        <f t="shared" si="49"/>
+        <v>47.75</v>
+      </c>
+      <c r="H36" s="142">
+        <f t="shared" si="54"/>
+        <v>69.75</v>
+      </c>
+      <c r="I36" s="143">
+        <f t="shared" si="50"/>
+        <v>87.75</v>
+      </c>
+      <c r="J36" s="142">
+        <f t="shared" si="55"/>
+        <v>91.75</v>
+      </c>
+      <c r="K36" s="143">
         <f t="shared" si="51"/>
-        <v>2.75</v>
-      </c>
-      <c r="E36" s="93">
-        <f t="shared" si="52"/>
-        <v>15.75</v>
-      </c>
-      <c r="F36" s="92">
-        <f t="shared" si="48"/>
-        <v>29.75</v>
-      </c>
-      <c r="G36" s="137">
-        <f t="shared" si="48"/>
-        <v>47.75</v>
-      </c>
-      <c r="H36" s="142">
-        <f t="shared" si="53"/>
-        <v>69.75</v>
-      </c>
-      <c r="I36" s="143">
-        <f t="shared" si="49"/>
-        <v>87.75</v>
-      </c>
-      <c r="J36" s="142">
-        <f t="shared" si="54"/>
-        <v>91.75</v>
-      </c>
-      <c r="K36" s="143">
-        <f t="shared" si="50"/>
         <v>141.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="Y2:AL2"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="P2:X2"/>
     <mergeCell ref="AM2:AZ2"/>
     <mergeCell ref="AM3:AS3"/>
     <mergeCell ref="AT3:AZ3"/>
@@ -18481,14 +18491,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="P2:X2"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="Y2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -18519,22 +18521,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="164" t="s">
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="201"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="226"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -18642,10 +18644,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="202">
+      <c r="B5" s="227">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -18705,8 +18707,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
-      <c r="B6" s="203"/>
+      <c r="A6" s="234"/>
+      <c r="B6" s="228"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -18730,8 +18732,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
-      <c r="B7" s="203"/>
+      <c r="A7" s="234"/>
+      <c r="B7" s="228"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -18755,8 +18757,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
-      <c r="B8" s="203"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="228"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -18780,8 +18782,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="192"/>
-      <c r="B9" s="203"/>
+      <c r="A9" s="234"/>
+      <c r="B9" s="228"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -18839,8 +18841,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="192"/>
-      <c r="B10" s="203"/>
+      <c r="A10" s="234"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -18862,8 +18864,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="192"/>
-      <c r="B11" s="203"/>
+      <c r="A11" s="234"/>
+      <c r="B11" s="228"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -18885,8 +18887,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="192"/>
-      <c r="B12" s="203"/>
+      <c r="A12" s="234"/>
+      <c r="B12" s="228"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -18908,8 +18910,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="192"/>
-      <c r="B13" s="203"/>
+      <c r="A13" s="234"/>
+      <c r="B13" s="228"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -18967,8 +18969,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="192"/>
-      <c r="B14" s="203"/>
+      <c r="A14" s="234"/>
+      <c r="B14" s="228"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -18990,8 +18992,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="192"/>
-      <c r="B15" s="203"/>
+      <c r="A15" s="234"/>
+      <c r="B15" s="228"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -19013,8 +19015,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="192"/>
-      <c r="B16" s="204"/>
+      <c r="A16" s="234"/>
+      <c r="B16" s="229"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -19040,8 +19042,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="192"/>
-      <c r="B17" s="202">
+      <c r="A17" s="234"/>
+      <c r="B17" s="227">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -19101,8 +19103,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="192"/>
-      <c r="B18" s="203"/>
+      <c r="A18" s="234"/>
+      <c r="B18" s="228"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -19128,8 +19130,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="192"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="234"/>
+      <c r="B19" s="228"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -19151,8 +19153,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="192"/>
-      <c r="B20" s="204"/>
+      <c r="A20" s="234"/>
+      <c r="B20" s="229"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -19174,8 +19176,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="192"/>
-      <c r="B21" s="205"/>
+      <c r="A21" s="234"/>
+      <c r="B21" s="230"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -19233,8 +19235,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="192"/>
-      <c r="B22" s="206"/>
+      <c r="A22" s="234"/>
+      <c r="B22" s="231"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -19256,8 +19258,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="192"/>
-      <c r="B23" s="206"/>
+      <c r="A23" s="234"/>
+      <c r="B23" s="231"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -19281,8 +19283,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="193"/>
-      <c r="B24" s="207"/>
+      <c r="A24" s="235"/>
+      <c r="B24" s="232"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -19532,7 +19534,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="160" t="s">
+      <c r="A30" s="199" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -19589,7 +19591,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
@@ -19644,7 +19646,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
@@ -19699,11 +19701,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
-      <c r="B33" s="199" t="s">
+      <c r="A33" s="201"/>
+      <c r="B33" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="200"/>
+      <c r="C33" s="248"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
@@ -19768,13 +19770,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="194" t="s">
+      <c r="A36" s="236" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="184"/>
+      <c r="C36" s="240"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
@@ -19789,11 +19791,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="195"/>
-      <c r="B37" s="185" t="s">
+      <c r="A37" s="237"/>
+      <c r="B37" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="186"/>
+      <c r="C37" s="242"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -19808,11 +19810,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="195"/>
-      <c r="B38" s="187" t="s">
+      <c r="A38" s="237"/>
+      <c r="B38" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="188"/>
+      <c r="C38" s="244"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -19827,11 +19829,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="196"/>
-      <c r="B39" s="197" t="s">
+      <c r="A39" s="238"/>
+      <c r="B39" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="198"/>
+      <c r="C39" s="246"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
@@ -19846,13 +19848,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="183" t="s">
+      <c r="B41" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="184"/>
+      <c r="C41" s="240"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
@@ -19863,11 +19865,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="182"/>
-      <c r="B42" s="185" t="s">
+      <c r="A42" s="249"/>
+      <c r="B42" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="186"/>
+      <c r="C42" s="242"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -19878,11 +19880,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="182"/>
-      <c r="B43" s="187" t="s">
+      <c r="A43" s="249"/>
+      <c r="B43" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="188"/>
+      <c r="C43" s="244"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -19893,11 +19895,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="182"/>
-      <c r="B44" s="189" t="s">
+      <c r="A44" s="249"/>
+      <c r="B44" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="190"/>
+      <c r="C44" s="251"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -19909,11 +19911,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
@@ -19922,11 +19924,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -19955,19 +19957,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="152" t="s">
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="165"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="206"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
@@ -20069,10 +20071,10 @@
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="208">
+      <c r="B5" s="252">
         <v>1</v>
       </c>
       <c r="C5" s="59" t="s">
@@ -20120,8 +20122,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
-      <c r="B6" s="209"/>
+      <c r="A6" s="234"/>
+      <c r="B6" s="253"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -20140,8 +20142,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="234"/>
+      <c r="B7" s="253"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -20166,8 +20168,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
-      <c r="B8" s="210"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="61" t="s">
         <v>9</v>
       </c>
@@ -20186,8 +20188,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="192"/>
-      <c r="B9" s="213" t="s">
+      <c r="A9" s="234"/>
+      <c r="B9" s="257" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -20235,8 +20237,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="192"/>
-      <c r="B10" s="214"/>
+      <c r="A10" s="234"/>
+      <c r="B10" s="258"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -20259,8 +20261,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="192"/>
-      <c r="B11" s="214"/>
+      <c r="A11" s="234"/>
+      <c r="B11" s="258"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -20279,8 +20281,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="192"/>
-      <c r="B12" s="214"/>
+      <c r="A12" s="234"/>
+      <c r="B12" s="258"/>
       <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
@@ -20299,8 +20301,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="192"/>
-      <c r="B13" s="214"/>
+      <c r="A13" s="234"/>
+      <c r="B13" s="258"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
@@ -20346,8 +20348,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="192"/>
-      <c r="B14" s="214"/>
+      <c r="A14" s="234"/>
+      <c r="B14" s="258"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -20368,8 +20370,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="192"/>
-      <c r="B15" s="214"/>
+      <c r="A15" s="234"/>
+      <c r="B15" s="258"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -20390,8 +20392,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="192"/>
-      <c r="B16" s="214"/>
+      <c r="A16" s="234"/>
+      <c r="B16" s="258"/>
       <c r="C16" s="60" t="s">
         <v>9</v>
       </c>
@@ -20410,10 +20412,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="202"/>
+      <c r="B17" s="227"/>
       <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
@@ -20459,8 +20461,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="192"/>
-      <c r="B18" s="203"/>
+      <c r="A18" s="234"/>
+      <c r="B18" s="228"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -20481,8 +20483,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="192"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="234"/>
+      <c r="B19" s="228"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -20503,8 +20505,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="192"/>
-      <c r="B20" s="203"/>
+      <c r="A20" s="234"/>
+      <c r="B20" s="228"/>
       <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
@@ -20523,8 +20525,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="192"/>
-      <c r="B21" s="211"/>
+      <c r="A21" s="234"/>
+      <c r="B21" s="255"/>
       <c r="C21" s="64" t="s">
         <v>37</v>
       </c>
@@ -20570,8 +20572,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="192"/>
-      <c r="B22" s="211"/>
+      <c r="A22" s="234"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -20590,8 +20592,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="192"/>
-      <c r="B23" s="211"/>
+      <c r="A23" s="234"/>
+      <c r="B23" s="255"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -20612,8 +20614,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="193"/>
-      <c r="B24" s="212"/>
+      <c r="A24" s="235"/>
+      <c r="B24" s="256"/>
       <c r="C24" s="61" t="s">
         <v>9</v>
       </c>
@@ -20632,10 +20634,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="215" t="s">
+      <c r="B25" s="259" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="215"/>
+      <c r="C25" s="259"/>
       <c r="D25" s="47">
         <f t="shared" ref="D25:M28" si="6">SUM(D5,D9,D13,D17,D21)</f>
         <v>0</v>
@@ -20813,13 +20815,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="160" t="s">
+      <c r="A30" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="216" t="s">
+      <c r="B30" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="217"/>
+      <c r="C30" s="261"/>
       <c r="D30" s="32">
         <f xml:space="preserve"> D26</f>
         <v>0</v>
@@ -20858,11 +20860,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
-      <c r="B31" s="218" t="s">
+      <c r="A31" s="200"/>
+      <c r="B31" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="186"/>
+      <c r="C31" s="242"/>
       <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
@@ -20901,11 +20903,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161"/>
-      <c r="B32" s="219" t="s">
+      <c r="A32" s="200"/>
+      <c r="B32" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="188"/>
+      <c r="C32" s="244"/>
       <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
@@ -20944,11 +20946,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
-      <c r="B33" s="199" t="s">
+      <c r="A33" s="201"/>
+      <c r="B33" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="200"/>
+      <c r="C33" s="248"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0</v>
@@ -21001,13 +21003,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="194" t="s">
+      <c r="A36" s="236" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="184"/>
+      <c r="C36" s="240"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:H26)</f>
         <v>6</v>
@@ -21022,11 +21024,11 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="195"/>
-      <c r="B37" s="185" t="s">
+      <c r="A37" s="237"/>
+      <c r="B37" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="186"/>
+      <c r="C37" s="242"/>
       <c r="D37" s="26">
         <f t="shared" ref="D37:D38" si="7" xml:space="preserve"> SUM(D27:H27)</f>
         <v>8</v>
@@ -21041,11 +21043,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="195"/>
-      <c r="B38" s="187" t="s">
+      <c r="A38" s="237"/>
+      <c r="B38" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="188"/>
+      <c r="C38" s="244"/>
       <c r="D38" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -21060,11 +21062,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="196"/>
-      <c r="B39" s="197" t="s">
+      <c r="A39" s="238"/>
+      <c r="B39" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="198"/>
+      <c r="C39" s="246"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:H25)</f>
         <v>14</v>
@@ -21079,13 +21081,13 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="183" t="s">
+      <c r="B41" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="184"/>
+      <c r="C41" s="240"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>6</v>
@@ -21096,11 +21098,11 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="182"/>
-      <c r="B42" s="185" t="s">
+      <c r="A42" s="249"/>
+      <c r="B42" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="186"/>
+      <c r="C42" s="242"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>8</v>
@@ -21111,11 +21113,11 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="182"/>
-      <c r="B43" s="187" t="s">
+      <c r="A43" s="249"/>
+      <c r="B43" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="188"/>
+      <c r="C43" s="244"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -21126,11 +21128,11 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="182"/>
-      <c r="B44" s="189" t="s">
+      <c r="A44" s="249"/>
+      <c r="B44" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="190"/>
+      <c r="C44" s="251"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>14</v>
@@ -21142,16 +21144,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A5:A16"/>
@@ -21166,6 +21158,16 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21192,24 +21194,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="158" t="s">
+      <c r="D1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="158" t="s">
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="159"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -21331,10 +21333,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="264" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="223">
+      <c r="B5" s="271">
         <v>12</v>
       </c>
       <c r="C5" s="110" t="s">
@@ -21402,8 +21404,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="221"/>
-      <c r="B6" s="209"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="253"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -21427,8 +21429,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="221"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="253"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -21452,8 +21454,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="221"/>
-      <c r="B8" s="224"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="272"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
@@ -21479,8 +21481,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="221"/>
-      <c r="B9" s="225">
+      <c r="A9" s="265"/>
+      <c r="B9" s="273">
         <v>15</v>
       </c>
       <c r="C9" s="118" t="s">
@@ -21548,8 +21550,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="221"/>
-      <c r="B10" s="226"/>
+      <c r="A10" s="265"/>
+      <c r="B10" s="274"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -21573,8 +21575,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
-      <c r="B11" s="226"/>
+      <c r="A11" s="265"/>
+      <c r="B11" s="274"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -21598,8 +21600,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="221"/>
-      <c r="B12" s="227"/>
+      <c r="A12" s="265"/>
+      <c r="B12" s="275"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -21629,8 +21631,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="221"/>
-      <c r="B13" s="225">
+      <c r="A13" s="265"/>
+      <c r="B13" s="273">
         <v>21</v>
       </c>
       <c r="C13" s="119" t="s">
@@ -21698,8 +21700,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
-      <c r="B14" s="226"/>
+      <c r="A14" s="265"/>
+      <c r="B14" s="274"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -21729,8 +21731,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
-      <c r="B15" s="226"/>
+      <c r="A15" s="265"/>
+      <c r="B15" s="274"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -21754,8 +21756,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
-      <c r="B16" s="227"/>
+      <c r="A16" s="265"/>
+      <c r="B16" s="275"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -21779,8 +21781,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
-      <c r="B17" s="225">
+      <c r="A17" s="265"/>
+      <c r="B17" s="273">
         <v>18</v>
       </c>
       <c r="C17" s="119" t="s">
@@ -21848,8 +21850,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
-      <c r="B18" s="226"/>
+      <c r="A18" s="265"/>
+      <c r="B18" s="274"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -21879,8 +21881,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="221"/>
-      <c r="B19" s="226"/>
+      <c r="A19" s="265"/>
+      <c r="B19" s="274"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -21904,8 +21906,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
-      <c r="B20" s="227"/>
+      <c r="A20" s="265"/>
+      <c r="B20" s="275"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -21929,8 +21931,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="221"/>
-      <c r="B21" s="228" t="s">
+      <c r="A21" s="265"/>
+      <c r="B21" s="276" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="119" t="s">
@@ -21998,8 +22000,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="221"/>
-      <c r="B22" s="229"/>
+      <c r="A22" s="265"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -22023,8 +22025,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="221"/>
-      <c r="B23" s="229"/>
+      <c r="A23" s="265"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -22052,8 +22054,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="221"/>
-      <c r="B24" s="230"/>
+      <c r="A24" s="265"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -22077,8 +22079,8 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="221"/>
-      <c r="B25" s="228" t="s">
+      <c r="A25" s="265"/>
+      <c r="B25" s="276" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="119" t="s">
@@ -22146,8 +22148,8 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="221"/>
-      <c r="B26" s="229"/>
+      <c r="A26" s="265"/>
+      <c r="B26" s="277"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
       </c>
@@ -22171,8 +22173,8 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="221"/>
-      <c r="B27" s="229"/>
+      <c r="A27" s="265"/>
+      <c r="B27" s="277"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
       </c>
@@ -22198,8 +22200,8 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="221"/>
-      <c r="B28" s="230"/>
+      <c r="A28" s="265"/>
+      <c r="B28" s="278"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
       </c>
@@ -22223,8 +22225,8 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="221"/>
-      <c r="B29" s="228">
+      <c r="A29" s="265"/>
+      <c r="B29" s="276">
         <v>31</v>
       </c>
       <c r="C29" s="119" t="s">
@@ -22292,8 +22294,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="221"/>
-      <c r="B30" s="229"/>
+      <c r="A30" s="265"/>
+      <c r="B30" s="277"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -22317,8 +22319,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="221"/>
-      <c r="B31" s="229"/>
+      <c r="A31" s="265"/>
+      <c r="B31" s="277"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -22346,8 +22348,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="222"/>
-      <c r="B32" s="230"/>
+      <c r="A32" s="266"/>
+      <c r="B32" s="278"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -22371,10 +22373,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="220" t="s">
+      <c r="A33" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="231"/>
+      <c r="B33" s="267"/>
       <c r="C33" s="110" t="s">
         <v>51</v>
       </c>
@@ -22440,8 +22442,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="221"/>
-      <c r="B34" s="203"/>
+      <c r="A34" s="265"/>
+      <c r="B34" s="228"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -22465,8 +22467,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="221"/>
-      <c r="B35" s="203"/>
+      <c r="A35" s="265"/>
+      <c r="B35" s="228"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -22492,8 +22494,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="221"/>
-      <c r="B36" s="203"/>
+      <c r="A36" s="265"/>
+      <c r="B36" s="228"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -22517,8 +22519,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="221"/>
-      <c r="B37" s="232"/>
+      <c r="A37" s="265"/>
+      <c r="B37" s="268"/>
       <c r="C37" s="110" t="s">
         <v>52</v>
       </c>
@@ -22584,8 +22586,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="221"/>
-      <c r="B38" s="233"/>
+      <c r="A38" s="265"/>
+      <c r="B38" s="269"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -22609,8 +22611,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="221"/>
-      <c r="B39" s="233"/>
+      <c r="A39" s="265"/>
+      <c r="B39" s="269"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -22638,8 +22640,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="222"/>
-      <c r="B40" s="234"/>
+      <c r="A40" s="266"/>
+      <c r="B40" s="270"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -22663,10 +22665,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="215" t="s">
+      <c r="B41" s="259" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="215"/>
+      <c r="C41" s="259"/>
       <c r="D41" s="47">
         <f t="shared" ref="D41:Q41" si="12">SUM(D21,D25,D29,D33,D37,D17,D13,D9,D5)</f>
         <v>0</v>
@@ -22924,13 +22926,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="160" t="s">
+      <c r="A46" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="216" t="s">
+      <c r="B46" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="217"/>
+      <c r="C46" s="261"/>
       <c r="D46" s="32">
         <f>D42</f>
         <v>0</v>
@@ -22990,11 +22992,11 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="161"/>
-      <c r="B47" s="218" t="s">
+      <c r="A47" s="200"/>
+      <c r="B47" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="186"/>
+      <c r="C47" s="242"/>
       <c r="D47" s="38">
         <f>D43</f>
         <v>0</v>
@@ -23054,11 +23056,11 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="161"/>
-      <c r="B48" s="219" t="s">
+      <c r="A48" s="200"/>
+      <c r="B48" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="188"/>
+      <c r="C48" s="244"/>
       <c r="D48" s="34">
         <f>D44</f>
         <v>0</v>
@@ -23118,11 +23120,11 @@
       <c r="R48" s="38"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
-      <c r="B49" s="199" t="s">
+      <c r="A49" s="201"/>
+      <c r="B49" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="200"/>
+      <c r="C49" s="248"/>
       <c r="D49" s="35">
         <f>D41</f>
         <v>0</v>
@@ -23196,13 +23198,13 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="194" t="s">
+      <c r="A52" s="236" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="183" t="s">
+      <c r="B52" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="184"/>
+      <c r="C52" s="240"/>
       <c r="D52" s="26">
         <f xml:space="preserve"> SUM(D42:J42)</f>
         <v>3</v>
@@ -23217,11 +23219,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="195"/>
-      <c r="B53" s="185" t="s">
+      <c r="A53" s="237"/>
+      <c r="B53" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="186"/>
+      <c r="C53" s="242"/>
       <c r="D53" s="26">
         <f t="shared" ref="D53:D54" si="14" xml:space="preserve"> SUM(D43:J43)</f>
         <v>18</v>
@@ -23236,11 +23238,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="195"/>
-      <c r="B54" s="187" t="s">
+      <c r="A54" s="237"/>
+      <c r="B54" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="188"/>
+      <c r="C54" s="244"/>
       <c r="D54" s="26">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -23255,11 +23257,11 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="196"/>
-      <c r="B55" s="197" t="s">
+      <c r="A55" s="238"/>
+      <c r="B55" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="198"/>
+      <c r="C55" s="246"/>
       <c r="D55" s="26">
         <f xml:space="preserve"> SUM(D41:J41)</f>
         <v>22</v>
@@ -23274,13 +23276,13 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="182" t="s">
+      <c r="A57" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="183" t="s">
+      <c r="B57" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="184"/>
+      <c r="C57" s="240"/>
       <c r="D57" s="31">
         <f xml:space="preserve"> D52</f>
         <v>3</v>
@@ -23291,11 +23293,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="182"/>
-      <c r="B58" s="185" t="s">
+      <c r="A58" s="249"/>
+      <c r="B58" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="186"/>
+      <c r="C58" s="242"/>
       <c r="D58" s="31">
         <f xml:space="preserve"> D53</f>
         <v>18</v>
@@ -23306,11 +23308,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="182"/>
-      <c r="B59" s="187" t="s">
+      <c r="A59" s="249"/>
+      <c r="B59" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="188"/>
+      <c r="C59" s="244"/>
       <c r="D59" s="31">
         <f xml:space="preserve"> D54</f>
         <v>1</v>
@@ -23321,11 +23323,11 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="182"/>
-      <c r="B60" s="189" t="s">
+      <c r="A60" s="249"/>
+      <c r="B60" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="190"/>
+      <c r="C60" s="251"/>
       <c r="D60" s="31">
         <f xml:space="preserve"> D55</f>
         <v>22</v>
@@ -23340,25 +23342,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="A5:A32"/>
@@ -23369,6 +23352,25 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -23385,8 +23387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23397,24 +23399,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="158" t="s">
+      <c r="D1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="158" t="s">
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="159"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -23467,46 +23469,46 @@
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="254">
+      <c r="D3" s="157">
         <v>1</v>
       </c>
-      <c r="E3" s="254">
+      <c r="E3" s="157">
         <v>2</v>
       </c>
-      <c r="F3" s="254">
+      <c r="F3" s="157">
         <v>3</v>
       </c>
-      <c r="G3" s="254">
+      <c r="G3" s="157">
         <v>4</v>
       </c>
-      <c r="H3" s="254">
+      <c r="H3" s="157">
         <v>5</v>
       </c>
-      <c r="I3" s="254">
+      <c r="I3" s="157">
         <v>6</v>
       </c>
-      <c r="J3" s="254">
+      <c r="J3" s="157">
         <v>7</v>
       </c>
-      <c r="K3" s="254">
+      <c r="K3" s="157">
         <v>8</v>
       </c>
-      <c r="L3" s="254">
+      <c r="L3" s="157">
         <v>9</v>
       </c>
-      <c r="M3" s="254">
+      <c r="M3" s="157">
         <v>10</v>
       </c>
-      <c r="N3" s="254">
+      <c r="N3" s="157">
         <v>11</v>
       </c>
-      <c r="O3" s="254">
+      <c r="O3" s="157">
         <v>12</v>
       </c>
-      <c r="P3" s="254">
+      <c r="P3" s="157">
         <v>13</v>
       </c>
-      <c r="Q3" s="254">
+      <c r="Q3" s="157">
         <v>14</v>
       </c>
     </row>
@@ -23517,102 +23519,102 @@
       <c r="C4" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="266"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="267"/>
-      <c r="K4" s="267"/>
-      <c r="L4" s="267"/>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="260" t="s">
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="163" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="279" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="290">
         <v>28</v>
       </c>
-      <c r="C5" s="235" t="s">
+      <c r="C5" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="269">
+      <c r="D5" s="172">
         <f t="shared" ref="D5:Q5" si="0">SUM(D6:D8)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="252">
+      <c r="E5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="252">
+      <c r="F5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="252">
+      <c r="G5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="252">
+      <c r="H5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="252">
+      <c r="I5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="252">
+      <c r="J5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="252">
+      <c r="K5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="252">
+      <c r="L5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="252">
+      <c r="M5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="252">
+      <c r="N5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="252">
+      <c r="O5" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="252">
+      <c r="P5" s="155">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="270">
+      <c r="Q5" s="173">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="261">
+      <c r="R5" s="164">
         <f>SUM(D5:Q5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="221"/>
-      <c r="B6" s="209"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="253"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="271"/>
+      <c r="D6" s="174"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -23627,19 +23629,19 @@
       <c r="P6" s="15">
         <v>1</v>
       </c>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="262">
+      <c r="Q6" s="175"/>
+      <c r="R6" s="165">
         <f t="shared" ref="R6:R32" si="1">SUM(D6:Q6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="221"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="253"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="273"/>
+      <c r="D7" s="176"/>
       <c r="E7" s="113"/>
       <c r="F7" s="113"/>
       <c r="G7" s="113"/>
@@ -23652,19 +23654,19 @@
       <c r="N7" s="113"/>
       <c r="O7" s="113"/>
       <c r="P7" s="113"/>
-      <c r="Q7" s="274"/>
-      <c r="R7" s="262">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="165">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="221"/>
-      <c r="B8" s="224"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="272"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="275"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="115"/>
       <c r="F8" s="116"/>
       <c r="G8" s="116"/>
@@ -23677,88 +23679,88 @@
       <c r="N8" s="116"/>
       <c r="O8" s="116"/>
       <c r="P8" s="116"/>
-      <c r="Q8" s="276"/>
-      <c r="R8" s="263">
+      <c r="Q8" s="179"/>
+      <c r="R8" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="221"/>
-      <c r="B9" s="248">
+      <c r="A9" s="265"/>
+      <c r="B9" s="294">
         <v>16</v>
       </c>
-      <c r="C9" s="236" t="s">
+      <c r="C9" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="269">
+      <c r="D9" s="172">
         <f t="shared" ref="D9:Q9" si="2">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="252">
+      <c r="E9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="252">
+      <c r="F9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="252">
+      <c r="G9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="252">
+      <c r="H9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="252">
+      <c r="I9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="252">
+      <c r="J9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="252">
+      <c r="K9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="252">
+      <c r="L9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="252">
+      <c r="M9" s="155">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N9" s="252">
+      <c r="N9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O9" s="252">
+      <c r="O9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" s="252">
+      <c r="P9" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="270">
+      <c r="Q9" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9" s="261">
+      <c r="R9" s="164">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="221"/>
-      <c r="B10" s="226"/>
+      <c r="A10" s="265"/>
+      <c r="B10" s="274"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="271"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -23773,19 +23775,19 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="262">
+      <c r="Q10" s="175"/>
+      <c r="R10" s="165">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
-      <c r="B11" s="226"/>
+      <c r="A11" s="265"/>
+      <c r="B11" s="274"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="271"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -23798,19 +23800,19 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="272"/>
-      <c r="R11" s="262">
+      <c r="Q11" s="175"/>
+      <c r="R11" s="165">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="221"/>
-      <c r="B12" s="227"/>
+      <c r="A12" s="265"/>
+      <c r="B12" s="275"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="275"/>
+      <c r="D12" s="178"/>
       <c r="E12" s="115"/>
       <c r="F12" s="116"/>
       <c r="G12" s="116"/>
@@ -23823,88 +23825,88 @@
       <c r="N12" s="116"/>
       <c r="O12" s="116"/>
       <c r="P12" s="116"/>
-      <c r="Q12" s="276"/>
-      <c r="R12" s="263">
+      <c r="Q12" s="179"/>
+      <c r="R12" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="221"/>
-      <c r="B13" s="248">
+      <c r="A13" s="265"/>
+      <c r="B13" s="294">
         <v>9</v>
       </c>
       <c r="C13" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="269">
+      <c r="D13" s="172">
         <f t="shared" ref="D13:Q13" si="3">SUM(D14:D16)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="252">
+      <c r="E13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F13" s="252">
+      <c r="F13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="252">
+      <c r="G13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H13" s="252">
+      <c r="H13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="252">
+      <c r="I13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="252">
+      <c r="J13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="252">
+      <c r="K13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="252">
+      <c r="L13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="252">
+      <c r="M13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="252">
+      <c r="N13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="252">
+      <c r="O13" s="155">
         <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
-      <c r="P13" s="252">
+      <c r="P13" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="270">
+      <c r="Q13" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R13" s="261">
+      <c r="R13" s="164">
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
-      <c r="B14" s="226"/>
+      <c r="A14" s="265"/>
+      <c r="B14" s="274"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="271"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -23919,19 +23921,19 @@
         <v>3.5</v>
       </c>
       <c r="P14" s="15"/>
-      <c r="Q14" s="272"/>
-      <c r="R14" s="262">
+      <c r="Q14" s="175"/>
+      <c r="R14" s="165">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
-      <c r="B15" s="226"/>
+      <c r="A15" s="265"/>
+      <c r="B15" s="274"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="271"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -23946,19 +23948,19 @@
         <v>0.25</v>
       </c>
       <c r="P15" s="15"/>
-      <c r="Q15" s="272"/>
-      <c r="R15" s="262">
+      <c r="Q15" s="175"/>
+      <c r="R15" s="165">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
-      <c r="B16" s="227"/>
+      <c r="A16" s="265"/>
+      <c r="B16" s="275"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="275"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116"/>
       <c r="G16" s="116"/>
@@ -23971,88 +23973,88 @@
       <c r="N16" s="116"/>
       <c r="O16" s="116"/>
       <c r="P16" s="116"/>
-      <c r="Q16" s="276"/>
-      <c r="R16" s="263">
+      <c r="Q16" s="179"/>
+      <c r="R16" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
-      <c r="B17" s="248" t="s">
+      <c r="A17" s="265"/>
+      <c r="B17" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="235" t="s">
+      <c r="C17" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="269">
+      <c r="D17" s="172">
         <f t="shared" ref="D17:Q17" si="4">SUM(D18:D20)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="252">
+      <c r="E17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F17" s="252">
+      <c r="F17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17" s="252">
+      <c r="G17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H17" s="252">
+      <c r="H17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I17" s="252">
+      <c r="I17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J17" s="252">
+      <c r="J17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="252">
+      <c r="K17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17" s="252">
+      <c r="L17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M17" s="252">
+      <c r="M17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N17" s="252">
+      <c r="N17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O17" s="252">
+      <c r="O17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P17" s="252">
+      <c r="P17" s="155">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="270">
+      <c r="Q17" s="173">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="R17" s="261">
+      <c r="R17" s="164">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
-      <c r="B18" s="226"/>
+      <c r="A18" s="265"/>
+      <c r="B18" s="274"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="271"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -24065,19 +24067,19 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="272"/>
-      <c r="R18" s="262">
+      <c r="Q18" s="175"/>
+      <c r="R18" s="165">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="221"/>
-      <c r="B19" s="226"/>
+      <c r="A19" s="265"/>
+      <c r="B19" s="274"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="271"/>
+      <c r="D19" s="174"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -24090,19 +24092,19 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="272"/>
-      <c r="R19" s="262">
+      <c r="Q19" s="175"/>
+      <c r="R19" s="165">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
-      <c r="B20" s="227"/>
+      <c r="A20" s="265"/>
+      <c r="B20" s="275"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="275"/>
+      <c r="D20" s="178"/>
       <c r="E20" s="115"/>
       <c r="F20" s="116"/>
       <c r="G20" s="116"/>
@@ -24115,90 +24117,90 @@
       <c r="N20" s="116"/>
       <c r="O20" s="116"/>
       <c r="P20" s="116"/>
-      <c r="Q20" s="276">
+      <c r="Q20" s="179">
         <v>8</v>
       </c>
-      <c r="R20" s="263">
+      <c r="R20" s="166">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="221"/>
-      <c r="B21" s="240" t="s">
+      <c r="A21" s="265"/>
+      <c r="B21" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="235" t="s">
+      <c r="C21" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="269">
+      <c r="D21" s="172">
         <f t="shared" ref="D21:Q21" si="5">SUM(D22:D24)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="252">
+      <c r="E21" s="155">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F21" s="252">
+      <c r="F21" s="155">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="252">
+      <c r="G21" s="155">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H21" s="252">
+      <c r="H21" s="155">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I21" s="252">
+      <c r="I21" s="155">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J21" s="252">
+      <c r="J21" s="155">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K21" s="252">
+      <c r="K21" s="155">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L21" s="252">
+      <c r="L21" s="155">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M21" s="252">
+      <c r="M21" s="155">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N21" s="252">
+      <c r="N21" s="155">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="252">
+      <c r="O21" s="155">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P21" s="252">
+      <c r="P21" s="155">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="Q21" s="270">
+      <c r="Q21" s="173">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R21" s="261">
+      <c r="R21" s="164">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="221"/>
-      <c r="B22" s="209"/>
+      <c r="A22" s="265"/>
+      <c r="B22" s="253"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="271"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -24217,21 +24219,21 @@
       <c r="P22" s="15">
         <v>1</v>
       </c>
-      <c r="Q22" s="272">
+      <c r="Q22" s="175">
         <v>1</v>
       </c>
-      <c r="R22" s="262">
+      <c r="R22" s="165">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="221"/>
-      <c r="B23" s="209"/>
+      <c r="A23" s="265"/>
+      <c r="B23" s="253"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="271"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -24246,19 +24248,19 @@
       <c r="P23" s="15">
         <v>4</v>
       </c>
-      <c r="Q23" s="272"/>
-      <c r="R23" s="262">
+      <c r="Q23" s="175"/>
+      <c r="R23" s="165">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="221"/>
-      <c r="B24" s="224"/>
+      <c r="A24" s="265"/>
+      <c r="B24" s="272"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="275"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="115"/>
       <c r="F24" s="116"/>
       <c r="G24" s="116"/>
@@ -24271,88 +24273,88 @@
       <c r="N24" s="116"/>
       <c r="O24" s="116"/>
       <c r="P24" s="116"/>
-      <c r="Q24" s="276"/>
-      <c r="R24" s="263">
+      <c r="Q24" s="179"/>
+      <c r="R24" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="251" t="s">
+      <c r="A25" s="279" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="249"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="269">
+      <c r="D25" s="172">
         <f t="shared" ref="D25:Q25" si="6">SUM(D26:D28)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="252">
+      <c r="E25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F25" s="252">
+      <c r="F25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G25" s="252">
+      <c r="G25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H25" s="252">
+      <c r="H25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I25" s="252">
+      <c r="I25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J25" s="252">
+      <c r="J25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K25" s="252">
+      <c r="K25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L25" s="252">
+      <c r="L25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M25" s="252">
+      <c r="M25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N25" s="252">
+      <c r="N25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O25" s="252">
+      <c r="O25" s="155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P25" s="252">
+      <c r="P25" s="155">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="270">
+      <c r="Q25" s="173">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R25" s="261">
+      <c r="R25" s="164">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="221"/>
+      <c r="A26" s="265"/>
       <c r="B26" s="150"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="271"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -24367,19 +24369,19 @@
       <c r="P26" s="15">
         <v>1</v>
       </c>
-      <c r="Q26" s="272"/>
-      <c r="R26" s="262">
+      <c r="Q26" s="175"/>
+      <c r="R26" s="165">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="221"/>
+      <c r="A27" s="265"/>
       <c r="B27" s="150"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="271"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -24392,19 +24394,19 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="272"/>
-      <c r="R27" s="262">
+      <c r="Q27" s="175"/>
+      <c r="R27" s="165">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="221"/>
+      <c r="A28" s="265"/>
       <c r="B28" s="151"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="275"/>
+      <c r="D28" s="178"/>
       <c r="E28" s="115"/>
       <c r="F28" s="116"/>
       <c r="G28" s="116"/>
@@ -24417,86 +24419,86 @@
       <c r="N28" s="116"/>
       <c r="O28" s="116"/>
       <c r="P28" s="116"/>
-      <c r="Q28" s="276"/>
-      <c r="R28" s="263">
+      <c r="Q28" s="179"/>
+      <c r="R28" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="221"/>
-      <c r="B29" s="250"/>
+      <c r="A29" s="265"/>
+      <c r="B29" s="280"/>
       <c r="C29" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="269">
+      <c r="D29" s="172">
         <f t="shared" ref="D29:Q29" si="7">SUM(D30:D32)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="252">
+      <c r="E29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F29" s="252">
+      <c r="F29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G29" s="252">
+      <c r="G29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H29" s="252">
+      <c r="H29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I29" s="252">
+      <c r="I29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J29" s="252">
+      <c r="J29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K29" s="252">
+      <c r="K29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L29" s="252">
+      <c r="L29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M29" s="252">
+      <c r="M29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N29" s="252">
+      <c r="N29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O29" s="252">
+      <c r="O29" s="155">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P29" s="252">
+      <c r="P29" s="155">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="270">
+      <c r="Q29" s="173">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R29" s="261">
+      <c r="R29" s="164">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="221"/>
-      <c r="B30" s="229"/>
+      <c r="A30" s="265"/>
+      <c r="B30" s="277"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="271"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -24511,19 +24513,19 @@
       <c r="P30" s="15">
         <v>1</v>
       </c>
-      <c r="Q30" s="272"/>
-      <c r="R30" s="262">
+      <c r="Q30" s="175"/>
+      <c r="R30" s="165">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="221"/>
-      <c r="B31" s="229"/>
+      <c r="A31" s="265"/>
+      <c r="B31" s="277"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="271"/>
+      <c r="D31" s="174"/>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -24536,19 +24538,19 @@
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="272"/>
-      <c r="R31" s="262">
+      <c r="Q31" s="175"/>
+      <c r="R31" s="165">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="221"/>
-      <c r="B32" s="230"/>
+      <c r="A32" s="265"/>
+      <c r="B32" s="278"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="275"/>
+      <c r="D32" s="178"/>
       <c r="E32" s="115"/>
       <c r="F32" s="116"/>
       <c r="G32" s="116"/>
@@ -24561,86 +24563,86 @@
       <c r="N32" s="116"/>
       <c r="O32" s="116"/>
       <c r="P32" s="116"/>
-      <c r="Q32" s="276"/>
-      <c r="R32" s="263">
+      <c r="Q32" s="179"/>
+      <c r="R32" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="221"/>
-      <c r="B33" s="240"/>
+      <c r="A33" s="265"/>
+      <c r="B33" s="290"/>
       <c r="C33" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="269">
+      <c r="D33" s="172">
         <f t="shared" ref="D33:Q33" si="8">SUM(D34:D36)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="252">
+      <c r="E33" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F33" s="252">
+      <c r="F33" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G33" s="252">
+      <c r="G33" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H33" s="252">
+      <c r="H33" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I33" s="252">
+      <c r="I33" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J33" s="252">
+      <c r="J33" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K33" s="252">
+      <c r="K33" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L33" s="252">
+      <c r="L33" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M33" s="252">
+      <c r="M33" s="155">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="N33" s="252">
+      <c r="N33" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O33" s="252">
+      <c r="O33" s="155">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="P33" s="252">
+      <c r="P33" s="155">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Q33" s="270">
+      <c r="Q33" s="173">
         <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
-      <c r="R33" s="261">
+      <c r="R33" s="164">
         <f>SUM(D33:Q33)</f>
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="221"/>
-      <c r="B34" s="209"/>
+      <c r="A34" s="265"/>
+      <c r="B34" s="253"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="271"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -24657,21 +24659,21 @@
       <c r="P34" s="15">
         <v>1</v>
       </c>
-      <c r="Q34" s="272">
+      <c r="Q34" s="175">
         <v>1</v>
       </c>
-      <c r="R34" s="262">
+      <c r="R34" s="165">
         <f>SUM(D34:Q34)</f>
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="221"/>
-      <c r="B35" s="209"/>
+      <c r="A35" s="265"/>
+      <c r="B35" s="253"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="271"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="14"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -24688,21 +24690,21 @@
       <c r="P35" s="15">
         <v>2</v>
       </c>
-      <c r="Q35" s="272">
+      <c r="Q35" s="175">
         <v>4.5</v>
       </c>
-      <c r="R35" s="262">
+      <c r="R35" s="165">
         <f t="shared" ref="R35:R36" si="9">SUM(D35:Q35)</f>
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="221"/>
-      <c r="B36" s="224"/>
+      <c r="A36" s="265"/>
+      <c r="B36" s="272"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="271"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="14"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -24715,86 +24717,86 @@
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="272"/>
-      <c r="R36" s="262">
+      <c r="Q36" s="175"/>
+      <c r="R36" s="165">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="221"/>
-      <c r="B37" s="250"/>
+      <c r="A37" s="265"/>
+      <c r="B37" s="280"/>
       <c r="C37" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="277">
+      <c r="D37" s="180">
         <f t="shared" ref="D37:Q37" si="10">SUM(D38:D40)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="253">
+      <c r="E37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F37" s="253">
+      <c r="F37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G37" s="253">
+      <c r="G37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H37" s="253">
+      <c r="H37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I37" s="253">
+      <c r="I37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J37" s="253">
+      <c r="J37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K37" s="253">
+      <c r="K37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L37" s="253">
+      <c r="L37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M37" s="253">
+      <c r="M37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N37" s="253">
+      <c r="N37" s="156">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O37" s="253">
+      <c r="O37" s="156">
         <f t="shared" si="10"/>
         <v>5.5</v>
       </c>
-      <c r="P37" s="253">
+      <c r="P37" s="156">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
-      <c r="Q37" s="278">
+      <c r="Q37" s="181">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R37" s="261">
+      <c r="R37" s="164">
         <f>SUM(D37:Q37)</f>
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="221"/>
-      <c r="B38" s="229"/>
+      <c r="A38" s="265"/>
+      <c r="B38" s="277"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="271"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -24809,19 +24811,19 @@
         <v>2</v>
       </c>
       <c r="P38" s="15"/>
-      <c r="Q38" s="272"/>
-      <c r="R38" s="262">
+      <c r="Q38" s="175"/>
+      <c r="R38" s="165">
         <f>SUM(D38:Q38)</f>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="221"/>
-      <c r="B39" s="229"/>
+      <c r="A39" s="265"/>
+      <c r="B39" s="277"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="271"/>
+      <c r="D39" s="174"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -24838,19 +24840,19 @@
       <c r="P39" s="15">
         <v>2.5</v>
       </c>
-      <c r="Q39" s="272"/>
-      <c r="R39" s="262">
+      <c r="Q39" s="175"/>
+      <c r="R39" s="165">
         <f t="shared" ref="R39:R40" si="11">SUM(D39:Q39)</f>
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="221"/>
-      <c r="B40" s="230"/>
+      <c r="A40" s="265"/>
+      <c r="B40" s="278"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="275"/>
+      <c r="D40" s="178"/>
       <c r="E40" s="115"/>
       <c r="F40" s="116"/>
       <c r="G40" s="116"/>
@@ -24863,86 +24865,86 @@
       <c r="N40" s="116"/>
       <c r="O40" s="116"/>
       <c r="P40" s="116"/>
-      <c r="Q40" s="276"/>
-      <c r="R40" s="263">
+      <c r="Q40" s="179"/>
+      <c r="R40" s="166">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="221"/>
-      <c r="B41" s="250"/>
+      <c r="A41" s="265"/>
+      <c r="B41" s="280"/>
       <c r="C41" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="269">
+      <c r="D41" s="172">
         <f t="shared" ref="D41:Q41" si="12">SUM(D42:D44)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="252">
+      <c r="E41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F41" s="252">
+      <c r="F41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G41" s="252">
+      <c r="G41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H41" s="252">
+      <c r="H41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I41" s="252">
+      <c r="I41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J41" s="252">
+      <c r="J41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K41" s="252">
+      <c r="K41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L41" s="252">
+      <c r="L41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M41" s="252">
+      <c r="M41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N41" s="252">
+      <c r="N41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O41" s="252">
+      <c r="O41" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P41" s="252">
+      <c r="P41" s="155">
         <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
-      <c r="Q41" s="270">
+      <c r="Q41" s="173">
         <f t="shared" si="12"/>
         <v>1.25</v>
       </c>
-      <c r="R41" s="261">
+      <c r="R41" s="164">
         <f>SUM(D41:Q41)</f>
         <v>2.75</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="221"/>
-      <c r="B42" s="229"/>
+      <c r="A42" s="265"/>
+      <c r="B42" s="277"/>
       <c r="C42" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="271"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="14"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -24955,19 +24957,19 @@
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
-      <c r="Q42" s="272"/>
-      <c r="R42" s="262">
+      <c r="Q42" s="175"/>
+      <c r="R42" s="165">
         <f>SUM(D42:Q42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="221"/>
-      <c r="B43" s="229"/>
+      <c r="A43" s="265"/>
+      <c r="B43" s="277"/>
       <c r="C43" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="271"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="14"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -24982,21 +24984,21 @@
       <c r="P43" s="15">
         <v>1.5</v>
       </c>
-      <c r="Q43" s="272">
+      <c r="Q43" s="175">
         <v>1.25</v>
       </c>
-      <c r="R43" s="262">
+      <c r="R43" s="165">
         <f t="shared" ref="R43:R44" si="13">SUM(D43:Q43)</f>
         <v>2.75</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="221"/>
-      <c r="B44" s="230"/>
+      <c r="A44" s="265"/>
+      <c r="B44" s="278"/>
       <c r="C44" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="275"/>
+      <c r="D44" s="178"/>
       <c r="E44" s="115"/>
       <c r="F44" s="116"/>
       <c r="G44" s="116"/>
@@ -25009,86 +25011,86 @@
       <c r="N44" s="116"/>
       <c r="O44" s="116"/>
       <c r="P44" s="116"/>
-      <c r="Q44" s="276"/>
-      <c r="R44" s="263">
+      <c r="Q44" s="179"/>
+      <c r="R44" s="166">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="221"/>
-      <c r="B45" s="250"/>
+      <c r="A45" s="265"/>
+      <c r="B45" s="280"/>
       <c r="C45" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="269">
+      <c r="D45" s="172">
         <f t="shared" ref="D45:Q45" si="14">SUM(D46:D48)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="252">
+      <c r="E45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F45" s="252">
+      <c r="F45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G45" s="252">
+      <c r="G45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H45" s="252">
+      <c r="H45" s="155">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="I45" s="252">
+      <c r="I45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J45" s="252">
+      <c r="J45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K45" s="252">
+      <c r="K45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L45" s="252">
+      <c r="L45" s="155">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="M45" s="252">
+      <c r="M45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N45" s="252">
+      <c r="N45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O45" s="252">
+      <c r="O45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P45" s="252">
+      <c r="P45" s="155">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="270">
+      <c r="Q45" s="173">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R45" s="261">
+      <c r="R45" s="164">
         <f>SUM(D45:Q45)</f>
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="221"/>
-      <c r="B46" s="229"/>
+      <c r="A46" s="265"/>
+      <c r="B46" s="277"/>
       <c r="C46" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="271"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="14"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -25103,19 +25105,19 @@
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
       <c r="P46" s="15"/>
-      <c r="Q46" s="272"/>
-      <c r="R46" s="262">
+      <c r="Q46" s="175"/>
+      <c r="R46" s="165">
         <f>SUM(D46:Q46)</f>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="221"/>
-      <c r="B47" s="229"/>
+      <c r="A47" s="265"/>
+      <c r="B47" s="277"/>
       <c r="C47" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="271"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="14"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -25130,19 +25132,19 @@
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
-      <c r="Q47" s="272"/>
-      <c r="R47" s="262">
+      <c r="Q47" s="175"/>
+      <c r="R47" s="165">
         <f t="shared" ref="R47:R48" si="15">SUM(D47:Q47)</f>
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="222"/>
-      <c r="B48" s="230"/>
+      <c r="A48" s="266"/>
+      <c r="B48" s="278"/>
       <c r="C48" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="275"/>
+      <c r="D48" s="178"/>
       <c r="E48" s="115"/>
       <c r="F48" s="116"/>
       <c r="G48" s="116"/>
@@ -25155,74 +25157,74 @@
       <c r="N48" s="116"/>
       <c r="O48" s="116"/>
       <c r="P48" s="116"/>
-      <c r="Q48" s="276"/>
-      <c r="R48" s="263">
+      <c r="Q48" s="179"/>
+      <c r="R48" s="166">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="215" t="s">
+      <c r="B49" s="259" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="215"/>
-      <c r="D49" s="257">
+      <c r="C49" s="259"/>
+      <c r="D49" s="160">
         <f>SUM(D5,D9,D29,D33,D37,D41,D45,D25,D21,D17,D13)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="257">
+      <c r="E49" s="160">
         <f t="shared" ref="E49:R49" si="16">SUM(E5,E9,E29,E33,E37,E41,E45,E25,E21,E17,E13)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="257">
+      <c r="F49" s="160">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G49" s="257">
+      <c r="G49" s="160">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H49" s="257">
+      <c r="H49" s="160">
         <f>SUM(H5,H9,H29,H33,H37,H41,H45,H25,H21,H17,H13)</f>
         <v>4</v>
       </c>
-      <c r="I49" s="257">
+      <c r="I49" s="160">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J49" s="257">
+      <c r="J49" s="160">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K49" s="257">
+      <c r="K49" s="160">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L49" s="257">
+      <c r="L49" s="160">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="M49" s="257">
+      <c r="M49" s="160">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="N49" s="257">
+      <c r="N49" s="160">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O49" s="257">
+      <c r="O49" s="160">
         <f t="shared" si="16"/>
         <v>9.75</v>
       </c>
-      <c r="P49" s="257">
+      <c r="P49" s="160">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="Q49" s="257">
+      <c r="Q49" s="160">
         <f t="shared" si="16"/>
         <v>15.75</v>
       </c>
-      <c r="R49" s="281">
+      <c r="R49" s="184">
         <f t="shared" si="16"/>
         <v>53.5</v>
       </c>
@@ -25231,63 +25233,63 @@
       <c r="C50" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="279">
+      <c r="D50" s="182">
         <f>SUM(D6,D10,D30,D34,D38,D42,D46,D26,D22,D18,D14)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="280">
+      <c r="E50" s="183">
         <f t="shared" ref="E50:Q50" si="17">SUM(E6,E10,E30,E34,E38,E42,E46,E26,E22,E18,E14)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="280">
+      <c r="F50" s="183">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G50" s="280">
+      <c r="G50" s="183">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H50" s="280">
+      <c r="H50" s="183">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I50" s="280">
+      <c r="I50" s="183">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J50" s="280">
+      <c r="J50" s="183">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K50" s="280">
+      <c r="K50" s="183">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L50" s="280">
+      <c r="L50" s="183">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M50" s="280">
+      <c r="M50" s="183">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="N50" s="280">
+      <c r="N50" s="183">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O50" s="280">
+      <c r="O50" s="183">
         <f t="shared" si="17"/>
         <v>5.5</v>
       </c>
-      <c r="P50" s="280">
+      <c r="P50" s="183">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="Q50" s="255">
+      <c r="Q50" s="158">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="R50" s="282">
+      <c r="R50" s="185">
         <f>SUM(R6,R10,R30,R34,R38,R42,R46,R26,R22,R18,R14)</f>
         <v>21.5</v>
       </c>
@@ -25352,7 +25354,7 @@
         <f t="shared" si="18"/>
         <v>5.75</v>
       </c>
-      <c r="R51" s="264">
+      <c r="R51" s="167">
         <f t="shared" si="18"/>
         <v>24</v>
       </c>
@@ -25361,63 +25363,63 @@
       <c r="C52" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="258">
+      <c r="D52" s="161">
         <f>SUM(D8,D12,D32,D36,D40,D44,D48,D28,D24,D20,D16)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="259">
+      <c r="E52" s="162">
         <f t="shared" ref="E52:R52" si="19">SUM(E8,E12,E32,E36,E40,E44,E48,E28,E24,E20,E16)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="259">
+      <c r="F52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G52" s="259">
+      <c r="G52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H52" s="259">
+      <c r="H52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I52" s="259">
+      <c r="I52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J52" s="259">
+      <c r="J52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K52" s="259">
+      <c r="K52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L52" s="259">
+      <c r="L52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M52" s="259">
+      <c r="M52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N52" s="259">
+      <c r="N52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O52" s="259">
+      <c r="O52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P52" s="259">
+      <c r="P52" s="162">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="256">
+      <c r="Q52" s="159">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="R52" s="265">
+      <c r="R52" s="168">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
@@ -25441,77 +25443,77 @@
       <c r="R53" s="42"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="160" t="s">
+      <c r="A55" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="238" t="s">
+      <c r="B55" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="239"/>
-      <c r="D55" s="285">
+      <c r="C55" s="291"/>
+      <c r="D55" s="186">
         <f>D42</f>
         <v>0</v>
       </c>
-      <c r="E55" s="286">
+      <c r="E55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:E50)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="286">
+      <c r="F55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:F50)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="286">
+      <c r="G55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:G50)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="286">
+      <c r="H55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:H50)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="286">
+      <c r="I55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:I50)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="286">
+      <c r="J55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:J50)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="286">
+      <c r="K55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:K50)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="286">
+      <c r="L55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:L50)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M55" s="286">
+      <c r="M55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:M50)</f>
         <v>0.9</v>
       </c>
-      <c r="N55" s="286">
+      <c r="N55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:N50)</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="O55" s="286">
+      <c r="O55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:O50)</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="P55" s="286">
+      <c r="P55" s="187">
         <f xml:space="preserve"> AVERAGE($D$50:P50)</f>
         <v>1.5</v>
       </c>
-      <c r="Q55" s="287">
+      <c r="Q55" s="188">
         <f xml:space="preserve"> AVERAGE($D$50:Q50)</f>
         <v>1.5357142857142858</v>
       </c>
       <c r="R55" s="38"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="161"/>
-      <c r="B56" s="218" t="s">
+      <c r="A56" s="200"/>
+      <c r="B56" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="283"/>
+      <c r="C56" s="292"/>
       <c r="D56" s="103">
         <f>D43</f>
         <v>0</v>
@@ -25571,11 +25573,11 @@
       <c r="R56" s="38"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="161"/>
-      <c r="B57" s="218" t="s">
+      <c r="A57" s="200"/>
+      <c r="B57" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="283"/>
+      <c r="C57" s="292"/>
       <c r="D57" s="103">
         <f>D44</f>
         <v>0</v>
@@ -25635,64 +25637,64 @@
       <c r="R57" s="38"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="168"/>
-      <c r="B58" s="244" t="s">
+      <c r="A58" s="209"/>
+      <c r="B58" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="284"/>
-      <c r="D58" s="288">
+      <c r="C58" s="293"/>
+      <c r="D58" s="189">
         <f>D41</f>
         <v>0</v>
       </c>
-      <c r="E58" s="289">
+      <c r="E58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:E49)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="289">
+      <c r="F58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:F49)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="289">
+      <c r="G58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:G49)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="289">
+      <c r="H58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:H49)</f>
         <v>0.8</v>
       </c>
-      <c r="I58" s="289">
+      <c r="I58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:I49)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J58" s="289">
+      <c r="J58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:J49)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="K58" s="289">
+      <c r="K58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:K49)</f>
         <v>0.5</v>
       </c>
-      <c r="L58" s="289">
+      <c r="L58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:L49)</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="M58" s="289">
+      <c r="M58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:M49)</f>
         <v>1.3</v>
       </c>
-      <c r="N58" s="289">
+      <c r="N58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:N49)</f>
         <v>1.1818181818181819</v>
       </c>
-      <c r="O58" s="289">
+      <c r="O58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:O49)</f>
         <v>1.8958333333333333</v>
       </c>
-      <c r="P58" s="289">
+      <c r="P58" s="190">
         <f xml:space="preserve"> AVERAGE($D$49:P49)</f>
         <v>2.9038461538461537</v>
       </c>
-      <c r="Q58" s="290">
+      <c r="Q58" s="191">
         <f xml:space="preserve"> AVERAGE($D$49:Q49)</f>
         <v>3.8214285714285716</v>
       </c>
@@ -25713,13 +25715,13 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="194" t="s">
+      <c r="A61" s="236" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="247" t="s">
+      <c r="B61" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="243"/>
+      <c r="C61" s="285"/>
       <c r="D61" s="26">
         <f xml:space="preserve"> SUM(D50:J50)</f>
         <v>0</v>
@@ -25734,11 +25736,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="195"/>
-      <c r="B62" s="185" t="s">
+      <c r="A62" s="237"/>
+      <c r="B62" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="186"/>
+      <c r="C62" s="242"/>
       <c r="D62" s="26">
         <f xml:space="preserve"> SUM(D51:J51)</f>
         <v>4</v>
@@ -25753,11 +25755,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="195"/>
-      <c r="B63" s="246" t="s">
+      <c r="A63" s="237"/>
+      <c r="B63" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="237"/>
+      <c r="C63" s="283"/>
       <c r="D63" s="26">
         <f xml:space="preserve"> SUM(D52:J52)</f>
         <v>0</v>
@@ -25772,11 +25774,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="196"/>
-      <c r="B64" s="244" t="s">
+      <c r="A64" s="238"/>
+      <c r="B64" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="245"/>
+      <c r="C64" s="287"/>
       <c r="D64" s="26">
         <f xml:space="preserve"> SUM(D49:J49)</f>
         <v>4</v>
@@ -25791,13 +25793,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="182" t="s">
+      <c r="A66" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="238" t="s">
+      <c r="B66" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="243"/>
+      <c r="C66" s="285"/>
       <c r="D66" s="31">
         <f xml:space="preserve"> D61</f>
         <v>0</v>
@@ -25808,11 +25810,11 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="182"/>
-      <c r="B67" s="218" t="s">
+      <c r="A67" s="249"/>
+      <c r="B67" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="186"/>
+      <c r="C67" s="242"/>
       <c r="D67" s="31">
         <f xml:space="preserve"> D62</f>
         <v>4</v>
@@ -25823,11 +25825,11 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="182"/>
-      <c r="B68" s="219" t="s">
+      <c r="A68" s="249"/>
+      <c r="B68" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="237"/>
+      <c r="C68" s="283"/>
       <c r="D68" s="31">
         <f xml:space="preserve"> D63</f>
         <v>0</v>
@@ -25838,11 +25840,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="182"/>
-      <c r="B69" s="241" t="s">
+      <c r="A69" s="249"/>
+      <c r="B69" s="281" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="242"/>
+      <c r="C69" s="282"/>
       <c r="D69" s="31">
         <f xml:space="preserve"> D64</f>
         <v>4</v>
@@ -25857,6 +25859,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A25:A48"/>
     <mergeCell ref="B49:C49"/>
@@ -25873,20 +25889,6 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Management/Effort and Velocity.xlsx
+++ b/Management/Effort and Velocity.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="14280" yWindow="0" windowWidth="14550" windowHeight="13005" tabRatio="295" firstSheet="2" activeTab="5"/>
@@ -19,7 +19,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1634,6 +1634,43 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1641,6 +1678,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1656,12 +1705,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1709,19 +1752,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1743,63 +1828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1847,18 +1875,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1883,11 +1899,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1898,14 +1947,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1917,32 +1960,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1959,29 +1977,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2021,6 +2021,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2723,13 +2726,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65065344"/>
-        <c:axId val="65066880"/>
+        <c:axId val="267446880"/>
+        <c:axId val="267444920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65065344"/>
+        <c:axId val="267446880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2739,14 +2741,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65066880"/>
+        <c:crossAx val="267444920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65066880"/>
+        <c:axId val="267444920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65065344"/>
+        <c:crossAx val="267446880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3027,11 +3029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83550976"/>
-        <c:axId val="83552896"/>
+        <c:axId val="334169296"/>
+        <c:axId val="334168904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83550976"/>
+        <c:axId val="334169296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,7 +3061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83552896"/>
+        <c:crossAx val="334168904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3067,7 +3069,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83552896"/>
+        <c:axId val="334168904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3096,7 +3098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83550976"/>
+        <c:crossAx val="334169296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3365,13 +3367,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83292544"/>
-        <c:axId val="83294080"/>
+        <c:axId val="334174000"/>
+        <c:axId val="334174392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83292544"/>
+        <c:axId val="334174000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3381,14 +3382,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83294080"/>
+        <c:crossAx val="334174392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83294080"/>
+        <c:axId val="334174392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83292544"/>
+        <c:crossAx val="334174000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3668,13 +3669,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83323520"/>
-        <c:axId val="83341696"/>
+        <c:axId val="334170864"/>
+        <c:axId val="334172824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83323520"/>
+        <c:axId val="334170864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,14 +3684,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83341696"/>
+        <c:crossAx val="334172824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83341696"/>
+        <c:axId val="334172824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83323520"/>
+        <c:crossAx val="334170864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3971,13 +3971,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83371136"/>
-        <c:axId val="83372672"/>
+        <c:axId val="334173216"/>
+        <c:axId val="334171256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83371136"/>
+        <c:axId val="334173216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,14 +3986,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83372672"/>
+        <c:crossAx val="334171256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83372672"/>
+        <c:axId val="334171256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4005,7 +4004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83371136"/>
+        <c:crossAx val="334173216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4277,13 +4276,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83398016"/>
-        <c:axId val="83412096"/>
+        <c:axId val="334171648"/>
+        <c:axId val="334172040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83398016"/>
+        <c:axId val="334171648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4293,14 +4291,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83412096"/>
+        <c:crossAx val="334172040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83412096"/>
+        <c:axId val="334172040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,7 +4309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83398016"/>
+        <c:crossAx val="334171648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4544,13 +4542,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93591808"/>
-        <c:axId val="93609984"/>
+        <c:axId val="334168512"/>
+        <c:axId val="334174784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93591808"/>
+        <c:axId val="334168512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4560,14 +4557,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93609984"/>
+        <c:crossAx val="334174784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93609984"/>
+        <c:axId val="334174784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4578,7 +4575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93591808"/>
+        <c:crossAx val="334168512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4811,13 +4808,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93639424"/>
-        <c:axId val="93640960"/>
+        <c:axId val="334173608"/>
+        <c:axId val="334873848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93639424"/>
+        <c:axId val="334173608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4827,14 +4823,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93640960"/>
+        <c:crossAx val="334873848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93640960"/>
+        <c:axId val="334873848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4845,7 +4841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93639424"/>
+        <c:crossAx val="334173608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5078,13 +5074,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93666304"/>
-        <c:axId val="93668096"/>
+        <c:axId val="334869144"/>
+        <c:axId val="334878160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93666304"/>
+        <c:axId val="334869144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5094,14 +5089,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93668096"/>
+        <c:crossAx val="334878160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93668096"/>
+        <c:axId val="334878160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5112,7 +5107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93666304"/>
+        <c:crossAx val="334869144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5345,13 +5340,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93701632"/>
-        <c:axId val="93703168"/>
+        <c:axId val="334869536"/>
+        <c:axId val="334873064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93701632"/>
+        <c:axId val="334869536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5361,14 +5355,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93703168"/>
+        <c:crossAx val="334873064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93703168"/>
+        <c:axId val="334873064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5379,7 +5373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93701632"/>
+        <c:crossAx val="334869536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5672,13 +5666,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93913472"/>
-        <c:axId val="93915008"/>
+        <c:axId val="334877376"/>
+        <c:axId val="334872280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93913472"/>
+        <c:axId val="334877376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5688,14 +5681,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93915008"/>
+        <c:crossAx val="334872280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93915008"/>
+        <c:axId val="334872280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5706,7 +5699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93913472"/>
+        <c:crossAx val="334877376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6256,13 +6249,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65149568"/>
-        <c:axId val="65180032"/>
+        <c:axId val="267447664"/>
+        <c:axId val="267440216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65149568"/>
+        <c:axId val="267447664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6272,14 +6264,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65180032"/>
+        <c:crossAx val="267440216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65180032"/>
+        <c:axId val="267440216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6290,7 +6282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65149568"/>
+        <c:crossAx val="267447664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6586,13 +6578,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93956736"/>
-        <c:axId val="93970816"/>
+        <c:axId val="334869928"/>
+        <c:axId val="334870320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93956736"/>
+        <c:axId val="334869928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6602,14 +6593,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93970816"/>
+        <c:crossAx val="334870320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93970816"/>
+        <c:axId val="334870320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6620,7 +6611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93956736"/>
+        <c:crossAx val="334869928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6921,13 +6912,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94508160"/>
-        <c:axId val="94509696"/>
+        <c:axId val="334866792"/>
+        <c:axId val="334875416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94508160"/>
+        <c:axId val="334866792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,14 +6927,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94509696"/>
+        <c:crossAx val="334875416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94509696"/>
+        <c:axId val="334875416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6955,7 +6945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94508160"/>
+        <c:crossAx val="334866792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7248,13 +7238,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94530944"/>
-        <c:axId val="94536832"/>
+        <c:axId val="334873456"/>
+        <c:axId val="334871496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94530944"/>
+        <c:axId val="334873456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7264,14 +7253,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94536832"/>
+        <c:crossAx val="334871496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94536832"/>
+        <c:axId val="334871496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7282,7 +7271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94530944"/>
+        <c:crossAx val="334873456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7445,11 +7434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96741248"/>
-        <c:axId val="96743424"/>
+        <c:axId val="334872672"/>
+        <c:axId val="334874632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96741248"/>
+        <c:axId val="334872672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7477,7 +7466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96743424"/>
+        <c:crossAx val="334874632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7485,7 +7474,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96743424"/>
+        <c:axId val="334874632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7514,7 +7503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96741248"/>
+        <c:crossAx val="334872672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7677,11 +7666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96760960"/>
-        <c:axId val="96762880"/>
+        <c:axId val="334875808"/>
+        <c:axId val="334876200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96760960"/>
+        <c:axId val="334875808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7709,7 +7698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96762880"/>
+        <c:crossAx val="334876200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7717,7 +7706,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96762880"/>
+        <c:axId val="334876200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7746,7 +7735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96760960"/>
+        <c:crossAx val="334875808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7917,11 +7906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96797056"/>
-        <c:axId val="96798976"/>
+        <c:axId val="334877768"/>
+        <c:axId val="334878552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96797056"/>
+        <c:axId val="334877768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7949,7 +7938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96798976"/>
+        <c:crossAx val="334878552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7957,7 +7946,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96798976"/>
+        <c:axId val="334878552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7986,7 +7975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96797056"/>
+        <c:crossAx val="334877768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8149,11 +8138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96828800"/>
-        <c:axId val="96839168"/>
+        <c:axId val="334867184"/>
+        <c:axId val="334867968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96828800"/>
+        <c:axId val="334867184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8181,7 +8170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96839168"/>
+        <c:crossAx val="334867968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8189,7 +8178,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96839168"/>
+        <c:axId val="334867968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8218,7 +8207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96828800"/>
+        <c:crossAx val="334867184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8511,13 +8500,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99363840"/>
-        <c:axId val="99386112"/>
+        <c:axId val="334882080"/>
+        <c:axId val="334879728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="99363840"/>
+        <c:axId val="334882080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8527,14 +8515,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99386112"/>
+        <c:crossAx val="334879728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="99386112"/>
+        <c:axId val="334879728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8545,7 +8533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99363840"/>
+        <c:crossAx val="334882080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8838,13 +8826,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99407360"/>
-        <c:axId val="99408896"/>
+        <c:axId val="334879336"/>
+        <c:axId val="334880512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="99407360"/>
+        <c:axId val="334879336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8854,14 +8841,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99408896"/>
+        <c:crossAx val="334880512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="99408896"/>
+        <c:axId val="334880512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8872,7 +8859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99407360"/>
+        <c:crossAx val="334879336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9173,13 +9160,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99512320"/>
-        <c:axId val="99513856"/>
+        <c:axId val="334881688"/>
+        <c:axId val="334881296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="99512320"/>
+        <c:axId val="334881688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9189,14 +9175,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99513856"/>
+        <c:crossAx val="334881296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="99513856"/>
+        <c:axId val="334881296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9207,7 +9193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99512320"/>
+        <c:crossAx val="334881688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9925,13 +9911,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65197184"/>
-        <c:axId val="65198720"/>
+        <c:axId val="334297928"/>
+        <c:axId val="334303024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65197184"/>
+        <c:axId val="334297928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9941,14 +9926,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65198720"/>
+        <c:crossAx val="334303024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65198720"/>
+        <c:axId val="334303024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9959,7 +9944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65197184"/>
+        <c:crossAx val="334297928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10252,13 +10237,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99526912"/>
-        <c:axId val="99622912"/>
+        <c:axId val="335825920"/>
+        <c:axId val="335824744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="99526912"/>
+        <c:axId val="335825920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10268,14 +10252,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99622912"/>
+        <c:crossAx val="335824744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="99622912"/>
+        <c:axId val="335824744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10286,7 +10270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99526912"/>
+        <c:crossAx val="335825920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10449,11 +10433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99648256"/>
-        <c:axId val="99650176"/>
+        <c:axId val="335820432"/>
+        <c:axId val="335814944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99648256"/>
+        <c:axId val="335820432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10481,7 +10465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99650176"/>
+        <c:crossAx val="335814944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10489,7 +10473,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99650176"/>
+        <c:axId val="335814944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10518,7 +10502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99648256"/>
+        <c:crossAx val="335820432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10681,11 +10665,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104996864"/>
-        <c:axId val="104998784"/>
+        <c:axId val="335820824"/>
+        <c:axId val="335824352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104996864"/>
+        <c:axId val="335820824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10713,7 +10697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104998784"/>
+        <c:crossAx val="335824352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10721,7 +10705,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104998784"/>
+        <c:axId val="335824352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10750,7 +10734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104996864"/>
+        <c:crossAx val="335820824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10921,11 +10905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105024512"/>
-        <c:axId val="105034880"/>
+        <c:axId val="335823960"/>
+        <c:axId val="335819256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105024512"/>
+        <c:axId val="335823960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10953,7 +10937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105034880"/>
+        <c:crossAx val="335819256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10961,7 +10945,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105034880"/>
+        <c:axId val="335819256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10990,7 +10974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105024512"/>
+        <c:crossAx val="335823960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11153,11 +11137,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105065088"/>
-        <c:axId val="105071360"/>
+        <c:axId val="335818080"/>
+        <c:axId val="335821216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105065088"/>
+        <c:axId val="335818080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11185,7 +11169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105071360"/>
+        <c:crossAx val="335821216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11193,7 +11177,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105071360"/>
+        <c:axId val="335821216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11222,7 +11206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105065088"/>
+        <c:crossAx val="335818080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11516,13 +11500,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106809600"/>
-        <c:axId val="106811392"/>
+        <c:axId val="335822392"/>
+        <c:axId val="335825136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106809600"/>
+        <c:axId val="335822392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11532,14 +11515,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106811392"/>
+        <c:crossAx val="335825136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106811392"/>
+        <c:axId val="335825136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11550,7 +11533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106809600"/>
+        <c:crossAx val="335822392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11681,43 +11664,43 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>1.2857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.375</c:v>
+                  <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.0555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27272727272727271</c:v>
+                  <c:v>0.86363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25</c:v>
+                  <c:v>0.79166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.73076923076923073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>1.1071428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11794,7 +11777,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -11809,10 +11792,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -11830,7 +11813,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11845,13 +11828,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106701568"/>
-        <c:axId val="106703104"/>
+        <c:axId val="335817688"/>
+        <c:axId val="335816120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106701568"/>
+        <c:axId val="335817688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11861,14 +11843,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106703104"/>
+        <c:crossAx val="335816120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106703104"/>
+        <c:axId val="335816120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11879,7 +11861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106701568"/>
+        <c:crossAx val="335817688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12182,13 +12164,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106732544"/>
-        <c:axId val="106742528"/>
+        <c:axId val="335816512"/>
+        <c:axId val="335821608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106732544"/>
+        <c:axId val="335816512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12198,14 +12179,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106742528"/>
+        <c:crossAx val="335821608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106742528"/>
+        <c:axId val="335821608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12216,7 +12197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106732544"/>
+        <c:crossAx val="335816512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12347,43 +12328,43 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.875</c:v>
+                  <c:v>10.375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9166666666666661</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9375</c:v>
+                  <c:v>7.1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.55</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.625</c:v>
+                  <c:v>4.791666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9642857142857144</c:v>
+                  <c:v>5.8214285714285712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.78125</c:v>
+                  <c:v>5.59375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.916666666666667</c:v>
+                  <c:v>5.6388888888888893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2750000000000004</c:v>
+                  <c:v>5.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3863636363636367</c:v>
+                  <c:v>5.9772727272727275</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.520833333333333</c:v>
+                  <c:v>6.0625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4038461538461542</c:v>
+                  <c:v>5.9038461538461542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.375</c:v>
+                  <c:v>6.2678571428571432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12460,7 +12441,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -12475,10 +12456,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
@@ -12496,7 +12477,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12511,13 +12492,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50181632"/>
-        <c:axId val="50183168"/>
+        <c:axId val="335819648"/>
+        <c:axId val="335822000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50181632"/>
+        <c:axId val="335819648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12527,14 +12507,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50183168"/>
+        <c:crossAx val="335822000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50183168"/>
+        <c:axId val="335822000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12545,7 +12525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50181632"/>
+        <c:crossAx val="335819648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12602,7 +12582,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12710,11 +12689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51429376"/>
-        <c:axId val="51431296"/>
+        <c:axId val="335822784"/>
+        <c:axId val="335818472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51429376"/>
+        <c:axId val="335822784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12736,14 +12715,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51431296"/>
+        <c:crossAx val="335818472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12751,7 +12729,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51431296"/>
+        <c:axId val="335818472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12774,21 +12752,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51429376"/>
+        <c:crossAx val="335822784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13500,13 +13476,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35483008"/>
-        <c:axId val="35492992"/>
+        <c:axId val="334298320"/>
+        <c:axId val="334299104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35483008"/>
+        <c:axId val="334298320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13516,14 +13491,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35492992"/>
+        <c:crossAx val="334299104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35492992"/>
+        <c:axId val="334299104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13534,7 +13509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35483008"/>
+        <c:crossAx val="334298320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13590,7 +13565,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13698,11 +13672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51440640"/>
-        <c:axId val="51442816"/>
+        <c:axId val="335826704"/>
+        <c:axId val="335828272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51440640"/>
+        <c:axId val="335826704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13724,14 +13698,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51442816"/>
+        <c:crossAx val="335828272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13739,7 +13712,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51442816"/>
+        <c:axId val="335828272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13762,21 +13735,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51440640"/>
+        <c:crossAx val="335826704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13834,7 +13805,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13942,11 +13912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51468928"/>
-        <c:axId val="51471104"/>
+        <c:axId val="335829840"/>
+        <c:axId val="335828664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51468928"/>
+        <c:axId val="335829840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13968,14 +13938,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51471104"/>
+        <c:crossAx val="335828664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13983,7 +13952,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51471104"/>
+        <c:axId val="335828664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14006,21 +13975,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51468928"/>
+        <c:crossAx val="335829840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14070,7 +14037,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14178,11 +14144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107947520"/>
-        <c:axId val="107949440"/>
+        <c:axId val="335830232"/>
+        <c:axId val="335827096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107947520"/>
+        <c:axId val="335830232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14204,14 +14170,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107949440"/>
+        <c:crossAx val="335827096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14219,7 +14184,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107949440"/>
+        <c:axId val="335827096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14242,21 +14207,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107947520"/>
+        <c:crossAx val="335830232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14485,11 +14448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35510528"/>
-        <c:axId val="65016192"/>
+        <c:axId val="334303808"/>
+        <c:axId val="334300280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35510528"/>
+        <c:axId val="334303808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14517,7 +14480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65016192"/>
+        <c:crossAx val="334300280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14525,7 +14488,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65016192"/>
+        <c:axId val="334300280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14554,7 +14517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35510528"/>
+        <c:crossAx val="334303808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14789,11 +14752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69244032"/>
-        <c:axId val="69245952"/>
+        <c:axId val="334301064"/>
+        <c:axId val="334304200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69244032"/>
+        <c:axId val="334301064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14821,7 +14784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69245952"/>
+        <c:crossAx val="334304200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14829,7 +14792,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69245952"/>
+        <c:axId val="334304200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14858,7 +14821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69244032"/>
+        <c:crossAx val="334301064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15122,11 +15085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69284224"/>
-        <c:axId val="69286144"/>
+        <c:axId val="334305376"/>
+        <c:axId val="334302240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69284224"/>
+        <c:axId val="334305376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15154,7 +15117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69286144"/>
+        <c:crossAx val="334302240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15162,7 +15125,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69286144"/>
+        <c:axId val="334302240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15191,7 +15154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69284224"/>
+        <c:crossAx val="334305376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15434,11 +15397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69303680"/>
-        <c:axId val="69322240"/>
+        <c:axId val="334299888"/>
+        <c:axId val="334301848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69303680"/>
+        <c:axId val="334299888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15466,7 +15429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69322240"/>
+        <c:crossAx val="334301848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15474,7 +15437,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69322240"/>
+        <c:axId val="334301848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15503,7 +15466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69303680"/>
+        <c:crossAx val="334299888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15877,11 +15840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83501056"/>
-        <c:axId val="83502976"/>
+        <c:axId val="334303416"/>
+        <c:axId val="334304984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83501056"/>
+        <c:axId val="334303416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15909,7 +15872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83502976"/>
+        <c:crossAx val="334304984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15917,7 +15880,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83502976"/>
+        <c:axId val="334304984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15946,7 +15909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83501056"/>
+        <c:crossAx val="334303416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17380,7 +17343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17415,7 +17378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17636,130 +17599,130 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="D2" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="210" t="s">
+      <c r="D2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="202" t="s">
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="203"/>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="203"/>
-      <c r="AJ2" s="203"/>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="204"/>
-      <c r="AM2" s="202" t="s">
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="218"/>
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218"/>
+      <c r="AF2" s="218"/>
+      <c r="AG2" s="218"/>
+      <c r="AH2" s="218"/>
+      <c r="AI2" s="218"/>
+      <c r="AJ2" s="218"/>
+      <c r="AK2" s="218"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="203"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="203"/>
-      <c r="AQ2" s="203"/>
-      <c r="AR2" s="203"/>
-      <c r="AS2" s="203"/>
-      <c r="AT2" s="203"/>
-      <c r="AU2" s="203"/>
-      <c r="AV2" s="203"/>
-      <c r="AW2" s="203"/>
-      <c r="AX2" s="203"/>
-      <c r="AY2" s="203"/>
-      <c r="AZ2" s="204"/>
+      <c r="AN2" s="218"/>
+      <c r="AO2" s="218"/>
+      <c r="AP2" s="218"/>
+      <c r="AQ2" s="218"/>
+      <c r="AR2" s="218"/>
+      <c r="AS2" s="218"/>
+      <c r="AT2" s="218"/>
+      <c r="AU2" s="218"/>
+      <c r="AV2" s="218"/>
+      <c r="AW2" s="218"/>
+      <c r="AX2" s="218"/>
+      <c r="AY2" s="218"/>
+      <c r="AZ2" s="219"/>
     </row>
     <row r="3" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="210" t="s">
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="210" t="s">
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="211"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="210" t="s">
+      <c r="Q3" s="223"/>
+      <c r="R3" s="223"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="227" t="s">
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="218"/>
+      <c r="Y3" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="228"/>
-      <c r="AA3" s="228"/>
-      <c r="AB3" s="228"/>
-      <c r="AC3" s="228"/>
-      <c r="AD3" s="228"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="227" t="s">
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="216"/>
+      <c r="AF3" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="228"/>
-      <c r="AH3" s="228"/>
-      <c r="AI3" s="228"/>
-      <c r="AJ3" s="228"/>
-      <c r="AK3" s="228"/>
-      <c r="AL3" s="229"/>
-      <c r="AM3" s="202" t="s">
+      <c r="AG3" s="215"/>
+      <c r="AH3" s="215"/>
+      <c r="AI3" s="215"/>
+      <c r="AJ3" s="215"/>
+      <c r="AK3" s="215"/>
+      <c r="AL3" s="216"/>
+      <c r="AM3" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="AN3" s="203"/>
-      <c r="AO3" s="203"/>
-      <c r="AP3" s="203"/>
-      <c r="AQ3" s="203"/>
-      <c r="AR3" s="203"/>
-      <c r="AS3" s="203"/>
-      <c r="AT3" s="202" t="s">
+      <c r="AN3" s="218"/>
+      <c r="AO3" s="218"/>
+      <c r="AP3" s="218"/>
+      <c r="AQ3" s="218"/>
+      <c r="AR3" s="218"/>
+      <c r="AS3" s="218"/>
+      <c r="AT3" s="217" t="s">
         <v>70</v>
       </c>
-      <c r="AU3" s="203"/>
-      <c r="AV3" s="203"/>
-      <c r="AW3" s="203"/>
-      <c r="AX3" s="203"/>
-      <c r="AY3" s="203"/>
-      <c r="AZ3" s="204"/>
+      <c r="AU3" s="218"/>
+      <c r="AV3" s="218"/>
+      <c r="AW3" s="218"/>
+      <c r="AX3" s="218"/>
+      <c r="AY3" s="218"/>
+      <c r="AZ3" s="219"/>
     </row>
     <row r="4" spans="2:52" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
@@ -18060,7 +18023,7 @@
       </c>
     </row>
     <row r="6" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="230" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -18252,7 +18215,7 @@
       </c>
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B7" s="214"/>
+      <c r="B7" s="231"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -18442,7 +18405,7 @@
       </c>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B8" s="214"/>
+      <c r="B8" s="231"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
@@ -18632,7 +18595,7 @@
       </c>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B9" s="215"/>
+      <c r="B9" s="232"/>
       <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
@@ -18864,7 +18827,7 @@
       <c r="AW10" s="57"/>
     </row>
     <row r="11" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="213" t="s">
+      <c r="B11" s="230" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -19067,7 +19030,7 @@
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="214"/>
+      <c r="B12" s="231"/>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
@@ -19268,7 +19231,7 @@
       </c>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B13" s="214"/>
+      <c r="B13" s="231"/>
       <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
@@ -19469,7 +19432,7 @@
       </c>
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B14" s="215"/>
+      <c r="B14" s="232"/>
       <c r="C14" s="69" t="s">
         <v>4</v>
       </c>
@@ -19712,7 +19675,7 @@
       <c r="AW15" s="57"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B16" s="205" t="s">
+      <c r="B16" s="224" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="82" t="s">
@@ -19916,7 +19879,7 @@
       </c>
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B17" s="206"/>
+      <c r="B17" s="225"/>
       <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
@@ -20118,7 +20081,7 @@
       </c>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B18" s="206"/>
+      <c r="B18" s="225"/>
       <c r="C18" s="70" t="s">
         <v>9</v>
       </c>
@@ -20320,7 +20283,7 @@
       </c>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B19" s="207"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="83" t="s">
         <v>4</v>
       </c>
@@ -20522,32 +20485,32 @@
       </c>
     </row>
     <row r="21" spans="2:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="219"/>
-      <c r="D21" s="220">
+      <c r="C21" s="236"/>
+      <c r="D21" s="237">
         <v>1</v>
       </c>
-      <c r="E21" s="221"/>
-      <c r="F21" s="216">
+      <c r="E21" s="238"/>
+      <c r="F21" s="233">
         <v>2</v>
       </c>
-      <c r="G21" s="217"/>
-      <c r="H21" s="230">
+      <c r="G21" s="234"/>
+      <c r="H21" s="220">
         <v>3</v>
       </c>
-      <c r="I21" s="231"/>
-      <c r="J21" s="230">
+      <c r="I21" s="221"/>
+      <c r="J21" s="220">
         <v>4</v>
       </c>
-      <c r="K21" s="231"/>
+      <c r="K21" s="221"/>
     </row>
     <row r="22" spans="2:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="222" t="s">
+      <c r="B22" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="223"/>
+      <c r="C22" s="240"/>
       <c r="D22" s="95">
         <v>1</v>
       </c>
@@ -20577,7 +20540,7 @@
       </c>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B23" s="205" t="s">
+      <c r="B23" s="224" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="82" t="s">
@@ -20621,7 +20584,7 @@
       </c>
     </row>
     <row r="24" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B24" s="206"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
@@ -20663,7 +20626,7 @@
       </c>
     </row>
     <row r="25" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B25" s="206"/>
+      <c r="B25" s="225"/>
       <c r="C25" s="70" t="s">
         <v>9</v>
       </c>
@@ -20705,7 +20668,7 @@
       </c>
     </row>
     <row r="26" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B26" s="207"/>
+      <c r="B26" s="226"/>
       <c r="C26" s="83" t="s">
         <v>4</v>
       </c>
@@ -20755,7 +20718,7 @@
       <c r="K27" s="57"/>
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B28" s="224" t="s">
+      <c r="B28" s="241" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -20795,7 +20758,7 @@
       </c>
     </row>
     <row r="29" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B29" s="225"/>
+      <c r="B29" s="242"/>
       <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
@@ -20833,7 +20796,7 @@
       </c>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B30" s="225"/>
+      <c r="B30" s="242"/>
       <c r="C30" s="70" t="s">
         <v>9</v>
       </c>
@@ -20871,7 +20834,7 @@
       </c>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B31" s="226"/>
+      <c r="B31" s="243"/>
       <c r="C31" s="83" t="s">
         <v>4</v>
       </c>
@@ -20917,7 +20880,7 @@
       <c r="K32" s="57"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="205" t="s">
+      <c r="B33" s="224" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="82" t="s">
@@ -20957,7 +20920,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="206"/>
+      <c r="B34" s="225"/>
       <c r="C34" s="70" t="s">
         <v>8</v>
       </c>
@@ -20995,7 +20958,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="206"/>
+      <c r="B35" s="225"/>
       <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
@@ -21033,7 +20996,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="207"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="83" t="s">
         <v>4</v>
       </c>
@@ -21072,14 +21035,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="Y2:AL2"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="P2:X2"/>
     <mergeCell ref="AM2:AZ2"/>
     <mergeCell ref="AM3:AS3"/>
     <mergeCell ref="AT3:AZ3"/>
@@ -21096,6 +21051,14 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B28:B31"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="Y2:AL2"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="P2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -21126,22 +21089,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="210" t="s">
+      <c r="D1" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="209" t="s">
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="232"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="263"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -21249,10 +21212,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="253" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="233">
+      <c r="B5" s="264">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -21312,8 +21275,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="240"/>
-      <c r="B6" s="234"/>
+      <c r="A6" s="254"/>
+      <c r="B6" s="265"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -21337,8 +21300,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="240"/>
-      <c r="B7" s="234"/>
+      <c r="A7" s="254"/>
+      <c r="B7" s="265"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -21362,8 +21325,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="240"/>
-      <c r="B8" s="234"/>
+      <c r="A8" s="254"/>
+      <c r="B8" s="265"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -21387,8 +21350,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="240"/>
-      <c r="B9" s="234"/>
+      <c r="A9" s="254"/>
+      <c r="B9" s="265"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -21446,8 +21409,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="240"/>
-      <c r="B10" s="234"/>
+      <c r="A10" s="254"/>
+      <c r="B10" s="265"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -21469,8 +21432,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="240"/>
-      <c r="B11" s="234"/>
+      <c r="A11" s="254"/>
+      <c r="B11" s="265"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -21492,8 +21455,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="240"/>
-      <c r="B12" s="234"/>
+      <c r="A12" s="254"/>
+      <c r="B12" s="265"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -21515,8 +21478,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="240"/>
-      <c r="B13" s="234"/>
+      <c r="A13" s="254"/>
+      <c r="B13" s="265"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -21574,8 +21537,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="240"/>
-      <c r="B14" s="234"/>
+      <c r="A14" s="254"/>
+      <c r="B14" s="265"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -21597,8 +21560,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
-      <c r="B15" s="234"/>
+      <c r="A15" s="254"/>
+      <c r="B15" s="265"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -21620,8 +21583,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="240"/>
-      <c r="B16" s="235"/>
+      <c r="A16" s="254"/>
+      <c r="B16" s="266"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -21647,8 +21610,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="240"/>
-      <c r="B17" s="233">
+      <c r="A17" s="254"/>
+      <c r="B17" s="264">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -21708,8 +21671,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="240"/>
-      <c r="B18" s="234"/>
+      <c r="A18" s="254"/>
+      <c r="B18" s="265"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -21735,8 +21698,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="240"/>
-      <c r="B19" s="234"/>
+      <c r="A19" s="254"/>
+      <c r="B19" s="265"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -21758,8 +21721,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="240"/>
-      <c r="B20" s="235"/>
+      <c r="A20" s="254"/>
+      <c r="B20" s="266"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -21781,8 +21744,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="240"/>
-      <c r="B21" s="236"/>
+      <c r="A21" s="254"/>
+      <c r="B21" s="267"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -21840,8 +21803,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="240"/>
-      <c r="B22" s="237"/>
+      <c r="A22" s="254"/>
+      <c r="B22" s="268"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -21863,8 +21826,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="240"/>
-      <c r="B23" s="237"/>
+      <c r="A23" s="254"/>
+      <c r="B23" s="268"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -21888,8 +21851,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="241"/>
-      <c r="B24" s="238"/>
+      <c r="A24" s="255"/>
+      <c r="B24" s="269"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -22139,7 +22102,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="205" t="s">
+      <c r="A30" s="224" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -22196,7 +22159,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="206"/>
+      <c r="A31" s="225"/>
       <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
@@ -22251,7 +22214,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="206"/>
+      <c r="A32" s="225"/>
       <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
@@ -22306,11 +22269,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="207"/>
-      <c r="B33" s="253" t="s">
+      <c r="A33" s="226"/>
+      <c r="B33" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="254"/>
+      <c r="C33" s="262"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
@@ -22375,7 +22338,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="256" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="245" t="s">
@@ -22396,7 +22359,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="243"/>
+      <c r="A37" s="257"/>
       <c r="B37" s="247" t="s">
         <v>8</v>
       </c>
@@ -22415,7 +22378,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="243"/>
+      <c r="A38" s="257"/>
       <c r="B38" s="249" t="s">
         <v>9</v>
       </c>
@@ -22434,11 +22397,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="244"/>
-      <c r="B39" s="251" t="s">
+      <c r="A39" s="258"/>
+      <c r="B39" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="252"/>
+      <c r="C39" s="260"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
@@ -22453,7 +22416,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="255" t="s">
+      <c r="A41" s="244" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="245" t="s">
@@ -22470,7 +22433,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="255"/>
+      <c r="A42" s="244"/>
       <c r="B42" s="247" t="s">
         <v>8</v>
       </c>
@@ -22485,7 +22448,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="255"/>
+      <c r="A43" s="244"/>
       <c r="B43" s="249" t="s">
         <v>9</v>
       </c>
@@ -22500,11 +22463,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="255"/>
-      <c r="B44" s="256" t="s">
+      <c r="A44" s="244"/>
+      <c r="B44" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="257"/>
+      <c r="C44" s="252"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -22516,11 +22479,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
@@ -22529,11 +22492,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -22562,19 +22525,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="210" t="s">
+      <c r="D1" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="210" t="s">
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="212"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="229"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
@@ -22676,10 +22639,10 @@
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="258">
+      <c r="B5" s="270">
         <v>1</v>
       </c>
       <c r="C5" s="59" t="s">
@@ -22727,8 +22690,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="240"/>
-      <c r="B6" s="259"/>
+      <c r="A6" s="254"/>
+      <c r="B6" s="271"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -22747,8 +22710,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="240"/>
-      <c r="B7" s="259"/>
+      <c r="A7" s="254"/>
+      <c r="B7" s="271"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -22773,8 +22736,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="240"/>
-      <c r="B8" s="260"/>
+      <c r="A8" s="254"/>
+      <c r="B8" s="272"/>
       <c r="C8" s="61" t="s">
         <v>9</v>
       </c>
@@ -22793,8 +22756,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="240"/>
-      <c r="B9" s="263" t="s">
+      <c r="A9" s="254"/>
+      <c r="B9" s="275" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -22842,8 +22805,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="240"/>
-      <c r="B10" s="264"/>
+      <c r="A10" s="254"/>
+      <c r="B10" s="276"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -22866,8 +22829,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="240"/>
-      <c r="B11" s="264"/>
+      <c r="A11" s="254"/>
+      <c r="B11" s="276"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -22886,8 +22849,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="240"/>
-      <c r="B12" s="264"/>
+      <c r="A12" s="254"/>
+      <c r="B12" s="276"/>
       <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
@@ -22906,8 +22869,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="240"/>
-      <c r="B13" s="264"/>
+      <c r="A13" s="254"/>
+      <c r="B13" s="276"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
@@ -22953,8 +22916,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="240"/>
-      <c r="B14" s="264"/>
+      <c r="A14" s="254"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -22975,8 +22938,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
-      <c r="B15" s="264"/>
+      <c r="A15" s="254"/>
+      <c r="B15" s="276"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -22997,8 +22960,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="240"/>
-      <c r="B16" s="264"/>
+      <c r="A16" s="254"/>
+      <c r="B16" s="276"/>
       <c r="C16" s="60" t="s">
         <v>9</v>
       </c>
@@ -23017,10 +22980,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="233"/>
+      <c r="B17" s="264"/>
       <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
@@ -23066,8 +23029,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="240"/>
-      <c r="B18" s="234"/>
+      <c r="A18" s="254"/>
+      <c r="B18" s="265"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -23088,8 +23051,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="240"/>
-      <c r="B19" s="234"/>
+      <c r="A19" s="254"/>
+      <c r="B19" s="265"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -23110,8 +23073,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="240"/>
-      <c r="B20" s="234"/>
+      <c r="A20" s="254"/>
+      <c r="B20" s="265"/>
       <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
@@ -23130,8 +23093,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="240"/>
-      <c r="B21" s="261"/>
+      <c r="A21" s="254"/>
+      <c r="B21" s="273"/>
       <c r="C21" s="64" t="s">
         <v>37</v>
       </c>
@@ -23177,8 +23140,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="240"/>
-      <c r="B22" s="261"/>
+      <c r="A22" s="254"/>
+      <c r="B22" s="273"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -23197,8 +23160,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="240"/>
-      <c r="B23" s="261"/>
+      <c r="A23" s="254"/>
+      <c r="B23" s="273"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -23219,8 +23182,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="241"/>
-      <c r="B24" s="262"/>
+      <c r="A24" s="255"/>
+      <c r="B24" s="274"/>
       <c r="C24" s="61" t="s">
         <v>9</v>
       </c>
@@ -23239,10 +23202,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="265" t="s">
+      <c r="B25" s="277" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="265"/>
+      <c r="C25" s="277"/>
       <c r="D25" s="47">
         <f t="shared" ref="D25:M28" si="6">SUM(D5,D9,D13,D17,D21)</f>
         <v>0</v>
@@ -23420,13 +23383,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="205" t="s">
+      <c r="A30" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="266" t="s">
+      <c r="B30" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="267"/>
+      <c r="C30" s="279"/>
       <c r="D30" s="32">
         <f xml:space="preserve"> D26</f>
         <v>0</v>
@@ -23465,8 +23428,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="206"/>
-      <c r="B31" s="268" t="s">
+      <c r="A31" s="225"/>
+      <c r="B31" s="280" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="248"/>
@@ -23508,8 +23471,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="206"/>
-      <c r="B32" s="269" t="s">
+      <c r="A32" s="225"/>
+      <c r="B32" s="281" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="250"/>
@@ -23551,11 +23514,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="207"/>
-      <c r="B33" s="253" t="s">
+      <c r="A33" s="226"/>
+      <c r="B33" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="254"/>
+      <c r="C33" s="262"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0</v>
@@ -23608,7 +23571,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="256" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="245" t="s">
@@ -23629,7 +23592,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="243"/>
+      <c r="A37" s="257"/>
       <c r="B37" s="247" t="s">
         <v>8</v>
       </c>
@@ -23648,7 +23611,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="243"/>
+      <c r="A38" s="257"/>
       <c r="B38" s="249" t="s">
         <v>9</v>
       </c>
@@ -23667,11 +23630,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="244"/>
-      <c r="B39" s="251" t="s">
+      <c r="A39" s="258"/>
+      <c r="B39" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="252"/>
+      <c r="C39" s="260"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:H25)</f>
         <v>14</v>
@@ -23686,7 +23649,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="255" t="s">
+      <c r="A41" s="244" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="245" t="s">
@@ -23703,7 +23666,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="255"/>
+      <c r="A42" s="244"/>
       <c r="B42" s="247" t="s">
         <v>8</v>
       </c>
@@ -23718,7 +23681,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="255"/>
+      <c r="A43" s="244"/>
       <c r="B43" s="249" t="s">
         <v>9</v>
       </c>
@@ -23733,11 +23696,11 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="255"/>
-      <c r="B44" s="256" t="s">
+      <c r="A44" s="244"/>
+      <c r="B44" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="257"/>
+      <c r="C44" s="252"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>14</v>
@@ -23749,6 +23712,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A5:A16"/>
@@ -23763,16 +23736,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23799,24 +23762,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="202" t="s">
+      <c r="D1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="202" t="s">
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="204"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="219"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -23938,10 +23901,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="270" t="s">
+      <c r="A5" s="282" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="277">
+      <c r="B5" s="285">
         <v>12</v>
       </c>
       <c r="C5" s="110" t="s">
@@ -24009,8 +23972,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="271"/>
-      <c r="B6" s="259"/>
+      <c r="A6" s="283"/>
+      <c r="B6" s="271"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -24034,8 +23997,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="271"/>
-      <c r="B7" s="259"/>
+      <c r="A7" s="283"/>
+      <c r="B7" s="271"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -24059,8 +24022,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="271"/>
-      <c r="B8" s="278"/>
+      <c r="A8" s="283"/>
+      <c r="B8" s="286"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
@@ -24086,8 +24049,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="271"/>
-      <c r="B9" s="279">
+      <c r="A9" s="283"/>
+      <c r="B9" s="287">
         <v>15</v>
       </c>
       <c r="C9" s="118" t="s">
@@ -24155,8 +24118,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="271"/>
-      <c r="B10" s="280"/>
+      <c r="A10" s="283"/>
+      <c r="B10" s="288"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -24180,8 +24143,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="271"/>
-      <c r="B11" s="280"/>
+      <c r="A11" s="283"/>
+      <c r="B11" s="288"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -24205,8 +24168,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="271"/>
-      <c r="B12" s="281"/>
+      <c r="A12" s="283"/>
+      <c r="B12" s="289"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -24236,8 +24199,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="271"/>
-      <c r="B13" s="279">
+      <c r="A13" s="283"/>
+      <c r="B13" s="287">
         <v>21</v>
       </c>
       <c r="C13" s="119" t="s">
@@ -24305,8 +24268,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="271"/>
-      <c r="B14" s="280"/>
+      <c r="A14" s="283"/>
+      <c r="B14" s="288"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -24336,8 +24299,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="271"/>
-      <c r="B15" s="280"/>
+      <c r="A15" s="283"/>
+      <c r="B15" s="288"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -24361,8 +24324,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="271"/>
-      <c r="B16" s="281"/>
+      <c r="A16" s="283"/>
+      <c r="B16" s="289"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -24386,8 +24349,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="279">
+      <c r="A17" s="283"/>
+      <c r="B17" s="287">
         <v>18</v>
       </c>
       <c r="C17" s="119" t="s">
@@ -24455,8 +24418,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="280"/>
+      <c r="A18" s="283"/>
+      <c r="B18" s="288"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -24486,8 +24449,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="271"/>
-      <c r="B19" s="280"/>
+      <c r="A19" s="283"/>
+      <c r="B19" s="288"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -24511,8 +24474,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="271"/>
-      <c r="B20" s="281"/>
+      <c r="A20" s="283"/>
+      <c r="B20" s="289"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -24536,8 +24499,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="271"/>
-      <c r="B21" s="282" t="s">
+      <c r="A21" s="283"/>
+      <c r="B21" s="290" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="119" t="s">
@@ -24605,8 +24568,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="271"/>
-      <c r="B22" s="283"/>
+      <c r="A22" s="283"/>
+      <c r="B22" s="291"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -24630,8 +24593,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="271"/>
-      <c r="B23" s="283"/>
+      <c r="A23" s="283"/>
+      <c r="B23" s="291"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -24659,8 +24622,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="271"/>
-      <c r="B24" s="284"/>
+      <c r="A24" s="283"/>
+      <c r="B24" s="292"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -24684,8 +24647,8 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="271"/>
-      <c r="B25" s="282" t="s">
+      <c r="A25" s="283"/>
+      <c r="B25" s="290" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="119" t="s">
@@ -24753,8 +24716,8 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="271"/>
-      <c r="B26" s="283"/>
+      <c r="A26" s="283"/>
+      <c r="B26" s="291"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
       </c>
@@ -24778,8 +24741,8 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="271"/>
-      <c r="B27" s="283"/>
+      <c r="A27" s="283"/>
+      <c r="B27" s="291"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
       </c>
@@ -24805,8 +24768,8 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="271"/>
-      <c r="B28" s="284"/>
+      <c r="A28" s="283"/>
+      <c r="B28" s="292"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
       </c>
@@ -24830,8 +24793,8 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="271"/>
-      <c r="B29" s="282">
+      <c r="A29" s="283"/>
+      <c r="B29" s="290">
         <v>31</v>
       </c>
       <c r="C29" s="119" t="s">
@@ -24899,8 +24862,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="271"/>
-      <c r="B30" s="283"/>
+      <c r="A30" s="283"/>
+      <c r="B30" s="291"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -24924,8 +24887,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="271"/>
-      <c r="B31" s="283"/>
+      <c r="A31" s="283"/>
+      <c r="B31" s="291"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -24953,8 +24916,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="272"/>
-      <c r="B32" s="284"/>
+      <c r="A32" s="284"/>
+      <c r="B32" s="292"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -24978,10 +24941,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="270" t="s">
+      <c r="A33" s="282" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="273"/>
+      <c r="B33" s="293"/>
       <c r="C33" s="110" t="s">
         <v>51</v>
       </c>
@@ -25047,8 +25010,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="271"/>
-      <c r="B34" s="234"/>
+      <c r="A34" s="283"/>
+      <c r="B34" s="265"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -25072,8 +25035,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="271"/>
-      <c r="B35" s="234"/>
+      <c r="A35" s="283"/>
+      <c r="B35" s="265"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -25099,8 +25062,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="271"/>
-      <c r="B36" s="234"/>
+      <c r="A36" s="283"/>
+      <c r="B36" s="265"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -25124,8 +25087,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="271"/>
-      <c r="B37" s="274"/>
+      <c r="A37" s="283"/>
+      <c r="B37" s="294"/>
       <c r="C37" s="110" t="s">
         <v>52</v>
       </c>
@@ -25191,8 +25154,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="271"/>
-      <c r="B38" s="275"/>
+      <c r="A38" s="283"/>
+      <c r="B38" s="295"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -25216,8 +25179,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="271"/>
-      <c r="B39" s="275"/>
+      <c r="A39" s="283"/>
+      <c r="B39" s="295"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -25245,8 +25208,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="272"/>
-      <c r="B40" s="276"/>
+      <c r="A40" s="284"/>
+      <c r="B40" s="296"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -25270,10 +25233,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="265" t="s">
+      <c r="B41" s="277" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="265"/>
+      <c r="C41" s="277"/>
       <c r="D41" s="47">
         <f t="shared" ref="D41:Q41" si="12">SUM(D21,D25,D29,D33,D37,D17,D13,D9,D5)</f>
         <v>0</v>
@@ -25531,13 +25494,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="205" t="s">
+      <c r="A46" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="266" t="s">
+      <c r="B46" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="267"/>
+      <c r="C46" s="279"/>
       <c r="D46" s="32">
         <f>D42</f>
         <v>0</v>
@@ -25597,8 +25560,8 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="206"/>
-      <c r="B47" s="268" t="s">
+      <c r="A47" s="225"/>
+      <c r="B47" s="280" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="248"/>
@@ -25661,8 +25624,8 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="206"/>
-      <c r="B48" s="269" t="s">
+      <c r="A48" s="225"/>
+      <c r="B48" s="281" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="250"/>
@@ -25725,11 +25688,11 @@
       <c r="R48" s="38"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="207"/>
-      <c r="B49" s="253" t="s">
+      <c r="A49" s="226"/>
+      <c r="B49" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="254"/>
+      <c r="C49" s="262"/>
       <c r="D49" s="35">
         <f>D41</f>
         <v>0</v>
@@ -25803,7 +25766,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="242" t="s">
+      <c r="A52" s="256" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="245" t="s">
@@ -25824,7 +25787,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="243"/>
+      <c r="A53" s="257"/>
       <c r="B53" s="247" t="s">
         <v>8</v>
       </c>
@@ -25843,7 +25806,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="243"/>
+      <c r="A54" s="257"/>
       <c r="B54" s="249" t="s">
         <v>9</v>
       </c>
@@ -25862,11 +25825,11 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="244"/>
-      <c r="B55" s="251" t="s">
+      <c r="A55" s="258"/>
+      <c r="B55" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="252"/>
+      <c r="C55" s="260"/>
       <c r="D55" s="26">
         <f xml:space="preserve"> SUM(D41:J41)</f>
         <v>22</v>
@@ -25881,7 +25844,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="255" t="s">
+      <c r="A57" s="244" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="245" t="s">
@@ -25898,7 +25861,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="255"/>
+      <c r="A58" s="244"/>
       <c r="B58" s="247" t="s">
         <v>8</v>
       </c>
@@ -25913,7 +25876,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="255"/>
+      <c r="A59" s="244"/>
       <c r="B59" s="249" t="s">
         <v>9</v>
       </c>
@@ -25928,11 +25891,11 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="255"/>
-      <c r="B60" s="256" t="s">
+      <c r="A60" s="244"/>
+      <c r="B60" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="257"/>
+      <c r="C60" s="252"/>
       <c r="D60" s="31">
         <f xml:space="preserve"> D55</f>
         <v>22</v>
@@ -25947,6 +25910,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="A5:A32"/>
@@ -25957,25 +25939,6 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -25992,7 +25955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -26004,24 +25967,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="202" t="s">
+      <c r="D1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="202" t="s">
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="204"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="219"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -26143,10 +26106,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285" t="s">
+      <c r="A5" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="296">
+      <c r="B5" s="298">
         <v>28</v>
       </c>
       <c r="C5" s="152" t="s">
@@ -26214,8 +26177,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="271"/>
-      <c r="B6" s="259"/>
+      <c r="A6" s="283"/>
+      <c r="B6" s="271"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -26241,8 +26204,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="271"/>
-      <c r="B7" s="259"/>
+      <c r="A7" s="283"/>
+      <c r="B7" s="271"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -26266,8 +26229,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="271"/>
-      <c r="B8" s="278"/>
+      <c r="A8" s="283"/>
+      <c r="B8" s="286"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
@@ -26291,8 +26254,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="271"/>
-      <c r="B9" s="300">
+      <c r="A9" s="283"/>
+      <c r="B9" s="299">
         <v>16</v>
       </c>
       <c r="C9" s="153" t="s">
@@ -26360,8 +26323,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="271"/>
-      <c r="B10" s="280"/>
+      <c r="A10" s="283"/>
+      <c r="B10" s="288"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -26387,8 +26350,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="271"/>
-      <c r="B11" s="280"/>
+      <c r="A11" s="283"/>
+      <c r="B11" s="288"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -26412,8 +26375,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="271"/>
-      <c r="B12" s="281"/>
+      <c r="A12" s="283"/>
+      <c r="B12" s="289"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -26437,8 +26400,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="271"/>
-      <c r="B13" s="300">
+      <c r="A13" s="283"/>
+      <c r="B13" s="299">
         <v>9</v>
       </c>
       <c r="C13" s="145" t="s">
@@ -26506,8 +26469,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="271"/>
-      <c r="B14" s="280"/>
+      <c r="A14" s="283"/>
+      <c r="B14" s="288"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -26533,8 +26496,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="271"/>
-      <c r="B15" s="280"/>
+      <c r="A15" s="283"/>
+      <c r="B15" s="288"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -26560,8 +26523,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="271"/>
-      <c r="B16" s="281"/>
+      <c r="A16" s="283"/>
+      <c r="B16" s="289"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -26585,8 +26548,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="300" t="s">
+      <c r="A17" s="283"/>
+      <c r="B17" s="299" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="152" t="s">
@@ -26654,8 +26617,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="280"/>
+      <c r="A18" s="283"/>
+      <c r="B18" s="288"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -26679,8 +26642,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="271"/>
-      <c r="B19" s="280"/>
+      <c r="A19" s="283"/>
+      <c r="B19" s="288"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -26704,8 +26667,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="271"/>
-      <c r="B20" s="281"/>
+      <c r="A20" s="283"/>
+      <c r="B20" s="289"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -26731,8 +26694,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="271"/>
-      <c r="B21" s="296" t="s">
+      <c r="A21" s="283"/>
+      <c r="B21" s="298" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="152" t="s">
@@ -26800,8 +26763,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="271"/>
-      <c r="B22" s="259"/>
+      <c r="A22" s="283"/>
+      <c r="B22" s="271"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -26833,8 +26796,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="271"/>
-      <c r="B23" s="259"/>
+      <c r="A23" s="283"/>
+      <c r="B23" s="271"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -26860,8 +26823,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="271"/>
-      <c r="B24" s="278"/>
+      <c r="A24" s="283"/>
+      <c r="B24" s="286"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -26885,7 +26848,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="285" t="s">
+      <c r="A25" s="305" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="154"/>
@@ -26954,7 +26917,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="271"/>
+      <c r="A26" s="283"/>
       <c r="B26" s="150"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
@@ -26981,7 +26944,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="271"/>
+      <c r="A27" s="283"/>
       <c r="B27" s="150"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
@@ -27006,7 +26969,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="271"/>
+      <c r="A28" s="283"/>
       <c r="B28" s="151"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
@@ -27031,8 +26994,8 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="271"/>
-      <c r="B29" s="286"/>
+      <c r="A29" s="283"/>
+      <c r="B29" s="297"/>
       <c r="C29" s="145" t="s">
         <v>64</v>
       </c>
@@ -27098,8 +27061,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="271"/>
-      <c r="B30" s="283"/>
+      <c r="A30" s="283"/>
+      <c r="B30" s="291"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -27125,8 +27088,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="271"/>
-      <c r="B31" s="283"/>
+      <c r="A31" s="283"/>
+      <c r="B31" s="291"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -27150,8 +27113,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="271"/>
-      <c r="B32" s="284"/>
+      <c r="A32" s="283"/>
+      <c r="B32" s="292"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -27175,8 +27138,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271"/>
-      <c r="B33" s="296"/>
+      <c r="A33" s="283"/>
+      <c r="B33" s="298"/>
       <c r="C33" s="145" t="s">
         <v>65</v>
       </c>
@@ -27242,8 +27205,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="271"/>
-      <c r="B34" s="259"/>
+      <c r="A34" s="283"/>
+      <c r="B34" s="271"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -27273,8 +27236,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="271"/>
-      <c r="B35" s="259"/>
+      <c r="A35" s="283"/>
+      <c r="B35" s="271"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -27304,8 +27267,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="271"/>
-      <c r="B36" s="278"/>
+      <c r="A36" s="283"/>
+      <c r="B36" s="286"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -27329,8 +27292,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="271"/>
-      <c r="B37" s="286"/>
+      <c r="A37" s="283"/>
+      <c r="B37" s="297"/>
       <c r="C37" s="145" t="s">
         <v>66</v>
       </c>
@@ -27396,8 +27359,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="271"/>
-      <c r="B38" s="283"/>
+      <c r="A38" s="283"/>
+      <c r="B38" s="291"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -27423,8 +27386,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="271"/>
-      <c r="B39" s="283"/>
+      <c r="A39" s="283"/>
+      <c r="B39" s="291"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -27452,8 +27415,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="271"/>
-      <c r="B40" s="284"/>
+      <c r="A40" s="283"/>
+      <c r="B40" s="292"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -27477,8 +27440,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="271"/>
-      <c r="B41" s="286"/>
+      <c r="A41" s="283"/>
+      <c r="B41" s="297"/>
       <c r="C41" s="145" t="s">
         <v>67</v>
       </c>
@@ -27544,8 +27507,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="271"/>
-      <c r="B42" s="283"/>
+      <c r="A42" s="283"/>
+      <c r="B42" s="291"/>
       <c r="C42" s="60" t="s">
         <v>7</v>
       </c>
@@ -27569,8 +27532,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="271"/>
-      <c r="B43" s="283"/>
+      <c r="A43" s="283"/>
+      <c r="B43" s="291"/>
       <c r="C43" s="60" t="s">
         <v>8</v>
       </c>
@@ -27598,8 +27561,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="271"/>
-      <c r="B44" s="284"/>
+      <c r="A44" s="283"/>
+      <c r="B44" s="292"/>
       <c r="C44" s="114" t="s">
         <v>9</v>
       </c>
@@ -27623,8 +27586,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="271"/>
-      <c r="B45" s="286"/>
+      <c r="A45" s="283"/>
+      <c r="B45" s="297"/>
       <c r="C45" s="145" t="s">
         <v>68</v>
       </c>
@@ -27690,8 +27653,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="271"/>
-      <c r="B46" s="283"/>
+      <c r="A46" s="283"/>
+      <c r="B46" s="291"/>
       <c r="C46" s="60" t="s">
         <v>7</v>
       </c>
@@ -27717,8 +27680,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="271"/>
-      <c r="B47" s="283"/>
+      <c r="A47" s="283"/>
+      <c r="B47" s="291"/>
       <c r="C47" s="60" t="s">
         <v>8</v>
       </c>
@@ -27744,8 +27707,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="272"/>
-      <c r="B48" s="284"/>
+      <c r="A48" s="284"/>
+      <c r="B48" s="292"/>
       <c r="C48" s="114" t="s">
         <v>9</v>
       </c>
@@ -27769,10 +27732,10 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="265" t="s">
+      <c r="B49" s="277" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="265"/>
+      <c r="C49" s="277"/>
       <c r="D49" s="160">
         <f>SUM(D5,D9,D29,D33,D37,D41,D45,D25,D21,D17,D13)</f>
         <v>0</v>
@@ -28048,13 +28011,13 @@
       <c r="R53" s="42"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="205" t="s">
+      <c r="A55" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="290" t="s">
+      <c r="B55" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="297"/>
+      <c r="C55" s="301"/>
       <c r="D55" s="186">
         <f>D50</f>
         <v>0</v>
@@ -28114,11 +28077,11 @@
       <c r="R55" s="38"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="206"/>
-      <c r="B56" s="268" t="s">
+      <c r="A56" s="225"/>
+      <c r="B56" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="298"/>
+      <c r="C56" s="302"/>
       <c r="D56" s="103">
         <f>D51</f>
         <v>0</v>
@@ -28178,11 +28141,11 @@
       <c r="R56" s="38"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="206"/>
-      <c r="B57" s="268" t="s">
+      <c r="A57" s="225"/>
+      <c r="B57" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="298"/>
+      <c r="C57" s="302"/>
       <c r="D57" s="103">
         <f>D48</f>
         <v>0</v>
@@ -28242,11 +28205,11 @@
       <c r="R57" s="38"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="215"/>
-      <c r="B58" s="292" t="s">
+      <c r="A58" s="232"/>
+      <c r="B58" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="299"/>
+      <c r="C58" s="304"/>
       <c r="D58" s="189">
         <f>D41</f>
         <v>0</v>
@@ -28320,13 +28283,13 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="242" t="s">
+      <c r="A61" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="295" t="s">
+      <c r="B61" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="291"/>
+      <c r="C61" s="309"/>
       <c r="D61" s="26">
         <f xml:space="preserve"> SUM(D50:J50)</f>
         <v>0</v>
@@ -28341,7 +28304,7 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="243"/>
+      <c r="A62" s="257"/>
       <c r="B62" s="247" t="s">
         <v>8</v>
       </c>
@@ -28360,11 +28323,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="243"/>
-      <c r="B63" s="294" t="s">
+      <c r="A63" s="257"/>
+      <c r="B63" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="289"/>
+      <c r="C63" s="308"/>
       <c r="D63" s="26">
         <f xml:space="preserve"> SUM(D52:J52)</f>
         <v>0</v>
@@ -28379,11 +28342,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="244"/>
-      <c r="B64" s="292" t="s">
+      <c r="A64" s="258"/>
+      <c r="B64" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="293"/>
+      <c r="C64" s="310"/>
       <c r="D64" s="26">
         <f xml:space="preserve"> SUM(D49:J49)</f>
         <v>4</v>
@@ -28398,13 +28361,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="255" t="s">
+      <c r="A66" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="290" t="s">
+      <c r="B66" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="291"/>
+      <c r="C66" s="309"/>
       <c r="D66" s="31">
         <f xml:space="preserve"> D61</f>
         <v>0</v>
@@ -28415,8 +28378,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="255"/>
-      <c r="B67" s="268" t="s">
+      <c r="A67" s="244"/>
+      <c r="B67" s="280" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="248"/>
@@ -28430,11 +28393,11 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="255"/>
-      <c r="B68" s="269" t="s">
+      <c r="A68" s="244"/>
+      <c r="B68" s="281" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="289"/>
+      <c r="C68" s="308"/>
       <c r="D68" s="31">
         <f xml:space="preserve"> D63</f>
         <v>0</v>
@@ -28445,11 +28408,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="255"/>
-      <c r="B69" s="287" t="s">
+      <c r="A69" s="244"/>
+      <c r="B69" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="288"/>
+      <c r="C69" s="307"/>
       <c r="D69" s="31">
         <f xml:space="preserve"> D64</f>
         <v>4</v>
@@ -28464,20 +28427,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A25:A48"/>
     <mergeCell ref="B49:C49"/>
@@ -28494,6 +28443,20 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28505,8 +28468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28518,24 +28481,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="301" t="s">
+      <c r="D1" s="319" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="301" t="s">
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="319" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="302"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="320"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -28657,13 +28620,13 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285" t="s">
+      <c r="A5" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="313" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="206" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="172">
@@ -28728,9 +28691,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="271"/>
-      <c r="B6" s="306"/>
-      <c r="C6" s="314" t="s">
+      <c r="A6" s="283"/>
+      <c r="B6" s="314"/>
+      <c r="C6" s="207" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="174">
@@ -28757,9 +28720,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="271"/>
-      <c r="B7" s="306"/>
-      <c r="C7" s="314" t="s">
+      <c r="A7" s="283"/>
+      <c r="B7" s="314"/>
+      <c r="C7" s="207" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="176"/>
@@ -28786,9 +28749,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="271"/>
-      <c r="B8" s="307"/>
-      <c r="C8" s="315" t="s">
+      <c r="A8" s="283"/>
+      <c r="B8" s="315"/>
+      <c r="C8" s="208" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="178"/>
@@ -28811,11 +28774,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="271"/>
-      <c r="B9" s="308">
+      <c r="A9" s="283"/>
+      <c r="B9" s="316">
         <v>26</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="209" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="172">
@@ -28880,9 +28843,9 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="271"/>
-      <c r="B10" s="309"/>
-      <c r="C10" s="314" t="s">
+      <c r="A10" s="283"/>
+      <c r="B10" s="317"/>
+      <c r="C10" s="207" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="174"/>
@@ -28917,9 +28880,9 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="271"/>
-      <c r="B11" s="309"/>
-      <c r="C11" s="314" t="s">
+      <c r="A11" s="283"/>
+      <c r="B11" s="317"/>
+      <c r="C11" s="207" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="174"/>
@@ -28942,9 +28905,9 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="271"/>
-      <c r="B12" s="310"/>
-      <c r="C12" s="315" t="s">
+      <c r="A12" s="283"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="208" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="178"/>
@@ -28967,11 +28930,11 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="271"/>
-      <c r="B13" s="308">
+      <c r="A13" s="283"/>
+      <c r="B13" s="316">
         <v>26</v>
       </c>
-      <c r="C13" s="317" t="s">
+      <c r="C13" s="210" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="172">
@@ -29000,11 +28963,11 @@
       </c>
       <c r="J13" s="155">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="155">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L13" s="155">
         <f t="shared" si="3"/>
@@ -29028,17 +28991,17 @@
       </c>
       <c r="Q13" s="173">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R13" s="164">
         <f t="shared" si="1"/>
-        <v>21.75</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="271"/>
-      <c r="B14" s="309"/>
-      <c r="C14" s="314" t="s">
+      <c r="A14" s="283"/>
+      <c r="B14" s="317"/>
+      <c r="C14" s="207" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="174"/>
@@ -29073,9 +29036,9 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="271"/>
-      <c r="B15" s="309"/>
-      <c r="C15" s="314" t="s">
+      <c r="A15" s="283"/>
+      <c r="B15" s="317"/>
+      <c r="C15" s="207" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="174"/>
@@ -29100,9 +29063,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="271"/>
-      <c r="B16" s="310"/>
-      <c r="C16" s="315" t="s">
+      <c r="A16" s="283"/>
+      <c r="B16" s="318"/>
+      <c r="C16" s="208" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="178"/>
@@ -29111,25 +29074,31 @@
       <c r="G16" s="116"/>
       <c r="H16" s="116"/>
       <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
+      <c r="J16" s="116">
+        <v>5</v>
+      </c>
+      <c r="K16" s="116">
+        <v>0.5</v>
+      </c>
       <c r="L16" s="116"/>
       <c r="M16" s="116"/>
       <c r="N16" s="116"/>
       <c r="O16" s="116"/>
       <c r="P16" s="116"/>
-      <c r="Q16" s="179"/>
+      <c r="Q16" s="179">
+        <v>6</v>
+      </c>
       <c r="R16" s="166">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="308" t="s">
+      <c r="A17" s="283"/>
+      <c r="B17" s="316" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="313" t="s">
+      <c r="C17" s="206" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="172">
@@ -29194,9 +29163,9 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="309"/>
-      <c r="C18" s="314" t="s">
+      <c r="A18" s="283"/>
+      <c r="B18" s="317"/>
+      <c r="C18" s="207" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="174"/>
@@ -29219,9 +29188,9 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="271"/>
-      <c r="B19" s="309"/>
-      <c r="C19" s="314" t="s">
+      <c r="A19" s="283"/>
+      <c r="B19" s="317"/>
+      <c r="C19" s="207" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="174"/>
@@ -29250,9 +29219,9 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="271"/>
-      <c r="B20" s="310"/>
-      <c r="C20" s="315" t="s">
+      <c r="A20" s="283"/>
+      <c r="B20" s="318"/>
+      <c r="C20" s="208" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="178"/>
@@ -29275,11 +29244,11 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="285" t="s">
+      <c r="A21" s="305" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="303"/>
-      <c r="C21" s="313" t="s">
+      <c r="B21" s="313"/>
+      <c r="C21" s="206" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="172">
@@ -29344,9 +29313,9 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="271"/>
-      <c r="B22" s="306"/>
-      <c r="C22" s="314" t="s">
+      <c r="A22" s="283"/>
+      <c r="B22" s="314"/>
+      <c r="C22" s="207" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="174"/>
@@ -29373,9 +29342,9 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="271"/>
-      <c r="B23" s="306"/>
-      <c r="C23" s="314" t="s">
+      <c r="A23" s="283"/>
+      <c r="B23" s="314"/>
+      <c r="C23" s="207" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="174"/>
@@ -29406,9 +29375,9 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="271"/>
-      <c r="B24" s="307"/>
-      <c r="C24" s="315" t="s">
+      <c r="A24" s="283"/>
+      <c r="B24" s="315"/>
+      <c r="C24" s="208" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="178"/>
@@ -29431,9 +29400,9 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="271"/>
-      <c r="B25" s="318"/>
-      <c r="C25" s="317" t="s">
+      <c r="A25" s="283"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="210" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="172">
@@ -29442,7 +29411,7 @@
       </c>
       <c r="E25" s="155">
         <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F25" s="155">
         <f t="shared" si="6"/>
@@ -29494,13 +29463,13 @@
       </c>
       <c r="R25" s="164">
         <f t="shared" si="1"/>
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="271"/>
-      <c r="B26" s="319"/>
-      <c r="C26" s="314" t="s">
+      <c r="A26" s="283"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="207" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="174">
@@ -29529,9 +29498,9 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="271"/>
-      <c r="B27" s="319"/>
-      <c r="C27" s="314" t="s">
+      <c r="A27" s="283"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="207" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="174">
@@ -29564,15 +29533,17 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="272"/>
-      <c r="B28" s="320"/>
-      <c r="C28" s="315" t="s">
+      <c r="A28" s="284"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="208" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="178">
         <v>3</v>
       </c>
-      <c r="E28" s="115"/>
+      <c r="E28" s="115">
+        <v>1</v>
+      </c>
       <c r="F28" s="116"/>
       <c r="G28" s="116"/>
       <c r="H28" s="116"/>
@@ -29587,80 +29558,80 @@
       <c r="Q28" s="179"/>
       <c r="R28" s="166">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="311"/>
-      <c r="B29" s="297" t="s">
+      <c r="A29" s="204"/>
+      <c r="B29" s="301" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="312">
+      <c r="C29" s="309"/>
+      <c r="D29" s="205">
         <f t="shared" ref="D29:Q29" si="7">SUM(D5,D9,D25,D21,D17,D13)</f>
         <v>11</v>
       </c>
-      <c r="E29" s="312">
+      <c r="E29" s="205">
         <f t="shared" si="7"/>
-        <v>8.75</v>
-      </c>
-      <c r="F29" s="312">
+        <v>9.75</v>
+      </c>
+      <c r="F29" s="205">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G29" s="312">
+      <c r="G29" s="205">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="H29" s="312">
+      <c r="H29" s="205">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I29" s="312">
+      <c r="I29" s="205">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J29" s="312">
+      <c r="J29" s="205">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="K29" s="205">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L29" s="205">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M29" s="205">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="N29" s="205">
+        <f t="shared" si="7"/>
+        <v>6.5</v>
+      </c>
+      <c r="O29" s="205">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="K29" s="312">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="L29" s="312">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="M29" s="312">
-        <f t="shared" si="7"/>
-        <v>8.5</v>
-      </c>
-      <c r="N29" s="312">
-        <f t="shared" si="7"/>
-        <v>6.5</v>
-      </c>
-      <c r="O29" s="312">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="P29" s="312">
+      <c r="P29" s="205">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="Q29" s="312">
+      <c r="Q29" s="205">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="R29" s="312">
+        <v>11</v>
+      </c>
+      <c r="R29" s="205">
         <f>SUM(R5,R9,R25,R21,R17,R13)</f>
-        <v>75.25</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="311"/>
-      <c r="B30" s="304"/>
-      <c r="C30" s="305" t="s">
+      <c r="A30" s="204"/>
+      <c r="B30" s="202"/>
+      <c r="C30" s="203" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="182">
@@ -29725,9 +29696,9 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="311"/>
-      <c r="B31" s="304"/>
-      <c r="C31" s="305" t="s">
+      <c r="A31" s="204"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="203" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="71">
@@ -29792,8 +29763,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="311"/>
-      <c r="B32" s="304"/>
+      <c r="A32" s="204"/>
+      <c r="B32" s="202"/>
       <c r="C32" s="200" t="s">
         <v>9</v>
       </c>
@@ -29803,7 +29774,7 @@
       </c>
       <c r="E32" s="162">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="162">
         <f t="shared" si="9"/>
@@ -29823,11 +29794,11 @@
       </c>
       <c r="J32" s="162">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K32" s="162">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L32" s="162">
         <f t="shared" si="9"/>
@@ -29850,12 +29821,12 @@
         <v>0</v>
       </c>
       <c r="Q32" s="162">
-        <f t="shared" ref="Q31:Q32" si="11">SUM(Q8,Q12,Q28,Q24,Q20,Q16)</f>
-        <v>0</v>
+        <f t="shared" ref="Q32" si="11">SUM(Q8,Q12,Q28,Q24,Q20,Q16)</f>
+        <v>6</v>
       </c>
       <c r="R32" s="168">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29877,13 +29848,13 @@
       <c r="R33" s="42"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="205" t="s">
+      <c r="A35" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="290" t="s">
+      <c r="B35" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="297"/>
+      <c r="C35" s="301"/>
       <c r="D35" s="186">
         <f>D30</f>
         <v>5</v>
@@ -29943,11 +29914,11 @@
       <c r="R35" s="38"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="206"/>
-      <c r="B36" s="268" t="s">
+      <c r="A36" s="225"/>
+      <c r="B36" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="298"/>
+      <c r="C36" s="302"/>
       <c r="D36" s="103">
         <f>D31</f>
         <v>3</v>
@@ -30007,130 +29978,130 @@
       <c r="R36" s="38"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="206"/>
-      <c r="B37" s="268" t="s">
+      <c r="A37" s="225"/>
+      <c r="B37" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="298"/>
+      <c r="C37" s="302"/>
       <c r="D37" s="103">
         <f>D32</f>
         <v>3</v>
       </c>
       <c r="E37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:E32)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:F32)</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:G32)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:H32)</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:I32)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:J32)</f>
-        <v>0.42857142857142855</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="K37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:K32)</f>
-        <v>0.375</v>
+        <v>1.1875</v>
       </c>
       <c r="L37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:L32)</f>
-        <v>0.33333333333333331</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="M37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:M32)</f>
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="N37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:N32)</f>
-        <v>0.27272727272727271</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="O37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:O32)</f>
-        <v>0.25</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P37" s="38">
         <f xml:space="preserve"> AVERAGE($D$32:P32)</f>
-        <v>0.23076923076923078</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="Q37" s="39">
         <f xml:space="preserve"> AVERAGE($D$32:Q32)</f>
-        <v>0.21428571428571427</v>
+        <v>1.1071428571428572</v>
       </c>
       <c r="R37" s="38"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="215"/>
-      <c r="B38" s="292" t="s">
+      <c r="A38" s="232"/>
+      <c r="B38" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="299"/>
+      <c r="C38" s="304"/>
       <c r="D38" s="189">
         <f>D29</f>
         <v>11</v>
       </c>
       <c r="E38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:E29)</f>
-        <v>9.875</v>
+        <v>10.375</v>
       </c>
       <c r="F38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:F29)</f>
-        <v>8.9166666666666661</v>
+        <v>9.25</v>
       </c>
       <c r="G38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:G29)</f>
-        <v>6.9375</v>
+        <v>7.1875</v>
       </c>
       <c r="H38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:H29)</f>
-        <v>5.55</v>
+        <v>5.75</v>
       </c>
       <c r="I38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:I29)</f>
-        <v>4.625</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="J38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:J29)</f>
-        <v>4.9642857142857144</v>
+        <v>5.8214285714285712</v>
       </c>
       <c r="K38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:K29)</f>
-        <v>4.78125</v>
+        <v>5.59375</v>
       </c>
       <c r="L38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:L29)</f>
-        <v>4.916666666666667</v>
+        <v>5.6388888888888893</v>
       </c>
       <c r="M38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:M29)</f>
-        <v>5.2750000000000004</v>
+        <v>5.9249999999999998</v>
       </c>
       <c r="N38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:N29)</f>
-        <v>5.3863636363636367</v>
+        <v>5.9772727272727275</v>
       </c>
       <c r="O38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:O29)</f>
-        <v>5.520833333333333</v>
+        <v>6.0625</v>
       </c>
       <c r="P38" s="190">
         <f xml:space="preserve"> AVERAGE($D$29:P29)</f>
-        <v>5.4038461538461542</v>
+        <v>5.9038461538461542</v>
       </c>
       <c r="Q38" s="191">
         <f xml:space="preserve"> AVERAGE($D$29:Q29)</f>
-        <v>5.375</v>
+        <v>6.2678571428571432</v>
       </c>
       <c r="R38" s="57"/>
     </row>
@@ -30149,13 +30120,13 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="242" t="s">
+      <c r="A41" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="295" t="s">
+      <c r="B41" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="291"/>
+      <c r="C41" s="309"/>
       <c r="D41" s="26">
         <f xml:space="preserve"> SUM(D30:J30)</f>
         <v>7</v>
@@ -30170,7 +30141,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="243"/>
+      <c r="A42" s="257"/>
       <c r="B42" s="247" t="s">
         <v>8</v>
       </c>
@@ -30189,54 +30160,54 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="243"/>
-      <c r="B43" s="294" t="s">
+      <c r="A43" s="257"/>
+      <c r="B43" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="289"/>
+      <c r="C43" s="308"/>
       <c r="D43" s="26">
         <f xml:space="preserve"> SUM(D32:J32)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E43" s="26">
         <f xml:space="preserve"> SUM(K32:Q32)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F43" s="27">
         <f xml:space="preserve"> SUM(D43:E43)</f>
-        <v>3</v>
+        <v>15.5</v>
       </c>
       <c r="G43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="244"/>
-      <c r="B44" s="292" t="s">
+      <c r="A44" s="258"/>
+      <c r="B44" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="293"/>
+      <c r="C44" s="310"/>
       <c r="D44" s="26">
         <f xml:space="preserve"> SUM(D29:J29)</f>
-        <v>34.75</v>
+        <v>40.75</v>
       </c>
       <c r="E44" s="26">
         <f xml:space="preserve"> SUM(K29:Q29)</f>
-        <v>40.5</v>
+        <v>47</v>
       </c>
       <c r="F44" s="27">
         <f xml:space="preserve"> SUM(D44:E44)</f>
-        <v>75.25</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="255" t="s">
+      <c r="A46" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="290" t="s">
+      <c r="B46" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="291"/>
+      <c r="C46" s="309"/>
       <c r="D46" s="31">
         <f xml:space="preserve"> D41</f>
         <v>7</v>
@@ -30247,8 +30218,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="255"/>
-      <c r="B47" s="268" t="s">
+      <c r="A47" s="244"/>
+      <c r="B47" s="280" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="248"/>
@@ -30262,33 +30233,33 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="255"/>
-      <c r="B48" s="269" t="s">
+      <c r="A48" s="244"/>
+      <c r="B48" s="281" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="289"/>
+      <c r="C48" s="308"/>
       <c r="D48" s="31">
         <f xml:space="preserve"> D43</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E48" s="31">
         <f xml:space="preserve"> AVERAGE(D43:E43)</f>
-        <v>1.5</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="255"/>
-      <c r="B49" s="287" t="s">
+      <c r="A49" s="244"/>
+      <c r="B49" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="288"/>
+      <c r="C49" s="307"/>
       <c r="D49" s="31">
         <f xml:space="preserve"> D44</f>
-        <v>34.75</v>
+        <v>40.75</v>
       </c>
       <c r="E49" s="31">
         <f xml:space="preserve"> AVERAGE(D44:E44)</f>
-        <v>37.625</v>
+        <v>43.875</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -30296,13 +30267,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="B29:C29"/>
@@ -30311,16 +30285,13 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A5:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Management/Effort and Velocity.xlsx
+++ b/Management/Effort and Velocity.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="0" windowWidth="14550" windowHeight="13005" tabRatio="295" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="14280" yWindow="0" windowWidth="14550" windowHeight="13005" tabRatio="295"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="85">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -271,6 +271,15 @@
   <si>
     <t>&lt;----should have 13.5h in first week</t>
   </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
 </sst>
 </file>
 
@@ -396,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -1240,12 +1249,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1662,15 +1721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1678,18 +1728,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1705,6 +1743,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1737,9 +1781,6 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1752,61 +1793,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1828,6 +1827,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,6 +1931,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1899,44 +1967,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1947,8 +1982,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1958,6 +1999,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1977,11 +2039,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2064,6 +2132,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2726,12 +2795,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="267446880"/>
-        <c:axId val="267444920"/>
+        <c:axId val="33345920"/>
+        <c:axId val="33347456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="267446880"/>
+        <c:axId val="33345920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,14 +2811,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267444920"/>
+        <c:crossAx val="33347456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="267444920"/>
+        <c:axId val="33347456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,13 +2829,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267446880"/>
+        <c:crossAx val="33345920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2815,6 +2886,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2847,10 +2919,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$31:$K$31</c:f>
+              <c:f>Product!$D$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
@@ -2874,6 +2946,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17.65625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2904,10 +2982,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$28:$K$28</c:f>
+              <c:f>Product!$D$28:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
@@ -2931,6 +3009,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.65625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,10 +3029,10 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$29:$K$29</c:f>
+              <c:f>Product!$D$29:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2972,6 +3056,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.305555555555555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.574999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,10 +3076,10 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$30:$K$30</c:f>
+              <c:f>Product!$D$30:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3013,6 +3103,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,11 +3125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334169296"/>
-        <c:axId val="334168904"/>
+        <c:axId val="130589440"/>
+        <c:axId val="130591360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334169296"/>
+        <c:axId val="130589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,13 +3151,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334168904"/>
+        <c:crossAx val="130591360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3069,7 +3166,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334168904"/>
+        <c:axId val="130591360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,19 +3189,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334169296"/>
+        <c:crossAx val="130589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3367,12 +3466,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334174000"/>
-        <c:axId val="334174392"/>
+        <c:axId val="128446848"/>
+        <c:axId val="128448384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334174000"/>
+        <c:axId val="128446848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,14 +3482,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334174392"/>
+        <c:crossAx val="128448384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334174392"/>
+        <c:axId val="128448384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +3500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334174000"/>
+        <c:crossAx val="128446848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3669,12 +3769,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334170864"/>
-        <c:axId val="334172824"/>
+        <c:axId val="128477824"/>
+        <c:axId val="128500096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334170864"/>
+        <c:axId val="128477824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,14 +3785,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334172824"/>
+        <c:crossAx val="128500096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334172824"/>
+        <c:axId val="128500096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334170864"/>
+        <c:crossAx val="128477824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3971,12 +4072,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334173216"/>
-        <c:axId val="334171256"/>
+        <c:axId val="128517248"/>
+        <c:axId val="128518784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334173216"/>
+        <c:axId val="128517248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3986,14 +4088,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334171256"/>
+        <c:crossAx val="128518784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334171256"/>
+        <c:axId val="128518784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334173216"/>
+        <c:crossAx val="128517248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4276,12 +4378,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334171648"/>
-        <c:axId val="334172040"/>
+        <c:axId val="128552320"/>
+        <c:axId val="128562304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334171648"/>
+        <c:axId val="128552320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,14 +4394,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334172040"/>
+        <c:crossAx val="128562304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334172040"/>
+        <c:axId val="128562304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4309,7 +4412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334171648"/>
+        <c:crossAx val="128552320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4542,12 +4645,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334168512"/>
-        <c:axId val="334174784"/>
+        <c:axId val="130656512"/>
+        <c:axId val="130674688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334168512"/>
+        <c:axId val="130656512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4557,14 +4661,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334174784"/>
+        <c:crossAx val="130674688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334174784"/>
+        <c:axId val="130674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4575,7 +4679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334168512"/>
+        <c:crossAx val="130656512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4808,12 +4912,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334173608"/>
-        <c:axId val="334873848"/>
+        <c:axId val="131154688"/>
+        <c:axId val="131156224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334173608"/>
+        <c:axId val="131154688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,14 +4928,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334873848"/>
+        <c:crossAx val="131156224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334873848"/>
+        <c:axId val="131156224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4841,7 +4946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334173608"/>
+        <c:crossAx val="131154688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5074,12 +5179,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334869144"/>
-        <c:axId val="334878160"/>
+        <c:axId val="131181568"/>
+        <c:axId val="131187456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334869144"/>
+        <c:axId val="131181568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,14 +5195,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334878160"/>
+        <c:crossAx val="131187456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334878160"/>
+        <c:axId val="131187456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5107,7 +5213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334869144"/>
+        <c:crossAx val="131181568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5340,12 +5446,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334869536"/>
-        <c:axId val="334873064"/>
+        <c:axId val="131622400"/>
+        <c:axId val="131623936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334869536"/>
+        <c:axId val="131622400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5355,14 +5462,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334873064"/>
+        <c:crossAx val="131623936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334873064"/>
+        <c:axId val="131623936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5373,7 +5480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334869536"/>
+        <c:crossAx val="131622400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5666,12 +5773,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334877376"/>
-        <c:axId val="334872280"/>
+        <c:axId val="143589760"/>
+        <c:axId val="143591296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334877376"/>
+        <c:axId val="143589760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5681,14 +5789,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334872280"/>
+        <c:crossAx val="143591296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334872280"/>
+        <c:axId val="143591296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5699,7 +5807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334877376"/>
+        <c:crossAx val="143589760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5755,6 +5863,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6249,12 +6358,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="267447664"/>
-        <c:axId val="267440216"/>
+        <c:axId val="128322176"/>
+        <c:axId val="111419776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="267447664"/>
+        <c:axId val="128322176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,14 +6374,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267440216"/>
+        <c:crossAx val="111419776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="267440216"/>
+        <c:axId val="111419776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6282,13 +6392,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267447664"/>
+        <c:crossAx val="128322176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6578,12 +6689,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334869928"/>
-        <c:axId val="334870320"/>
+        <c:axId val="143624832"/>
+        <c:axId val="143630720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334869928"/>
+        <c:axId val="143624832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6593,14 +6705,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334870320"/>
+        <c:crossAx val="143630720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334870320"/>
+        <c:axId val="143630720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6611,7 +6723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334869928"/>
+        <c:crossAx val="143624832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6912,12 +7024,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334866792"/>
-        <c:axId val="334875416"/>
+        <c:axId val="146019456"/>
+        <c:axId val="146020992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334866792"/>
+        <c:axId val="146019456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6927,14 +7040,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334875416"/>
+        <c:crossAx val="146020992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334875416"/>
+        <c:axId val="146020992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6945,7 +7058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334866792"/>
+        <c:crossAx val="146019456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7238,12 +7351,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334873456"/>
-        <c:axId val="334871496"/>
+        <c:axId val="146042240"/>
+        <c:axId val="146056320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334873456"/>
+        <c:axId val="146042240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7253,14 +7367,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334871496"/>
+        <c:crossAx val="146056320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334871496"/>
+        <c:axId val="146056320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7271,7 +7385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334873456"/>
+        <c:crossAx val="146042240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7434,11 +7548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334872672"/>
-        <c:axId val="334874632"/>
+        <c:axId val="146077568"/>
+        <c:axId val="147849216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334872672"/>
+        <c:axId val="146077568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7466,7 +7580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334874632"/>
+        <c:crossAx val="147849216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7474,7 +7588,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334874632"/>
+        <c:axId val="147849216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7503,7 +7617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334872672"/>
+        <c:crossAx val="146077568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7666,11 +7780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334875808"/>
-        <c:axId val="334876200"/>
+        <c:axId val="147891328"/>
+        <c:axId val="147893248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334875808"/>
+        <c:axId val="147891328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7698,7 +7812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334876200"/>
+        <c:crossAx val="147893248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7706,7 +7820,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334876200"/>
+        <c:axId val="147893248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7735,7 +7849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334875808"/>
+        <c:crossAx val="147891328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7906,11 +8020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334877768"/>
-        <c:axId val="334878552"/>
+        <c:axId val="148242816"/>
+        <c:axId val="148244736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334877768"/>
+        <c:axId val="148242816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7938,7 +8052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334878552"/>
+        <c:crossAx val="148244736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7946,7 +8060,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334878552"/>
+        <c:axId val="148244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7975,7 +8089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334877768"/>
+        <c:crossAx val="148242816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8138,11 +8252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334867184"/>
-        <c:axId val="334867968"/>
+        <c:axId val="148299136"/>
+        <c:axId val="148305408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334867184"/>
+        <c:axId val="148299136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8170,7 +8284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334867968"/>
+        <c:crossAx val="148305408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8178,7 +8292,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334867968"/>
+        <c:axId val="148305408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8207,7 +8321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334867184"/>
+        <c:crossAx val="148299136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8500,12 +8614,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334882080"/>
-        <c:axId val="334879728"/>
+        <c:axId val="148360192"/>
+        <c:axId val="148386560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334882080"/>
+        <c:axId val="148360192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8515,14 +8630,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334879728"/>
+        <c:crossAx val="148386560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334879728"/>
+        <c:axId val="148386560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8533,7 +8648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334882080"/>
+        <c:crossAx val="148360192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8826,12 +8941,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334879336"/>
-        <c:axId val="334880512"/>
+        <c:axId val="148424192"/>
+        <c:axId val="148425728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334879336"/>
+        <c:axId val="148424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8841,14 +8957,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334880512"/>
+        <c:crossAx val="148425728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334880512"/>
+        <c:axId val="148425728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8859,7 +8975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334879336"/>
+        <c:crossAx val="148424192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9160,12 +9276,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334881688"/>
-        <c:axId val="334881296"/>
+        <c:axId val="148451328"/>
+        <c:axId val="148452864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334881688"/>
+        <c:axId val="148451328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9175,14 +9292,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334881296"/>
+        <c:crossAx val="148452864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334881296"/>
+        <c:axId val="148452864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9193,7 +9310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334881688"/>
+        <c:crossAx val="148451328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9249,6 +9366,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9911,12 +10029,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334297928"/>
-        <c:axId val="334303024"/>
+        <c:axId val="111449216"/>
+        <c:axId val="111450752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334297928"/>
+        <c:axId val="111449216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9926,14 +10045,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334303024"/>
+        <c:crossAx val="111450752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334303024"/>
+        <c:axId val="111450752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9944,13 +10063,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334297928"/>
+        <c:crossAx val="111449216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10237,12 +10357,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335825920"/>
-        <c:axId val="335824744"/>
+        <c:axId val="148474112"/>
+        <c:axId val="148488192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="335825920"/>
+        <c:axId val="148474112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10252,14 +10373,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335824744"/>
+        <c:crossAx val="148488192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="335824744"/>
+        <c:axId val="148488192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10270,7 +10391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335825920"/>
+        <c:crossAx val="148474112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10433,11 +10554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335820432"/>
-        <c:axId val="335814944"/>
+        <c:axId val="158085888"/>
+        <c:axId val="158087808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335820432"/>
+        <c:axId val="158085888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10465,7 +10586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335814944"/>
+        <c:crossAx val="158087808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10473,7 +10594,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335814944"/>
+        <c:axId val="158087808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10502,7 +10623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335820432"/>
+        <c:crossAx val="158085888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10665,11 +10786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335820824"/>
-        <c:axId val="335824352"/>
+        <c:axId val="158126080"/>
+        <c:axId val="158128000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335820824"/>
+        <c:axId val="158126080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10697,7 +10818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335824352"/>
+        <c:crossAx val="158128000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10705,7 +10826,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335824352"/>
+        <c:axId val="158128000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10734,7 +10855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335820824"/>
+        <c:crossAx val="158126080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10905,11 +11026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335823960"/>
-        <c:axId val="335819256"/>
+        <c:axId val="159259648"/>
+        <c:axId val="159274112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335823960"/>
+        <c:axId val="159259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10937,7 +11058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335819256"/>
+        <c:crossAx val="159274112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10945,7 +11066,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335819256"/>
+        <c:axId val="159274112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10974,7 +11095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335823960"/>
+        <c:crossAx val="159259648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11137,11 +11258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335818080"/>
-        <c:axId val="335821216"/>
+        <c:axId val="159316608"/>
+        <c:axId val="159392512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335818080"/>
+        <c:axId val="159316608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11169,7 +11290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335821216"/>
+        <c:crossAx val="159392512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11177,7 +11298,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335821216"/>
+        <c:axId val="159392512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11206,7 +11327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335818080"/>
+        <c:crossAx val="159316608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11500,12 +11621,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335822392"/>
-        <c:axId val="335825136"/>
+        <c:axId val="159430912"/>
+        <c:axId val="159432704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="335822392"/>
+        <c:axId val="159430912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11515,14 +11637,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335825136"/>
+        <c:crossAx val="159432704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="335825136"/>
+        <c:axId val="159432704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11533,7 +11655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335822392"/>
+        <c:crossAx val="159430912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11585,7 +11707,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11828,12 +11949,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335817688"/>
-        <c:axId val="335816120"/>
+        <c:axId val="130970368"/>
+        <c:axId val="130971904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="335817688"/>
+        <c:axId val="130970368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11843,14 +11965,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335816120"/>
+        <c:crossAx val="130971904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="335816120"/>
+        <c:axId val="130971904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11861,14 +11983,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335817688"/>
+        <c:crossAx val="130970368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11921,7 +12042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12164,12 +12284,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335816512"/>
-        <c:axId val="335821608"/>
+        <c:axId val="130984960"/>
+        <c:axId val="130986752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="335816512"/>
+        <c:axId val="130984960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12179,14 +12300,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335821608"/>
+        <c:crossAx val="130986752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="335821608"/>
+        <c:axId val="130986752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12197,14 +12318,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335816512"/>
+        <c:crossAx val="130984960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12492,12 +12612,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335819648"/>
-        <c:axId val="335822000"/>
+        <c:axId val="131040768"/>
+        <c:axId val="131042304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="335819648"/>
+        <c:axId val="131040768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12507,14 +12628,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335822000"/>
+        <c:crossAx val="131042304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="335822000"/>
+        <c:axId val="131042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12525,7 +12646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335819648"/>
+        <c:crossAx val="131040768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12689,11 +12810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335822784"/>
-        <c:axId val="335818472"/>
+        <c:axId val="131067904"/>
+        <c:axId val="131069824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335822784"/>
+        <c:axId val="131067904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12721,7 +12842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335818472"/>
+        <c:crossAx val="131069824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12729,7 +12850,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335818472"/>
+        <c:axId val="131069824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12758,7 +12879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335822784"/>
+        <c:crossAx val="131067904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12814,6 +12935,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13476,12 +13598,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334298320"/>
-        <c:axId val="334299104"/>
+        <c:axId val="129899904"/>
+        <c:axId val="129905792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="334298320"/>
+        <c:axId val="129899904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13491,14 +13614,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334299104"/>
+        <c:crossAx val="129905792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="334299104"/>
+        <c:axId val="129905792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13509,13 +13632,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334298320"/>
+        <c:crossAx val="129899904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13672,11 +13796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335826704"/>
-        <c:axId val="335828272"/>
+        <c:axId val="160570368"/>
+        <c:axId val="160597120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335826704"/>
+        <c:axId val="160570368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13704,7 +13828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335828272"/>
+        <c:crossAx val="160597120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13712,7 +13836,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335828272"/>
+        <c:axId val="160597120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13741,7 +13865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335826704"/>
+        <c:crossAx val="160570368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13912,11 +14036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335829840"/>
-        <c:axId val="335828664"/>
+        <c:axId val="160623232"/>
+        <c:axId val="161157888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335829840"/>
+        <c:axId val="160623232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13944,7 +14068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335828664"/>
+        <c:crossAx val="161157888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13952,7 +14076,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335828664"/>
+        <c:axId val="161157888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13981,7 +14105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335829840"/>
+        <c:crossAx val="160623232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14144,11 +14268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335830232"/>
-        <c:axId val="335827096"/>
+        <c:axId val="161207808"/>
+        <c:axId val="161209728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335830232"/>
+        <c:axId val="161207808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14176,7 +14300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335827096"/>
+        <c:crossAx val="161209728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14184,7 +14308,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335827096"/>
+        <c:axId val="161209728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14213,7 +14337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335830232"/>
+        <c:crossAx val="161207808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14263,12 +14387,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Effort</a:t>
+              <a:t> Effort/Velocity</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14294,10 +14419,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14321,16 +14446,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$31:$K$31</c:f>
+              <c:f>Product!$D$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
@@ -14354,6 +14485,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17.65625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14372,10 +14509,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14399,16 +14536,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$26:$K$26</c:f>
+              <c:f>Product!$D$26:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
@@ -14432,6 +14575,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14448,11 +14597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334303808"/>
-        <c:axId val="334300280"/>
+        <c:axId val="129922944"/>
+        <c:axId val="129937408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334303808"/>
+        <c:axId val="129922944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14474,13 +14623,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334300280"/>
+        <c:crossAx val="129937408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14488,7 +14638,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334300280"/>
+        <c:axId val="129937408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14511,19 +14661,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334303808"/>
+        <c:crossAx val="129922944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14573,6 +14725,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14598,10 +14751,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14625,16 +14778,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$28:$K$28</c:f>
+              <c:f>Product!$D$28:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
@@ -14658,6 +14817,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.65625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14676,10 +14841,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14703,16 +14868,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$23:$K$23</c:f>
+              <c:f>Product!$D$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
@@ -14736,6 +14907,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14752,11 +14929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334301064"/>
-        <c:axId val="334304200"/>
+        <c:axId val="130688128"/>
+        <c:axId val="130690048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334301064"/>
+        <c:axId val="130688128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14778,13 +14955,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334304200"/>
+        <c:crossAx val="130690048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14792,7 +14970,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334304200"/>
+        <c:axId val="130690048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14815,19 +14993,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334301064"/>
+        <c:crossAx val="130688128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14906,6 +15086,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14931,10 +15112,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14958,16 +15139,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$29:$K$29</c:f>
+              <c:f>Product!$D$29:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14991,6 +15178,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.305555555555555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.574999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15009,10 +15202,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15036,16 +15229,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$24:$K$24</c:f>
+              <c:f>Product!$D$24:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15069,6 +15268,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15085,11 +15290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334305376"/>
-        <c:axId val="334302240"/>
+        <c:axId val="130732416"/>
+        <c:axId val="130734336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334305376"/>
+        <c:axId val="130732416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15111,13 +15316,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334302240"/>
+        <c:crossAx val="130734336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15125,7 +15331,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334302240"/>
+        <c:axId val="130734336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15148,19 +15354,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334305376"/>
+        <c:crossAx val="130732416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15218,6 +15426,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15243,10 +15452,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15270,16 +15479,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$30:$K$30</c:f>
+              <c:f>Product!$D$30:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15303,6 +15518,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15321,10 +15542,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15348,16 +15569,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$25:$K$25</c:f>
+              <c:f>Product!$D$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15381,6 +15608,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15397,11 +15630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334299888"/>
-        <c:axId val="334301848"/>
+        <c:axId val="130428288"/>
+        <c:axId val="130442752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334299888"/>
+        <c:axId val="130428288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15423,13 +15656,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334301848"/>
+        <c:crossAx val="130442752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15437,7 +15671,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334301848"/>
+        <c:axId val="130442752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15460,19 +15694,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334299888"/>
+        <c:crossAx val="130428288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15522,6 +15758,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15542,10 +15779,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15569,16 +15806,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$26:$K$26</c:f>
+              <c:f>Product!$D$26:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
@@ -15602,6 +15845,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15616,10 +15865,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15643,16 +15892,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$23:$K$23</c:f>
+              <c:f>Product!$D$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
@@ -15676,6 +15931,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15690,10 +15951,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15717,16 +15978,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$24:$K$24</c:f>
+              <c:f>Product!$D$24:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15750,6 +16017,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15764,10 +16037,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$K$22</c:f>
+              <c:f>Product!$D$22:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15791,16 +16064,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$25:$K$25</c:f>
+              <c:f>Product!$D$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15824,6 +16103,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15840,11 +16125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334303416"/>
-        <c:axId val="334304984"/>
+        <c:axId val="130478080"/>
+        <c:axId val="130480000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334303416"/>
+        <c:axId val="130478080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15866,13 +16151,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334304984"/>
+        <c:crossAx val="130480000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15880,7 +16166,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334304984"/>
+        <c:axId val="130480000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15903,19 +16189,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334303416"/>
+        <c:crossAx val="130478080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17343,7 +17631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17378,7 +17666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17587,10 +17875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AZ36"/>
+  <dimension ref="A2:BN36"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17598,7 +17886,7 @@
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:66" x14ac:dyDescent="0.25">
       <c r="D2" s="222" t="s">
         <v>0</v>
       </c>
@@ -17612,7 +17900,7 @@
       <c r="L2" s="223"/>
       <c r="M2" s="223"/>
       <c r="N2" s="223"/>
-      <c r="O2" s="229"/>
+      <c r="O2" s="224"/>
       <c r="P2" s="222" t="s">
         <v>39</v>
       </c>
@@ -17623,49 +17911,65 @@
       <c r="U2" s="223"/>
       <c r="V2" s="223"/>
       <c r="W2" s="223"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="217" t="s">
+      <c r="X2" s="215"/>
+      <c r="Y2" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="218"/>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="218"/>
-      <c r="AD2" s="218"/>
-      <c r="AE2" s="218"/>
-      <c r="AF2" s="218"/>
-      <c r="AG2" s="218"/>
-      <c r="AH2" s="218"/>
-      <c r="AI2" s="218"/>
-      <c r="AJ2" s="218"/>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="219"/>
-      <c r="AM2" s="217" t="s">
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="216"/>
+      <c r="AM2" s="214" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="218"/>
-      <c r="AO2" s="218"/>
-      <c r="AP2" s="218"/>
-      <c r="AQ2" s="218"/>
-      <c r="AR2" s="218"/>
-      <c r="AS2" s="218"/>
-      <c r="AT2" s="218"/>
-      <c r="AU2" s="218"/>
-      <c r="AV2" s="218"/>
-      <c r="AW2" s="218"/>
-      <c r="AX2" s="218"/>
-      <c r="AY2" s="218"/>
-      <c r="AZ2" s="219"/>
+      <c r="AN2" s="215"/>
+      <c r="AO2" s="215"/>
+      <c r="AP2" s="215"/>
+      <c r="AQ2" s="215"/>
+      <c r="AR2" s="215"/>
+      <c r="AS2" s="215"/>
+      <c r="AT2" s="215"/>
+      <c r="AU2" s="215"/>
+      <c r="AV2" s="215"/>
+      <c r="AW2" s="215"/>
+      <c r="AX2" s="215"/>
+      <c r="AY2" s="215"/>
+      <c r="AZ2" s="216"/>
+      <c r="BA2" s="214" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB2" s="215"/>
+      <c r="BC2" s="215"/>
+      <c r="BD2" s="215"/>
+      <c r="BE2" s="215"/>
+      <c r="BF2" s="215"/>
+      <c r="BG2" s="215"/>
+      <c r="BH2" s="215"/>
+      <c r="BI2" s="215"/>
+      <c r="BJ2" s="215"/>
+      <c r="BK2" s="215"/>
+      <c r="BL2" s="215"/>
+      <c r="BM2" s="215"/>
+      <c r="BN2" s="216"/>
     </row>
-    <row r="3" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="D3" s="227" t="s">
+    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="D3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
       <c r="J3" s="222" t="s">
         <v>2</v>
       </c>
@@ -17673,7 +17977,7 @@
       <c r="L3" s="223"/>
       <c r="M3" s="223"/>
       <c r="N3" s="223"/>
-      <c r="O3" s="229"/>
+      <c r="O3" s="224"/>
       <c r="P3" s="222" t="s">
         <v>40</v>
       </c>
@@ -17686,45 +17990,63 @@
       </c>
       <c r="V3" s="223"/>
       <c r="W3" s="223"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="214" t="s">
+      <c r="X3" s="215"/>
+      <c r="Y3" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="215"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="216"/>
-      <c r="AF3" s="214" t="s">
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="239"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="239"/>
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="215"/>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="215"/>
-      <c r="AJ3" s="215"/>
-      <c r="AK3" s="215"/>
-      <c r="AL3" s="216"/>
-      <c r="AM3" s="217" t="s">
+      <c r="AG3" s="239"/>
+      <c r="AH3" s="239"/>
+      <c r="AI3" s="239"/>
+      <c r="AJ3" s="239"/>
+      <c r="AK3" s="239"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="AN3" s="218"/>
-      <c r="AO3" s="218"/>
-      <c r="AP3" s="218"/>
-      <c r="AQ3" s="218"/>
-      <c r="AR3" s="218"/>
-      <c r="AS3" s="218"/>
-      <c r="AT3" s="217" t="s">
+      <c r="AN3" s="215"/>
+      <c r="AO3" s="215"/>
+      <c r="AP3" s="215"/>
+      <c r="AQ3" s="215"/>
+      <c r="AR3" s="215"/>
+      <c r="AS3" s="215"/>
+      <c r="AT3" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="AU3" s="218"/>
-      <c r="AV3" s="218"/>
-      <c r="AW3" s="218"/>
-      <c r="AX3" s="218"/>
-      <c r="AY3" s="218"/>
-      <c r="AZ3" s="219"/>
+      <c r="AU3" s="215"/>
+      <c r="AV3" s="215"/>
+      <c r="AW3" s="215"/>
+      <c r="AX3" s="215"/>
+      <c r="AY3" s="215"/>
+      <c r="AZ3" s="216"/>
+      <c r="BA3" s="214" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB3" s="215"/>
+      <c r="BC3" s="215"/>
+      <c r="BD3" s="215"/>
+      <c r="BE3" s="215"/>
+      <c r="BF3" s="215"/>
+      <c r="BG3" s="215"/>
+      <c r="BH3" s="214" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI3" s="215"/>
+      <c r="BJ3" s="215"/>
+      <c r="BK3" s="215"/>
+      <c r="BL3" s="215"/>
+      <c r="BM3" s="215"/>
+      <c r="BN3" s="216"/>
     </row>
-    <row r="4" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:66" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <v>41939</v>
       </c>
@@ -17872,8 +18194,50 @@
       <c r="AZ4" s="104">
         <v>42077</v>
       </c>
+      <c r="BA4" s="201">
+        <v>42079</v>
+      </c>
+      <c r="BB4" s="201">
+        <v>42080</v>
+      </c>
+      <c r="BC4" s="201">
+        <v>42081</v>
+      </c>
+      <c r="BD4" s="201">
+        <v>42082</v>
+      </c>
+      <c r="BE4" s="201">
+        <v>42083</v>
+      </c>
+      <c r="BF4" s="201">
+        <v>42084</v>
+      </c>
+      <c r="BG4" s="201">
+        <v>42085</v>
+      </c>
+      <c r="BH4" s="201">
+        <v>42086</v>
+      </c>
+      <c r="BI4" s="201">
+        <v>42087</v>
+      </c>
+      <c r="BJ4" s="201">
+        <v>42088</v>
+      </c>
+      <c r="BK4" s="201">
+        <v>42089</v>
+      </c>
+      <c r="BL4" s="201">
+        <v>42090</v>
+      </c>
+      <c r="BM4" s="201">
+        <v>42091</v>
+      </c>
+      <c r="BN4" s="201">
+        <v>42092</v>
+      </c>
     </row>
-    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
       <c r="D5" s="4">
         <v>1</v>
       </c>
@@ -18021,9 +18385,51 @@
       <c r="AZ5" s="147">
         <v>49</v>
       </c>
+      <c r="BA5" s="147">
+        <v>50</v>
+      </c>
+      <c r="BB5" s="147">
+        <v>51</v>
+      </c>
+      <c r="BC5" s="147">
+        <v>52</v>
+      </c>
+      <c r="BD5" s="147">
+        <v>53</v>
+      </c>
+      <c r="BE5" s="147">
+        <v>54</v>
+      </c>
+      <c r="BF5" s="147">
+        <v>55</v>
+      </c>
+      <c r="BG5" s="147">
+        <v>56</v>
+      </c>
+      <c r="BH5" s="147">
+        <v>57</v>
+      </c>
+      <c r="BI5" s="147">
+        <v>58</v>
+      </c>
+      <c r="BJ5" s="147">
+        <v>59</v>
+      </c>
+      <c r="BK5" s="147">
+        <v>60</v>
+      </c>
+      <c r="BL5" s="147">
+        <v>61</v>
+      </c>
+      <c r="BM5" s="147">
+        <v>62</v>
+      </c>
+      <c r="BN5" s="147">
+        <v>63</v>
+      </c>
     </row>
-    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="230" t="s">
+    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B6" s="225" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -18209,13 +18615,69 @@
         <f>'Sp4'!P50</f>
         <v>5</v>
       </c>
-      <c r="AZ6" s="146">
+      <c r="AZ6" s="210">
         <f>'Sp4'!Q50</f>
         <v>2</v>
       </c>
+      <c r="BA6" s="192">
+        <f>'Sp5'!D30</f>
+        <v>5</v>
+      </c>
+      <c r="BB6" s="210">
+        <f>'Sp5'!E30</f>
+        <v>2</v>
+      </c>
+      <c r="BC6" s="210">
+        <f>'Sp5'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="BD6" s="210">
+        <f>'Sp5'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="BE6" s="210">
+        <f>'Sp5'!H30</f>
+        <v>0</v>
+      </c>
+      <c r="BF6" s="210">
+        <f>'Sp5'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="210">
+        <f>'Sp5'!J30</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="210">
+        <f>'Sp5'!K30</f>
+        <v>2.5</v>
+      </c>
+      <c r="BI6" s="210">
+        <f>'Sp5'!L30</f>
+        <v>6</v>
+      </c>
+      <c r="BJ6" s="210">
+        <f>'Sp5'!M30</f>
+        <v>8.5</v>
+      </c>
+      <c r="BK6" s="210">
+        <f>'Sp5'!N30</f>
+        <v>6.5</v>
+      </c>
+      <c r="BL6" s="210">
+        <f>'Sp5'!O30</f>
+        <v>4</v>
+      </c>
+      <c r="BM6" s="210">
+        <f>'Sp5'!P30</f>
+        <v>4</v>
+      </c>
+      <c r="BN6" s="146">
+        <f>'Sp5'!Q30</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B7" s="231"/>
+    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B7" s="226"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -18399,13 +18861,69 @@
         <f>'Sp4'!P51</f>
         <v>10</v>
       </c>
-      <c r="AZ7" s="66">
+      <c r="AZ7" s="63">
         <f>'Sp4'!Q51</f>
         <v>5.75</v>
       </c>
+      <c r="BA7" s="65">
+        <f>'Sp5'!D31</f>
+        <v>3</v>
+      </c>
+      <c r="BB7" s="63">
+        <f>'Sp5'!E31</f>
+        <v>6.75</v>
+      </c>
+      <c r="BC7" s="63">
+        <f>'Sp5'!F31</f>
+        <v>7</v>
+      </c>
+      <c r="BD7" s="63">
+        <f>'Sp5'!G31</f>
+        <v>1</v>
+      </c>
+      <c r="BE7" s="63">
+        <f>'Sp5'!H31</f>
+        <v>0</v>
+      </c>
+      <c r="BF7" s="63">
+        <f>'Sp5'!I31</f>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="63">
+        <f>'Sp5'!J31</f>
+        <v>7</v>
+      </c>
+      <c r="BH7" s="63">
+        <f>'Sp5'!K31</f>
+        <v>1</v>
+      </c>
+      <c r="BI7" s="63">
+        <f>'Sp5'!L31</f>
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="63">
+        <f>'Sp5'!M31</f>
+        <v>0</v>
+      </c>
+      <c r="BK7" s="63">
+        <f>'Sp5'!N31</f>
+        <v>0</v>
+      </c>
+      <c r="BL7" s="63">
+        <f>'Sp5'!O31</f>
+        <v>3</v>
+      </c>
+      <c r="BM7" s="63">
+        <f>'Sp5'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="BN7" s="66">
+        <f>'Sp5'!Q31</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B8" s="231"/>
+    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B8" s="226"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
@@ -18589,13 +19107,69 @@
         <f>'Sp4'!P52</f>
         <v>0</v>
       </c>
-      <c r="AZ8" s="66">
+      <c r="AZ8" s="63">
         <f>'Sp4'!Q52</f>
         <v>8</v>
       </c>
+      <c r="BA8" s="65">
+        <f>'Sp5'!D32</f>
+        <v>3</v>
+      </c>
+      <c r="BB8" s="63">
+        <f>'Sp5'!E32</f>
+        <v>1</v>
+      </c>
+      <c r="BC8" s="63">
+        <f>'Sp5'!F32</f>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="63">
+        <f>'Sp5'!G32</f>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="63">
+        <f>'Sp5'!H32</f>
+        <v>0</v>
+      </c>
+      <c r="BF8" s="63">
+        <f>'Sp5'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="63">
+        <f>'Sp5'!J32</f>
+        <v>5</v>
+      </c>
+      <c r="BH8" s="63">
+        <f>'Sp5'!K32</f>
+        <v>0.5</v>
+      </c>
+      <c r="BI8" s="63">
+        <f>'Sp5'!L32</f>
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="63">
+        <f>'Sp5'!M32</f>
+        <v>0</v>
+      </c>
+      <c r="BK8" s="63">
+        <f>'Sp5'!N32</f>
+        <v>0</v>
+      </c>
+      <c r="BL8" s="63">
+        <f>'Sp5'!O32</f>
+        <v>0</v>
+      </c>
+      <c r="BM8" s="63">
+        <f>'Sp5'!P32</f>
+        <v>0</v>
+      </c>
+      <c r="BN8" s="66">
+        <f>'Sp5'!Q32</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B9" s="232"/>
+    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B9" s="227"/>
       <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
@@ -18779,12 +19353,68 @@
         <f>'Sp4'!P49</f>
         <v>15</v>
       </c>
-      <c r="AZ9" s="130">
+      <c r="AZ9" s="125">
         <f>'Sp4'!Q49</f>
         <v>15.75</v>
       </c>
+      <c r="BA9" s="129">
+        <f>'Sp5'!D29</f>
+        <v>11</v>
+      </c>
+      <c r="BB9" s="125">
+        <f>'Sp5'!E29</f>
+        <v>9.75</v>
+      </c>
+      <c r="BC9" s="125">
+        <f>'Sp5'!F29</f>
+        <v>7</v>
+      </c>
+      <c r="BD9" s="125">
+        <f>'Sp5'!G29</f>
+        <v>1</v>
+      </c>
+      <c r="BE9" s="125">
+        <f>'Sp5'!H29</f>
+        <v>0</v>
+      </c>
+      <c r="BF9" s="125">
+        <f>'Sp5'!I29</f>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="125">
+        <f>'Sp5'!J29</f>
+        <v>12</v>
+      </c>
+      <c r="BH9" s="125">
+        <f>'Sp5'!K29</f>
+        <v>4</v>
+      </c>
+      <c r="BI9" s="125">
+        <f>'Sp5'!L29</f>
+        <v>6</v>
+      </c>
+      <c r="BJ9" s="125">
+        <f>'Sp5'!M29</f>
+        <v>8.5</v>
+      </c>
+      <c r="BK9" s="125">
+        <f>'Sp5'!N29</f>
+        <v>6.5</v>
+      </c>
+      <c r="BL9" s="125">
+        <f>'Sp5'!O29</f>
+        <v>7</v>
+      </c>
+      <c r="BM9" s="125">
+        <f>'Sp5'!P29</f>
+        <v>4</v>
+      </c>
+      <c r="BN9" s="130">
+        <f>'Sp5'!Q29</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="D10" s="67"/>
       <c r="E10" s="57"/>
@@ -18825,9 +19455,23 @@
       <c r="AU10" s="57"/>
       <c r="AV10" s="57"/>
       <c r="AW10" s="57"/>
+      <c r="BA10" s="67"/>
+      <c r="BB10" s="57"/>
+      <c r="BC10" s="57"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="57"/>
+      <c r="BF10" s="204"/>
+      <c r="BG10" s="204"/>
+      <c r="BH10" s="57"/>
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="57"/>
+      <c r="BK10" s="57"/>
+      <c r="BL10" s="204"/>
+      <c r="BM10" s="204"/>
+      <c r="BN10" s="204"/>
     </row>
-    <row r="11" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="230" t="s">
+    <row r="11" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="225" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -19028,9 +19672,65 @@
         <f>AVERAGE($D$6:AZ6)</f>
         <v>0.92346938775510201</v>
       </c>
+      <c r="BA11" s="131">
+        <f>AVERAGE($D$6:BA6)</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BB11" s="126">
+        <f>AVERAGE($D$6:BB6)</f>
+        <v>1.0245098039215685</v>
+      </c>
+      <c r="BC11" s="126">
+        <f>AVERAGE($D$6:BC6)</f>
+        <v>1.0048076923076923</v>
+      </c>
+      <c r="BD11" s="126">
+        <f>AVERAGE($D$6:BD6)</f>
+        <v>0.98584905660377353</v>
+      </c>
+      <c r="BE11" s="126">
+        <f>AVERAGE($D$6:BE6)</f>
+        <v>0.96759259259259256</v>
+      </c>
+      <c r="BF11" s="126">
+        <f>AVERAGE($D$6:BF6)</f>
+        <v>0.95</v>
+      </c>
+      <c r="BG11" s="126">
+        <f>AVERAGE($D$6:BG6)</f>
+        <v>0.9330357142857143</v>
+      </c>
+      <c r="BH11" s="126">
+        <f>AVERAGE($D$6:BH6)</f>
+        <v>0.96052631578947367</v>
+      </c>
+      <c r="BI11" s="126">
+        <f>AVERAGE($D$6:BI6)</f>
+        <v>1.0474137931034482</v>
+      </c>
+      <c r="BJ11" s="126">
+        <f>AVERAGE($D$6:BJ6)</f>
+        <v>1.173728813559322</v>
+      </c>
+      <c r="BK11" s="126">
+        <f>AVERAGE($D$6:BK6)</f>
+        <v>1.2625</v>
+      </c>
+      <c r="BL11" s="126">
+        <f>AVERAGE($D$6:BL6)</f>
+        <v>1.3073770491803278</v>
+      </c>
+      <c r="BM11" s="126">
+        <f>AVERAGE($D$6:BM6)</f>
+        <v>1.3508064516129032</v>
+      </c>
+      <c r="BN11" s="132">
+        <f>AVERAGE($D$6:BN6)</f>
+        <v>1.4087301587301588</v>
+      </c>
     </row>
-    <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="231"/>
+    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B12" s="226"/>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
@@ -19229,9 +19929,65 @@
         <f>AVERAGE($D$7:AZ7)</f>
         <v>1.5714285714285714</v>
       </c>
+      <c r="BA12" s="103">
+        <f>AVERAGE($D$7:BA7)</f>
+        <v>1.6</v>
+      </c>
+      <c r="BB12" s="38">
+        <f>AVERAGE($D$7:BB7)</f>
+        <v>1.7009803921568627</v>
+      </c>
+      <c r="BC12" s="38">
+        <f>AVERAGE($D$7:BC7)</f>
+        <v>1.8028846153846154</v>
+      </c>
+      <c r="BD12" s="38">
+        <f>AVERAGE($D$7:BD7)</f>
+        <v>1.7877358490566038</v>
+      </c>
+      <c r="BE12" s="38">
+        <f>AVERAGE($D$7:BE7)</f>
+        <v>1.7546296296296295</v>
+      </c>
+      <c r="BF12" s="38">
+        <f>AVERAGE($D$7:BF7)</f>
+        <v>1.7227272727272727</v>
+      </c>
+      <c r="BG12" s="38">
+        <f>AVERAGE($D$7:BG7)</f>
+        <v>1.8169642857142858</v>
+      </c>
+      <c r="BH12" s="38">
+        <f>AVERAGE($D$7:BH7)</f>
+        <v>1.8026315789473684</v>
+      </c>
+      <c r="BI12" s="38">
+        <f>AVERAGE($D$7:BI7)</f>
+        <v>1.771551724137931</v>
+      </c>
+      <c r="BJ12" s="38">
+        <f>AVERAGE($D$7:BJ7)</f>
+        <v>1.7415254237288136</v>
+      </c>
+      <c r="BK12" s="38">
+        <f>AVERAGE($D$7:BK7)</f>
+        <v>1.7124999999999999</v>
+      </c>
+      <c r="BL12" s="38">
+        <f>AVERAGE($D$7:BL7)</f>
+        <v>1.7336065573770492</v>
+      </c>
+      <c r="BM12" s="38">
+        <f>AVERAGE($D$7:BM7)</f>
+        <v>1.7056451612903225</v>
+      </c>
+      <c r="BN12" s="39">
+        <f>AVERAGE($D$7:BN7)</f>
+        <v>1.6785714285714286</v>
+      </c>
     </row>
-    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B13" s="231"/>
+    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B13" s="226"/>
       <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
@@ -19430,9 +20186,65 @@
         <f>AVERAGE($D$8:AZ8)</f>
         <v>0.38775510204081631</v>
       </c>
+      <c r="BA13" s="103">
+        <f>AVERAGE($D$8:BA8)</f>
+        <v>0.44</v>
+      </c>
+      <c r="BB13" s="38">
+        <f>AVERAGE($D$8:BB8)</f>
+        <v>0.45098039215686275</v>
+      </c>
+      <c r="BC13" s="38">
+        <f>AVERAGE($D$8:BC8)</f>
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="BD13" s="38">
+        <f>AVERAGE($D$8:BD8)</f>
+        <v>0.43396226415094341</v>
+      </c>
+      <c r="BE13" s="38">
+        <f>AVERAGE($D$8:BE8)</f>
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="BF13" s="38">
+        <f>AVERAGE($D$8:BF8)</f>
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="BG13" s="38">
+        <f>AVERAGE($D$8:BG8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BH13" s="38">
+        <f>AVERAGE($D$8:BH8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BI13" s="38">
+        <f>AVERAGE($D$8:BI8)</f>
+        <v>0.49137931034482757</v>
+      </c>
+      <c r="BJ13" s="38">
+        <f>AVERAGE($D$8:BJ8)</f>
+        <v>0.48305084745762711</v>
+      </c>
+      <c r="BK13" s="38">
+        <f>AVERAGE($D$8:BK8)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="BL13" s="38">
+        <f>AVERAGE($D$8:BL8)</f>
+        <v>0.46721311475409838</v>
+      </c>
+      <c r="BM13" s="38">
+        <f>AVERAGE($D$8:BM8)</f>
+        <v>0.45967741935483869</v>
+      </c>
+      <c r="BN13" s="39">
+        <f>AVERAGE($D$8:BN8)</f>
+        <v>0.54761904761904767</v>
+      </c>
     </row>
-    <row r="14" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B14" s="232"/>
+    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B14" s="227"/>
       <c r="C14" s="69" t="s">
         <v>4</v>
       </c>
@@ -19631,8 +20443,64 @@
         <f>AVERAGE($D$9:AZ9)</f>
         <v>2.8826530612244898</v>
       </c>
+      <c r="BA14" s="133">
+        <f>AVERAGE($D$9:BA9)</f>
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="BB14" s="127">
+        <f>AVERAGE($D$9:BB9)</f>
+        <v>3.1764705882352939</v>
+      </c>
+      <c r="BC14" s="127">
+        <f>AVERAGE($D$9:BC9)</f>
+        <v>3.25</v>
+      </c>
+      <c r="BD14" s="127">
+        <f>AVERAGE($D$9:BD9)</f>
+        <v>3.2075471698113209</v>
+      </c>
+      <c r="BE14" s="127">
+        <f>AVERAGE($D$9:BE9)</f>
+        <v>3.1481481481481484</v>
+      </c>
+      <c r="BF14" s="127">
+        <f>AVERAGE($D$9:BF9)</f>
+        <v>3.0909090909090908</v>
+      </c>
+      <c r="BG14" s="127">
+        <f>AVERAGE($D$9:BG9)</f>
+        <v>3.25</v>
+      </c>
+      <c r="BH14" s="127">
+        <f>AVERAGE($D$9:BH9)</f>
+        <v>3.263157894736842</v>
+      </c>
+      <c r="BI14" s="127">
+        <f>AVERAGE($D$9:BI9)</f>
+        <v>3.3103448275862069</v>
+      </c>
+      <c r="BJ14" s="127">
+        <f>AVERAGE($D$9:BJ9)</f>
+        <v>3.3983050847457625</v>
+      </c>
+      <c r="BK14" s="127">
+        <f>AVERAGE($D$9:BK9)</f>
+        <v>3.45</v>
+      </c>
+      <c r="BL14" s="127">
+        <f>AVERAGE($D$9:BL9)</f>
+        <v>3.5081967213114753</v>
+      </c>
+      <c r="BM14" s="127">
+        <f>AVERAGE($D$9:BM9)</f>
+        <v>3.5161290322580645</v>
+      </c>
+      <c r="BN14" s="134">
+        <f>AVERAGE($D$9:BN9)</f>
+        <v>3.6349206349206349</v>
+      </c>
     </row>
-    <row r="15" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="D15" s="67"/>
       <c r="E15" s="57"/>
@@ -19673,9 +20541,23 @@
       <c r="AU15" s="57"/>
       <c r="AV15" s="57"/>
       <c r="AW15" s="57"/>
+      <c r="BA15" s="67"/>
+      <c r="BB15" s="57"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="57"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="204"/>
+      <c r="BG15" s="204"/>
+      <c r="BH15" s="57"/>
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="57"/>
+      <c r="BK15" s="57"/>
+      <c r="BL15" s="204"/>
+      <c r="BM15" s="204"/>
+      <c r="BN15" s="204"/>
     </row>
-    <row r="16" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B16" s="224" t="s">
+    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B16" s="217" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="82" t="s">
@@ -19877,62 +20759,118 @@
         <f t="shared" ref="AZ16:AZ19" si="35">AY16+AZ6</f>
         <v>45.25</v>
       </c>
+      <c r="BA16" s="106">
+        <f t="shared" ref="BA16:BA19" si="36">AZ16+BA6</f>
+        <v>50.25</v>
+      </c>
+      <c r="BB16" s="128">
+        <f t="shared" ref="BB16:BB19" si="37">BA16+BB6</f>
+        <v>52.25</v>
+      </c>
+      <c r="BC16" s="128">
+        <f>BB16+BC6</f>
+        <v>52.25</v>
+      </c>
+      <c r="BD16" s="128">
+        <f t="shared" ref="BD16:BD19" si="38">BC16+BD6</f>
+        <v>52.25</v>
+      </c>
+      <c r="BE16" s="128">
+        <f t="shared" ref="BE16:BE19" si="39">BD16+BE6</f>
+        <v>52.25</v>
+      </c>
+      <c r="BF16" s="128">
+        <f t="shared" ref="BF16:BF19" si="40">BE16+BF6</f>
+        <v>52.25</v>
+      </c>
+      <c r="BG16" s="128">
+        <f t="shared" ref="BG16:BG19" si="41">BF16+BG6</f>
+        <v>52.25</v>
+      </c>
+      <c r="BH16" s="128">
+        <f t="shared" ref="BH16:BH19" si="42">BG16+BH6</f>
+        <v>54.75</v>
+      </c>
+      <c r="BI16" s="128">
+        <f t="shared" ref="BI16:BI19" si="43">BH16+BI6</f>
+        <v>60.75</v>
+      </c>
+      <c r="BJ16" s="128">
+        <f t="shared" ref="BJ16:BJ19" si="44">BI16+BJ6</f>
+        <v>69.25</v>
+      </c>
+      <c r="BK16" s="128">
+        <f t="shared" ref="BK16:BK19" si="45">BJ16+BK6</f>
+        <v>75.75</v>
+      </c>
+      <c r="BL16" s="128">
+        <f t="shared" ref="BL16:BL19" si="46">BK16+BL6</f>
+        <v>79.75</v>
+      </c>
+      <c r="BM16" s="128">
+        <f t="shared" ref="BM16:BM19" si="47">BL16+BM6</f>
+        <v>83.75</v>
+      </c>
+      <c r="BN16" s="135">
+        <f t="shared" ref="BN16:BN19" si="48">BM16+BN6</f>
+        <v>88.75</v>
+      </c>
     </row>
-    <row r="17" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B17" s="225"/>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B17" s="218"/>
       <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="67">
-        <f t="shared" ref="D17:D19" si="36">D7</f>
+        <f t="shared" ref="D17:D19" si="49">D7</f>
         <v>0</v>
       </c>
       <c r="E17" s="57">
-        <f t="shared" ref="E17:P19" si="37">D17+E7</f>
+        <f t="shared" ref="E17:P19" si="50">D17+E7</f>
         <v>0</v>
       </c>
       <c r="F17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="K17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>7</v>
       </c>
       <c r="L17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>7</v>
       </c>
       <c r="M17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>7</v>
       </c>
       <c r="N17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>7</v>
       </c>
       <c r="O17" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>7</v>
       </c>
       <c r="P17" s="67">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>7</v>
       </c>
       <c r="Q17" s="57">
@@ -20032,7 +20970,7 @@
         <v>53</v>
       </c>
       <c r="AO17" s="57">
-        <f t="shared" ref="AO17:AO19" si="38">AN17+AO7</f>
+        <f t="shared" ref="AO17:AO19" si="51">AN17+AO7</f>
         <v>53</v>
       </c>
       <c r="AP17" s="57">
@@ -20079,62 +21017,118 @@
         <f t="shared" si="35"/>
         <v>77</v>
       </c>
+      <c r="BA17" s="67">
+        <f t="shared" si="36"/>
+        <v>80</v>
+      </c>
+      <c r="BB17" s="57">
+        <f t="shared" si="37"/>
+        <v>86.75</v>
+      </c>
+      <c r="BC17" s="57">
+        <f t="shared" ref="BC17:BC19" si="52">BB17+BC7</f>
+        <v>93.75</v>
+      </c>
+      <c r="BD17" s="57">
+        <f t="shared" si="38"/>
+        <v>94.75</v>
+      </c>
+      <c r="BE17" s="57">
+        <f t="shared" si="39"/>
+        <v>94.75</v>
+      </c>
+      <c r="BF17" s="57">
+        <f t="shared" si="40"/>
+        <v>94.75</v>
+      </c>
+      <c r="BG17" s="57">
+        <f t="shared" si="41"/>
+        <v>101.75</v>
+      </c>
+      <c r="BH17" s="57">
+        <f t="shared" si="42"/>
+        <v>102.75</v>
+      </c>
+      <c r="BI17" s="57">
+        <f t="shared" si="43"/>
+        <v>102.75</v>
+      </c>
+      <c r="BJ17" s="57">
+        <f t="shared" si="44"/>
+        <v>102.75</v>
+      </c>
+      <c r="BK17" s="57">
+        <f t="shared" si="45"/>
+        <v>102.75</v>
+      </c>
+      <c r="BL17" s="57">
+        <f t="shared" si="46"/>
+        <v>105.75</v>
+      </c>
+      <c r="BM17" s="57">
+        <f t="shared" si="47"/>
+        <v>105.75</v>
+      </c>
+      <c r="BN17" s="68">
+        <f t="shared" si="48"/>
+        <v>105.75</v>
+      </c>
     </row>
-    <row r="18" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B18" s="225"/>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B18" s="218"/>
       <c r="C18" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="67">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>1.5</v>
       </c>
       <c r="K18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="L18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="N18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="O18" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="P18" s="67">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="Q18" s="57">
@@ -20234,7 +21228,7 @@
         <v>11</v>
       </c>
       <c r="AO18" s="57">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>11</v>
       </c>
       <c r="AP18" s="57">
@@ -20281,62 +21275,118 @@
         <f t="shared" si="35"/>
         <v>19</v>
       </c>
+      <c r="BA18" s="67">
+        <f t="shared" si="36"/>
+        <v>22</v>
+      </c>
+      <c r="BB18" s="57">
+        <f t="shared" si="37"/>
+        <v>23</v>
+      </c>
+      <c r="BC18" s="57">
+        <f t="shared" si="52"/>
+        <v>23</v>
+      </c>
+      <c r="BD18" s="57">
+        <f t="shared" si="38"/>
+        <v>23</v>
+      </c>
+      <c r="BE18" s="57">
+        <f t="shared" si="39"/>
+        <v>23</v>
+      </c>
+      <c r="BF18" s="57">
+        <f t="shared" si="40"/>
+        <v>23</v>
+      </c>
+      <c r="BG18" s="57">
+        <f t="shared" si="41"/>
+        <v>28</v>
+      </c>
+      <c r="BH18" s="57">
+        <f t="shared" si="42"/>
+        <v>28.5</v>
+      </c>
+      <c r="BI18" s="57">
+        <f t="shared" si="43"/>
+        <v>28.5</v>
+      </c>
+      <c r="BJ18" s="57">
+        <f t="shared" si="44"/>
+        <v>28.5</v>
+      </c>
+      <c r="BK18" s="57">
+        <f t="shared" si="45"/>
+        <v>28.5</v>
+      </c>
+      <c r="BL18" s="57">
+        <f t="shared" si="46"/>
+        <v>28.5</v>
+      </c>
+      <c r="BM18" s="57">
+        <f t="shared" si="47"/>
+        <v>28.5</v>
+      </c>
+      <c r="BN18" s="68">
+        <f t="shared" si="48"/>
+        <v>34.5</v>
+      </c>
     </row>
-    <row r="19" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B19" s="226"/>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B19" s="219"/>
       <c r="C19" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="72">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.75</v>
       </c>
       <c r="E19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0.75</v>
       </c>
       <c r="F19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0.75</v>
       </c>
       <c r="G19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0.75</v>
       </c>
       <c r="H19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0.75</v>
       </c>
       <c r="I19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>2.75</v>
       </c>
       <c r="J19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>10.25</v>
       </c>
       <c r="K19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>15.75</v>
       </c>
       <c r="L19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>15.75</v>
       </c>
       <c r="M19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>15.75</v>
       </c>
       <c r="N19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>15.75</v>
       </c>
       <c r="O19" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>15.75</v>
       </c>
       <c r="P19" s="72">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>15.75</v>
       </c>
       <c r="Q19" s="73">
@@ -20436,7 +21486,7 @@
         <v>87.75</v>
       </c>
       <c r="AO19" s="125">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>87.75</v>
       </c>
       <c r="AP19" s="125">
@@ -20483,34 +21533,97 @@
         <f t="shared" si="35"/>
         <v>141.25</v>
       </c>
+      <c r="BA19" s="129">
+        <f t="shared" si="36"/>
+        <v>152.25</v>
+      </c>
+      <c r="BB19" s="125">
+        <f t="shared" si="37"/>
+        <v>162</v>
+      </c>
+      <c r="BC19" s="125">
+        <f t="shared" si="52"/>
+        <v>169</v>
+      </c>
+      <c r="BD19" s="125">
+        <f t="shared" si="38"/>
+        <v>170</v>
+      </c>
+      <c r="BE19" s="125">
+        <f t="shared" si="39"/>
+        <v>170</v>
+      </c>
+      <c r="BF19" s="125">
+        <f t="shared" si="40"/>
+        <v>170</v>
+      </c>
+      <c r="BG19" s="125">
+        <f t="shared" si="41"/>
+        <v>182</v>
+      </c>
+      <c r="BH19" s="125">
+        <f t="shared" si="42"/>
+        <v>186</v>
+      </c>
+      <c r="BI19" s="125">
+        <f t="shared" si="43"/>
+        <v>192</v>
+      </c>
+      <c r="BJ19" s="125">
+        <f t="shared" si="44"/>
+        <v>200.5</v>
+      </c>
+      <c r="BK19" s="125">
+        <f t="shared" si="45"/>
+        <v>207</v>
+      </c>
+      <c r="BL19" s="125">
+        <f t="shared" si="46"/>
+        <v>214</v>
+      </c>
+      <c r="BM19" s="125">
+        <f t="shared" si="47"/>
+        <v>218</v>
+      </c>
+      <c r="BN19" s="130">
+        <f t="shared" si="48"/>
+        <v>229</v>
+      </c>
     </row>
-    <row r="21" spans="2:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="235" t="s">
+    <row r="21" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237">
+      <c r="C21" s="231"/>
+      <c r="D21" s="232">
         <v>1</v>
       </c>
-      <c r="E21" s="238"/>
-      <c r="F21" s="233">
+      <c r="E21" s="233"/>
+      <c r="F21" s="228">
         <v>2</v>
       </c>
-      <c r="G21" s="234"/>
-      <c r="H21" s="220">
+      <c r="G21" s="229"/>
+      <c r="H21" s="241">
         <v>3</v>
       </c>
-      <c r="I21" s="221"/>
-      <c r="J21" s="220">
+      <c r="I21" s="242"/>
+      <c r="J21" s="241">
         <v>4</v>
       </c>
-      <c r="K21" s="221"/>
+      <c r="K21" s="242"/>
+      <c r="L21" s="241">
+        <v>5</v>
+      </c>
+      <c r="M21" s="242"/>
     </row>
-    <row r="22" spans="2:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="239" t="s">
+    <row r="22" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="199" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="320" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="240"/>
+      <c r="C22" s="234"/>
       <c r="D22" s="95">
         <v>1</v>
       </c>
@@ -20535,12 +21648,19 @@
       <c r="K22" s="139">
         <v>8</v>
       </c>
-      <c r="M22" s="199" t="s">
-        <v>72</v>
+      <c r="L22" s="138">
+        <v>9</v>
+      </c>
+      <c r="M22" s="139">
+        <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B23" s="224" t="s">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A23" s="197">
+        <f>SUM(D23:Q23)</f>
+        <v>88.75</v>
+      </c>
+      <c r="B23" s="321" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="82" t="s">
@@ -20574,30 +21694,38 @@
         <f xml:space="preserve"> SUM(AM6:AS6)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="195">
+      <c r="K23" s="193">
         <f xml:space="preserve"> SUM(AT6:AZ6)</f>
         <v>21.5</v>
       </c>
-      <c r="M23" s="197">
-        <f>SUM(D23:K23)</f>
-        <v>45.25</v>
+      <c r="L23" s="194">
+        <f xml:space="preserve"> SUM(BA6:BG6)</f>
+        <v>7</v>
+      </c>
+      <c r="M23" s="195">
+        <f xml:space="preserve"> SUM(BH6:BN6)</f>
+        <v>36.5</v>
       </c>
     </row>
-    <row r="24" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B24" s="225"/>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A24" s="197">
+        <f t="shared" ref="A24:A26" si="53">SUM(D24:Q24)</f>
+        <v>105.75</v>
+      </c>
+      <c r="B24" s="322"/>
       <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="98">
-        <f t="shared" ref="D24:D26" si="39" xml:space="preserve"> SUM(D7:I7)</f>
+        <f t="shared" ref="D24:D26" si="54" xml:space="preserve"> SUM(D7:I7)</f>
         <v>0</v>
       </c>
       <c r="E24" s="91">
-        <f t="shared" ref="E24:E26" si="40" xml:space="preserve"> SUM(J7:O7)</f>
+        <f t="shared" ref="E24:E26" si="55" xml:space="preserve"> SUM(J7:O7)</f>
         <v>7</v>
       </c>
       <c r="F24" s="98">
-        <f t="shared" ref="F24:F26" si="41" xml:space="preserve"> SUM(P7:T7)</f>
+        <f t="shared" ref="F24:F26" si="56" xml:space="preserve"> SUM(P7:T7)</f>
         <v>8</v>
       </c>
       <c r="G24" s="90">
@@ -20609,116 +21737,138 @@
         <v>18</v>
       </c>
       <c r="I24" s="90">
-        <f t="shared" ref="I24:I26" si="42" xml:space="preserve"> SUM(AF7:AL7)</f>
+        <f t="shared" ref="I24:I26" si="57" xml:space="preserve"> SUM(AF7:AL7)</f>
         <v>5</v>
       </c>
       <c r="J24" s="98">
-        <f t="shared" ref="J24:J26" si="43" xml:space="preserve"> SUM(AM7:AS7)</f>
+        <f t="shared" ref="J24:J26" si="58" xml:space="preserve"> SUM(AM7:AS7)</f>
         <v>4</v>
       </c>
-      <c r="K24" s="91">
-        <f t="shared" ref="K24:K26" si="44" xml:space="preserve"> SUM(AT7:AZ7)</f>
+      <c r="K24" s="90">
+        <f t="shared" ref="K24:K26" si="59" xml:space="preserve"> SUM(AT7:AZ7)</f>
         <v>20</v>
       </c>
-      <c r="M24" s="197">
-        <f t="shared" ref="M24:M26" si="45">SUM(D24:K24)</f>
-        <v>77</v>
+      <c r="L24" s="98">
+        <f t="shared" ref="L24:L26" si="60" xml:space="preserve"> SUM(BA7:BG7)</f>
+        <v>24.75</v>
+      </c>
+      <c r="M24" s="91">
+        <f t="shared" ref="M24:M26" si="61" xml:space="preserve"> SUM(BH7:BN7)</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B25" s="225"/>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A25" s="197">
+        <f t="shared" si="53"/>
+        <v>34.5</v>
+      </c>
+      <c r="B25" s="322"/>
       <c r="C25" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="98">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E25" s="91">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="F25" s="98">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G25" s="90">
-        <f t="shared" ref="G25:G26" si="46" xml:space="preserve"> SUM(U8:X8)</f>
+        <f t="shared" ref="G25:G26" si="62" xml:space="preserve"> SUM(U8:X8)</f>
         <v>0</v>
       </c>
       <c r="H25" s="98">
-        <f t="shared" ref="H25:H26" si="47" xml:space="preserve"> SUM(Y8:AE8)</f>
+        <f t="shared" ref="H25:H26" si="63" xml:space="preserve"> SUM(Y8:AE8)</f>
         <v>1</v>
       </c>
       <c r="I25" s="90">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>8</v>
       </c>
       <c r="J25" s="98">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="91">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="90">
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
-      <c r="M25" s="197">
-        <f t="shared" si="45"/>
-        <v>19</v>
+      <c r="L25" s="98">
+        <f t="shared" si="60"/>
+        <v>9</v>
+      </c>
+      <c r="M25" s="91">
+        <f t="shared" si="61"/>
+        <v>6.5</v>
       </c>
     </row>
-    <row r="26" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B26" s="226"/>
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A26" s="198">
+        <f t="shared" si="53"/>
+        <v>229</v>
+      </c>
+      <c r="B26" s="323"/>
       <c r="C26" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="99">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>2.75</v>
       </c>
       <c r="E26" s="93">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>13</v>
       </c>
       <c r="F26" s="99">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="G26" s="137">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>18</v>
       </c>
       <c r="H26" s="142">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>22</v>
       </c>
       <c r="I26" s="137">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>18</v>
       </c>
       <c r="J26" s="142">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>4</v>
       </c>
-      <c r="K26" s="143">
-        <f t="shared" si="44"/>
+      <c r="K26" s="137">
+        <f t="shared" si="59"/>
         <v>49.5</v>
       </c>
-      <c r="M26" s="198">
-        <f t="shared" si="45"/>
-        <v>141.25</v>
+      <c r="L26" s="142">
+        <f t="shared" si="60"/>
+        <v>40.75</v>
+      </c>
+      <c r="M26" s="143">
+        <f t="shared" si="61"/>
+        <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B27" s="86"/>
       <c r="C27" s="87"/>
       <c r="H27" s="57"/>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
     </row>
-    <row r="28" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B28" s="241" t="s">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B28" s="235" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -20756,14 +21906,22 @@
         <f xml:space="preserve"> AVERAGE($D$23:K23)</f>
         <v>5.65625</v>
       </c>
+      <c r="L28" s="140">
+        <f xml:space="preserve"> AVERAGE($D$23:L23)</f>
+        <v>5.8055555555555554</v>
+      </c>
+      <c r="M28" s="141">
+        <f xml:space="preserve"> AVERAGE($D$23:M23)</f>
+        <v>8.875</v>
+      </c>
     </row>
-    <row r="29" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B29" s="242"/>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B29" s="236"/>
       <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="98">
-        <f t="shared" ref="D29:D31" si="48" xml:space="preserve"> D24</f>
+        <f t="shared" ref="D29:D31" si="64" xml:space="preserve"> D24</f>
         <v>0</v>
       </c>
       <c r="E29" s="91">
@@ -20794,14 +21952,22 @@
         <f xml:space="preserve"> AVERAGE($D$24:K24)</f>
         <v>9.625</v>
       </c>
+      <c r="L29" s="98">
+        <f xml:space="preserve"> AVERAGE($D$24:L24)</f>
+        <v>11.305555555555555</v>
+      </c>
+      <c r="M29" s="91">
+        <f xml:space="preserve"> AVERAGE($D$24:M24)</f>
+        <v>10.574999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B30" s="242"/>
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B30" s="236"/>
       <c r="C30" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="98">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="E30" s="91">
@@ -20832,14 +21998,22 @@
         <f xml:space="preserve"> AVERAGE($D$25:K25)</f>
         <v>2.375</v>
       </c>
+      <c r="L30" s="98">
+        <f xml:space="preserve"> AVERAGE($D$25:L25)</f>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="M30" s="91">
+        <f xml:space="preserve"> AVERAGE($D$25:M25)</f>
+        <v>3.45</v>
+      </c>
     </row>
-    <row r="31" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B31" s="243"/>
+    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B31" s="237"/>
       <c r="C31" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="99">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>2.75</v>
       </c>
       <c r="E31" s="93">
@@ -20870,17 +22044,27 @@
         <f xml:space="preserve"> AVERAGE($D$26:K26)</f>
         <v>17.65625</v>
       </c>
+      <c r="L31" s="142">
+        <f xml:space="preserve"> AVERAGE($D$26:L26)</f>
+        <v>20.222222222222221</v>
+      </c>
+      <c r="M31" s="143">
+        <f xml:space="preserve"> AVERAGE($D$26:M26)</f>
+        <v>22.9</v>
+      </c>
     </row>
-    <row r="32" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="H32" s="57"/>
       <c r="I32" s="57"/>
       <c r="J32" s="57"/>
       <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="224" t="s">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="217" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="82" t="s">
@@ -20895,11 +22079,11 @@
         <v>6.75</v>
       </c>
       <c r="F33" s="88">
-        <f t="shared" ref="F33:G36" si="49" xml:space="preserve"> E33 + F23</f>
+        <f t="shared" ref="F33:G36" si="65" xml:space="preserve"> E33 + F23</f>
         <v>12.75</v>
       </c>
       <c r="G33" s="136">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>15.75</v>
       </c>
       <c r="H33" s="140">
@@ -20907,7 +22091,7 @@
         <v>18.75</v>
       </c>
       <c r="I33" s="141">
-        <f t="shared" ref="I33:I36" si="50" xml:space="preserve"> H33 + I23</f>
+        <f t="shared" ref="I33:I36" si="66" xml:space="preserve"> H33 + I23</f>
         <v>23.75</v>
       </c>
       <c r="J33" s="140">
@@ -20915,29 +22099,37 @@
         <v>23.75</v>
       </c>
       <c r="K33" s="141">
-        <f t="shared" ref="K33:K36" si="51" xml:space="preserve"> J33 + K23</f>
+        <f t="shared" ref="K33:K36" si="67" xml:space="preserve"> J33 + K23</f>
         <v>45.25</v>
       </c>
+      <c r="L33" s="140">
+        <f xml:space="preserve"> K33 + L23</f>
+        <v>52.25</v>
+      </c>
+      <c r="M33" s="141">
+        <f t="shared" ref="M33:M36" si="68" xml:space="preserve"> L33 + M23</f>
+        <v>88.75</v>
+      </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="225"/>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="218"/>
       <c r="C34" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="98">
-        <f t="shared" ref="D34:D36" si="52" xml:space="preserve"> D24</f>
+        <f t="shared" ref="D34:D36" si="69" xml:space="preserve"> D24</f>
         <v>0</v>
       </c>
       <c r="E34" s="91">
-        <f t="shared" ref="E34:E36" si="53" xml:space="preserve"> D34 + E24</f>
+        <f t="shared" ref="E34:E36" si="70" xml:space="preserve"> D34 + E24</f>
         <v>7</v>
       </c>
       <c r="F34" s="90">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>15</v>
       </c>
       <c r="G34" s="90">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>30</v>
       </c>
       <c r="H34" s="98">
@@ -20945,7 +22137,7 @@
         <v>48</v>
       </c>
       <c r="I34" s="91">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>53</v>
       </c>
       <c r="J34" s="98">
@@ -20953,88 +22145,124 @@
         <v>57</v>
       </c>
       <c r="K34" s="91">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>77</v>
       </c>
+      <c r="L34" s="98">
+        <f xml:space="preserve"> K34 + L24</f>
+        <v>101.75</v>
+      </c>
+      <c r="M34" s="91">
+        <f t="shared" si="68"/>
+        <v>105.75</v>
+      </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="225"/>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="218"/>
       <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="E35" s="91">
-        <f t="shared" si="53"/>
+        <f t="shared" si="70"/>
         <v>2</v>
       </c>
       <c r="F35" s="90">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="G35" s="90">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="H35" s="98">
-        <f t="shared" ref="H35:H36" si="54" xml:space="preserve"> G35 + H25</f>
+        <f t="shared" ref="H35:H36" si="71" xml:space="preserve"> G35 + H25</f>
         <v>3</v>
       </c>
       <c r="I35" s="91">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>11</v>
       </c>
       <c r="J35" s="98">
-        <f t="shared" ref="J35:J36" si="55" xml:space="preserve"> I35 + J25</f>
+        <f t="shared" ref="J35:J36" si="72" xml:space="preserve"> I35 + J25</f>
         <v>11</v>
       </c>
       <c r="K35" s="91">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>19</v>
       </c>
+      <c r="L35" s="98">
+        <f t="shared" ref="L35:L36" si="73" xml:space="preserve"> K35 + L25</f>
+        <v>28</v>
+      </c>
+      <c r="M35" s="91">
+        <f t="shared" si="68"/>
+        <v>34.5</v>
+      </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="226"/>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="219"/>
       <c r="C36" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="99">
-        <f t="shared" si="52"/>
+        <f t="shared" si="69"/>
         <v>2.75</v>
       </c>
       <c r="E36" s="93">
-        <f t="shared" si="53"/>
+        <f t="shared" si="70"/>
         <v>15.75</v>
       </c>
       <c r="F36" s="92">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>29.75</v>
       </c>
       <c r="G36" s="137">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>47.75</v>
       </c>
       <c r="H36" s="142">
-        <f t="shared" si="54"/>
+        <f t="shared" si="71"/>
         <v>69.75</v>
       </c>
       <c r="I36" s="143">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>87.75</v>
       </c>
       <c r="J36" s="142">
-        <f t="shared" si="55"/>
+        <f t="shared" si="72"/>
         <v>91.75</v>
       </c>
       <c r="K36" s="143">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>141.25</v>
+      </c>
+      <c r="L36" s="142">
+        <f t="shared" si="73"/>
+        <v>182</v>
+      </c>
+      <c r="M36" s="143">
+        <f t="shared" si="68"/>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
+    <mergeCell ref="BA2:BN2"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="Y2:AL2"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="P2:X2"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="AM2:AZ2"/>
     <mergeCell ref="AM3:AS3"/>
     <mergeCell ref="AT3:AZ3"/>
@@ -21051,14 +22279,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="Y2:AL2"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="P2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -21096,15 +22316,15 @@
       <c r="F1" s="223"/>
       <c r="G1" s="223"/>
       <c r="H1" s="223"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="228" t="s">
+      <c r="I1" s="224"/>
+      <c r="J1" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="263"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="243"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -21212,10 +22432,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="264">
+      <c r="B5" s="244">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -21275,8 +22495,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="254"/>
-      <c r="B6" s="265"/>
+      <c r="A6" s="251"/>
+      <c r="B6" s="245"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -21300,8 +22520,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="254"/>
-      <c r="B7" s="265"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="245"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -21325,8 +22545,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="254"/>
-      <c r="B8" s="265"/>
+      <c r="A8" s="251"/>
+      <c r="B8" s="245"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -21350,8 +22570,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="254"/>
-      <c r="B9" s="265"/>
+      <c r="A9" s="251"/>
+      <c r="B9" s="245"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -21409,8 +22629,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="254"/>
-      <c r="B10" s="265"/>
+      <c r="A10" s="251"/>
+      <c r="B10" s="245"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -21432,8 +22652,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="254"/>
-      <c r="B11" s="265"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="245"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -21455,8 +22675,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="254"/>
-      <c r="B12" s="265"/>
+      <c r="A12" s="251"/>
+      <c r="B12" s="245"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -21478,8 +22698,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="254"/>
-      <c r="B13" s="265"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="245"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -21537,8 +22757,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="254"/>
-      <c r="B14" s="265"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -21560,8 +22780,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="254"/>
-      <c r="B15" s="265"/>
+      <c r="A15" s="251"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -21583,8 +22803,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="254"/>
-      <c r="B16" s="266"/>
+      <c r="A16" s="251"/>
+      <c r="B16" s="246"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -21610,8 +22830,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="254"/>
-      <c r="B17" s="264">
+      <c r="A17" s="251"/>
+      <c r="B17" s="244">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -21671,8 +22891,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="254"/>
-      <c r="B18" s="265"/>
+      <c r="A18" s="251"/>
+      <c r="B18" s="245"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -21698,8 +22918,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="254"/>
-      <c r="B19" s="265"/>
+      <c r="A19" s="251"/>
+      <c r="B19" s="245"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -21721,8 +22941,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="254"/>
-      <c r="B20" s="266"/>
+      <c r="A20" s="251"/>
+      <c r="B20" s="246"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -21744,8 +22964,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="254"/>
-      <c r="B21" s="267"/>
+      <c r="A21" s="251"/>
+      <c r="B21" s="247"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -21803,8 +23023,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="254"/>
-      <c r="B22" s="268"/>
+      <c r="A22" s="251"/>
+      <c r="B22" s="248"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -21826,8 +23046,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="254"/>
-      <c r="B23" s="268"/>
+      <c r="A23" s="251"/>
+      <c r="B23" s="248"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -21851,8 +23071,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="255"/>
-      <c r="B24" s="269"/>
+      <c r="A24" s="252"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -22102,7 +23322,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="224" t="s">
+      <c r="A30" s="217" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -22159,7 +23379,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="225"/>
+      <c r="A31" s="218"/>
       <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
@@ -22214,7 +23434,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="225"/>
+      <c r="A32" s="218"/>
       <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
@@ -22269,11 +23489,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="226"/>
-      <c r="B33" s="261" t="s">
+      <c r="A33" s="219"/>
+      <c r="B33" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="262"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
@@ -22338,13 +23558,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="256" t="s">
+      <c r="A36" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="245" t="s">
+      <c r="B36" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="246"/>
+      <c r="C36" s="257"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
@@ -22359,11 +23579,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="257"/>
-      <c r="B37" s="247" t="s">
+      <c r="A37" s="254"/>
+      <c r="B37" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="248"/>
+      <c r="C37" s="259"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -22378,11 +23598,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="257"/>
-      <c r="B38" s="249" t="s">
+      <c r="A38" s="254"/>
+      <c r="B38" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="250"/>
+      <c r="C38" s="261"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -22397,11 +23617,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="258"/>
-      <c r="B39" s="259" t="s">
+      <c r="A39" s="255"/>
+      <c r="B39" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="260"/>
+      <c r="C39" s="263"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
@@ -22416,13 +23636,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="244" t="s">
+      <c r="A41" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="245" t="s">
+      <c r="B41" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="246"/>
+      <c r="C41" s="257"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
@@ -22433,11 +23653,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="244"/>
-      <c r="B42" s="247" t="s">
+      <c r="A42" s="266"/>
+      <c r="B42" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="248"/>
+      <c r="C42" s="259"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -22448,11 +23668,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="244"/>
-      <c r="B43" s="249" t="s">
+      <c r="A43" s="266"/>
+      <c r="B43" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="250"/>
+      <c r="C43" s="261"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -22463,11 +23683,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="244"/>
-      <c r="B44" s="251" t="s">
+      <c r="A44" s="266"/>
+      <c r="B44" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="252"/>
+      <c r="C44" s="268"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -22479,11 +23699,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
@@ -22492,11 +23712,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -22537,7 +23757,7 @@
       </c>
       <c r="J1" s="223"/>
       <c r="K1" s="223"/>
-      <c r="L1" s="229"/>
+      <c r="L1" s="224"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
@@ -22639,10 +23859,10 @@
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="270">
+      <c r="B5" s="269">
         <v>1</v>
       </c>
       <c r="C5" s="59" t="s">
@@ -22690,8 +23910,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="254"/>
-      <c r="B6" s="271"/>
+      <c r="A6" s="251"/>
+      <c r="B6" s="270"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -22710,8 +23930,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="254"/>
-      <c r="B7" s="271"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -22736,8 +23956,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="254"/>
-      <c r="B8" s="272"/>
+      <c r="A8" s="251"/>
+      <c r="B8" s="271"/>
       <c r="C8" s="61" t="s">
         <v>9</v>
       </c>
@@ -22756,8 +23976,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="254"/>
-      <c r="B9" s="275" t="s">
+      <c r="A9" s="251"/>
+      <c r="B9" s="274" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -22805,8 +24025,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="254"/>
-      <c r="B10" s="276"/>
+      <c r="A10" s="251"/>
+      <c r="B10" s="275"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -22829,8 +24049,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="254"/>
-      <c r="B11" s="276"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="275"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -22849,8 +24069,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="254"/>
-      <c r="B12" s="276"/>
+      <c r="A12" s="251"/>
+      <c r="B12" s="275"/>
       <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
@@ -22869,8 +24089,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="254"/>
-      <c r="B13" s="276"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="275"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
@@ -22916,8 +24136,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="254"/>
-      <c r="B14" s="276"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="275"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -22938,8 +24158,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="254"/>
-      <c r="B15" s="276"/>
+      <c r="A15" s="251"/>
+      <c r="B15" s="275"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -22960,8 +24180,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="254"/>
-      <c r="B16" s="276"/>
+      <c r="A16" s="251"/>
+      <c r="B16" s="275"/>
       <c r="C16" s="60" t="s">
         <v>9</v>
       </c>
@@ -22980,10 +24200,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="253" t="s">
+      <c r="A17" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="264"/>
+      <c r="B17" s="244"/>
       <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
@@ -23029,8 +24249,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="254"/>
-      <c r="B18" s="265"/>
+      <c r="A18" s="251"/>
+      <c r="B18" s="245"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -23051,8 +24271,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="254"/>
-      <c r="B19" s="265"/>
+      <c r="A19" s="251"/>
+      <c r="B19" s="245"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -23073,8 +24293,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="254"/>
-      <c r="B20" s="265"/>
+      <c r="A20" s="251"/>
+      <c r="B20" s="245"/>
       <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
@@ -23093,8 +24313,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="254"/>
-      <c r="B21" s="273"/>
+      <c r="A21" s="251"/>
+      <c r="B21" s="272"/>
       <c r="C21" s="64" t="s">
         <v>37</v>
       </c>
@@ -23140,8 +24360,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="254"/>
-      <c r="B22" s="273"/>
+      <c r="A22" s="251"/>
+      <c r="B22" s="272"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -23160,8 +24380,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="254"/>
-      <c r="B23" s="273"/>
+      <c r="A23" s="251"/>
+      <c r="B23" s="272"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -23182,8 +24402,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="255"/>
-      <c r="B24" s="274"/>
+      <c r="A24" s="252"/>
+      <c r="B24" s="273"/>
       <c r="C24" s="61" t="s">
         <v>9</v>
       </c>
@@ -23202,10 +24422,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="277" t="s">
+      <c r="B25" s="276" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="277"/>
+      <c r="C25" s="276"/>
       <c r="D25" s="47">
         <f t="shared" ref="D25:M28" si="6">SUM(D5,D9,D13,D17,D21)</f>
         <v>0</v>
@@ -23383,13 +24603,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="224" t="s">
+      <c r="A30" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="278" t="s">
+      <c r="B30" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="279"/>
+      <c r="C30" s="278"/>
       <c r="D30" s="32">
         <f xml:space="preserve"> D26</f>
         <v>0</v>
@@ -23428,11 +24648,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="225"/>
-      <c r="B31" s="280" t="s">
+      <c r="A31" s="218"/>
+      <c r="B31" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="248"/>
+      <c r="C31" s="259"/>
       <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
@@ -23471,11 +24691,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="225"/>
-      <c r="B32" s="281" t="s">
+      <c r="A32" s="218"/>
+      <c r="B32" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="250"/>
+      <c r="C32" s="261"/>
       <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
@@ -23514,11 +24734,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="226"/>
-      <c r="B33" s="261" t="s">
+      <c r="A33" s="219"/>
+      <c r="B33" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="262"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0</v>
@@ -23571,13 +24791,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="256" t="s">
+      <c r="A36" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="245" t="s">
+      <c r="B36" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="246"/>
+      <c r="C36" s="257"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:H26)</f>
         <v>6</v>
@@ -23592,11 +24812,11 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="257"/>
-      <c r="B37" s="247" t="s">
+      <c r="A37" s="254"/>
+      <c r="B37" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="248"/>
+      <c r="C37" s="259"/>
       <c r="D37" s="26">
         <f t="shared" ref="D37:D38" si="7" xml:space="preserve"> SUM(D27:H27)</f>
         <v>8</v>
@@ -23611,11 +24831,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="257"/>
-      <c r="B38" s="249" t="s">
+      <c r="A38" s="254"/>
+      <c r="B38" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="250"/>
+      <c r="C38" s="261"/>
       <c r="D38" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -23630,11 +24850,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="258"/>
-      <c r="B39" s="259" t="s">
+      <c r="A39" s="255"/>
+      <c r="B39" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="260"/>
+      <c r="C39" s="263"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:H25)</f>
         <v>14</v>
@@ -23649,13 +24869,13 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="244" t="s">
+      <c r="A41" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="245" t="s">
+      <c r="B41" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="246"/>
+      <c r="C41" s="257"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>6</v>
@@ -23666,11 +24886,11 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="244"/>
-      <c r="B42" s="247" t="s">
+      <c r="A42" s="266"/>
+      <c r="B42" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="248"/>
+      <c r="C42" s="259"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>8</v>
@@ -23681,11 +24901,11 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="244"/>
-      <c r="B43" s="249" t="s">
+      <c r="A43" s="266"/>
+      <c r="B43" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="250"/>
+      <c r="C43" s="261"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -23696,11 +24916,11 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="244"/>
-      <c r="B44" s="251" t="s">
+      <c r="A44" s="266"/>
+      <c r="B44" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="252"/>
+      <c r="C44" s="268"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>14</v>
@@ -23712,16 +24932,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A5:A16"/>
@@ -23736,6 +24946,16 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23762,24 +24982,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="217" t="s">
+      <c r="D1" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="217" t="s">
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="219"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="216"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -23901,10 +25121,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="285">
+      <c r="B5" s="288">
         <v>12</v>
       </c>
       <c r="C5" s="110" t="s">
@@ -23972,8 +25192,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="283"/>
-      <c r="B6" s="271"/>
+      <c r="A6" s="282"/>
+      <c r="B6" s="270"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -23997,8 +25217,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="283"/>
-      <c r="B7" s="271"/>
+      <c r="A7" s="282"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -24022,8 +25242,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="283"/>
-      <c r="B8" s="286"/>
+      <c r="A8" s="282"/>
+      <c r="B8" s="289"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
@@ -24049,8 +25269,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="283"/>
-      <c r="B9" s="287">
+      <c r="A9" s="282"/>
+      <c r="B9" s="290">
         <v>15</v>
       </c>
       <c r="C9" s="118" t="s">
@@ -24118,8 +25338,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="283"/>
-      <c r="B10" s="288"/>
+      <c r="A10" s="282"/>
+      <c r="B10" s="291"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -24143,8 +25363,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="283"/>
-      <c r="B11" s="288"/>
+      <c r="A11" s="282"/>
+      <c r="B11" s="291"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -24168,8 +25388,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="283"/>
-      <c r="B12" s="289"/>
+      <c r="A12" s="282"/>
+      <c r="B12" s="292"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -24199,8 +25419,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="283"/>
-      <c r="B13" s="287">
+      <c r="A13" s="282"/>
+      <c r="B13" s="290">
         <v>21</v>
       </c>
       <c r="C13" s="119" t="s">
@@ -24268,8 +25488,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="283"/>
-      <c r="B14" s="288"/>
+      <c r="A14" s="282"/>
+      <c r="B14" s="291"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -24299,8 +25519,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="283"/>
-      <c r="B15" s="288"/>
+      <c r="A15" s="282"/>
+      <c r="B15" s="291"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -24324,8 +25544,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="283"/>
-      <c r="B16" s="289"/>
+      <c r="A16" s="282"/>
+      <c r="B16" s="292"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -24349,8 +25569,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="283"/>
-      <c r="B17" s="287">
+      <c r="A17" s="282"/>
+      <c r="B17" s="290">
         <v>18</v>
       </c>
       <c r="C17" s="119" t="s">
@@ -24418,8 +25638,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="283"/>
-      <c r="B18" s="288"/>
+      <c r="A18" s="282"/>
+      <c r="B18" s="291"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -24449,8 +25669,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="283"/>
-      <c r="B19" s="288"/>
+      <c r="A19" s="282"/>
+      <c r="B19" s="291"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -24474,8 +25694,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="283"/>
-      <c r="B20" s="289"/>
+      <c r="A20" s="282"/>
+      <c r="B20" s="292"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -24499,8 +25719,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="283"/>
-      <c r="B21" s="290" t="s">
+      <c r="A21" s="282"/>
+      <c r="B21" s="293" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="119" t="s">
@@ -24568,8 +25788,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="283"/>
-      <c r="B22" s="291"/>
+      <c r="A22" s="282"/>
+      <c r="B22" s="294"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -24593,8 +25813,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="283"/>
-      <c r="B23" s="291"/>
+      <c r="A23" s="282"/>
+      <c r="B23" s="294"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -24622,8 +25842,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="283"/>
-      <c r="B24" s="292"/>
+      <c r="A24" s="282"/>
+      <c r="B24" s="295"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -24647,8 +25867,8 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="283"/>
-      <c r="B25" s="290" t="s">
+      <c r="A25" s="282"/>
+      <c r="B25" s="293" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="119" t="s">
@@ -24716,8 +25936,8 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="283"/>
-      <c r="B26" s="291"/>
+      <c r="A26" s="282"/>
+      <c r="B26" s="294"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
       </c>
@@ -24741,8 +25961,8 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="283"/>
-      <c r="B27" s="291"/>
+      <c r="A27" s="282"/>
+      <c r="B27" s="294"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
       </c>
@@ -24768,8 +25988,8 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="283"/>
-      <c r="B28" s="292"/>
+      <c r="A28" s="282"/>
+      <c r="B28" s="295"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
       </c>
@@ -24793,8 +26013,8 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="283"/>
-      <c r="B29" s="290">
+      <c r="A29" s="282"/>
+      <c r="B29" s="293">
         <v>31</v>
       </c>
       <c r="C29" s="119" t="s">
@@ -24862,8 +26082,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="283"/>
-      <c r="B30" s="291"/>
+      <c r="A30" s="282"/>
+      <c r="B30" s="294"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -24887,8 +26107,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="283"/>
-      <c r="B31" s="291"/>
+      <c r="A31" s="282"/>
+      <c r="B31" s="294"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -24916,8 +26136,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="284"/>
-      <c r="B32" s="292"/>
+      <c r="A32" s="283"/>
+      <c r="B32" s="295"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -24941,10 +26161,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="282" t="s">
+      <c r="A33" s="281" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="293"/>
+      <c r="B33" s="284"/>
       <c r="C33" s="110" t="s">
         <v>51</v>
       </c>
@@ -25010,8 +26230,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="283"/>
-      <c r="B34" s="265"/>
+      <c r="A34" s="282"/>
+      <c r="B34" s="245"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -25035,8 +26255,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="283"/>
-      <c r="B35" s="265"/>
+      <c r="A35" s="282"/>
+      <c r="B35" s="245"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -25062,8 +26282,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="283"/>
-      <c r="B36" s="265"/>
+      <c r="A36" s="282"/>
+      <c r="B36" s="245"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -25087,8 +26307,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="283"/>
-      <c r="B37" s="294"/>
+      <c r="A37" s="282"/>
+      <c r="B37" s="285"/>
       <c r="C37" s="110" t="s">
         <v>52</v>
       </c>
@@ -25154,8 +26374,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="283"/>
-      <c r="B38" s="295"/>
+      <c r="A38" s="282"/>
+      <c r="B38" s="286"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -25179,8 +26399,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="283"/>
-      <c r="B39" s="295"/>
+      <c r="A39" s="282"/>
+      <c r="B39" s="286"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -25208,8 +26428,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="284"/>
-      <c r="B40" s="296"/>
+      <c r="A40" s="283"/>
+      <c r="B40" s="287"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -25233,10 +26453,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="277" t="s">
+      <c r="B41" s="276" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="277"/>
+      <c r="C41" s="276"/>
       <c r="D41" s="47">
         <f t="shared" ref="D41:Q41" si="12">SUM(D21,D25,D29,D33,D37,D17,D13,D9,D5)</f>
         <v>0</v>
@@ -25494,13 +26714,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="224" t="s">
+      <c r="A46" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="278" t="s">
+      <c r="B46" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="279"/>
+      <c r="C46" s="278"/>
       <c r="D46" s="32">
         <f>D42</f>
         <v>0</v>
@@ -25560,11 +26780,11 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="225"/>
-      <c r="B47" s="280" t="s">
+      <c r="A47" s="218"/>
+      <c r="B47" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="248"/>
+      <c r="C47" s="259"/>
       <c r="D47" s="38">
         <f>D43</f>
         <v>0</v>
@@ -25624,11 +26844,11 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="225"/>
-      <c r="B48" s="281" t="s">
+      <c r="A48" s="218"/>
+      <c r="B48" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="250"/>
+      <c r="C48" s="261"/>
       <c r="D48" s="34">
         <f>D44</f>
         <v>0</v>
@@ -25688,11 +26908,11 @@
       <c r="R48" s="38"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="226"/>
-      <c r="B49" s="261" t="s">
+      <c r="A49" s="219"/>
+      <c r="B49" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="262"/>
+      <c r="C49" s="265"/>
       <c r="D49" s="35">
         <f>D41</f>
         <v>0</v>
@@ -25766,13 +26986,13 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="256" t="s">
+      <c r="A52" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="245" t="s">
+      <c r="B52" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="246"/>
+      <c r="C52" s="257"/>
       <c r="D52" s="26">
         <f xml:space="preserve"> SUM(D42:J42)</f>
         <v>3</v>
@@ -25787,11 +27007,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="257"/>
-      <c r="B53" s="247" t="s">
+      <c r="A53" s="254"/>
+      <c r="B53" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="248"/>
+      <c r="C53" s="259"/>
       <c r="D53" s="26">
         <f t="shared" ref="D53:D54" si="14" xml:space="preserve"> SUM(D43:J43)</f>
         <v>18</v>
@@ -25806,11 +27026,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="257"/>
-      <c r="B54" s="249" t="s">
+      <c r="A54" s="254"/>
+      <c r="B54" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="250"/>
+      <c r="C54" s="261"/>
       <c r="D54" s="26">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -25825,11 +27045,11 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="258"/>
-      <c r="B55" s="259" t="s">
+      <c r="A55" s="255"/>
+      <c r="B55" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="260"/>
+      <c r="C55" s="263"/>
       <c r="D55" s="26">
         <f xml:space="preserve"> SUM(D41:J41)</f>
         <v>22</v>
@@ -25844,13 +27064,13 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="244" t="s">
+      <c r="A57" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="245" t="s">
+      <c r="B57" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="246"/>
+      <c r="C57" s="257"/>
       <c r="D57" s="31">
         <f xml:space="preserve"> D52</f>
         <v>3</v>
@@ -25861,11 +27081,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="244"/>
-      <c r="B58" s="247" t="s">
+      <c r="A58" s="266"/>
+      <c r="B58" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="248"/>
+      <c r="C58" s="259"/>
       <c r="D58" s="31">
         <f xml:space="preserve"> D53</f>
         <v>18</v>
@@ -25876,11 +27096,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="244"/>
-      <c r="B59" s="249" t="s">
+      <c r="A59" s="266"/>
+      <c r="B59" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="250"/>
+      <c r="C59" s="261"/>
       <c r="D59" s="31">
         <f xml:space="preserve"> D54</f>
         <v>1</v>
@@ -25891,11 +27111,11 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="244"/>
-      <c r="B60" s="251" t="s">
+      <c r="A60" s="266"/>
+      <c r="B60" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="252"/>
+      <c r="C60" s="268"/>
       <c r="D60" s="31">
         <f xml:space="preserve"> D55</f>
         <v>22</v>
@@ -25910,25 +27130,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="A5:A32"/>
@@ -25939,6 +27140,25 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -25955,8 +27175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25967,24 +27187,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="217" t="s">
+      <c r="D1" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="217" t="s">
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="219"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="216"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -26106,10 +27326,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="305" t="s">
+      <c r="A5" s="296" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="298">
+      <c r="B5" s="307">
         <v>28</v>
       </c>
       <c r="C5" s="152" t="s">
@@ -26177,8 +27397,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="283"/>
-      <c r="B6" s="271"/>
+      <c r="A6" s="282"/>
+      <c r="B6" s="270"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -26204,8 +27424,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="283"/>
-      <c r="B7" s="271"/>
+      <c r="A7" s="282"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -26229,8 +27449,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="283"/>
-      <c r="B8" s="286"/>
+      <c r="A8" s="282"/>
+      <c r="B8" s="289"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
@@ -26254,8 +27474,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="283"/>
-      <c r="B9" s="299">
+      <c r="A9" s="282"/>
+      <c r="B9" s="311">
         <v>16</v>
       </c>
       <c r="C9" s="153" t="s">
@@ -26323,8 +27543,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="283"/>
-      <c r="B10" s="288"/>
+      <c r="A10" s="282"/>
+      <c r="B10" s="291"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -26350,8 +27570,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="283"/>
-      <c r="B11" s="288"/>
+      <c r="A11" s="282"/>
+      <c r="B11" s="291"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -26375,8 +27595,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="283"/>
-      <c r="B12" s="289"/>
+      <c r="A12" s="282"/>
+      <c r="B12" s="292"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -26400,8 +27620,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="283"/>
-      <c r="B13" s="299">
+      <c r="A13" s="282"/>
+      <c r="B13" s="311">
         <v>9</v>
       </c>
       <c r="C13" s="145" t="s">
@@ -26469,8 +27689,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="283"/>
-      <c r="B14" s="288"/>
+      <c r="A14" s="282"/>
+      <c r="B14" s="291"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -26496,8 +27716,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="283"/>
-      <c r="B15" s="288"/>
+      <c r="A15" s="282"/>
+      <c r="B15" s="291"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -26523,8 +27743,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="283"/>
-      <c r="B16" s="289"/>
+      <c r="A16" s="282"/>
+      <c r="B16" s="292"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -26548,8 +27768,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="283"/>
-      <c r="B17" s="299" t="s">
+      <c r="A17" s="282"/>
+      <c r="B17" s="311" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="152" t="s">
@@ -26617,8 +27837,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="283"/>
-      <c r="B18" s="288"/>
+      <c r="A18" s="282"/>
+      <c r="B18" s="291"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -26642,8 +27862,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="283"/>
-      <c r="B19" s="288"/>
+      <c r="A19" s="282"/>
+      <c r="B19" s="291"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -26667,8 +27887,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="283"/>
-      <c r="B20" s="289"/>
+      <c r="A20" s="282"/>
+      <c r="B20" s="292"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -26694,8 +27914,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="283"/>
-      <c r="B21" s="298" t="s">
+      <c r="A21" s="282"/>
+      <c r="B21" s="307" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="152" t="s">
@@ -26763,8 +27983,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="283"/>
-      <c r="B22" s="271"/>
+      <c r="A22" s="282"/>
+      <c r="B22" s="270"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -26796,8 +28016,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="283"/>
-      <c r="B23" s="271"/>
+      <c r="A23" s="282"/>
+      <c r="B23" s="270"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -26823,8 +28043,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="283"/>
-      <c r="B24" s="286"/>
+      <c r="A24" s="282"/>
+      <c r="B24" s="289"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -26848,7 +28068,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="305" t="s">
+      <c r="A25" s="296" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="154"/>
@@ -26917,7 +28137,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="283"/>
+      <c r="A26" s="282"/>
       <c r="B26" s="150"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
@@ -26944,7 +28164,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="283"/>
+      <c r="A27" s="282"/>
       <c r="B27" s="150"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
@@ -26969,7 +28189,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="283"/>
+      <c r="A28" s="282"/>
       <c r="B28" s="151"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
@@ -26994,7 +28214,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="283"/>
+      <c r="A29" s="282"/>
       <c r="B29" s="297"/>
       <c r="C29" s="145" t="s">
         <v>64</v>
@@ -27061,8 +28281,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="283"/>
-      <c r="B30" s="291"/>
+      <c r="A30" s="282"/>
+      <c r="B30" s="294"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -27088,8 +28308,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="283"/>
-      <c r="B31" s="291"/>
+      <c r="A31" s="282"/>
+      <c r="B31" s="294"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -27113,8 +28333,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="283"/>
-      <c r="B32" s="292"/>
+      <c r="A32" s="282"/>
+      <c r="B32" s="295"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -27138,8 +28358,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="283"/>
-      <c r="B33" s="298"/>
+      <c r="A33" s="282"/>
+      <c r="B33" s="307"/>
       <c r="C33" s="145" t="s">
         <v>65</v>
       </c>
@@ -27205,8 +28425,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="283"/>
-      <c r="B34" s="271"/>
+      <c r="A34" s="282"/>
+      <c r="B34" s="270"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -27236,8 +28456,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="283"/>
-      <c r="B35" s="271"/>
+      <c r="A35" s="282"/>
+      <c r="B35" s="270"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -27267,8 +28487,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="283"/>
-      <c r="B36" s="286"/>
+      <c r="A36" s="282"/>
+      <c r="B36" s="289"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -27292,7 +28512,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="283"/>
+      <c r="A37" s="282"/>
       <c r="B37" s="297"/>
       <c r="C37" s="145" t="s">
         <v>66</v>
@@ -27359,8 +28579,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="283"/>
-      <c r="B38" s="291"/>
+      <c r="A38" s="282"/>
+      <c r="B38" s="294"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -27386,8 +28606,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="283"/>
-      <c r="B39" s="291"/>
+      <c r="A39" s="282"/>
+      <c r="B39" s="294"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -27415,8 +28635,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="283"/>
-      <c r="B40" s="292"/>
+      <c r="A40" s="282"/>
+      <c r="B40" s="295"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -27440,7 +28660,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="283"/>
+      <c r="A41" s="282"/>
       <c r="B41" s="297"/>
       <c r="C41" s="145" t="s">
         <v>67</v>
@@ -27507,8 +28727,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="283"/>
-      <c r="B42" s="291"/>
+      <c r="A42" s="282"/>
+      <c r="B42" s="294"/>
       <c r="C42" s="60" t="s">
         <v>7</v>
       </c>
@@ -27532,8 +28752,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="283"/>
-      <c r="B43" s="291"/>
+      <c r="A43" s="282"/>
+      <c r="B43" s="294"/>
       <c r="C43" s="60" t="s">
         <v>8</v>
       </c>
@@ -27561,8 +28781,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="283"/>
-      <c r="B44" s="292"/>
+      <c r="A44" s="282"/>
+      <c r="B44" s="295"/>
       <c r="C44" s="114" t="s">
         <v>9</v>
       </c>
@@ -27586,7 +28806,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="283"/>
+      <c r="A45" s="282"/>
       <c r="B45" s="297"/>
       <c r="C45" s="145" t="s">
         <v>68</v>
@@ -27653,8 +28873,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="283"/>
-      <c r="B46" s="291"/>
+      <c r="A46" s="282"/>
+      <c r="B46" s="294"/>
       <c r="C46" s="60" t="s">
         <v>7</v>
       </c>
@@ -27680,8 +28900,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="283"/>
-      <c r="B47" s="291"/>
+      <c r="A47" s="282"/>
+      <c r="B47" s="294"/>
       <c r="C47" s="60" t="s">
         <v>8</v>
       </c>
@@ -27707,8 +28927,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="284"/>
-      <c r="B48" s="292"/>
+      <c r="A48" s="283"/>
+      <c r="B48" s="295"/>
       <c r="C48" s="114" t="s">
         <v>9</v>
       </c>
@@ -27732,10 +28952,10 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="277" t="s">
+      <c r="B49" s="276" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="277"/>
+      <c r="C49" s="276"/>
       <c r="D49" s="160">
         <f>SUM(D5,D9,D29,D33,D37,D41,D45,D25,D21,D17,D13)</f>
         <v>0</v>
@@ -28011,13 +29231,13 @@
       <c r="R53" s="42"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="224" t="s">
+      <c r="A55" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="300" t="s">
+      <c r="B55" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="301"/>
+      <c r="C55" s="308"/>
       <c r="D55" s="186">
         <f>D50</f>
         <v>0</v>
@@ -28077,11 +29297,11 @@
       <c r="R55" s="38"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="225"/>
-      <c r="B56" s="280" t="s">
+      <c r="A56" s="218"/>
+      <c r="B56" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="302"/>
+      <c r="C56" s="309"/>
       <c r="D56" s="103">
         <f>D51</f>
         <v>0</v>
@@ -28141,11 +29361,11 @@
       <c r="R56" s="38"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="225"/>
-      <c r="B57" s="280" t="s">
+      <c r="A57" s="218"/>
+      <c r="B57" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="302"/>
+      <c r="C57" s="309"/>
       <c r="D57" s="103">
         <f>D48</f>
         <v>0</v>
@@ -28205,11 +29425,11 @@
       <c r="R57" s="38"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="232"/>
+      <c r="A58" s="227"/>
       <c r="B58" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="304"/>
+      <c r="C58" s="310"/>
       <c r="D58" s="189">
         <f>D41</f>
         <v>0</v>
@@ -28283,13 +29503,13 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="256" t="s">
+      <c r="A61" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="312" t="s">
+      <c r="B61" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="309"/>
+      <c r="C61" s="302"/>
       <c r="D61" s="26">
         <f xml:space="preserve"> SUM(D50:J50)</f>
         <v>0</v>
@@ -28304,11 +29524,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="257"/>
-      <c r="B62" s="247" t="s">
+      <c r="A62" s="254"/>
+      <c r="B62" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="248"/>
+      <c r="C62" s="259"/>
       <c r="D62" s="26">
         <f xml:space="preserve"> SUM(D51:J51)</f>
         <v>4</v>
@@ -28323,11 +29543,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="257"/>
-      <c r="B63" s="311" t="s">
+      <c r="A63" s="254"/>
+      <c r="B63" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="308"/>
+      <c r="C63" s="300"/>
       <c r="D63" s="26">
         <f xml:space="preserve"> SUM(D52:J52)</f>
         <v>0</v>
@@ -28342,11 +29562,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="258"/>
+      <c r="A64" s="255"/>
       <c r="B64" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="310"/>
+      <c r="C64" s="304"/>
       <c r="D64" s="26">
         <f xml:space="preserve"> SUM(D49:J49)</f>
         <v>4</v>
@@ -28361,13 +29581,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="244" t="s">
+      <c r="A66" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="300" t="s">
+      <c r="B66" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="309"/>
+      <c r="C66" s="302"/>
       <c r="D66" s="31">
         <f xml:space="preserve"> D61</f>
         <v>0</v>
@@ -28378,11 +29598,11 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="244"/>
-      <c r="B67" s="280" t="s">
+      <c r="A67" s="266"/>
+      <c r="B67" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="248"/>
+      <c r="C67" s="259"/>
       <c r="D67" s="31">
         <f xml:space="preserve"> D62</f>
         <v>4</v>
@@ -28393,11 +29613,11 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="244"/>
-      <c r="B68" s="281" t="s">
+      <c r="A68" s="266"/>
+      <c r="B68" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="308"/>
+      <c r="C68" s="300"/>
       <c r="D68" s="31">
         <f xml:space="preserve"> D63</f>
         <v>0</v>
@@ -28408,11 +29628,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="244"/>
-      <c r="B69" s="306" t="s">
+      <c r="A69" s="266"/>
+      <c r="B69" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="307"/>
+      <c r="C69" s="299"/>
       <c r="D69" s="31">
         <f xml:space="preserve"> D64</f>
         <v>4</v>
@@ -28427,6 +29647,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A25:A48"/>
     <mergeCell ref="B49:C49"/>
@@ -28443,20 +29677,6 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28468,8 +29688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28481,24 +29701,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="319" t="s">
+      <c r="D1" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="319" t="s">
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="312" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="320"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="313"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -28620,10 +29840,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="305" t="s">
+      <c r="A5" s="296" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="313" t="s">
+      <c r="B5" s="314" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="206" t="s">
@@ -28691,8 +29911,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="283"/>
-      <c r="B6" s="314"/>
+      <c r="A6" s="282"/>
+      <c r="B6" s="315"/>
       <c r="C6" s="207" t="s">
         <v>7</v>
       </c>
@@ -28720,8 +29940,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="283"/>
-      <c r="B7" s="314"/>
+      <c r="A7" s="282"/>
+      <c r="B7" s="315"/>
       <c r="C7" s="207" t="s">
         <v>8</v>
       </c>
@@ -28749,8 +29969,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="283"/>
-      <c r="B8" s="315"/>
+      <c r="A8" s="282"/>
+      <c r="B8" s="316"/>
       <c r="C8" s="208" t="s">
         <v>9</v>
       </c>
@@ -28774,8 +29994,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="283"/>
-      <c r="B9" s="316">
+      <c r="A9" s="282"/>
+      <c r="B9" s="317">
         <v>26</v>
       </c>
       <c r="C9" s="209" t="s">
@@ -28843,8 +30063,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="283"/>
-      <c r="B10" s="317"/>
+      <c r="A10" s="282"/>
+      <c r="B10" s="318"/>
       <c r="C10" s="207" t="s">
         <v>7</v>
       </c>
@@ -28880,8 +30100,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="283"/>
-      <c r="B11" s="317"/>
+      <c r="A11" s="282"/>
+      <c r="B11" s="318"/>
       <c r="C11" s="207" t="s">
         <v>8</v>
       </c>
@@ -28905,8 +30125,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="283"/>
-      <c r="B12" s="318"/>
+      <c r="A12" s="282"/>
+      <c r="B12" s="319"/>
       <c r="C12" s="208" t="s">
         <v>9</v>
       </c>
@@ -28930,8 +30150,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="283"/>
-      <c r="B13" s="316">
+      <c r="A13" s="282"/>
+      <c r="B13" s="317">
         <v>26</v>
       </c>
       <c r="C13" s="210" t="s">
@@ -28999,8 +30219,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="283"/>
-      <c r="B14" s="317"/>
+      <c r="A14" s="282"/>
+      <c r="B14" s="318"/>
       <c r="C14" s="207" t="s">
         <v>7</v>
       </c>
@@ -29036,8 +30256,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="283"/>
-      <c r="B15" s="317"/>
+      <c r="A15" s="282"/>
+      <c r="B15" s="318"/>
       <c r="C15" s="207" t="s">
         <v>8</v>
       </c>
@@ -29063,8 +30283,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="283"/>
-      <c r="B16" s="318"/>
+      <c r="A16" s="282"/>
+      <c r="B16" s="319"/>
       <c r="C16" s="208" t="s">
         <v>9</v>
       </c>
@@ -29094,8 +30314,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="283"/>
-      <c r="B17" s="316" t="s">
+      <c r="A17" s="282"/>
+      <c r="B17" s="317" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="206" t="s">
@@ -29163,8 +30383,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="283"/>
-      <c r="B18" s="317"/>
+      <c r="A18" s="282"/>
+      <c r="B18" s="318"/>
       <c r="C18" s="207" t="s">
         <v>7</v>
       </c>
@@ -29188,8 +30408,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="283"/>
-      <c r="B19" s="317"/>
+      <c r="A19" s="282"/>
+      <c r="B19" s="318"/>
       <c r="C19" s="207" t="s">
         <v>8</v>
       </c>
@@ -29219,8 +30439,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="283"/>
-      <c r="B20" s="318"/>
+      <c r="A20" s="282"/>
+      <c r="B20" s="319"/>
       <c r="C20" s="208" t="s">
         <v>9</v>
       </c>
@@ -29244,10 +30464,10 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="305" t="s">
+      <c r="A21" s="296" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="313"/>
+      <c r="B21" s="314"/>
       <c r="C21" s="206" t="s">
         <v>79</v>
       </c>
@@ -29313,8 +30533,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="283"/>
-      <c r="B22" s="314"/>
+      <c r="A22" s="282"/>
+      <c r="B22" s="315"/>
       <c r="C22" s="207" t="s">
         <v>7</v>
       </c>
@@ -29342,8 +30562,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="283"/>
-      <c r="B23" s="314"/>
+      <c r="A23" s="282"/>
+      <c r="B23" s="315"/>
       <c r="C23" s="207" t="s">
         <v>8</v>
       </c>
@@ -29375,8 +30595,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="283"/>
-      <c r="B24" s="315"/>
+      <c r="A24" s="282"/>
+      <c r="B24" s="316"/>
       <c r="C24" s="208" t="s">
         <v>9</v>
       </c>
@@ -29400,7 +30620,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="283"/>
+      <c r="A25" s="282"/>
       <c r="B25" s="211"/>
       <c r="C25" s="210" t="s">
         <v>80</v>
@@ -29467,7 +30687,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="283"/>
+      <c r="A26" s="282"/>
       <c r="B26" s="212"/>
       <c r="C26" s="207" t="s">
         <v>7</v>
@@ -29498,7 +30718,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="283"/>
+      <c r="A27" s="282"/>
       <c r="B27" s="212"/>
       <c r="C27" s="207" t="s">
         <v>8</v>
@@ -29533,7 +30753,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="284"/>
+      <c r="A28" s="283"/>
       <c r="B28" s="213"/>
       <c r="C28" s="208" t="s">
         <v>9</v>
@@ -29563,10 +30783,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="204"/>
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="309"/>
+      <c r="C29" s="302"/>
       <c r="D29" s="205">
         <f t="shared" ref="D29:Q29" si="7">SUM(D5,D9,D25,D21,D17,D13)</f>
         <v>11</v>
@@ -29848,13 +31068,13 @@
       <c r="R33" s="42"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="224" t="s">
+      <c r="A35" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="300" t="s">
+      <c r="B35" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="301"/>
+      <c r="C35" s="308"/>
       <c r="D35" s="186">
         <f>D30</f>
         <v>5</v>
@@ -29914,11 +31134,11 @@
       <c r="R35" s="38"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="225"/>
-      <c r="B36" s="280" t="s">
+      <c r="A36" s="218"/>
+      <c r="B36" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="302"/>
+      <c r="C36" s="309"/>
       <c r="D36" s="103">
         <f>D31</f>
         <v>3</v>
@@ -29978,11 +31198,11 @@
       <c r="R36" s="38"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="225"/>
-      <c r="B37" s="280" t="s">
+      <c r="A37" s="218"/>
+      <c r="B37" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="302"/>
+      <c r="C37" s="309"/>
       <c r="D37" s="103">
         <f>D32</f>
         <v>3</v>
@@ -30042,11 +31262,11 @@
       <c r="R37" s="38"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="232"/>
+      <c r="A38" s="227"/>
       <c r="B38" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="304"/>
+      <c r="C38" s="310"/>
       <c r="D38" s="189">
         <f>D29</f>
         <v>11</v>
@@ -30120,13 +31340,13 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="256" t="s">
+      <c r="A41" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="312" t="s">
+      <c r="B41" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="309"/>
+      <c r="C41" s="302"/>
       <c r="D41" s="26">
         <f xml:space="preserve"> SUM(D30:J30)</f>
         <v>7</v>
@@ -30141,11 +31361,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="257"/>
-      <c r="B42" s="247" t="s">
+      <c r="A42" s="254"/>
+      <c r="B42" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="248"/>
+      <c r="C42" s="259"/>
       <c r="D42" s="26">
         <f xml:space="preserve"> SUM(D31:J31)</f>
         <v>24.75</v>
@@ -30160,11 +31380,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="257"/>
-      <c r="B43" s="311" t="s">
+      <c r="A43" s="254"/>
+      <c r="B43" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="308"/>
+      <c r="C43" s="300"/>
       <c r="D43" s="26">
         <f xml:space="preserve"> SUM(D32:J32)</f>
         <v>9</v>
@@ -30182,11 +31402,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="258"/>
+      <c r="A44" s="255"/>
       <c r="B44" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="310"/>
+      <c r="C44" s="304"/>
       <c r="D44" s="26">
         <f xml:space="preserve"> SUM(D29:J29)</f>
         <v>40.75</v>
@@ -30201,13 +31421,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="244" t="s">
+      <c r="A46" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="300" t="s">
+      <c r="B46" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="309"/>
+      <c r="C46" s="302"/>
       <c r="D46" s="31">
         <f xml:space="preserve"> D41</f>
         <v>7</v>
@@ -30218,11 +31438,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="244"/>
-      <c r="B47" s="280" t="s">
+      <c r="A47" s="266"/>
+      <c r="B47" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="248"/>
+      <c r="C47" s="259"/>
       <c r="D47" s="31">
         <f xml:space="preserve"> D42</f>
         <v>24.75</v>
@@ -30233,11 +31453,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="244"/>
-      <c r="B48" s="281" t="s">
+      <c r="A48" s="266"/>
+      <c r="B48" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="308"/>
+      <c r="C48" s="300"/>
       <c r="D48" s="31">
         <f xml:space="preserve"> D43</f>
         <v>9</v>
@@ -30248,11 +31468,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="244"/>
-      <c r="B49" s="306" t="s">
+      <c r="A49" s="266"/>
+      <c r="B49" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="307"/>
+      <c r="C49" s="299"/>
       <c r="D49" s="31">
         <f xml:space="preserve"> D44</f>
         <v>40.75</v>
@@ -30267,16 +31487,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="B29:C29"/>
@@ -30292,6 +31502,16 @@
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Management/Effort and Velocity.xlsx
+++ b/Management/Effort and Velocity.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="0" windowWidth="14550" windowHeight="13005" tabRatio="295"/>
+    <workbookView xWindow="14280" yWindow="0" windowWidth="14550" windowHeight="13005" tabRatio="295" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,19 @@
     <sheet name="Sp3" sheetId="5" r:id="rId4"/>
     <sheet name="Sp4" sheetId="6" r:id="rId5"/>
     <sheet name="Sp5" sheetId="7" r:id="rId6"/>
+    <sheet name="Sp6" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="97">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -280,6 +281,42 @@
   <si>
     <t>Week 10</t>
   </si>
+  <si>
+    <t>10, 11</t>
+  </si>
+  <si>
+    <t>Timer script</t>
+  </si>
+  <si>
+    <t>10, 11, 12, 16, 26</t>
+  </si>
+  <si>
+    <t>Email System</t>
+  </si>
+  <si>
+    <t>10, 11, 20</t>
+  </si>
+  <si>
+    <t>Database and interaction classes</t>
+  </si>
+  <si>
+    <t>10, 11, 20, 36</t>
+  </si>
+  <si>
+    <t>ui formatting</t>
+  </si>
+  <si>
+    <t>37, 38, 39</t>
+  </si>
+  <si>
+    <t>code improvements, updates, bugfixes</t>
+  </si>
+  <si>
+    <t>transfer code to server</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Page</t>
+  </si>
 </sst>
 </file>
 
@@ -290,7 +327,7 @@
     <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +411,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1304,7 +1348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1721,6 +1765,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1728,6 +1775,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1743,12 +1811,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1781,8 +1843,20 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1793,19 +1867,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1827,63 +1943,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,18 +1990,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1967,11 +2014,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1982,14 +2062,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1999,21 +2073,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2039,18 +2098,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2132,7 +2201,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2795,13 +2863,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33345920"/>
-        <c:axId val="33347456"/>
+        <c:axId val="389580432"/>
+        <c:axId val="389583176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33345920"/>
+        <c:axId val="389580432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,14 +2878,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33347456"/>
+        <c:crossAx val="389583176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="33347456"/>
+        <c:axId val="389583176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2829,14 +2896,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33345920"/>
+        <c:crossAx val="389580432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2886,7 +2952,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3125,11 +3190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130589440"/>
-        <c:axId val="130591360"/>
+        <c:axId val="389594936"/>
+        <c:axId val="389595720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130589440"/>
+        <c:axId val="389594936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,14 +3216,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130591360"/>
+        <c:crossAx val="389595720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3166,7 +3230,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130591360"/>
+        <c:axId val="389595720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3189,21 +3253,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130589440"/>
+        <c:crossAx val="389594936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3466,13 +3528,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128446848"/>
-        <c:axId val="128448384"/>
+        <c:axId val="392020128"/>
+        <c:axId val="392024048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128446848"/>
+        <c:axId val="392020128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3482,14 +3543,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128448384"/>
+        <c:crossAx val="392024048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128448384"/>
+        <c:axId val="392024048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3500,7 +3561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128446848"/>
+        <c:crossAx val="392020128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3769,13 +3830,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128477824"/>
-        <c:axId val="128500096"/>
+        <c:axId val="392026008"/>
+        <c:axId val="392028360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128477824"/>
+        <c:axId val="392026008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,14 +3845,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128500096"/>
+        <c:crossAx val="392028360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128500096"/>
+        <c:axId val="392028360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3803,7 +3863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128477824"/>
+        <c:crossAx val="392026008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4072,13 +4132,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128517248"/>
-        <c:axId val="128518784"/>
+        <c:axId val="392029144"/>
+        <c:axId val="392024440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128517248"/>
+        <c:axId val="392029144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,14 +4147,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128518784"/>
+        <c:crossAx val="392024440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128518784"/>
+        <c:axId val="392024440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4106,7 +4165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128517248"/>
+        <c:crossAx val="392029144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4378,13 +4437,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128552320"/>
-        <c:axId val="128562304"/>
+        <c:axId val="392028752"/>
+        <c:axId val="392027184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128552320"/>
+        <c:axId val="392028752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4394,14 +4452,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128562304"/>
+        <c:crossAx val="392027184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128562304"/>
+        <c:axId val="392027184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,7 +4470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128552320"/>
+        <c:crossAx val="392028752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4645,13 +4703,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130656512"/>
-        <c:axId val="130674688"/>
+        <c:axId val="392030712"/>
+        <c:axId val="392019344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="130656512"/>
+        <c:axId val="392030712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4661,14 +4718,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130674688"/>
+        <c:crossAx val="392019344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130674688"/>
+        <c:axId val="392019344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4679,7 +4736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130656512"/>
+        <c:crossAx val="392030712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4912,13 +4969,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131154688"/>
-        <c:axId val="131156224"/>
+        <c:axId val="392029928"/>
+        <c:axId val="392024832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131154688"/>
+        <c:axId val="392029928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4928,14 +4984,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131156224"/>
+        <c:crossAx val="392024832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="131156224"/>
+        <c:axId val="392024832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4946,7 +5002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131154688"/>
+        <c:crossAx val="392029928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5179,13 +5235,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131181568"/>
-        <c:axId val="131187456"/>
+        <c:axId val="392019736"/>
+        <c:axId val="392025224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131181568"/>
+        <c:axId val="392019736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5195,14 +5250,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131187456"/>
+        <c:crossAx val="392025224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="131187456"/>
+        <c:axId val="392025224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5213,7 +5268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131181568"/>
+        <c:crossAx val="392019736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5446,13 +5501,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131622400"/>
-        <c:axId val="131623936"/>
+        <c:axId val="392023264"/>
+        <c:axId val="392018560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131622400"/>
+        <c:axId val="392023264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5462,14 +5516,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131623936"/>
+        <c:crossAx val="392018560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="131623936"/>
+        <c:axId val="392018560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5480,7 +5534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131622400"/>
+        <c:crossAx val="392023264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5531,6 +5585,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5773,13 +5828,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143589760"/>
-        <c:axId val="143591296"/>
+        <c:axId val="392029536"/>
+        <c:axId val="392018952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="143589760"/>
+        <c:axId val="392029536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5789,14 +5843,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143591296"/>
+        <c:crossAx val="392018952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="143591296"/>
+        <c:axId val="392018952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5807,13 +5861,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143589760"/>
+        <c:crossAx val="392029536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5863,7 +5918,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6358,13 +6412,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128322176"/>
-        <c:axId val="111419776"/>
+        <c:axId val="389582784"/>
+        <c:axId val="389584744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128322176"/>
+        <c:axId val="389582784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6374,14 +6427,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111419776"/>
+        <c:crossAx val="389584744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111419776"/>
+        <c:axId val="389584744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6392,14 +6445,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128322176"/>
+        <c:crossAx val="389582784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6689,13 +6741,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143624832"/>
-        <c:axId val="143630720"/>
+        <c:axId val="392023656"/>
+        <c:axId val="392020520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="143624832"/>
+        <c:axId val="392023656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,14 +6756,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143630720"/>
+        <c:crossAx val="392020520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="143630720"/>
+        <c:axId val="392020520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6723,7 +6774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143624832"/>
+        <c:crossAx val="392023656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7024,13 +7075,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146019456"/>
-        <c:axId val="146020992"/>
+        <c:axId val="392021304"/>
+        <c:axId val="392022480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="146019456"/>
+        <c:axId val="392021304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7040,14 +7090,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146020992"/>
+        <c:crossAx val="392022480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="146020992"/>
+        <c:axId val="392022480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7058,7 +7108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146019456"/>
+        <c:crossAx val="392021304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7109,6 +7159,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7351,13 +7402,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146042240"/>
-        <c:axId val="146056320"/>
+        <c:axId val="392034240"/>
+        <c:axId val="392033064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="146042240"/>
+        <c:axId val="392034240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7367,14 +7417,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146056320"/>
+        <c:crossAx val="392033064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="146056320"/>
+        <c:axId val="392033064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7385,13 +7435,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146042240"/>
+        <c:crossAx val="392034240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7548,11 +7599,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146077568"/>
-        <c:axId val="147849216"/>
+        <c:axId val="392032280"/>
+        <c:axId val="392031104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146077568"/>
+        <c:axId val="392032280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7580,7 +7631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147849216"/>
+        <c:crossAx val="392031104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7588,7 +7639,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147849216"/>
+        <c:axId val="392031104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7617,7 +7668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146077568"/>
+        <c:crossAx val="392032280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7780,11 +7831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147891328"/>
-        <c:axId val="147893248"/>
+        <c:axId val="392033848"/>
+        <c:axId val="392031888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147891328"/>
+        <c:axId val="392033848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7812,7 +7863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147893248"/>
+        <c:crossAx val="392031888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7820,7 +7871,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147893248"/>
+        <c:axId val="392031888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7849,7 +7900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147891328"/>
+        <c:crossAx val="392033848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8020,11 +8071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148242816"/>
-        <c:axId val="148244736"/>
+        <c:axId val="447139312"/>
+        <c:axId val="447138920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148242816"/>
+        <c:axId val="447139312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8052,7 +8103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148244736"/>
+        <c:crossAx val="447138920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8060,7 +8111,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148244736"/>
+        <c:axId val="447138920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8089,7 +8140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148242816"/>
+        <c:crossAx val="447139312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8252,11 +8303,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148299136"/>
-        <c:axId val="148305408"/>
+        <c:axId val="447131080"/>
+        <c:axId val="447140880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148299136"/>
+        <c:axId val="447131080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8284,7 +8335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148305408"/>
+        <c:crossAx val="447140880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8292,7 +8343,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148305408"/>
+        <c:axId val="447140880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8321,7 +8372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148299136"/>
+        <c:crossAx val="447131080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8614,13 +8665,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148360192"/>
-        <c:axId val="148386560"/>
+        <c:axId val="447138136"/>
+        <c:axId val="447137744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148360192"/>
+        <c:axId val="447138136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8630,14 +8680,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148386560"/>
+        <c:crossAx val="447137744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148386560"/>
+        <c:axId val="447137744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8648,7 +8698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148360192"/>
+        <c:crossAx val="447138136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8941,13 +8991,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148424192"/>
-        <c:axId val="148425728"/>
+        <c:axId val="447141272"/>
+        <c:axId val="447135392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148424192"/>
+        <c:axId val="447141272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8957,14 +9006,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148425728"/>
+        <c:crossAx val="447135392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148425728"/>
+        <c:axId val="447135392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8975,7 +9024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148424192"/>
+        <c:crossAx val="447141272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9276,13 +9325,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148451328"/>
-        <c:axId val="148452864"/>
+        <c:axId val="447141664"/>
+        <c:axId val="447142840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148451328"/>
+        <c:axId val="447141664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9292,14 +9340,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148452864"/>
+        <c:crossAx val="447142840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148452864"/>
+        <c:axId val="447142840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9310,7 +9358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148451328"/>
+        <c:crossAx val="447141664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9366,7 +9414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10029,13 +10076,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111449216"/>
-        <c:axId val="111450752"/>
+        <c:axId val="389588272"/>
+        <c:axId val="389586312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="111449216"/>
+        <c:axId val="389588272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10045,14 +10091,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111450752"/>
+        <c:crossAx val="389586312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111450752"/>
+        <c:axId val="389586312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10063,14 +10109,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111449216"/>
+        <c:crossAx val="389588272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10357,13 +10402,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148474112"/>
-        <c:axId val="148488192"/>
+        <c:axId val="447140096"/>
+        <c:axId val="447132648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148474112"/>
+        <c:axId val="447140096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10373,14 +10417,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148488192"/>
+        <c:crossAx val="447132648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148488192"/>
+        <c:axId val="447132648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10391,7 +10435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148474112"/>
+        <c:crossAx val="447140096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10554,11 +10598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158085888"/>
-        <c:axId val="158087808"/>
+        <c:axId val="447138528"/>
+        <c:axId val="447142448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158085888"/>
+        <c:axId val="447138528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10586,7 +10630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158087808"/>
+        <c:crossAx val="447142448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10594,7 +10638,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158087808"/>
+        <c:axId val="447142448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10623,7 +10667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158085888"/>
+        <c:crossAx val="447138528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10786,11 +10830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158126080"/>
-        <c:axId val="158128000"/>
+        <c:axId val="447131472"/>
+        <c:axId val="447133040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158126080"/>
+        <c:axId val="447131472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10818,7 +10862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158128000"/>
+        <c:crossAx val="447133040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10826,7 +10870,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158128000"/>
+        <c:axId val="447133040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10855,7 +10899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158126080"/>
+        <c:crossAx val="447131472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11026,11 +11070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159259648"/>
-        <c:axId val="159274112"/>
+        <c:axId val="447132256"/>
+        <c:axId val="447133432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159259648"/>
+        <c:axId val="447132256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11058,7 +11102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159274112"/>
+        <c:crossAx val="447133432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11066,7 +11110,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159274112"/>
+        <c:axId val="447133432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11095,7 +11139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159259648"/>
+        <c:crossAx val="447132256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11258,11 +11302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159316608"/>
-        <c:axId val="159392512"/>
+        <c:axId val="447134608"/>
+        <c:axId val="447136176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159316608"/>
+        <c:axId val="447134608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11290,7 +11334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159392512"/>
+        <c:crossAx val="447136176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11298,7 +11342,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159392512"/>
+        <c:axId val="447136176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11327,7 +11371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159316608"/>
+        <c:crossAx val="447134608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11378,7 +11422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11621,13 +11664,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159430912"/>
-        <c:axId val="159432704"/>
+        <c:axId val="447137352"/>
+        <c:axId val="447154208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="159430912"/>
+        <c:axId val="447137352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11637,14 +11679,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159432704"/>
+        <c:crossAx val="447154208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159432704"/>
+        <c:axId val="447154208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11655,14 +11697,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159430912"/>
+        <c:crossAx val="447137352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11949,13 +11990,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130970368"/>
-        <c:axId val="130971904"/>
+        <c:axId val="447149896"/>
+        <c:axId val="447151464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="130970368"/>
+        <c:axId val="447149896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11965,14 +12005,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130971904"/>
+        <c:crossAx val="447151464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130971904"/>
+        <c:axId val="447151464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11983,7 +12023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130970368"/>
+        <c:crossAx val="447149896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12284,13 +12324,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130984960"/>
-        <c:axId val="130986752"/>
+        <c:axId val="447146760"/>
+        <c:axId val="447154992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="130984960"/>
+        <c:axId val="447146760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12300,14 +12339,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130986752"/>
+        <c:crossAx val="447154992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130986752"/>
+        <c:axId val="447154992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12318,7 +12357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130984960"/>
+        <c:crossAx val="447146760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12369,7 +12408,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12612,13 +12650,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131040768"/>
-        <c:axId val="131042304"/>
+        <c:axId val="447150288"/>
+        <c:axId val="447145976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131040768"/>
+        <c:axId val="447150288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12628,14 +12665,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131042304"/>
+        <c:crossAx val="447145976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="131042304"/>
+        <c:axId val="447145976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12646,14 +12683,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131040768"/>
+        <c:crossAx val="447150288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12810,11 +12846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131067904"/>
-        <c:axId val="131069824"/>
+        <c:axId val="447148328"/>
+        <c:axId val="447153424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131067904"/>
+        <c:axId val="447148328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12842,7 +12878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131069824"/>
+        <c:crossAx val="447153424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12850,7 +12886,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131069824"/>
+        <c:axId val="447153424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12879,7 +12915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131067904"/>
+        <c:crossAx val="447148328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12935,7 +12971,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13598,13 +13633,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129899904"/>
-        <c:axId val="129905792"/>
+        <c:axId val="389584352"/>
+        <c:axId val="389587096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="129899904"/>
+        <c:axId val="389584352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13614,14 +13648,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129905792"/>
+        <c:crossAx val="389587096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129905792"/>
+        <c:axId val="389587096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13632,14 +13666,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129899904"/>
+        <c:crossAx val="389584352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13796,11 +13829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160570368"/>
-        <c:axId val="160597120"/>
+        <c:axId val="447150680"/>
+        <c:axId val="447154600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160570368"/>
+        <c:axId val="447150680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13828,7 +13861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160597120"/>
+        <c:crossAx val="447154600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13836,7 +13869,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160597120"/>
+        <c:axId val="447154600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13865,7 +13898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160570368"/>
+        <c:crossAx val="447150680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14036,11 +14069,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160623232"/>
-        <c:axId val="161157888"/>
+        <c:axId val="447151856"/>
+        <c:axId val="447147936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160623232"/>
+        <c:axId val="447151856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14068,7 +14101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161157888"/>
+        <c:crossAx val="447147936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14076,7 +14109,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161157888"/>
+        <c:axId val="447147936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14105,7 +14138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160623232"/>
+        <c:crossAx val="447151856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14268,11 +14301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161207808"/>
-        <c:axId val="161209728"/>
+        <c:axId val="447143624"/>
+        <c:axId val="447152248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161207808"/>
+        <c:axId val="447143624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14300,7 +14333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161209728"/>
+        <c:crossAx val="447152248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14308,7 +14341,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161209728"/>
+        <c:axId val="447152248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14337,7 +14370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161207808"/>
+        <c:crossAx val="447143624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14393,7 +14426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14597,11 +14629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129922944"/>
-        <c:axId val="129937408"/>
+        <c:axId val="389588664"/>
+        <c:axId val="389582000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129922944"/>
+        <c:axId val="389588664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14623,14 +14655,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129937408"/>
+        <c:crossAx val="389582000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14638,7 +14669,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129937408"/>
+        <c:axId val="389582000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14661,21 +14692,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129922944"/>
+        <c:crossAx val="389588664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14725,7 +14754,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14929,11 +14957,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130688128"/>
-        <c:axId val="130690048"/>
+        <c:axId val="389591408"/>
+        <c:axId val="389581216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130688128"/>
+        <c:axId val="389591408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14955,14 +14983,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130690048"/>
+        <c:crossAx val="389581216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14970,7 +14997,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130690048"/>
+        <c:axId val="389581216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14993,21 +15020,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130688128"/>
+        <c:crossAx val="389591408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15086,7 +15111,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15290,11 +15314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130732416"/>
-        <c:axId val="130734336"/>
+        <c:axId val="389582392"/>
+        <c:axId val="389583960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130732416"/>
+        <c:axId val="389582392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15316,14 +15340,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130734336"/>
+        <c:crossAx val="389583960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15331,7 +15354,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130734336"/>
+        <c:axId val="389583960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15354,21 +15377,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130732416"/>
+        <c:crossAx val="389582392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15426,7 +15447,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15630,11 +15650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130428288"/>
-        <c:axId val="130442752"/>
+        <c:axId val="389594152"/>
+        <c:axId val="389595328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130428288"/>
+        <c:axId val="389594152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15656,14 +15676,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130442752"/>
+        <c:crossAx val="389595328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15671,7 +15690,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130442752"/>
+        <c:axId val="389595328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15694,21 +15713,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130428288"/>
+        <c:crossAx val="389594152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15758,7 +15775,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16125,11 +16141,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130478080"/>
-        <c:axId val="130480000"/>
+        <c:axId val="389593368"/>
+        <c:axId val="389596112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130478080"/>
+        <c:axId val="389593368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16151,14 +16167,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130480000"/>
+        <c:crossAx val="389596112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16166,7 +16181,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130480000"/>
+        <c:axId val="389596112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16189,21 +16204,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130478080"/>
+        <c:crossAx val="389593368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17631,7 +17644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17666,7 +17679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17877,7 +17890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BN36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -17887,164 +17900,164 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="D2" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="222" t="s">
+      <c r="D2" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="223"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="214" t="s">
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="215"/>
-      <c r="AD2" s="215"/>
-      <c r="AE2" s="215"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="215"/>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="215"/>
-      <c r="AJ2" s="215"/>
-      <c r="AK2" s="215"/>
-      <c r="AL2" s="216"/>
-      <c r="AM2" s="214" t="s">
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="216"/>
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="215"/>
-      <c r="AO2" s="215"/>
-      <c r="AP2" s="215"/>
-      <c r="AQ2" s="215"/>
-      <c r="AR2" s="215"/>
-      <c r="AS2" s="215"/>
-      <c r="AT2" s="215"/>
-      <c r="AU2" s="215"/>
-      <c r="AV2" s="215"/>
-      <c r="AW2" s="215"/>
-      <c r="AX2" s="215"/>
-      <c r="AY2" s="215"/>
-      <c r="AZ2" s="216"/>
-      <c r="BA2" s="214" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="216"/>
+      <c r="AP2" s="216"/>
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="216"/>
+      <c r="AS2" s="216"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="216"/>
+      <c r="AV2" s="216"/>
+      <c r="AW2" s="216"/>
+      <c r="AX2" s="216"/>
+      <c r="AY2" s="216"/>
+      <c r="AZ2" s="217"/>
+      <c r="BA2" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="BB2" s="215"/>
-      <c r="BC2" s="215"/>
-      <c r="BD2" s="215"/>
-      <c r="BE2" s="215"/>
-      <c r="BF2" s="215"/>
-      <c r="BG2" s="215"/>
-      <c r="BH2" s="215"/>
-      <c r="BI2" s="215"/>
-      <c r="BJ2" s="215"/>
-      <c r="BK2" s="215"/>
-      <c r="BL2" s="215"/>
-      <c r="BM2" s="215"/>
-      <c r="BN2" s="216"/>
+      <c r="BB2" s="216"/>
+      <c r="BC2" s="216"/>
+      <c r="BD2" s="216"/>
+      <c r="BE2" s="216"/>
+      <c r="BF2" s="216"/>
+      <c r="BG2" s="216"/>
+      <c r="BH2" s="216"/>
+      <c r="BI2" s="216"/>
+      <c r="BJ2" s="216"/>
+      <c r="BK2" s="216"/>
+      <c r="BL2" s="216"/>
+      <c r="BM2" s="216"/>
+      <c r="BN2" s="217"/>
     </row>
     <row r="3" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="D3" s="220" t="s">
+      <c r="D3" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="222" t="s">
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="223"/>
-      <c r="O3" s="224"/>
-      <c r="P3" s="222" t="s">
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="230"/>
+      <c r="P3" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="223"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="222" t="s">
+      <c r="Q3" s="224"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="238" t="s">
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="218" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="239"/>
-      <c r="AA3" s="239"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="239"/>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="238" t="s">
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="239"/>
-      <c r="AH3" s="239"/>
-      <c r="AI3" s="239"/>
-      <c r="AJ3" s="239"/>
-      <c r="AK3" s="239"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="214" t="s">
+      <c r="AG3" s="219"/>
+      <c r="AH3" s="219"/>
+      <c r="AI3" s="219"/>
+      <c r="AJ3" s="219"/>
+      <c r="AK3" s="219"/>
+      <c r="AL3" s="220"/>
+      <c r="AM3" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="AN3" s="215"/>
-      <c r="AO3" s="215"/>
-      <c r="AP3" s="215"/>
-      <c r="AQ3" s="215"/>
-      <c r="AR3" s="215"/>
-      <c r="AS3" s="215"/>
-      <c r="AT3" s="214" t="s">
+      <c r="AN3" s="216"/>
+      <c r="AO3" s="216"/>
+      <c r="AP3" s="216"/>
+      <c r="AQ3" s="216"/>
+      <c r="AR3" s="216"/>
+      <c r="AS3" s="216"/>
+      <c r="AT3" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="AU3" s="215"/>
-      <c r="AV3" s="215"/>
-      <c r="AW3" s="215"/>
-      <c r="AX3" s="215"/>
-      <c r="AY3" s="215"/>
-      <c r="AZ3" s="216"/>
-      <c r="BA3" s="214" t="s">
+      <c r="AU3" s="216"/>
+      <c r="AV3" s="216"/>
+      <c r="AW3" s="216"/>
+      <c r="AX3" s="216"/>
+      <c r="AY3" s="216"/>
+      <c r="AZ3" s="217"/>
+      <c r="BA3" s="215" t="s">
         <v>83</v>
       </c>
-      <c r="BB3" s="215"/>
-      <c r="BC3" s="215"/>
-      <c r="BD3" s="215"/>
-      <c r="BE3" s="215"/>
-      <c r="BF3" s="215"/>
-      <c r="BG3" s="215"/>
-      <c r="BH3" s="214" t="s">
+      <c r="BB3" s="216"/>
+      <c r="BC3" s="216"/>
+      <c r="BD3" s="216"/>
+      <c r="BE3" s="216"/>
+      <c r="BF3" s="216"/>
+      <c r="BG3" s="216"/>
+      <c r="BH3" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="BI3" s="215"/>
-      <c r="BJ3" s="215"/>
-      <c r="BK3" s="215"/>
-      <c r="BL3" s="215"/>
-      <c r="BM3" s="215"/>
-      <c r="BN3" s="216"/>
+      <c r="BI3" s="216"/>
+      <c r="BJ3" s="216"/>
+      <c r="BK3" s="216"/>
+      <c r="BL3" s="216"/>
+      <c r="BM3" s="216"/>
+      <c r="BN3" s="217"/>
     </row>
     <row r="4" spans="2:66" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
@@ -18429,7 +18442,7 @@
       </c>
     </row>
     <row r="6" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="231" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -18677,7 +18690,7 @@
       </c>
     </row>
     <row r="7" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B7" s="226"/>
+      <c r="B7" s="232"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -18923,7 +18936,7 @@
       </c>
     </row>
     <row r="8" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B8" s="226"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
@@ -19169,7 +19182,7 @@
       </c>
     </row>
     <row r="9" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B9" s="227"/>
+      <c r="B9" s="233"/>
       <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
@@ -19471,7 +19484,7 @@
       <c r="BN10" s="204"/>
     </row>
     <row r="11" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="225" t="s">
+      <c r="B11" s="231" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -19730,7 +19743,7 @@
       </c>
     </row>
     <row r="12" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B12" s="226"/>
+      <c r="B12" s="232"/>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
@@ -19987,7 +20000,7 @@
       </c>
     </row>
     <row r="13" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B13" s="226"/>
+      <c r="B13" s="232"/>
       <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
@@ -20244,7 +20257,7 @@
       </c>
     </row>
     <row r="14" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B14" s="227"/>
+      <c r="B14" s="233"/>
       <c r="C14" s="69" t="s">
         <v>4</v>
       </c>
@@ -20557,7 +20570,7 @@
       <c r="BN15" s="204"/>
     </row>
     <row r="16" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B16" s="217" t="s">
+      <c r="B16" s="225" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="82" t="s">
@@ -20817,7 +20830,7 @@
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B17" s="218"/>
+      <c r="B17" s="226"/>
       <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
@@ -21075,7 +21088,7 @@
       </c>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B18" s="218"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="70" t="s">
         <v>9</v>
       </c>
@@ -21333,7 +21346,7 @@
       </c>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B19" s="219"/>
+      <c r="B19" s="227"/>
       <c r="C19" s="83" t="s">
         <v>4</v>
       </c>
@@ -21591,39 +21604,39 @@
       </c>
     </row>
     <row r="21" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232">
+      <c r="C21" s="237"/>
+      <c r="D21" s="238">
         <v>1</v>
       </c>
-      <c r="E21" s="233"/>
-      <c r="F21" s="228">
+      <c r="E21" s="239"/>
+      <c r="F21" s="234">
         <v>2</v>
       </c>
-      <c r="G21" s="229"/>
-      <c r="H21" s="241">
+      <c r="G21" s="235"/>
+      <c r="H21" s="221">
         <v>3</v>
       </c>
-      <c r="I21" s="242"/>
-      <c r="J21" s="241">
+      <c r="I21" s="222"/>
+      <c r="J21" s="221">
         <v>4</v>
       </c>
-      <c r="K21" s="242"/>
-      <c r="L21" s="241">
+      <c r="K21" s="222"/>
+      <c r="L21" s="221">
         <v>5</v>
       </c>
-      <c r="M21" s="242"/>
+      <c r="M21" s="222"/>
     </row>
     <row r="22" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="320" t="s">
+      <c r="B22" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="234"/>
+      <c r="C22" s="241"/>
       <c r="D22" s="95">
         <v>1</v>
       </c>
@@ -21660,7 +21673,7 @@
         <f>SUM(D23:Q23)</f>
         <v>88.75</v>
       </c>
-      <c r="B23" s="321" t="s">
+      <c r="B23" s="242" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="82" t="s">
@@ -21712,7 +21725,7 @@
         <f t="shared" ref="A24:A26" si="53">SUM(D24:Q24)</f>
         <v>105.75</v>
       </c>
-      <c r="B24" s="322"/>
+      <c r="B24" s="243"/>
       <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
@@ -21762,7 +21775,7 @@
         <f t="shared" si="53"/>
         <v>34.5</v>
       </c>
-      <c r="B25" s="322"/>
+      <c r="B25" s="243"/>
       <c r="C25" s="70" t="s">
         <v>9</v>
       </c>
@@ -21812,7 +21825,7 @@
         <f t="shared" si="53"/>
         <v>229</v>
       </c>
-      <c r="B26" s="323"/>
+      <c r="B26" s="244"/>
       <c r="C26" s="83" t="s">
         <v>4</v>
       </c>
@@ -21868,7 +21881,7 @@
       <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="245" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -21916,7 +21929,7 @@
       </c>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B29" s="236"/>
+      <c r="B29" s="246"/>
       <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
@@ -21962,7 +21975,7 @@
       </c>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B30" s="236"/>
+      <c r="B30" s="246"/>
       <c r="C30" s="70" t="s">
         <v>9</v>
       </c>
@@ -22008,7 +22021,7 @@
       </c>
     </row>
     <row r="31" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B31" s="237"/>
+      <c r="B31" s="247"/>
       <c r="C31" s="83" t="s">
         <v>4</v>
       </c>
@@ -22064,7 +22077,7 @@
       <c r="M32" s="57"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="217" t="s">
+      <c r="B33" s="225" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="82" t="s">
@@ -22112,7 +22125,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="218"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="70" t="s">
         <v>8</v>
       </c>
@@ -22158,7 +22171,7 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="218"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
@@ -22204,7 +22217,7 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="219"/>
+      <c r="B36" s="227"/>
       <c r="C36" s="83" t="s">
         <v>4</v>
       </c>
@@ -22251,21 +22264,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="BA2:BN2"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="Y2:AL2"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="P2:X2"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="AM2:AZ2"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AZ3"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="J3:O3"/>
@@ -22279,6 +22277,21 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B28:B31"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="P2:X2"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="BA2:BN2"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="Y2:AL2"/>
+    <mergeCell ref="AM2:AZ2"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AT3:AZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -22309,22 +22322,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="222" t="s">
+      <c r="D1" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="221" t="s">
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="243"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="267"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -22432,10 +22445,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="244">
+      <c r="B5" s="268">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -22495,8 +22508,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="251"/>
-      <c r="B6" s="245"/>
+      <c r="A6" s="258"/>
+      <c r="B6" s="269"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -22520,8 +22533,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="251"/>
-      <c r="B7" s="245"/>
+      <c r="A7" s="258"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -22545,8 +22558,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="251"/>
-      <c r="B8" s="245"/>
+      <c r="A8" s="258"/>
+      <c r="B8" s="269"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -22570,8 +22583,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="251"/>
-      <c r="B9" s="245"/>
+      <c r="A9" s="258"/>
+      <c r="B9" s="269"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -22629,8 +22642,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="251"/>
-      <c r="B10" s="245"/>
+      <c r="A10" s="258"/>
+      <c r="B10" s="269"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -22652,8 +22665,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="251"/>
-      <c r="B11" s="245"/>
+      <c r="A11" s="258"/>
+      <c r="B11" s="269"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -22675,8 +22688,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="251"/>
-      <c r="B12" s="245"/>
+      <c r="A12" s="258"/>
+      <c r="B12" s="269"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -22698,8 +22711,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="251"/>
-      <c r="B13" s="245"/>
+      <c r="A13" s="258"/>
+      <c r="B13" s="269"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -22757,8 +22770,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
-      <c r="B14" s="245"/>
+      <c r="A14" s="258"/>
+      <c r="B14" s="269"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -22780,8 +22793,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="251"/>
-      <c r="B15" s="245"/>
+      <c r="A15" s="258"/>
+      <c r="B15" s="269"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -22803,8 +22816,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="251"/>
-      <c r="B16" s="246"/>
+      <c r="A16" s="258"/>
+      <c r="B16" s="270"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -22830,8 +22843,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="251"/>
-      <c r="B17" s="244">
+      <c r="A17" s="258"/>
+      <c r="B17" s="268">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -22891,8 +22904,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="251"/>
-      <c r="B18" s="245"/>
+      <c r="A18" s="258"/>
+      <c r="B18" s="269"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -22918,8 +22931,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="251"/>
-      <c r="B19" s="245"/>
+      <c r="A19" s="258"/>
+      <c r="B19" s="269"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -22941,8 +22954,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="251"/>
-      <c r="B20" s="246"/>
+      <c r="A20" s="258"/>
+      <c r="B20" s="270"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -22964,8 +22977,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="251"/>
-      <c r="B21" s="247"/>
+      <c r="A21" s="258"/>
+      <c r="B21" s="271"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -23023,8 +23036,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="251"/>
-      <c r="B22" s="248"/>
+      <c r="A22" s="258"/>
+      <c r="B22" s="272"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -23046,8 +23059,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="251"/>
-      <c r="B23" s="248"/>
+      <c r="A23" s="258"/>
+      <c r="B23" s="272"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -23071,8 +23084,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="252"/>
-      <c r="B24" s="249"/>
+      <c r="A24" s="259"/>
+      <c r="B24" s="273"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -23322,7 +23335,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="225" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -23379,7 +23392,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="218"/>
+      <c r="A31" s="226"/>
       <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
@@ -23434,7 +23447,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
+      <c r="A32" s="226"/>
       <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
@@ -23489,11 +23502,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="219"/>
-      <c r="B33" s="264" t="s">
+      <c r="A33" s="227"/>
+      <c r="B33" s="265" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="265"/>
+      <c r="C33" s="266"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
@@ -23558,13 +23571,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="253" t="s">
+      <c r="A36" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="256" t="s">
+      <c r="B36" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="257"/>
+      <c r="C36" s="250"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
@@ -23579,11 +23592,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="254"/>
-      <c r="B37" s="258" t="s">
+      <c r="A37" s="261"/>
+      <c r="B37" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="259"/>
+      <c r="C37" s="252"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -23598,11 +23611,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="254"/>
-      <c r="B38" s="260" t="s">
+      <c r="A38" s="261"/>
+      <c r="B38" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="261"/>
+      <c r="C38" s="254"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -23617,11 +23630,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="255"/>
-      <c r="B39" s="262" t="s">
+      <c r="A39" s="262"/>
+      <c r="B39" s="263" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="263"/>
+      <c r="C39" s="264"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
@@ -23636,13 +23649,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="266" t="s">
+      <c r="A41" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="256" t="s">
+      <c r="B41" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="257"/>
+      <c r="C41" s="250"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
@@ -23653,11 +23666,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="266"/>
-      <c r="B42" s="258" t="s">
+      <c r="A42" s="248"/>
+      <c r="B42" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="259"/>
+      <c r="C42" s="252"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -23668,11 +23681,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="266"/>
-      <c r="B43" s="260" t="s">
+      <c r="A43" s="248"/>
+      <c r="B43" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="261"/>
+      <c r="C43" s="254"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -23683,11 +23696,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="266"/>
-      <c r="B44" s="267" t="s">
+      <c r="A44" s="248"/>
+      <c r="B44" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="268"/>
+      <c r="C44" s="256"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -23699,11 +23712,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
@@ -23712,11 +23725,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -23745,19 +23758,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="222" t="s">
+      <c r="D1" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="222" t="s">
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="230"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
@@ -23859,10 +23872,10 @@
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="269">
+      <c r="B5" s="274">
         <v>1</v>
       </c>
       <c r="C5" s="59" t="s">
@@ -23910,8 +23923,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="251"/>
-      <c r="B6" s="270"/>
+      <c r="A6" s="258"/>
+      <c r="B6" s="275"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -23930,8 +23943,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="251"/>
-      <c r="B7" s="270"/>
+      <c r="A7" s="258"/>
+      <c r="B7" s="275"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -23956,8 +23969,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="251"/>
-      <c r="B8" s="271"/>
+      <c r="A8" s="258"/>
+      <c r="B8" s="276"/>
       <c r="C8" s="61" t="s">
         <v>9</v>
       </c>
@@ -23976,8 +23989,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="251"/>
-      <c r="B9" s="274" t="s">
+      <c r="A9" s="258"/>
+      <c r="B9" s="279" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -24025,8 +24038,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="251"/>
-      <c r="B10" s="275"/>
+      <c r="A10" s="258"/>
+      <c r="B10" s="280"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -24049,8 +24062,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="251"/>
-      <c r="B11" s="275"/>
+      <c r="A11" s="258"/>
+      <c r="B11" s="280"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -24069,8 +24082,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="251"/>
-      <c r="B12" s="275"/>
+      <c r="A12" s="258"/>
+      <c r="B12" s="280"/>
       <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
@@ -24089,8 +24102,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="251"/>
-      <c r="B13" s="275"/>
+      <c r="A13" s="258"/>
+      <c r="B13" s="280"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
@@ -24136,8 +24149,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
-      <c r="B14" s="275"/>
+      <c r="A14" s="258"/>
+      <c r="B14" s="280"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -24158,8 +24171,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="251"/>
-      <c r="B15" s="275"/>
+      <c r="A15" s="258"/>
+      <c r="B15" s="280"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -24180,8 +24193,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="251"/>
-      <c r="B16" s="275"/>
+      <c r="A16" s="258"/>
+      <c r="B16" s="280"/>
       <c r="C16" s="60" t="s">
         <v>9</v>
       </c>
@@ -24200,10 +24213,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="250" t="s">
+      <c r="A17" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="244"/>
+      <c r="B17" s="268"/>
       <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
@@ -24249,8 +24262,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="251"/>
-      <c r="B18" s="245"/>
+      <c r="A18" s="258"/>
+      <c r="B18" s="269"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -24271,8 +24284,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="251"/>
-      <c r="B19" s="245"/>
+      <c r="A19" s="258"/>
+      <c r="B19" s="269"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -24293,8 +24306,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="251"/>
-      <c r="B20" s="245"/>
+      <c r="A20" s="258"/>
+      <c r="B20" s="269"/>
       <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
@@ -24313,8 +24326,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="251"/>
-      <c r="B21" s="272"/>
+      <c r="A21" s="258"/>
+      <c r="B21" s="277"/>
       <c r="C21" s="64" t="s">
         <v>37</v>
       </c>
@@ -24360,8 +24373,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="251"/>
-      <c r="B22" s="272"/>
+      <c r="A22" s="258"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -24380,8 +24393,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="251"/>
-      <c r="B23" s="272"/>
+      <c r="A23" s="258"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -24402,8 +24415,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="252"/>
-      <c r="B24" s="273"/>
+      <c r="A24" s="259"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="61" t="s">
         <v>9</v>
       </c>
@@ -24422,10 +24435,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="276" t="s">
+      <c r="B25" s="281" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="276"/>
+      <c r="C25" s="281"/>
       <c r="D25" s="47">
         <f t="shared" ref="D25:M28" si="6">SUM(D5,D9,D13,D17,D21)</f>
         <v>0</v>
@@ -24603,13 +24616,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="277" t="s">
+      <c r="B30" s="282" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="278"/>
+      <c r="C30" s="283"/>
       <c r="D30" s="32">
         <f xml:space="preserve"> D26</f>
         <v>0</v>
@@ -24648,11 +24661,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="218"/>
-      <c r="B31" s="279" t="s">
+      <c r="A31" s="226"/>
+      <c r="B31" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="259"/>
+      <c r="C31" s="252"/>
       <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
@@ -24691,11 +24704,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
-      <c r="B32" s="280" t="s">
+      <c r="A32" s="226"/>
+      <c r="B32" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="261"/>
+      <c r="C32" s="254"/>
       <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
@@ -24734,11 +24747,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="219"/>
-      <c r="B33" s="264" t="s">
+      <c r="A33" s="227"/>
+      <c r="B33" s="265" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="265"/>
+      <c r="C33" s="266"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0</v>
@@ -24791,13 +24804,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="253" t="s">
+      <c r="A36" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="256" t="s">
+      <c r="B36" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="257"/>
+      <c r="C36" s="250"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:H26)</f>
         <v>6</v>
@@ -24812,11 +24825,11 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="254"/>
-      <c r="B37" s="258" t="s">
+      <c r="A37" s="261"/>
+      <c r="B37" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="259"/>
+      <c r="C37" s="252"/>
       <c r="D37" s="26">
         <f t="shared" ref="D37:D38" si="7" xml:space="preserve"> SUM(D27:H27)</f>
         <v>8</v>
@@ -24831,11 +24844,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="254"/>
-      <c r="B38" s="260" t="s">
+      <c r="A38" s="261"/>
+      <c r="B38" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="261"/>
+      <c r="C38" s="254"/>
       <c r="D38" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -24850,11 +24863,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="255"/>
-      <c r="B39" s="262" t="s">
+      <c r="A39" s="262"/>
+      <c r="B39" s="263" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="263"/>
+      <c r="C39" s="264"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:H25)</f>
         <v>14</v>
@@ -24869,13 +24882,13 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="266" t="s">
+      <c r="A41" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="256" t="s">
+      <c r="B41" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="257"/>
+      <c r="C41" s="250"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>6</v>
@@ -24886,11 +24899,11 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="266"/>
-      <c r="B42" s="258" t="s">
+      <c r="A42" s="248"/>
+      <c r="B42" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="259"/>
+      <c r="C42" s="252"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>8</v>
@@ -24901,11 +24914,11 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="266"/>
-      <c r="B43" s="260" t="s">
+      <c r="A43" s="248"/>
+      <c r="B43" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="261"/>
+      <c r="C43" s="254"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -24916,11 +24929,11 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="266"/>
-      <c r="B44" s="267" t="s">
+      <c r="A44" s="248"/>
+      <c r="B44" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="268"/>
+      <c r="C44" s="256"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>14</v>
@@ -24932,6 +24945,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A5:A16"/>
@@ -24946,16 +24969,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24982,24 +24995,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="214" t="s">
+      <c r="D1" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="214" t="s">
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="217"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -25121,10 +25134,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="281" t="s">
+      <c r="A5" s="286" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="288">
+      <c r="B5" s="289">
         <v>12</v>
       </c>
       <c r="C5" s="110" t="s">
@@ -25192,8 +25205,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="282"/>
-      <c r="B6" s="270"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="275"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -25217,8 +25230,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="282"/>
-      <c r="B7" s="270"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="275"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -25242,8 +25255,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="282"/>
-      <c r="B8" s="289"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="290"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
@@ -25269,8 +25282,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="282"/>
-      <c r="B9" s="290">
+      <c r="A9" s="287"/>
+      <c r="B9" s="291">
         <v>15</v>
       </c>
       <c r="C9" s="118" t="s">
@@ -25338,8 +25351,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="282"/>
-      <c r="B10" s="291"/>
+      <c r="A10" s="287"/>
+      <c r="B10" s="292"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -25363,8 +25376,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="282"/>
-      <c r="B11" s="291"/>
+      <c r="A11" s="287"/>
+      <c r="B11" s="292"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -25388,8 +25401,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="282"/>
-      <c r="B12" s="292"/>
+      <c r="A12" s="287"/>
+      <c r="B12" s="293"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -25419,8 +25432,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="282"/>
-      <c r="B13" s="290">
+      <c r="A13" s="287"/>
+      <c r="B13" s="291">
         <v>21</v>
       </c>
       <c r="C13" s="119" t="s">
@@ -25488,8 +25501,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="282"/>
-      <c r="B14" s="291"/>
+      <c r="A14" s="287"/>
+      <c r="B14" s="292"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -25519,8 +25532,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="282"/>
-      <c r="B15" s="291"/>
+      <c r="A15" s="287"/>
+      <c r="B15" s="292"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -25544,8 +25557,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="282"/>
-      <c r="B16" s="292"/>
+      <c r="A16" s="287"/>
+      <c r="B16" s="293"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -25569,8 +25582,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="282"/>
-      <c r="B17" s="290">
+      <c r="A17" s="287"/>
+      <c r="B17" s="291">
         <v>18</v>
       </c>
       <c r="C17" s="119" t="s">
@@ -25638,8 +25651,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="282"/>
-      <c r="B18" s="291"/>
+      <c r="A18" s="287"/>
+      <c r="B18" s="292"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -25669,8 +25682,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="282"/>
-      <c r="B19" s="291"/>
+      <c r="A19" s="287"/>
+      <c r="B19" s="292"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -25694,8 +25707,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="282"/>
-      <c r="B20" s="292"/>
+      <c r="A20" s="287"/>
+      <c r="B20" s="293"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -25719,8 +25732,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="282"/>
-      <c r="B21" s="293" t="s">
+      <c r="A21" s="287"/>
+      <c r="B21" s="294" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="119" t="s">
@@ -25788,8 +25801,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="282"/>
-      <c r="B22" s="294"/>
+      <c r="A22" s="287"/>
+      <c r="B22" s="295"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -25813,8 +25826,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="282"/>
-      <c r="B23" s="294"/>
+      <c r="A23" s="287"/>
+      <c r="B23" s="295"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -25842,8 +25855,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="282"/>
-      <c r="B24" s="295"/>
+      <c r="A24" s="287"/>
+      <c r="B24" s="296"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -25867,8 +25880,8 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="282"/>
-      <c r="B25" s="293" t="s">
+      <c r="A25" s="287"/>
+      <c r="B25" s="294" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="119" t="s">
@@ -25936,8 +25949,8 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="282"/>
-      <c r="B26" s="294"/>
+      <c r="A26" s="287"/>
+      <c r="B26" s="295"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
       </c>
@@ -25961,8 +25974,8 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="282"/>
-      <c r="B27" s="294"/>
+      <c r="A27" s="287"/>
+      <c r="B27" s="295"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
       </c>
@@ -25988,8 +26001,8 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="282"/>
-      <c r="B28" s="295"/>
+      <c r="A28" s="287"/>
+      <c r="B28" s="296"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
       </c>
@@ -26013,8 +26026,8 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="282"/>
-      <c r="B29" s="293">
+      <c r="A29" s="287"/>
+      <c r="B29" s="294">
         <v>31</v>
       </c>
       <c r="C29" s="119" t="s">
@@ -26082,8 +26095,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="282"/>
-      <c r="B30" s="294"/>
+      <c r="A30" s="287"/>
+      <c r="B30" s="295"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -26107,8 +26120,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="282"/>
-      <c r="B31" s="294"/>
+      <c r="A31" s="287"/>
+      <c r="B31" s="295"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -26136,8 +26149,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="283"/>
-      <c r="B32" s="295"/>
+      <c r="A32" s="288"/>
+      <c r="B32" s="296"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -26161,10 +26174,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="281" t="s">
+      <c r="A33" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="284"/>
+      <c r="B33" s="297"/>
       <c r="C33" s="110" t="s">
         <v>51</v>
       </c>
@@ -26230,8 +26243,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="282"/>
-      <c r="B34" s="245"/>
+      <c r="A34" s="287"/>
+      <c r="B34" s="269"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -26255,8 +26268,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="282"/>
-      <c r="B35" s="245"/>
+      <c r="A35" s="287"/>
+      <c r="B35" s="269"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -26282,8 +26295,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="282"/>
-      <c r="B36" s="245"/>
+      <c r="A36" s="287"/>
+      <c r="B36" s="269"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -26307,8 +26320,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="282"/>
-      <c r="B37" s="285"/>
+      <c r="A37" s="287"/>
+      <c r="B37" s="298"/>
       <c r="C37" s="110" t="s">
         <v>52</v>
       </c>
@@ -26374,8 +26387,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="282"/>
-      <c r="B38" s="286"/>
+      <c r="A38" s="287"/>
+      <c r="B38" s="299"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -26399,8 +26412,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="282"/>
-      <c r="B39" s="286"/>
+      <c r="A39" s="287"/>
+      <c r="B39" s="299"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -26428,8 +26441,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="283"/>
-      <c r="B40" s="287"/>
+      <c r="A40" s="288"/>
+      <c r="B40" s="300"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -26453,10 +26466,10 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="276" t="s">
+      <c r="B41" s="281" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="276"/>
+      <c r="C41" s="281"/>
       <c r="D41" s="47">
         <f t="shared" ref="D41:Q41" si="12">SUM(D21,D25,D29,D33,D37,D17,D13,D9,D5)</f>
         <v>0</v>
@@ -26714,13 +26727,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="217" t="s">
+      <c r="A46" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="277" t="s">
+      <c r="B46" s="282" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="278"/>
+      <c r="C46" s="283"/>
       <c r="D46" s="32">
         <f>D42</f>
         <v>0</v>
@@ -26780,11 +26793,11 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="218"/>
-      <c r="B47" s="279" t="s">
+      <c r="A47" s="226"/>
+      <c r="B47" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="259"/>
+      <c r="C47" s="252"/>
       <c r="D47" s="38">
         <f>D43</f>
         <v>0</v>
@@ -26844,11 +26857,11 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="218"/>
-      <c r="B48" s="280" t="s">
+      <c r="A48" s="226"/>
+      <c r="B48" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="261"/>
+      <c r="C48" s="254"/>
       <c r="D48" s="34">
         <f>D44</f>
         <v>0</v>
@@ -26908,11 +26921,11 @@
       <c r="R48" s="38"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="219"/>
-      <c r="B49" s="264" t="s">
+      <c r="A49" s="227"/>
+      <c r="B49" s="265" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="265"/>
+      <c r="C49" s="266"/>
       <c r="D49" s="35">
         <f>D41</f>
         <v>0</v>
@@ -26986,13 +26999,13 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="253" t="s">
+      <c r="A52" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="256" t="s">
+      <c r="B52" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="257"/>
+      <c r="C52" s="250"/>
       <c r="D52" s="26">
         <f xml:space="preserve"> SUM(D42:J42)</f>
         <v>3</v>
@@ -27007,11 +27020,11 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="254"/>
-      <c r="B53" s="258" t="s">
+      <c r="A53" s="261"/>
+      <c r="B53" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="259"/>
+      <c r="C53" s="252"/>
       <c r="D53" s="26">
         <f t="shared" ref="D53:D54" si="14" xml:space="preserve"> SUM(D43:J43)</f>
         <v>18</v>
@@ -27026,11 +27039,11 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="254"/>
-      <c r="B54" s="260" t="s">
+      <c r="A54" s="261"/>
+      <c r="B54" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="261"/>
+      <c r="C54" s="254"/>
       <c r="D54" s="26">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -27045,11 +27058,11 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="255"/>
-      <c r="B55" s="262" t="s">
+      <c r="A55" s="262"/>
+      <c r="B55" s="263" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="263"/>
+      <c r="C55" s="264"/>
       <c r="D55" s="26">
         <f xml:space="preserve"> SUM(D41:J41)</f>
         <v>22</v>
@@ -27064,13 +27077,13 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="266" t="s">
+      <c r="A57" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="256" t="s">
+      <c r="B57" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="257"/>
+      <c r="C57" s="250"/>
       <c r="D57" s="31">
         <f xml:space="preserve"> D52</f>
         <v>3</v>
@@ -27081,11 +27094,11 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="266"/>
-      <c r="B58" s="258" t="s">
+      <c r="A58" s="248"/>
+      <c r="B58" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="259"/>
+      <c r="C58" s="252"/>
       <c r="D58" s="31">
         <f xml:space="preserve"> D53</f>
         <v>18</v>
@@ -27096,11 +27109,11 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="266"/>
-      <c r="B59" s="260" t="s">
+      <c r="A59" s="248"/>
+      <c r="B59" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="261"/>
+      <c r="C59" s="254"/>
       <c r="D59" s="31">
         <f xml:space="preserve"> D54</f>
         <v>1</v>
@@ -27111,11 +27124,11 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="266"/>
-      <c r="B60" s="267" t="s">
+      <c r="A60" s="248"/>
+      <c r="B60" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="268"/>
+      <c r="C60" s="256"/>
       <c r="D60" s="31">
         <f xml:space="preserve"> D55</f>
         <v>22</v>
@@ -27130,6 +27143,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="A5:A32"/>
@@ -27140,25 +27172,6 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -27187,24 +27200,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="214" t="s">
+      <c r="D1" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="214" t="s">
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="217"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -27326,10 +27339,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="296" t="s">
+      <c r="A5" s="309" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="307">
+      <c r="B5" s="302">
         <v>28</v>
       </c>
       <c r="C5" s="152" t="s">
@@ -27397,8 +27410,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="282"/>
-      <c r="B6" s="270"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="275"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -27424,8 +27437,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="282"/>
-      <c r="B7" s="270"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="275"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
@@ -27449,8 +27462,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="282"/>
-      <c r="B8" s="289"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="290"/>
       <c r="C8" s="114" t="s">
         <v>9</v>
       </c>
@@ -27474,8 +27487,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="282"/>
-      <c r="B9" s="311">
+      <c r="A9" s="287"/>
+      <c r="B9" s="303">
         <v>16</v>
       </c>
       <c r="C9" s="153" t="s">
@@ -27543,8 +27556,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="282"/>
-      <c r="B10" s="291"/>
+      <c r="A10" s="287"/>
+      <c r="B10" s="292"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -27570,8 +27583,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="282"/>
-      <c r="B11" s="291"/>
+      <c r="A11" s="287"/>
+      <c r="B11" s="292"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -27595,8 +27608,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="282"/>
-      <c r="B12" s="292"/>
+      <c r="A12" s="287"/>
+      <c r="B12" s="293"/>
       <c r="C12" s="114" t="s">
         <v>9</v>
       </c>
@@ -27620,8 +27633,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="282"/>
-      <c r="B13" s="311">
+      <c r="A13" s="287"/>
+      <c r="B13" s="303">
         <v>9</v>
       </c>
       <c r="C13" s="145" t="s">
@@ -27689,8 +27702,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="282"/>
-      <c r="B14" s="291"/>
+      <c r="A14" s="287"/>
+      <c r="B14" s="292"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -27716,8 +27729,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="282"/>
-      <c r="B15" s="291"/>
+      <c r="A15" s="287"/>
+      <c r="B15" s="292"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -27743,8 +27756,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="282"/>
-      <c r="B16" s="292"/>
+      <c r="A16" s="287"/>
+      <c r="B16" s="293"/>
       <c r="C16" s="114" t="s">
         <v>9</v>
       </c>
@@ -27768,8 +27781,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="282"/>
-      <c r="B17" s="311" t="s">
+      <c r="A17" s="287"/>
+      <c r="B17" s="303" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="152" t="s">
@@ -27837,8 +27850,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="282"/>
-      <c r="B18" s="291"/>
+      <c r="A18" s="287"/>
+      <c r="B18" s="292"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -27862,8 +27875,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="282"/>
-      <c r="B19" s="291"/>
+      <c r="A19" s="287"/>
+      <c r="B19" s="292"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -27887,8 +27900,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="282"/>
-      <c r="B20" s="292"/>
+      <c r="A20" s="287"/>
+      <c r="B20" s="293"/>
       <c r="C20" s="114" t="s">
         <v>9</v>
       </c>
@@ -27914,8 +27927,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="282"/>
-      <c r="B21" s="307" t="s">
+      <c r="A21" s="287"/>
+      <c r="B21" s="302" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="152" t="s">
@@ -27983,8 +27996,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="282"/>
-      <c r="B22" s="270"/>
+      <c r="A22" s="287"/>
+      <c r="B22" s="275"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -28016,8 +28029,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="282"/>
-      <c r="B23" s="270"/>
+      <c r="A23" s="287"/>
+      <c r="B23" s="275"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -28043,8 +28056,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="282"/>
-      <c r="B24" s="289"/>
+      <c r="A24" s="287"/>
+      <c r="B24" s="290"/>
       <c r="C24" s="114" t="s">
         <v>9</v>
       </c>
@@ -28068,7 +28081,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="296" t="s">
+      <c r="A25" s="309" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="154"/>
@@ -28137,7 +28150,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="282"/>
+      <c r="A26" s="287"/>
       <c r="B26" s="150"/>
       <c r="C26" s="60" t="s">
         <v>7</v>
@@ -28164,7 +28177,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="282"/>
+      <c r="A27" s="287"/>
       <c r="B27" s="150"/>
       <c r="C27" s="60" t="s">
         <v>8</v>
@@ -28189,7 +28202,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="282"/>
+      <c r="A28" s="287"/>
       <c r="B28" s="151"/>
       <c r="C28" s="114" t="s">
         <v>9</v>
@@ -28214,8 +28227,8 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="282"/>
-      <c r="B29" s="297"/>
+      <c r="A29" s="287"/>
+      <c r="B29" s="301"/>
       <c r="C29" s="145" t="s">
         <v>64</v>
       </c>
@@ -28281,8 +28294,8 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="282"/>
-      <c r="B30" s="294"/>
+      <c r="A30" s="287"/>
+      <c r="B30" s="295"/>
       <c r="C30" s="60" t="s">
         <v>7</v>
       </c>
@@ -28308,8 +28321,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="282"/>
-      <c r="B31" s="294"/>
+      <c r="A31" s="287"/>
+      <c r="B31" s="295"/>
       <c r="C31" s="60" t="s">
         <v>8</v>
       </c>
@@ -28333,8 +28346,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="282"/>
-      <c r="B32" s="295"/>
+      <c r="A32" s="287"/>
+      <c r="B32" s="296"/>
       <c r="C32" s="114" t="s">
         <v>9</v>
       </c>
@@ -28358,8 +28371,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="282"/>
-      <c r="B33" s="307"/>
+      <c r="A33" s="287"/>
+      <c r="B33" s="302"/>
       <c r="C33" s="145" t="s">
         <v>65</v>
       </c>
@@ -28425,8 +28438,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="282"/>
-      <c r="B34" s="270"/>
+      <c r="A34" s="287"/>
+      <c r="B34" s="275"/>
       <c r="C34" s="60" t="s">
         <v>7</v>
       </c>
@@ -28456,8 +28469,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="282"/>
-      <c r="B35" s="270"/>
+      <c r="A35" s="287"/>
+      <c r="B35" s="275"/>
       <c r="C35" s="60" t="s">
         <v>8</v>
       </c>
@@ -28487,8 +28500,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="282"/>
-      <c r="B36" s="289"/>
+      <c r="A36" s="287"/>
+      <c r="B36" s="290"/>
       <c r="C36" s="60" t="s">
         <v>9</v>
       </c>
@@ -28512,8 +28525,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="282"/>
-      <c r="B37" s="297"/>
+      <c r="A37" s="287"/>
+      <c r="B37" s="301"/>
       <c r="C37" s="145" t="s">
         <v>66</v>
       </c>
@@ -28579,8 +28592,8 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="282"/>
-      <c r="B38" s="294"/>
+      <c r="A38" s="287"/>
+      <c r="B38" s="295"/>
       <c r="C38" s="60" t="s">
         <v>7</v>
       </c>
@@ -28606,8 +28619,8 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="282"/>
-      <c r="B39" s="294"/>
+      <c r="A39" s="287"/>
+      <c r="B39" s="295"/>
       <c r="C39" s="60" t="s">
         <v>8</v>
       </c>
@@ -28635,8 +28648,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="282"/>
-      <c r="B40" s="295"/>
+      <c r="A40" s="287"/>
+      <c r="B40" s="296"/>
       <c r="C40" s="114" t="s">
         <v>9</v>
       </c>
@@ -28660,8 +28673,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="282"/>
-      <c r="B41" s="297"/>
+      <c r="A41" s="287"/>
+      <c r="B41" s="301"/>
       <c r="C41" s="145" t="s">
         <v>67</v>
       </c>
@@ -28727,8 +28740,8 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="282"/>
-      <c r="B42" s="294"/>
+      <c r="A42" s="287"/>
+      <c r="B42" s="295"/>
       <c r="C42" s="60" t="s">
         <v>7</v>
       </c>
@@ -28752,8 +28765,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="282"/>
-      <c r="B43" s="294"/>
+      <c r="A43" s="287"/>
+      <c r="B43" s="295"/>
       <c r="C43" s="60" t="s">
         <v>8</v>
       </c>
@@ -28781,8 +28794,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="282"/>
-      <c r="B44" s="295"/>
+      <c r="A44" s="287"/>
+      <c r="B44" s="296"/>
       <c r="C44" s="114" t="s">
         <v>9</v>
       </c>
@@ -28806,8 +28819,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="282"/>
-      <c r="B45" s="297"/>
+      <c r="A45" s="287"/>
+      <c r="B45" s="301"/>
       <c r="C45" s="145" t="s">
         <v>68</v>
       </c>
@@ -28873,8 +28886,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="282"/>
-      <c r="B46" s="294"/>
+      <c r="A46" s="287"/>
+      <c r="B46" s="295"/>
       <c r="C46" s="60" t="s">
         <v>7</v>
       </c>
@@ -28900,8 +28913,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="282"/>
-      <c r="B47" s="294"/>
+      <c r="A47" s="287"/>
+      <c r="B47" s="295"/>
       <c r="C47" s="60" t="s">
         <v>8</v>
       </c>
@@ -28927,8 +28940,8 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="283"/>
-      <c r="B48" s="295"/>
+      <c r="A48" s="288"/>
+      <c r="B48" s="296"/>
       <c r="C48" s="114" t="s">
         <v>9</v>
       </c>
@@ -28952,10 +28965,10 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="276" t="s">
+      <c r="B49" s="281" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="276"/>
+      <c r="C49" s="281"/>
       <c r="D49" s="160">
         <f>SUM(D5,D9,D29,D33,D37,D41,D45,D25,D21,D17,D13)</f>
         <v>0</v>
@@ -29231,13 +29244,13 @@
       <c r="R53" s="42"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="301" t="s">
+      <c r="B55" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="308"/>
+      <c r="C55" s="305"/>
       <c r="D55" s="186">
         <f>D50</f>
         <v>0</v>
@@ -29297,11 +29310,11 @@
       <c r="R55" s="38"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="218"/>
-      <c r="B56" s="279" t="s">
+      <c r="A56" s="226"/>
+      <c r="B56" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="309"/>
+      <c r="C56" s="306"/>
       <c r="D56" s="103">
         <f>D51</f>
         <v>0</v>
@@ -29361,11 +29374,11 @@
       <c r="R56" s="38"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="218"/>
-      <c r="B57" s="279" t="s">
+      <c r="A57" s="226"/>
+      <c r="B57" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="309"/>
+      <c r="C57" s="306"/>
       <c r="D57" s="103">
         <f>D48</f>
         <v>0</v>
@@ -29425,11 +29438,11 @@
       <c r="R57" s="38"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="227"/>
-      <c r="B58" s="303" t="s">
+      <c r="A58" s="233"/>
+      <c r="B58" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="310"/>
+      <c r="C58" s="308"/>
       <c r="D58" s="189">
         <f>D41</f>
         <v>0</v>
@@ -29503,13 +29516,13 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="253" t="s">
+      <c r="A61" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="306" t="s">
+      <c r="B61" s="316" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="302"/>
+      <c r="C61" s="313"/>
       <c r="D61" s="26">
         <f xml:space="preserve"> SUM(D50:J50)</f>
         <v>0</v>
@@ -29524,11 +29537,11 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="254"/>
-      <c r="B62" s="258" t="s">
+      <c r="A62" s="261"/>
+      <c r="B62" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="259"/>
+      <c r="C62" s="252"/>
       <c r="D62" s="26">
         <f xml:space="preserve"> SUM(D51:J51)</f>
         <v>4</v>
@@ -29543,11 +29556,11 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="254"/>
-      <c r="B63" s="305" t="s">
+      <c r="A63" s="261"/>
+      <c r="B63" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="300"/>
+      <c r="C63" s="312"/>
       <c r="D63" s="26">
         <f xml:space="preserve"> SUM(D52:J52)</f>
         <v>0</v>
@@ -29562,11 +29575,11 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="255"/>
-      <c r="B64" s="303" t="s">
+      <c r="A64" s="262"/>
+      <c r="B64" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="304"/>
+      <c r="C64" s="314"/>
       <c r="D64" s="26">
         <f xml:space="preserve"> SUM(D49:J49)</f>
         <v>4</v>
@@ -29581,13 +29594,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="266" t="s">
+      <c r="A66" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="301" t="s">
+      <c r="B66" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="302"/>
+      <c r="C66" s="313"/>
       <c r="D66" s="31">
         <f xml:space="preserve"> D61</f>
         <v>0</v>
@@ -29598,11 +29611,11 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="266"/>
-      <c r="B67" s="279" t="s">
+      <c r="A67" s="248"/>
+      <c r="B67" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="259"/>
+      <c r="C67" s="252"/>
       <c r="D67" s="31">
         <f xml:space="preserve"> D62</f>
         <v>4</v>
@@ -29613,11 +29626,11 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="266"/>
-      <c r="B68" s="280" t="s">
+      <c r="A68" s="248"/>
+      <c r="B68" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="300"/>
+      <c r="C68" s="312"/>
       <c r="D68" s="31">
         <f xml:space="preserve"> D63</f>
         <v>0</v>
@@ -29628,11 +29641,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="266"/>
-      <c r="B69" s="298" t="s">
+      <c r="A69" s="248"/>
+      <c r="B69" s="310" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="299"/>
+      <c r="C69" s="311"/>
       <c r="D69" s="31">
         <f xml:space="preserve"> D64</f>
         <v>4</v>
@@ -29647,20 +29660,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A25:A48"/>
     <mergeCell ref="B49:C49"/>
@@ -29677,6 +29676,20 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29688,8 +29701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29701,24 +29714,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="312" t="s">
+      <c r="D1" s="317" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="312" t="s">
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="317" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="313"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="318"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -29840,10 +29853,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="296" t="s">
+      <c r="A5" s="309" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="314" t="s">
+      <c r="B5" s="319" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="206" t="s">
@@ -29911,8 +29924,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="282"/>
-      <c r="B6" s="315"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="320"/>
       <c r="C6" s="207" t="s">
         <v>7</v>
       </c>
@@ -29940,8 +29953,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="282"/>
-      <c r="B7" s="315"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="320"/>
       <c r="C7" s="207" t="s">
         <v>8</v>
       </c>
@@ -29969,8 +29982,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="282"/>
-      <c r="B8" s="316"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="321"/>
       <c r="C8" s="208" t="s">
         <v>9</v>
       </c>
@@ -29994,8 +30007,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="282"/>
-      <c r="B9" s="317">
+      <c r="A9" s="287"/>
+      <c r="B9" s="322">
         <v>26</v>
       </c>
       <c r="C9" s="209" t="s">
@@ -30063,8 +30076,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="282"/>
-      <c r="B10" s="318"/>
+      <c r="A10" s="287"/>
+      <c r="B10" s="323"/>
       <c r="C10" s="207" t="s">
         <v>7</v>
       </c>
@@ -30100,8 +30113,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="282"/>
-      <c r="B11" s="318"/>
+      <c r="A11" s="287"/>
+      <c r="B11" s="323"/>
       <c r="C11" s="207" t="s">
         <v>8</v>
       </c>
@@ -30125,8 +30138,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="282"/>
-      <c r="B12" s="319"/>
+      <c r="A12" s="287"/>
+      <c r="B12" s="324"/>
       <c r="C12" s="208" t="s">
         <v>9</v>
       </c>
@@ -30150,8 +30163,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="282"/>
-      <c r="B13" s="317">
+      <c r="A13" s="287"/>
+      <c r="B13" s="322">
         <v>26</v>
       </c>
       <c r="C13" s="210" t="s">
@@ -30219,8 +30232,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="282"/>
-      <c r="B14" s="318"/>
+      <c r="A14" s="287"/>
+      <c r="B14" s="323"/>
       <c r="C14" s="207" t="s">
         <v>7</v>
       </c>
@@ -30256,8 +30269,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="282"/>
-      <c r="B15" s="318"/>
+      <c r="A15" s="287"/>
+      <c r="B15" s="323"/>
       <c r="C15" s="207" t="s">
         <v>8</v>
       </c>
@@ -30283,8 +30296,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="282"/>
-      <c r="B16" s="319"/>
+      <c r="A16" s="287"/>
+      <c r="B16" s="324"/>
       <c r="C16" s="208" t="s">
         <v>9</v>
       </c>
@@ -30314,8 +30327,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="282"/>
-      <c r="B17" s="317" t="s">
+      <c r="A17" s="287"/>
+      <c r="B17" s="322" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="206" t="s">
@@ -30383,8 +30396,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="282"/>
-      <c r="B18" s="318"/>
+      <c r="A18" s="287"/>
+      <c r="B18" s="323"/>
       <c r="C18" s="207" t="s">
         <v>7</v>
       </c>
@@ -30408,8 +30421,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="282"/>
-      <c r="B19" s="318"/>
+      <c r="A19" s="287"/>
+      <c r="B19" s="323"/>
       <c r="C19" s="207" t="s">
         <v>8</v>
       </c>
@@ -30439,8 +30452,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="282"/>
-      <c r="B20" s="319"/>
+      <c r="A20" s="287"/>
+      <c r="B20" s="324"/>
       <c r="C20" s="208" t="s">
         <v>9</v>
       </c>
@@ -30464,10 +30477,10 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="296" t="s">
+      <c r="A21" s="309" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="314"/>
+      <c r="B21" s="319"/>
       <c r="C21" s="206" t="s">
         <v>79</v>
       </c>
@@ -30533,8 +30546,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="282"/>
-      <c r="B22" s="315"/>
+      <c r="A22" s="287"/>
+      <c r="B22" s="320"/>
       <c r="C22" s="207" t="s">
         <v>7</v>
       </c>
@@ -30562,8 +30575,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="282"/>
-      <c r="B23" s="315"/>
+      <c r="A23" s="287"/>
+      <c r="B23" s="320"/>
       <c r="C23" s="207" t="s">
         <v>8</v>
       </c>
@@ -30595,8 +30608,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="282"/>
-      <c r="B24" s="316"/>
+      <c r="A24" s="287"/>
+      <c r="B24" s="321"/>
       <c r="C24" s="208" t="s">
         <v>9</v>
       </c>
@@ -30620,7 +30633,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="282"/>
+      <c r="A25" s="287"/>
       <c r="B25" s="211"/>
       <c r="C25" s="210" t="s">
         <v>80</v>
@@ -30687,7 +30700,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="282"/>
+      <c r="A26" s="287"/>
       <c r="B26" s="212"/>
       <c r="C26" s="207" t="s">
         <v>7</v>
@@ -30718,7 +30731,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="282"/>
+      <c r="A27" s="287"/>
       <c r="B27" s="212"/>
       <c r="C27" s="207" t="s">
         <v>8</v>
@@ -30753,7 +30766,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="283"/>
+      <c r="A28" s="288"/>
       <c r="B28" s="213"/>
       <c r="C28" s="208" t="s">
         <v>9</v>
@@ -30783,10 +30796,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="204"/>
-      <c r="B29" s="308" t="s">
+      <c r="B29" s="305" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="302"/>
+      <c r="C29" s="313"/>
       <c r="D29" s="205">
         <f t="shared" ref="D29:Q29" si="7">SUM(D5,D9,D25,D21,D17,D13)</f>
         <v>11</v>
@@ -31068,13 +31081,13 @@
       <c r="R33" s="42"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="301" t="s">
+      <c r="B35" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="308"/>
+      <c r="C35" s="305"/>
       <c r="D35" s="186">
         <f>D30</f>
         <v>5</v>
@@ -31134,11 +31147,11 @@
       <c r="R35" s="38"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="218"/>
-      <c r="B36" s="279" t="s">
+      <c r="A36" s="226"/>
+      <c r="B36" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="309"/>
+      <c r="C36" s="306"/>
       <c r="D36" s="103">
         <f>D31</f>
         <v>3</v>
@@ -31198,11 +31211,11 @@
       <c r="R36" s="38"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="218"/>
-      <c r="B37" s="279" t="s">
+      <c r="A37" s="226"/>
+      <c r="B37" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="309"/>
+      <c r="C37" s="306"/>
       <c r="D37" s="103">
         <f>D32</f>
         <v>3</v>
@@ -31262,11 +31275,11 @@
       <c r="R37" s="38"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="227"/>
-      <c r="B38" s="303" t="s">
+      <c r="A38" s="233"/>
+      <c r="B38" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="310"/>
+      <c r="C38" s="308"/>
       <c r="D38" s="189">
         <f>D29</f>
         <v>11</v>
@@ -31340,13 +31353,13 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="253" t="s">
+      <c r="A41" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="306" t="s">
+      <c r="B41" s="316" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="302"/>
+      <c r="C41" s="313"/>
       <c r="D41" s="26">
         <f xml:space="preserve"> SUM(D30:J30)</f>
         <v>7</v>
@@ -31361,11 +31374,11 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="254"/>
-      <c r="B42" s="258" t="s">
+      <c r="A42" s="261"/>
+      <c r="B42" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="259"/>
+      <c r="C42" s="252"/>
       <c r="D42" s="26">
         <f xml:space="preserve"> SUM(D31:J31)</f>
         <v>24.75</v>
@@ -31380,11 +31393,11 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="254"/>
-      <c r="B43" s="305" t="s">
+      <c r="A43" s="261"/>
+      <c r="B43" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="300"/>
+      <c r="C43" s="312"/>
       <c r="D43" s="26">
         <f xml:space="preserve"> SUM(D32:J32)</f>
         <v>9</v>
@@ -31402,11 +31415,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="255"/>
-      <c r="B44" s="303" t="s">
+      <c r="A44" s="262"/>
+      <c r="B44" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="304"/>
+      <c r="C44" s="314"/>
       <c r="D44" s="26">
         <f xml:space="preserve"> SUM(D29:J29)</f>
         <v>40.75</v>
@@ -31421,13 +31434,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="266" t="s">
+      <c r="A46" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="301" t="s">
+      <c r="B46" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="302"/>
+      <c r="C46" s="313"/>
       <c r="D46" s="31">
         <f xml:space="preserve"> D41</f>
         <v>7</v>
@@ -31438,11 +31451,11 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="266"/>
-      <c r="B47" s="279" t="s">
+      <c r="A47" s="248"/>
+      <c r="B47" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="259"/>
+      <c r="C47" s="252"/>
       <c r="D47" s="31">
         <f xml:space="preserve"> D42</f>
         <v>24.75</v>
@@ -31453,11 +31466,11 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="266"/>
-      <c r="B48" s="280" t="s">
+      <c r="A48" s="248"/>
+      <c r="B48" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="300"/>
+      <c r="C48" s="312"/>
       <c r="D48" s="31">
         <f xml:space="preserve"> D43</f>
         <v>9</v>
@@ -31468,11 +31481,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="266"/>
-      <c r="B49" s="298" t="s">
+      <c r="A49" s="248"/>
+      <c r="B49" s="310" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="299"/>
+      <c r="C49" s="311"/>
       <c r="D49" s="31">
         <f xml:space="preserve"> D44</f>
         <v>40.75</v>
@@ -31487,6 +31500,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="B29:C29"/>
@@ -31502,19 +31525,1887 @@
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" style="122" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="204"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="317" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="317" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="317" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="318"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="201">
+        <v>42101</v>
+      </c>
+      <c r="E2" s="201">
+        <v>42102</v>
+      </c>
+      <c r="F2" s="201">
+        <v>42103</v>
+      </c>
+      <c r="G2" s="201">
+        <v>42104</v>
+      </c>
+      <c r="H2" s="201">
+        <v>42105</v>
+      </c>
+      <c r="I2" s="201">
+        <v>42106</v>
+      </c>
+      <c r="J2" s="201">
+        <v>42107</v>
+      </c>
+      <c r="K2" s="201">
+        <v>42108</v>
+      </c>
+      <c r="L2" s="201">
+        <v>42109</v>
+      </c>
+      <c r="M2" s="201">
+        <v>42110</v>
+      </c>
+      <c r="N2" s="201">
+        <v>42111</v>
+      </c>
+      <c r="O2" s="201">
+        <v>42112</v>
+      </c>
+      <c r="P2" s="201">
+        <v>42113</v>
+      </c>
+      <c r="Q2" s="201">
+        <v>42114</v>
+      </c>
+      <c r="R2" s="201">
+        <v>42115</v>
+      </c>
+      <c r="S2" s="201">
+        <v>42116</v>
+      </c>
+      <c r="T2" s="201">
+        <v>42117</v>
+      </c>
+      <c r="U2" s="201">
+        <v>42118</v>
+      </c>
+      <c r="V2" s="201">
+        <v>42119</v>
+      </c>
+      <c r="W2" s="201">
+        <v>42120</v>
+      </c>
+      <c r="X2" s="201">
+        <v>42121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="157">
+        <v>1</v>
+      </c>
+      <c r="E3" s="157">
+        <v>2</v>
+      </c>
+      <c r="F3" s="157">
+        <v>3</v>
+      </c>
+      <c r="G3" s="157">
+        <v>4</v>
+      </c>
+      <c r="H3" s="157">
+        <v>5</v>
+      </c>
+      <c r="I3" s="157">
+        <v>6</v>
+      </c>
+      <c r="J3" s="157">
+        <v>7</v>
+      </c>
+      <c r="K3" s="157">
+        <v>8</v>
+      </c>
+      <c r="L3" s="157">
+        <v>9</v>
+      </c>
+      <c r="M3" s="157">
+        <v>10</v>
+      </c>
+      <c r="N3" s="157">
+        <v>11</v>
+      </c>
+      <c r="O3" s="157">
+        <v>12</v>
+      </c>
+      <c r="P3" s="157">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="157">
+        <v>14</v>
+      </c>
+      <c r="R3" s="157">
+        <v>15</v>
+      </c>
+      <c r="S3" s="157">
+        <v>16</v>
+      </c>
+      <c r="T3" s="157">
+        <v>17</v>
+      </c>
+      <c r="U3" s="157">
+        <v>18</v>
+      </c>
+      <c r="V3" s="157">
+        <v>19</v>
+      </c>
+      <c r="W3" s="157">
+        <v>20</v>
+      </c>
+      <c r="X3" s="157">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="204"/>
+      <c r="B4" s="325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="330" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="326" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="319" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="206" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="155">
+        <f t="shared" ref="D5:Q5" si="0">SUM(D6:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="155">
+        <f t="shared" ref="R5:X5" si="1">SUM(R6:R8)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="164">
+        <f>SUM(K5:X5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="327"/>
+      <c r="B6" s="320"/>
+      <c r="C6" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="331">
+        <f t="shared" ref="Y6:Y28" si="2">SUM(K6:X6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="327"/>
+      <c r="B7" s="320"/>
+      <c r="C7" s="214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="327"/>
+      <c r="B8" s="321"/>
+      <c r="C8" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="332">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="327"/>
+      <c r="B9" s="319" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="206" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="155">
+        <f t="shared" ref="D9:Q9" si="3">SUM(D10:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="155">
+        <f t="shared" ref="R9:X9" si="4">SUM(R10:R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="327"/>
+      <c r="B10" s="320"/>
+      <c r="C10" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="327"/>
+      <c r="B11" s="320"/>
+      <c r="C11" s="214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="327"/>
+      <c r="B12" s="321"/>
+      <c r="C12" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="332">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="327"/>
+      <c r="B13" s="322" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="155">
+        <f t="shared" ref="D13:Q13" si="5">SUM(D14:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="155">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="R13" s="155">
+        <f t="shared" ref="R13:X13" si="6">SUM(R14:R16)</f>
+        <v>2</v>
+      </c>
+      <c r="S13" s="155">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="155">
+        <f t="shared" si="6"/>
+        <v>9.25</v>
+      </c>
+      <c r="U13" s="155">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="155">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="155">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="155">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="164">
+        <f t="shared" si="2"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="327"/>
+      <c r="B14" s="323"/>
+      <c r="C14" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="327"/>
+      <c r="B15" s="323"/>
+      <c r="C15" s="214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="327"/>
+      <c r="B16" s="324"/>
+      <c r="C16" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116">
+        <v>8</v>
+      </c>
+      <c r="R16" s="116">
+        <v>2</v>
+      </c>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116">
+        <v>9.25</v>
+      </c>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116">
+        <v>1</v>
+      </c>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="332">
+        <f t="shared" si="2"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="327"/>
+      <c r="B17" s="319">
+        <v>39</v>
+      </c>
+      <c r="C17" s="206" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="155">
+        <f t="shared" ref="D17:Q17" si="7">SUM(D18:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="155">
+        <f t="shared" ref="R17:X17" si="8">SUM(R18:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="155">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="U17" s="155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="155">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W17" s="155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="164">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="327"/>
+      <c r="B18" s="320"/>
+      <c r="C18" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="327"/>
+      <c r="B19" s="320"/>
+      <c r="C19" s="214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="327"/>
+      <c r="B20" s="321"/>
+      <c r="C20" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116">
+        <v>8</v>
+      </c>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116">
+        <v>4</v>
+      </c>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="332">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="327"/>
+      <c r="B21" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="206" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="155">
+        <f t="shared" ref="D21:Q21" si="9">SUM(D22:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="155">
+        <f t="shared" ref="R21:X21" si="10">SUM(R22:R24)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="155">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="155">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="155">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="155">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="155">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="155">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="327"/>
+      <c r="B22" s="320"/>
+      <c r="C22" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="327"/>
+      <c r="B23" s="320"/>
+      <c r="C23" s="214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="327"/>
+      <c r="B24" s="321"/>
+      <c r="C24" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="332">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="327"/>
+      <c r="B25" s="322" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="209" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="155">
+        <f t="shared" ref="D25:Q25" si="11">SUM(D26:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="155">
+        <f t="shared" ref="R25:X25" si="12">SUM(R26:R28)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="327"/>
+      <c r="B26" s="323"/>
+      <c r="C26" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="327"/>
+      <c r="B27" s="323"/>
+      <c r="C27" s="214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="331">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="327"/>
+      <c r="B28" s="324"/>
+      <c r="C28" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="332">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="327"/>
+      <c r="B29" s="322">
+        <v>40</v>
+      </c>
+      <c r="C29" s="210" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="155">
+        <f t="shared" ref="D29:Q29" si="13">SUM(D30:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="155">
+        <f t="shared" ref="R29:X29" si="14">SUM(R30:R32)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="205">
+        <f>SUM(Y5,Y9,Y25,Y21,Y17,Y13)</f>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="327"/>
+      <c r="B30" s="323"/>
+      <c r="C30" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="185">
+        <f>SUM(Y6,Y10,Y26,Y22,Y18,Y14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="327"/>
+      <c r="B31" s="323"/>
+      <c r="C31" s="214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="167">
+        <f t="shared" ref="Y31:Y32" si="15">SUM(Y7,Y11,Y27,Y23,Y19,Y15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="327"/>
+      <c r="B32" s="324"/>
+      <c r="C32" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="168">
+        <f t="shared" si="15"/>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="327"/>
+      <c r="B33" s="322">
+        <v>41</v>
+      </c>
+      <c r="C33" s="206" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="155">
+        <f t="shared" ref="D33:Q33" si="16">SUM(D34:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="155">
+        <f t="shared" ref="R33:X33" si="17">SUM(R34:R36)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="42"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="327"/>
+      <c r="B34" s="323"/>
+      <c r="C34" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="327"/>
+      <c r="B35" s="323"/>
+      <c r="C35" s="214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="333"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="327"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="116"/>
+      <c r="V36" s="116"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="116"/>
+      <c r="Y36" s="333"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="328"/>
+      <c r="B37" s="305" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="305"/>
+      <c r="D37" s="329">
+        <f t="shared" ref="D37:R37" si="18">SUM(D5,D9,D13,D17, D21, D25, D29, D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="329">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="329">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="R37" s="329">
+        <f t="shared" ref="R37:X37" si="19">SUM(R5,R9,R13,R17, R21, R25, R29, R33)</f>
+        <v>2</v>
+      </c>
+      <c r="S37" s="329">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="329">
+        <f t="shared" si="19"/>
+        <v>17.25</v>
+      </c>
+      <c r="U37" s="329">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="329">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="W37" s="329">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="329">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="333"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y38" s="334"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="A5:A36"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>